--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="861" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="900" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="861" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="16" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="116">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>Births</t>
+  </si>
+  <si>
+    <t>Aging</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -783,6 +786,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -858,12 +863,13 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="113">
     <cellStyle name="Comma 2" xfId="4"/>
     <cellStyle name="Comma 3" xfId="2"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="15"/>
     <cellStyle name="Followed Hyperlink 11" xfId="16"/>
     <cellStyle name="Followed Hyperlink 12" xfId="17"/>
@@ -964,6 +970,7 @@
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5"/>
     <cellStyle name="Normal 3" xfId="6"/>
@@ -2829,10 +2836,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -3033,52 +3040,77 @@
     </row>
     <row r="31" spans="1:4" ht="13.5" customHeight="1">
       <c r="B31" s="7" t="str">
+        <f>Populations!$C$4</f>
+        <v>F 15-49</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="35" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="13.5" customHeight="1">
+      <c r="C36" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" ht="13.5" customHeight="1">
-      <c r="B32" s="7" t="str">
+      <c r="D36" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="36" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="13.5" customHeight="1">
-      <c r="C37" s="7" t="str">
+      <c r="B37" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="D37" s="7" t="str">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" ht="13.5" customHeight="1">
+      <c r="B38" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="13.5" customHeight="1">
-      <c r="B38" s="7" t="str">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="42" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" ht="13.5" customHeight="1">
+      <c r="C43" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" ht="13.5" customHeight="1">
-      <c r="B39" s="7" t="str">
+      <c r="D43" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+    </row>
+    <row r="44" spans="1:4" ht="13.5" customHeight="1">
+      <c r="B44" s="7" t="str">
+        <f>Populations!$C$3</f>
+        <v>M 15-49</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" ht="13.5" customHeight="1">
+      <c r="B45" s="7" t="str">
+        <f>Populations!$C$4</f>
+        <v>F 15-49</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="861" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="900" yWindow="0" windowWidth="25605" windowHeight="14715" tabRatio="861" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="16" r:id="rId1"/>
@@ -12,20 +12,15 @@
     <sheet name="Population size" sheetId="4" r:id="rId3"/>
     <sheet name="HIV prevalence" sheetId="15" r:id="rId4"/>
     <sheet name="Other epidemiology" sheetId="6" r:id="rId5"/>
-    <sheet name="Optional indicators" sheetId="5" r:id="rId6"/>
-    <sheet name="Cascade" sheetId="17" r:id="rId7"/>
+    <sheet name="Cascade" sheetId="18" r:id="rId6"/>
+    <sheet name="Optional indicators" sheetId="5" r:id="rId7"/>
     <sheet name="Testing &amp; treatment" sheetId="7" r:id="rId8"/>
     <sheet name="Sexual behavior" sheetId="8" r:id="rId9"/>
     <sheet name="Injecting behavior" sheetId="9" r:id="rId10"/>
     <sheet name="Partnerships &amp; transitions" sheetId="10" r:id="rId11"/>
     <sheet name="Constants" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -93,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI41" authorId="0">
+    <comment ref="Y41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +114,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AI31" authorId="0">
+    <comment ref="Y31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="119">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -435,9 +430,6 @@
     <t>Suppressive ART</t>
   </si>
   <si>
-    <t>Probability of viral suppression on ART</t>
-  </si>
-  <si>
     <t>CD4(350-500) to CD4(200-350)</t>
   </si>
   <si>
@@ -447,15 +439,9 @@
     <t>Linkage to care rate (%/year)</t>
   </si>
   <si>
-    <t>PLHIV lost to follow-up (%/year)</t>
-  </si>
-  <si>
     <t>Biological failure rate (%/year)</t>
   </si>
   <si>
-    <t>ART adherence to viral suppression achieved (%/year)</t>
-  </si>
-  <si>
     <t>Welcome to the Optima data entry spreadsheet. This is where all data for the model will be entered. Please ask someone from the Optima development team if you need help, or use the default contact (info@optimamodel.com).</t>
   </si>
   <si>
@@ -484,17 +470,36 @@
   </si>
   <si>
     <t>Aging</t>
+  </si>
+  <si>
+    <t>Viral suppression – ART initiators (%)</t>
+  </si>
+  <si>
+    <t>Viral load monitoring (number/year)</t>
+  </si>
+  <si>
+    <t>Rate of ART re-initiation (%/year)</t>
+  </si>
+  <si>
+    <t>PLHIV aware of their status (%)</t>
+  </si>
+  <si>
+    <t>Percentage of HIV-diagnosed people who are in care (%)</t>
+  </si>
+  <si>
+    <t>Proportion of people on ART with viral suppression (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -592,8 +597,29 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,6 +668,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF18C1FF"/>
+        <bgColor rgb="FF00B0F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC0CB"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -674,12 +712,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -788,8 +826,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -845,25 +884,35 @@
     <xf numFmtId="9" fontId="1" fillId="8" borderId="2" xfId="104" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="104"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="104" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="104" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="104" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="2" xfId="104" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="113"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="113" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="9" borderId="2" xfId="113" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="113" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="113" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="113" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="2" xfId="113" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="10" borderId="2" xfId="113" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="10" borderId="2" xfId="113" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="114">
     <cellStyle name="Comma 2" xfId="4"/>
     <cellStyle name="Comma 3" xfId="2"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
@@ -976,6 +1025,7 @@
     <cellStyle name="Normal 3" xfId="6"/>
     <cellStyle name="Normal 4" xfId="1"/>
     <cellStyle name="Normal 5" xfId="104"/>
+    <cellStyle name="Normal 6" xfId="113"/>
     <cellStyle name="Percent 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2234,34 +2284,34 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="37"/>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="37"/>
-    </row>
-    <row r="4" spans="1:1" ht="14">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32"/>
+    </row>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" ht="67.5" customHeight="1">
+    <row r="5" spans="1:1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="14">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" ht="14">
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>92</v>
       </c>
@@ -2281,23 +2331,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI20"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:AG1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="35" width="8.83203125" customWidth="1"/>
+    <col min="1" max="25" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="13.5" customHeight="1">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -2361,41 +2411,11 @@
       <c r="W2" s="5">
         <v>2020</v>
       </c>
-      <c r="X2" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC2" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD2" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE2" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF2" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG2" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="13.5" customHeight="1">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2421,24 +2441,14 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI3" s="6">
+      <c r="Y3" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="13.5" customHeight="1">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2464,32 +2474,22 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="11" t="s">
+      <c r="X4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="Y4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:35" ht="13.5" customHeight="1">
+    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="13.5" customHeight="1">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -2553,41 +2553,11 @@
       <c r="W9" s="5">
         <v>2020</v>
       </c>
-      <c r="X9" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA9" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB9" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC9" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF9" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG9" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI9" s="5" t="s">
+      <c r="Y9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="13.5" customHeight="1">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2613,24 +2583,14 @@
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="11" t="s">
+      <c r="X10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI10" s="15">
+      <c r="Y10" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="13.5" customHeight="1">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2656,32 +2616,22 @@
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="11" t="s">
+      <c r="X11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI11" s="15">
+      <c r="Y11" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:35" ht="13.5" customHeight="1">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="13.5" customHeight="1">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>2000</v>
       </c>
@@ -2745,41 +2695,11 @@
       <c r="W16" s="5">
         <v>2020</v>
       </c>
-      <c r="X16" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z16" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA16" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB16" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC16" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD16" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE16" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF16" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG16" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI16" s="5" t="s">
+      <c r="Y16" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:35" ht="13.5" customHeight="1">
+    <row r="17" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>14</v>
       </c>
@@ -2804,26 +2724,16 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="11" t="s">
+      <c r="X17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI17" s="6">
+      <c r="Y17" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:35" ht="13.5" customHeight="1"/>
-    <row r="19" spans="2:35" ht="13.5" customHeight="1"/>
-    <row r="20" spans="2:35" ht="13.5" customHeight="1"/>
+    <row r="18" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2838,25 +2748,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.5" customHeight="1">
+    <row r="1" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="13.5" customHeight="1">
+    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2866,7 +2776,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" customHeight="1">
+    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2876,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2884,26 +2794,26 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="13.5" customHeight="1">
+    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="13.5" customHeight="1">
+    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="13.5" customHeight="1">
+    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="13.5" customHeight="1">
+    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="13.5" customHeight="1">
+    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2913,7 +2823,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.5" customHeight="1">
+    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2923,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1">
+    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2931,26 +2841,26 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1">
+    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="13.5" customHeight="1">
+    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="13.5" customHeight="1">
+    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="13.5" customHeight="1">
+    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="13.5" customHeight="1">
+    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2960,7 +2870,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1">
+    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2968,7 +2878,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="13.5" customHeight="1">
+    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2976,26 +2886,26 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="13.5" customHeight="1">
+    <row r="19" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="13.5" customHeight="1">
+    <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="13.5" customHeight="1">
+    <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="13.5" customHeight="1">
+    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="13.5" customHeight="1">
+    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3005,7 +2915,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.5" customHeight="1">
+    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3013,7 +2923,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="13.5" customHeight="1">
+    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3021,14 +2931,14 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="29" spans="1:4" ht="13.5" customHeight="1">
+    <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="13.5" customHeight="1">
+    <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3038,7 +2948,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="13.5" customHeight="1">
+    <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3046,14 +2956,14 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="35" spans="1:4" ht="13.5" customHeight="1">
+    <row r="35" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" ht="13.5" customHeight="1">
+    <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3063,7 +2973,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13.5" customHeight="1">
+    <row r="37" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3071,7 +2981,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" ht="13.5" customHeight="1">
+    <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3079,14 +2989,14 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="42" spans="1:4" ht="13.5" customHeight="1">
+    <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="13.5" customHeight="1">
+    <row r="43" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3096,7 +3006,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="13.5" customHeight="1">
+    <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3104,7 +3014,7 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" ht="13.5" customHeight="1">
+    <row r="45" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3125,20 +3035,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="6" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" customHeight="1">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>49</v>
       </c>
@@ -3147,7 +3057,7 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="27" t="s">
@@ -3160,7 +3070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="26" t="s">
         <v>50</v>
@@ -3175,7 +3085,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="26" t="s">
         <v>51</v>
@@ -3190,7 +3100,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="26" t="s">
         <v>52</v>
@@ -3205,7 +3115,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="26" t="s">
         <v>53</v>
@@ -3220,7 +3130,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="26" t="s">
         <v>54</v>
@@ -3235,7 +3145,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="26" t="s">
         <v>55</v>
@@ -3250,7 +3160,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="26" t="s">
         <v>56</v>
@@ -3265,16 +3175,16 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="13.5" customHeight="1">
+    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="13.5" customHeight="1">
+    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="13.5" customHeight="1">
+    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>57</v>
       </c>
@@ -3283,7 +3193,7 @@
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:5" ht="13.5" customHeight="1">
+    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="27" t="s">
@@ -3296,7 +3206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.5" customHeight="1">
+    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="26" t="s">
         <v>58</v>
@@ -3311,7 +3221,7 @@
         <v>48.02</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.5" customHeight="1">
+    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="26" t="s">
         <v>59</v>
@@ -3326,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.5" customHeight="1">
+    <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="26" t="s">
         <v>60</v>
@@ -3341,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.5" customHeight="1">
+    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="26" t="s">
         <v>61</v>
@@ -3356,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13.5" customHeight="1">
+    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="26" t="s">
         <v>62</v>
@@ -3371,7 +3281,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.5" customHeight="1">
+    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="26" t="s">
         <v>63</v>
@@ -3386,16 +3296,16 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13.5" customHeight="1">
+    <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="13.5" customHeight="1">
+    <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="13.5" customHeight="1">
+    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="13.5" customHeight="1">
+    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>64</v>
       </c>
@@ -3404,7 +3314,7 @@
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" ht="13.5" customHeight="1">
+    <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="27" t="s">
@@ -3417,7 +3327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="13.5" customHeight="1">
+    <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="26" t="s">
         <v>65</v>
@@ -3432,7 +3342,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="13.5" customHeight="1">
+    <row r="27" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="26" t="s">
         <v>60</v>
@@ -3447,10 +3357,10 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="13.5" customHeight="1">
+    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="30">
         <v>0.33</v>
@@ -3462,7 +3372,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="13.5" customHeight="1">
+    <row r="29" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="26" t="s">
         <v>66</v>
@@ -3477,7 +3387,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="13.5" customHeight="1">
+    <row r="30" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="26" t="s">
         <v>67</v>
@@ -3492,16 +3402,16 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="13.5" customHeight="1">
+    <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="13.5" customHeight="1">
+    <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="13.5" customHeight="1">
+    <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="13.5" customHeight="1">
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>68</v>
       </c>
@@ -3510,7 +3420,7 @@
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
     </row>
-    <row r="35" spans="1:5" ht="13.5" customHeight="1">
+    <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="27" t="s">
@@ -3523,7 +3433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="13.5" customHeight="1">
+    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="26" t="s">
         <v>69</v>
@@ -3538,7 +3448,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="13.5" customHeight="1">
+    <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="26" t="s">
         <v>70</v>
@@ -3553,7 +3463,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="13.5" customHeight="1">
+    <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="26" t="s">
         <v>71</v>
@@ -3568,7 +3478,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="13.5" customHeight="1">
+    <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="26" t="s">
         <v>72</v>
@@ -3583,16 +3493,16 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="13.5" customHeight="1">
+    <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="13.5" customHeight="1">
+    <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="13.5" customHeight="1">
+    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="13.5" customHeight="1">
+    <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>73</v>
       </c>
@@ -3601,7 +3511,7 @@
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
     </row>
-    <row r="44" spans="1:5" ht="13.5" customHeight="1">
+    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="24"/>
       <c r="C44" s="27" t="s">
@@ -3614,7 +3524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="13.5" customHeight="1">
+    <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="26" t="s">
         <v>58</v>
@@ -3629,7 +3539,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="13.5" customHeight="1">
+    <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="26" t="s">
         <v>59</v>
@@ -3644,7 +3554,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="13.5" customHeight="1">
+    <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="26" t="s">
         <v>74</v>
@@ -3659,7 +3569,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="13.5" customHeight="1">
+    <row r="48" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="26" t="s">
         <v>61</v>
@@ -3674,7 +3584,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1">
+    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="26" t="s">
         <v>62</v>
@@ -3689,7 +3599,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="13.5" customHeight="1">
+    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="26" t="s">
         <v>63</v>
@@ -3704,7 +3614,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="13.5" customHeight="1">
+    <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="26" t="s">
         <v>75</v>
@@ -3719,7 +3629,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="13.5" customHeight="1">
+    <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="26" t="s">
         <v>76</v>
@@ -3734,25 +3644,25 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="13.5" customHeight="1">
+    <row r="53" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="13.5" customHeight="1">
+    <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="13.5" customHeight="1">
+    <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:9" ht="13.5" customHeight="1">
+    <row r="56" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
     </row>
-    <row r="57" spans="1:9" ht="13.5" customHeight="1">
+    <row r="57" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
       <c r="C57" s="27" t="s">
@@ -3765,7 +3675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="13.5" customHeight="1">
+    <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="26" t="s">
         <v>77</v>
@@ -3783,7 +3693,7 @@
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" ht="13.5" customHeight="1">
+    <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="26" t="s">
         <v>78</v>
@@ -3801,7 +3711,7 @@
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:9" ht="13.5" customHeight="1">
+    <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="26" t="s">
         <v>79</v>
@@ -3819,7 +3729,7 @@
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="1:9" ht="13.5" customHeight="1">
+    <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="26" t="s">
         <v>94</v>
@@ -3837,7 +3747,7 @@
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="1:9" ht="13.5" customHeight="1">
+    <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="26" t="s">
         <v>80</v>
@@ -3855,7 +3765,7 @@
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
     </row>
-    <row r="63" spans="1:9" ht="13.5" customHeight="1">
+    <row r="63" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="26" t="s">
         <v>81</v>
@@ -3873,7 +3783,7 @@
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
     </row>
-    <row r="64" spans="1:9" ht="13.5" customHeight="1">
+    <row r="64" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="26" t="s">
         <v>82</v>
@@ -3891,7 +3801,7 @@
       <c r="H64" s="23"/>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="1:9" ht="13.5" customHeight="1">
+    <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="26" t="s">
         <v>97</v>
@@ -3909,7 +3819,7 @@
       <c r="H65" s="23"/>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="1:9" ht="13.5" customHeight="1">
+    <row r="66" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="26" t="s">
         <v>98</v>
@@ -3924,150 +3834,135 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A67" s="24"/>
-      <c r="B67" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="D67" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="E67" s="30">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:9" ht="13.5" customHeight="1"/>
-    <row r="70" spans="1:9" ht="13.5" customHeight="1"/>
-    <row r="71" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A71" s="25" t="s">
+    <row r="67" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
         <v>83</v>
       </c>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+    </row>
+    <row r="71" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
       <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-    </row>
-    <row r="72" spans="1:9" ht="13.5" customHeight="1">
+      <c r="C71" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B72" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="29">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D72" s="29">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E72" s="29">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
       <c r="B73" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C73" s="29">
-        <v>0.14599999999999999</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D73" s="29">
-        <v>9.6000000000000002E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E73" s="29">
-        <v>0.20499999999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="13.5" customHeight="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="24"/>
       <c r="B74" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C74" s="29">
-        <v>8.0000000000000002E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D74" s="29">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E74" s="29">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="13.5" customHeight="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="24"/>
       <c r="B75" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C75" s="29">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D75" s="29">
-        <v>1.2999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E75" s="29">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="13.5" customHeight="1">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="24"/>
       <c r="B76" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C76" s="29">
-        <v>7.0000000000000007E-2</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="D76" s="29">
-        <v>4.8000000000000001E-2</v>
+        <v>0.114</v>
       </c>
       <c r="E76" s="29">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="13.5" customHeight="1">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="24"/>
       <c r="B77" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C77" s="29">
-        <v>0.26500000000000001</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D77" s="29">
-        <v>0.114</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="E77" s="29">
-        <v>0.47399999999999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="24"/>
       <c r="B78" s="26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C78" s="29">
-        <v>0.54700000000000004</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D78" s="29">
-        <v>0.38200000000000001</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E78" s="29">
-        <v>0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1">
-      <c r="A79" s="24"/>
-      <c r="B79" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C79" s="29">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="D79" s="29">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="E79" s="29">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
@@ -4090,16 +3985,16 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" customHeight="1">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4107,7 +4002,7 @@
       <c r="D1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="13.5" customHeight="1">
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
@@ -4121,19 +4016,19 @@
         <v>5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -4162,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -4191,47 +4086,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1">
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="13.5" customHeight="1">
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="13.5" customHeight="1">
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="13.5" customHeight="1">
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1">
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="13.5" customHeight="1">
+    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="13.5" customHeight="1">
+    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="13.5" customHeight="1">
+    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="G13" s="3"/>
@@ -4248,23 +4143,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="36" width="8.83203125" customWidth="1"/>
+    <col min="1" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="13.5" customHeight="1">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="13.5" customHeight="1">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="5">
         <v>2000</v>
       </c>
@@ -4328,41 +4223,11 @@
       <c r="X2" s="5">
         <v>2020</v>
       </c>
-      <c r="Y2" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>2022</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AC2" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AD2" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AE2" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AF2" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AG2" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AH2" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="13.5" customHeight="1">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4391,22 +4256,12 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
-      <c r="Y3" s="12"/>
+      <c r="Y3" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ3" s="12"/>
-    </row>
-    <row r="4" spans="1:36" ht="13.5" customHeight="1">
+    </row>
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4443,22 +4298,12 @@
         <f>N4*1.02^10</f>
         <v>860068.94786402199</v>
       </c>
-      <c r="Y4" s="12"/>
+      <c r="Y4" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ4" s="12"/>
-    </row>
-    <row r="5" spans="1:36" ht="13.5" customHeight="1">
+    </row>
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4487,23 +4332,13 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
-      <c r="Y5" s="12"/>
+      <c r="Y5" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ5" s="12"/>
-    </row>
-    <row r="6" spans="1:36" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:36" ht="13.5" customHeight="1">
+    </row>
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4532,22 +4367,12 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
+      <c r="Y7" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ7" s="12"/>
-    </row>
-    <row r="8" spans="1:36" ht="13.5" customHeight="1">
+    </row>
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4584,22 +4409,12 @@
         <f>N8*1.02^10</f>
         <v>1025529.8311673861</v>
       </c>
-      <c r="Y8" s="12"/>
+      <c r="Y8" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ8" s="12"/>
-    </row>
-    <row r="9" spans="1:36" ht="13.5" customHeight="1">
+    </row>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4628,22 +4443,12 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
+      <c r="Y9" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ9" s="12"/>
-    </row>
-    <row r="10" spans="1:36" ht="13.5" customHeight="1"/>
+    </row>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4657,23 +4462,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="36" width="8.83203125" customWidth="1"/>
+    <col min="1" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="13.5" customHeight="1">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="13.5" customHeight="1">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="7">
         <v>2000</v>
       </c>
@@ -4737,41 +4542,11 @@
       <c r="X2" s="7">
         <v>2020</v>
       </c>
-      <c r="Y2" s="7">
-        <v>2021</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>2022</v>
-      </c>
-      <c r="AA2" s="7">
-        <v>2023</v>
-      </c>
-      <c r="AB2" s="7">
-        <v>2024</v>
-      </c>
-      <c r="AC2" s="7">
-        <v>2025</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>2026</v>
-      </c>
-      <c r="AE2" s="7">
-        <v>2027</v>
-      </c>
-      <c r="AF2" s="7">
-        <v>2028</v>
-      </c>
-      <c r="AG2" s="7">
-        <v>2029</v>
-      </c>
-      <c r="AH2" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="13.5" customHeight="1">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4800,22 +4575,12 @@
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
+      <c r="Y3" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ3" s="10"/>
-    </row>
-    <row r="4" spans="1:36" ht="13.5" customHeight="1">
+    </row>
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4850,22 +4615,12 @@
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="11" t="s">
+      <c r="Y4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AJ4" s="14"/>
-    </row>
-    <row r="5" spans="1:36" ht="13.5" customHeight="1">
+      <c r="Z4" s="14"/>
+    </row>
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4894,23 +4649,13 @@
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
+      <c r="Y5" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ5" s="10"/>
-    </row>
-    <row r="6" spans="1:36" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:36" ht="13.5" customHeight="1">
+    </row>
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4939,22 +4684,12 @@
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
+      <c r="Y7" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ7" s="10"/>
-    </row>
-    <row r="8" spans="1:36" ht="13.5" customHeight="1">
+    </row>
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4989,22 +4724,12 @@
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
+      <c r="Y8" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ8" s="10"/>
-    </row>
-    <row r="9" spans="1:36" ht="13.5" customHeight="1">
+    </row>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5033,20 +4758,10 @@
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
+      <c r="Y9" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5062,23 +4777,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:AG11"/>
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="35" width="8.83203125" customWidth="1"/>
+    <col min="1" max="25" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="13.5" customHeight="1">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -5142,41 +4857,11 @@
       <c r="W2" s="5">
         <v>2020</v>
       </c>
-      <c r="X2" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC2" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD2" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE2" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF2" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG2" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="13.5" customHeight="1">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5206,22 +4891,12 @@
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="X3" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI3" s="10"/>
-    </row>
-    <row r="4" spans="1:35" ht="13.5" customHeight="1">
+    </row>
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5251,30 +4926,20 @@
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
+      <c r="X4" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI4" s="10"/>
-    </row>
-    <row r="5" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:35" ht="13.5" customHeight="1">
+    </row>
+    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="13.5" customHeight="1">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -5338,41 +5003,11 @@
       <c r="W9" s="5">
         <v>2020</v>
       </c>
-      <c r="X9" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA9" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB9" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC9" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF9" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG9" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI9" s="5" t="s">
+      <c r="Y9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="13.5" customHeight="1">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5398,24 +5033,14 @@
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="11" t="s">
+      <c r="X10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI10" s="10">
+      <c r="Y10" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="13.5" customHeight="1">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5441,32 +5066,22 @@
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="11" t="s">
+      <c r="X11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI11" s="10">
+      <c r="Y11" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:35" ht="13.5" customHeight="1">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="13.5" customHeight="1">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>2000</v>
       </c>
@@ -5530,41 +5145,11 @@
       <c r="W16" s="5">
         <v>2020</v>
       </c>
-      <c r="X16" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z16" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA16" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB16" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC16" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD16" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE16" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF16" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG16" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI16" s="5" t="s">
+      <c r="Y16" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:35" ht="13.5" customHeight="1">
+    <row r="17" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5592,22 +5177,12 @@
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
+      <c r="X17" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI17" s="10"/>
-    </row>
-    <row r="18" spans="2:35" ht="13.5" customHeight="1">
+    </row>
+    <row r="18" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5635,20 +5210,10 @@
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
+      <c r="X18" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI18" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5664,23 +5229,1633 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI39"/>
+  <dimension ref="A1:Y67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+    </row>
+    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="37">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="37">
+        <v>2001</v>
+      </c>
+      <c r="E2" s="37">
+        <v>2002</v>
+      </c>
+      <c r="F2" s="37">
+        <v>2003</v>
+      </c>
+      <c r="G2" s="37">
+        <v>2004</v>
+      </c>
+      <c r="H2" s="37">
+        <v>2005</v>
+      </c>
+      <c r="I2" s="37">
+        <v>2006</v>
+      </c>
+      <c r="J2" s="37">
+        <v>2007</v>
+      </c>
+      <c r="K2" s="37">
+        <v>2008</v>
+      </c>
+      <c r="L2" s="37">
+        <v>2009</v>
+      </c>
+      <c r="M2" s="37">
+        <v>2010</v>
+      </c>
+      <c r="N2" s="37">
+        <v>2011</v>
+      </c>
+      <c r="O2" s="37">
+        <v>2012</v>
+      </c>
+      <c r="P2" s="37">
+        <v>2013</v>
+      </c>
+      <c r="Q2" s="37">
+        <v>2014</v>
+      </c>
+      <c r="R2" s="37">
+        <v>2015</v>
+      </c>
+      <c r="S2" s="37">
+        <v>2016</v>
+      </c>
+      <c r="T2" s="37">
+        <v>2017</v>
+      </c>
+      <c r="U2" s="37">
+        <v>2018</v>
+      </c>
+      <c r="V2" s="37">
+        <v>2019</v>
+      </c>
+      <c r="W2" s="37">
+        <v>2020</v>
+      </c>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+    </row>
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="37">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="37">
+        <v>2001</v>
+      </c>
+      <c r="E9" s="37">
+        <v>2002</v>
+      </c>
+      <c r="F9" s="37">
+        <v>2003</v>
+      </c>
+      <c r="G9" s="37">
+        <v>2004</v>
+      </c>
+      <c r="H9" s="37">
+        <v>2005</v>
+      </c>
+      <c r="I9" s="37">
+        <v>2006</v>
+      </c>
+      <c r="J9" s="37">
+        <v>2007</v>
+      </c>
+      <c r="K9" s="37">
+        <v>2008</v>
+      </c>
+      <c r="L9" s="37">
+        <v>2009</v>
+      </c>
+      <c r="M9" s="37">
+        <v>2010</v>
+      </c>
+      <c r="N9" s="37">
+        <v>2011</v>
+      </c>
+      <c r="O9" s="37">
+        <v>2012</v>
+      </c>
+      <c r="P9" s="37">
+        <v>2013</v>
+      </c>
+      <c r="Q9" s="37">
+        <v>2014</v>
+      </c>
+      <c r="R9" s="37">
+        <v>2015</v>
+      </c>
+      <c r="S9" s="37">
+        <v>2016</v>
+      </c>
+      <c r="T9" s="37">
+        <v>2017</v>
+      </c>
+      <c r="U9" s="37">
+        <v>2018</v>
+      </c>
+      <c r="V9" s="37">
+        <v>2019</v>
+      </c>
+      <c r="W9" s="37">
+        <v>2020</v>
+      </c>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y10" s="39">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="39">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+    </row>
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="37">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="37">
+        <v>2001</v>
+      </c>
+      <c r="E16" s="37">
+        <v>2002</v>
+      </c>
+      <c r="F16" s="37">
+        <v>2003</v>
+      </c>
+      <c r="G16" s="37">
+        <v>2004</v>
+      </c>
+      <c r="H16" s="37">
+        <v>2005</v>
+      </c>
+      <c r="I16" s="37">
+        <v>2006</v>
+      </c>
+      <c r="J16" s="37">
+        <v>2007</v>
+      </c>
+      <c r="K16" s="37">
+        <v>2008</v>
+      </c>
+      <c r="L16" s="37">
+        <v>2009</v>
+      </c>
+      <c r="M16" s="37">
+        <v>2010</v>
+      </c>
+      <c r="N16" s="37">
+        <v>2011</v>
+      </c>
+      <c r="O16" s="37">
+        <v>2012</v>
+      </c>
+      <c r="P16" s="37">
+        <v>2013</v>
+      </c>
+      <c r="Q16" s="37">
+        <v>2014</v>
+      </c>
+      <c r="R16" s="37">
+        <v>2015</v>
+      </c>
+      <c r="S16" s="37">
+        <v>2016</v>
+      </c>
+      <c r="T16" s="37">
+        <v>2017</v>
+      </c>
+      <c r="U16" s="37">
+        <v>2018</v>
+      </c>
+      <c r="V16" s="37">
+        <v>2019</v>
+      </c>
+      <c r="W16" s="37">
+        <v>2020</v>
+      </c>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="39">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y18" s="39">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+    </row>
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="37">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="37">
+        <v>2001</v>
+      </c>
+      <c r="E23" s="37">
+        <v>2002</v>
+      </c>
+      <c r="F23" s="37">
+        <v>2003</v>
+      </c>
+      <c r="G23" s="37">
+        <v>2004</v>
+      </c>
+      <c r="H23" s="37">
+        <v>2005</v>
+      </c>
+      <c r="I23" s="37">
+        <v>2006</v>
+      </c>
+      <c r="J23" s="37">
+        <v>2007</v>
+      </c>
+      <c r="K23" s="37">
+        <v>2008</v>
+      </c>
+      <c r="L23" s="37">
+        <v>2009</v>
+      </c>
+      <c r="M23" s="37">
+        <v>2010</v>
+      </c>
+      <c r="N23" s="37">
+        <v>2011</v>
+      </c>
+      <c r="O23" s="37">
+        <v>2012</v>
+      </c>
+      <c r="P23" s="37">
+        <v>2013</v>
+      </c>
+      <c r="Q23" s="37">
+        <v>2014</v>
+      </c>
+      <c r="R23" s="37">
+        <v>2015</v>
+      </c>
+      <c r="S23" s="37">
+        <v>2016</v>
+      </c>
+      <c r="T23" s="37">
+        <v>2017</v>
+      </c>
+      <c r="U23" s="37">
+        <v>2018</v>
+      </c>
+      <c r="V23" s="37">
+        <v>2019</v>
+      </c>
+      <c r="W23" s="37">
+        <v>2020</v>
+      </c>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y24" s="39">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y25" s="39">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+    </row>
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="37">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="37">
+        <v>2001</v>
+      </c>
+      <c r="E30" s="37">
+        <v>2002</v>
+      </c>
+      <c r="F30" s="37">
+        <v>2003</v>
+      </c>
+      <c r="G30" s="37">
+        <v>2004</v>
+      </c>
+      <c r="H30" s="37">
+        <v>2005</v>
+      </c>
+      <c r="I30" s="37">
+        <v>2006</v>
+      </c>
+      <c r="J30" s="37">
+        <v>2007</v>
+      </c>
+      <c r="K30" s="37">
+        <v>2008</v>
+      </c>
+      <c r="L30" s="37">
+        <v>2009</v>
+      </c>
+      <c r="M30" s="37">
+        <v>2010</v>
+      </c>
+      <c r="N30" s="37">
+        <v>2011</v>
+      </c>
+      <c r="O30" s="37">
+        <v>2012</v>
+      </c>
+      <c r="P30" s="37">
+        <v>2013</v>
+      </c>
+      <c r="Q30" s="37">
+        <v>2014</v>
+      </c>
+      <c r="R30" s="37">
+        <v>2015</v>
+      </c>
+      <c r="S30" s="37">
+        <v>2016</v>
+      </c>
+      <c r="T30" s="37">
+        <v>2017</v>
+      </c>
+      <c r="U30" s="37">
+        <v>2018</v>
+      </c>
+      <c r="V30" s="37">
+        <v>2019</v>
+      </c>
+      <c r="W30" s="37">
+        <v>2020</v>
+      </c>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y31" s="39">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33"/>
+    </row>
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="37">
+        <v>2000</v>
+      </c>
+      <c r="D36" s="37">
+        <v>2001</v>
+      </c>
+      <c r="E36" s="37">
+        <v>2002</v>
+      </c>
+      <c r="F36" s="37">
+        <v>2003</v>
+      </c>
+      <c r="G36" s="37">
+        <v>2004</v>
+      </c>
+      <c r="H36" s="37">
+        <v>2005</v>
+      </c>
+      <c r="I36" s="37">
+        <v>2006</v>
+      </c>
+      <c r="J36" s="37">
+        <v>2007</v>
+      </c>
+      <c r="K36" s="37">
+        <v>2008</v>
+      </c>
+      <c r="L36" s="37">
+        <v>2009</v>
+      </c>
+      <c r="M36" s="37">
+        <v>2010</v>
+      </c>
+      <c r="N36" s="37">
+        <v>2011</v>
+      </c>
+      <c r="O36" s="37">
+        <v>2012</v>
+      </c>
+      <c r="P36" s="37">
+        <v>2013</v>
+      </c>
+      <c r="Q36" s="37">
+        <v>2014</v>
+      </c>
+      <c r="R36" s="37">
+        <v>2015</v>
+      </c>
+      <c r="S36" s="37">
+        <v>2016</v>
+      </c>
+      <c r="T36" s="37">
+        <v>2017</v>
+      </c>
+      <c r="U36" s="37">
+        <v>2018</v>
+      </c>
+      <c r="V36" s="37">
+        <v>2019</v>
+      </c>
+      <c r="W36" s="37">
+        <v>2020</v>
+      </c>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y37" s="39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="33"/>
+    </row>
+    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="37">
+        <v>2000</v>
+      </c>
+      <c r="D42" s="37">
+        <v>2001</v>
+      </c>
+      <c r="E42" s="37">
+        <v>2002</v>
+      </c>
+      <c r="F42" s="37">
+        <v>2003</v>
+      </c>
+      <c r="G42" s="37">
+        <v>2004</v>
+      </c>
+      <c r="H42" s="37">
+        <v>2005</v>
+      </c>
+      <c r="I42" s="37">
+        <v>2006</v>
+      </c>
+      <c r="J42" s="37">
+        <v>2007</v>
+      </c>
+      <c r="K42" s="37">
+        <v>2008</v>
+      </c>
+      <c r="L42" s="37">
+        <v>2009</v>
+      </c>
+      <c r="M42" s="37">
+        <v>2010</v>
+      </c>
+      <c r="N42" s="37">
+        <v>2011</v>
+      </c>
+      <c r="O42" s="37">
+        <v>2012</v>
+      </c>
+      <c r="P42" s="37">
+        <v>2013</v>
+      </c>
+      <c r="Q42" s="37">
+        <v>2014</v>
+      </c>
+      <c r="R42" s="37">
+        <v>2015</v>
+      </c>
+      <c r="S42" s="37">
+        <v>2016</v>
+      </c>
+      <c r="T42" s="37">
+        <v>2017</v>
+      </c>
+      <c r="U42" s="37">
+        <v>2018</v>
+      </c>
+      <c r="V42" s="37">
+        <v>2019</v>
+      </c>
+      <c r="W42" s="37">
+        <v>2020</v>
+      </c>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
+      <c r="B43" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y43" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="33"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="33"/>
+    </row>
+    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="37">
+        <v>2000</v>
+      </c>
+      <c r="D48" s="37">
+        <v>2001</v>
+      </c>
+      <c r="E48" s="37">
+        <v>2002</v>
+      </c>
+      <c r="F48" s="37">
+        <v>2003</v>
+      </c>
+      <c r="G48" s="37">
+        <v>2004</v>
+      </c>
+      <c r="H48" s="37">
+        <v>2005</v>
+      </c>
+      <c r="I48" s="37">
+        <v>2006</v>
+      </c>
+      <c r="J48" s="37">
+        <v>2007</v>
+      </c>
+      <c r="K48" s="37">
+        <v>2008</v>
+      </c>
+      <c r="L48" s="37">
+        <v>2009</v>
+      </c>
+      <c r="M48" s="37">
+        <v>2010</v>
+      </c>
+      <c r="N48" s="37">
+        <v>2011</v>
+      </c>
+      <c r="O48" s="37">
+        <v>2012</v>
+      </c>
+      <c r="P48" s="37">
+        <v>2013</v>
+      </c>
+      <c r="Q48" s="37">
+        <v>2014</v>
+      </c>
+      <c r="R48" s="37">
+        <v>2015</v>
+      </c>
+      <c r="S48" s="37">
+        <v>2016</v>
+      </c>
+      <c r="T48" s="37">
+        <v>2017</v>
+      </c>
+      <c r="U48" s="37">
+        <v>2018</v>
+      </c>
+      <c r="V48" s="37">
+        <v>2019</v>
+      </c>
+      <c r="W48" s="37">
+        <v>2020</v>
+      </c>
+      <c r="X48" s="33"/>
+      <c r="Y48" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="33"/>
+      <c r="B49" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y49" s="39">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
+      <c r="V53" s="33"/>
+      <c r="W53" s="33"/>
+      <c r="X53" s="33"/>
+      <c r="Y53" s="33"/>
+    </row>
+    <row r="54" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="37">
+        <v>2000</v>
+      </c>
+      <c r="D54" s="37">
+        <v>2001</v>
+      </c>
+      <c r="E54" s="37">
+        <v>2002</v>
+      </c>
+      <c r="F54" s="37">
+        <v>2003</v>
+      </c>
+      <c r="G54" s="37">
+        <v>2004</v>
+      </c>
+      <c r="H54" s="37">
+        <v>2005</v>
+      </c>
+      <c r="I54" s="37">
+        <v>2006</v>
+      </c>
+      <c r="J54" s="37">
+        <v>2007</v>
+      </c>
+      <c r="K54" s="37">
+        <v>2008</v>
+      </c>
+      <c r="L54" s="37">
+        <v>2009</v>
+      </c>
+      <c r="M54" s="37">
+        <v>2010</v>
+      </c>
+      <c r="N54" s="37">
+        <v>2011</v>
+      </c>
+      <c r="O54" s="37">
+        <v>2012</v>
+      </c>
+      <c r="P54" s="37">
+        <v>2013</v>
+      </c>
+      <c r="Q54" s="37">
+        <v>2014</v>
+      </c>
+      <c r="R54" s="37">
+        <v>2015</v>
+      </c>
+      <c r="S54" s="37">
+        <v>2016</v>
+      </c>
+      <c r="T54" s="37">
+        <v>2017</v>
+      </c>
+      <c r="U54" s="37">
+        <v>2018</v>
+      </c>
+      <c r="V54" s="37">
+        <v>2019</v>
+      </c>
+      <c r="W54" s="37">
+        <v>2020</v>
+      </c>
+      <c r="X54" s="33"/>
+      <c r="Y54" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="33"/>
+      <c r="B55" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y55" s="39">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="33"/>
+      <c r="W59" s="33"/>
+      <c r="X59" s="33"/>
+      <c r="Y59" s="33"/>
+    </row>
+    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="37">
+        <v>2000</v>
+      </c>
+      <c r="D60" s="37">
+        <v>2001</v>
+      </c>
+      <c r="E60" s="37">
+        <v>2002</v>
+      </c>
+      <c r="F60" s="37">
+        <v>2003</v>
+      </c>
+      <c r="G60" s="37">
+        <v>2004</v>
+      </c>
+      <c r="H60" s="37">
+        <v>2005</v>
+      </c>
+      <c r="I60" s="37">
+        <v>2006</v>
+      </c>
+      <c r="J60" s="37">
+        <v>2007</v>
+      </c>
+      <c r="K60" s="37">
+        <v>2008</v>
+      </c>
+      <c r="L60" s="37">
+        <v>2009</v>
+      </c>
+      <c r="M60" s="37">
+        <v>2010</v>
+      </c>
+      <c r="N60" s="37">
+        <v>2011</v>
+      </c>
+      <c r="O60" s="37">
+        <v>2012</v>
+      </c>
+      <c r="P60" s="37">
+        <v>2013</v>
+      </c>
+      <c r="Q60" s="37">
+        <v>2014</v>
+      </c>
+      <c r="R60" s="37">
+        <v>2015</v>
+      </c>
+      <c r="S60" s="37">
+        <v>2016</v>
+      </c>
+      <c r="T60" s="37">
+        <v>2017</v>
+      </c>
+      <c r="U60" s="37">
+        <v>2018</v>
+      </c>
+      <c r="V60" s="37">
+        <v>2019</v>
+      </c>
+      <c r="W60" s="37">
+        <v>2020</v>
+      </c>
+      <c r="X60" s="33"/>
+      <c r="Y60" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="33"/>
+      <c r="B61" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="39"/>
+      <c r="W61" s="39"/>
+      <c r="X61" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y61" s="39">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="33"/>
+      <c r="U65" s="33"/>
+      <c r="V65" s="33"/>
+      <c r="W65" s="33"/>
+      <c r="X65" s="33"/>
+      <c r="Y65" s="33"/>
+    </row>
+    <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="37">
+        <v>2000</v>
+      </c>
+      <c r="D66" s="37">
+        <v>2001</v>
+      </c>
+      <c r="E66" s="37">
+        <v>2002</v>
+      </c>
+      <c r="F66" s="37">
+        <v>2003</v>
+      </c>
+      <c r="G66" s="37">
+        <v>2004</v>
+      </c>
+      <c r="H66" s="37">
+        <v>2005</v>
+      </c>
+      <c r="I66" s="37">
+        <v>2006</v>
+      </c>
+      <c r="J66" s="37">
+        <v>2007</v>
+      </c>
+      <c r="K66" s="37">
+        <v>2008</v>
+      </c>
+      <c r="L66" s="37">
+        <v>2009</v>
+      </c>
+      <c r="M66" s="37">
+        <v>2010</v>
+      </c>
+      <c r="N66" s="37">
+        <v>2011</v>
+      </c>
+      <c r="O66" s="37">
+        <v>2012</v>
+      </c>
+      <c r="P66" s="37">
+        <v>2013</v>
+      </c>
+      <c r="Q66" s="37">
+        <v>2014</v>
+      </c>
+      <c r="R66" s="37">
+        <v>2015</v>
+      </c>
+      <c r="S66" s="37">
+        <v>2016</v>
+      </c>
+      <c r="T66" s="37">
+        <v>2017</v>
+      </c>
+      <c r="U66" s="37">
+        <v>2018</v>
+      </c>
+      <c r="V66" s="37">
+        <v>2019</v>
+      </c>
+      <c r="W66" s="37">
+        <v>2020</v>
+      </c>
+      <c r="X66" s="33"/>
+      <c r="Y66" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="33"/>
+      <c r="B67" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="39"/>
+      <c r="X67" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y67" s="39">
+        <v>0.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="35" width="8.83203125" customWidth="1"/>
+    <col min="1" max="25" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="13.5" customHeight="1">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -5744,41 +6919,11 @@
       <c r="W2" s="5">
         <v>2020</v>
       </c>
-      <c r="X2" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC2" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD2" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE2" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF2" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG2" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="13.5" customHeight="1">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -5803,30 +6948,20 @@
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
+      <c r="X3" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI3" s="9"/>
-    </row>
-    <row r="4" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:35" ht="13.5" customHeight="1">
+    </row>
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="13.5" customHeight="1">
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
         <v>2000</v>
       </c>
@@ -5890,41 +7025,11 @@
       <c r="W8" s="5">
         <v>2020</v>
       </c>
-      <c r="X8" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z8" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA8" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB8" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC8" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD8" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE8" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF8" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG8" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI8" s="5" t="s">
+      <c r="Y8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="13.5" customHeight="1">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
@@ -5949,30 +7054,20 @@
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
+      <c r="X9" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI9" s="9"/>
-    </row>
-    <row r="10" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:35" ht="13.5" customHeight="1">
+    </row>
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1">
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="5">
         <v>2000</v>
       </c>
@@ -6036,41 +7131,11 @@
       <c r="W14" s="5">
         <v>2020</v>
       </c>
-      <c r="X14" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y14" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z14" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA14" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB14" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC14" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD14" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE14" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF14" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG14" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI14" s="5" t="s">
+      <c r="Y14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="13.5" customHeight="1">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
@@ -6095,30 +7160,20 @@
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
+      <c r="X15" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI15" s="9"/>
-    </row>
-    <row r="16" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="17" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="18" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="19" spans="1:35" ht="13.5" customHeight="1">
+    </row>
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="13.5" customHeight="1">
+    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="5">
         <v>2000</v>
       </c>
@@ -6182,41 +7237,11 @@
       <c r="W20" s="5">
         <v>2020</v>
       </c>
-      <c r="X20" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y20" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z20" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA20" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB20" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC20" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD20" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE20" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF20" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG20" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI20" s="5" t="s">
+      <c r="Y20" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="13.5" customHeight="1">
+    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
@@ -6241,30 +7266,20 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
+      <c r="X21" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI21" s="9"/>
-    </row>
-    <row r="22" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="23" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="24" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="25" spans="1:35" ht="13.5" customHeight="1">
+    </row>
+    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="13.5" customHeight="1">
+    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="7">
         <v>2000</v>
       </c>
@@ -6328,41 +7343,11 @@
       <c r="W26" s="7">
         <v>2020</v>
       </c>
-      <c r="X26" s="7">
-        <v>2021</v>
-      </c>
-      <c r="Y26" s="7">
-        <v>2022</v>
-      </c>
-      <c r="Z26" s="7">
-        <v>2023</v>
-      </c>
-      <c r="AA26" s="7">
-        <v>2024</v>
-      </c>
-      <c r="AB26" s="7">
-        <v>2025</v>
-      </c>
-      <c r="AC26" s="7">
-        <v>2026</v>
-      </c>
-      <c r="AD26" s="7">
-        <v>2027</v>
-      </c>
-      <c r="AE26" s="7">
-        <v>2028</v>
-      </c>
-      <c r="AF26" s="7">
-        <v>2029</v>
-      </c>
-      <c r="AG26" s="7">
-        <v>2030</v>
-      </c>
-      <c r="AI26" s="7" t="s">
+      <c r="Y26" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="13.5" customHeight="1">
+    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>14</v>
       </c>
@@ -6387,30 +7372,20 @@
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
+      <c r="X27" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI27" s="9"/>
-    </row>
-    <row r="28" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="29" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="30" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="31" spans="1:35" ht="13.5" customHeight="1">
+    </row>
+    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="13.5" customHeight="1">
+    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="5">
         <v>2000</v>
       </c>
@@ -6474,41 +7449,11 @@
       <c r="W32" s="5">
         <v>2020</v>
       </c>
-      <c r="X32" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y32" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z32" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA32" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB32" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC32" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD32" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE32" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF32" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG32" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI32" s="5" t="s">
+      <c r="Y32" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="13.5" customHeight="1">
+    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>14</v>
       </c>
@@ -6533,30 +7478,20 @@
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
+      <c r="X33" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI33" s="9"/>
-    </row>
-    <row r="34" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="35" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="36" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="37" spans="1:35" ht="13.5" customHeight="1">
+    </row>
+    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="13.5" customHeight="1">
+    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="5">
         <v>2000</v>
       </c>
@@ -6620,41 +7555,11 @@
       <c r="W38" s="5">
         <v>2020</v>
       </c>
-      <c r="X38" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y38" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z38" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA38" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB38" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC38" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD38" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE38" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF38" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG38" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI38" s="5" t="s">
+      <c r="Y38" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="13.5" customHeight="1">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>14</v>
       </c>
@@ -6679,1591 +7584,10 @@
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
+      <c r="X39" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="9"/>
-      <c r="AD39" s="9"/>
-      <c r="AE39" s="9"/>
-      <c r="AF39" s="9"/>
-      <c r="AG39" s="9"/>
-      <c r="AH39" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI39" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:35" ht="14">
-      <c r="A1" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-    </row>
-    <row r="2" spans="1:35" ht="14">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="33">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="33">
-        <v>2001</v>
-      </c>
-      <c r="E2" s="33">
-        <v>2002</v>
-      </c>
-      <c r="F2" s="33">
-        <v>2003</v>
-      </c>
-      <c r="G2" s="33">
-        <v>2004</v>
-      </c>
-      <c r="H2" s="33">
-        <v>2005</v>
-      </c>
-      <c r="I2" s="33">
-        <v>2006</v>
-      </c>
-      <c r="J2" s="33">
-        <v>2007</v>
-      </c>
-      <c r="K2" s="33">
-        <v>2008</v>
-      </c>
-      <c r="L2" s="33">
-        <v>2009</v>
-      </c>
-      <c r="M2" s="33">
-        <v>2010</v>
-      </c>
-      <c r="N2" s="33">
-        <v>2011</v>
-      </c>
-      <c r="O2" s="33">
-        <v>2012</v>
-      </c>
-      <c r="P2" s="33">
-        <v>2013</v>
-      </c>
-      <c r="Q2" s="33">
-        <v>2014</v>
-      </c>
-      <c r="R2" s="33">
-        <v>2015</v>
-      </c>
-      <c r="S2" s="33">
-        <v>2016</v>
-      </c>
-      <c r="T2" s="33">
-        <v>2017</v>
-      </c>
-      <c r="U2" s="33">
-        <v>2018</v>
-      </c>
-      <c r="V2" s="33">
-        <v>2019</v>
-      </c>
-      <c r="W2" s="33">
-        <v>2020</v>
-      </c>
-      <c r="X2" s="33">
-        <v>2021</v>
-      </c>
-      <c r="Y2" s="33">
-        <v>2022</v>
-      </c>
-      <c r="Z2" s="33">
-        <v>2023</v>
-      </c>
-      <c r="AA2" s="33">
-        <v>2024</v>
-      </c>
-      <c r="AB2" s="33">
-        <v>2025</v>
-      </c>
-      <c r="AC2" s="33">
-        <v>2026</v>
-      </c>
-      <c r="AD2" s="33">
-        <v>2027</v>
-      </c>
-      <c r="AE2" s="33">
-        <v>2028</v>
-      </c>
-      <c r="AF2" s="33">
-        <v>2029</v>
-      </c>
-      <c r="AG2" s="33">
-        <v>2030</v>
-      </c>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" ht="14">
-      <c r="A3" s="31"/>
-      <c r="B3" s="7" t="str">
-        <f>Populations!$C$3</f>
-        <v>M 15-49</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI3" s="35">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="14">
-      <c r="A4" s="31"/>
-      <c r="B4" s="7" t="str">
-        <f>Populations!$C$4</f>
-        <v>F 15-49</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI4" s="35">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" ht="14">
-      <c r="A8" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-    </row>
-    <row r="9" spans="1:35" ht="14">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="33">
-        <v>2000</v>
-      </c>
-      <c r="D9" s="33">
-        <v>2001</v>
-      </c>
-      <c r="E9" s="33">
-        <v>2002</v>
-      </c>
-      <c r="F9" s="33">
-        <v>2003</v>
-      </c>
-      <c r="G9" s="33">
-        <v>2004</v>
-      </c>
-      <c r="H9" s="33">
-        <v>2005</v>
-      </c>
-      <c r="I9" s="33">
-        <v>2006</v>
-      </c>
-      <c r="J9" s="33">
-        <v>2007</v>
-      </c>
-      <c r="K9" s="33">
-        <v>2008</v>
-      </c>
-      <c r="L9" s="33">
-        <v>2009</v>
-      </c>
-      <c r="M9" s="33">
-        <v>2010</v>
-      </c>
-      <c r="N9" s="33">
-        <v>2011</v>
-      </c>
-      <c r="O9" s="33">
-        <v>2012</v>
-      </c>
-      <c r="P9" s="33">
-        <v>2013</v>
-      </c>
-      <c r="Q9" s="33">
-        <v>2014</v>
-      </c>
-      <c r="R9" s="33">
-        <v>2015</v>
-      </c>
-      <c r="S9" s="33">
-        <v>2016</v>
-      </c>
-      <c r="T9" s="33">
-        <v>2017</v>
-      </c>
-      <c r="U9" s="33">
-        <v>2018</v>
-      </c>
-      <c r="V9" s="33">
-        <v>2019</v>
-      </c>
-      <c r="W9" s="33">
-        <v>2020</v>
-      </c>
-      <c r="X9" s="33">
-        <v>2021</v>
-      </c>
-      <c r="Y9" s="33">
-        <v>2022</v>
-      </c>
-      <c r="Z9" s="33">
-        <v>2023</v>
-      </c>
-      <c r="AA9" s="33">
-        <v>2024</v>
-      </c>
-      <c r="AB9" s="33">
-        <v>2025</v>
-      </c>
-      <c r="AC9" s="33">
-        <v>2026</v>
-      </c>
-      <c r="AD9" s="33">
-        <v>2027</v>
-      </c>
-      <c r="AE9" s="33">
-        <v>2028</v>
-      </c>
-      <c r="AF9" s="33">
-        <v>2029</v>
-      </c>
-      <c r="AG9" s="33">
-        <v>2030</v>
-      </c>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" ht="14">
-      <c r="A10" s="31"/>
-      <c r="B10" s="7" t="str">
-        <f>Populations!$C$3</f>
-        <v>M 15-49</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI10" s="35">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="14">
-      <c r="A11" s="31"/>
-      <c r="B11" s="7" t="str">
-        <f>Populations!$C$4</f>
-        <v>F 15-49</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI11" s="35">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" ht="14">
-      <c r="A15" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-    </row>
-    <row r="16" spans="1:35" ht="14">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="33">
-        <v>2000</v>
-      </c>
-      <c r="D16" s="33">
-        <v>2001</v>
-      </c>
-      <c r="E16" s="33">
-        <v>2002</v>
-      </c>
-      <c r="F16" s="33">
-        <v>2003</v>
-      </c>
-      <c r="G16" s="33">
-        <v>2004</v>
-      </c>
-      <c r="H16" s="33">
-        <v>2005</v>
-      </c>
-      <c r="I16" s="33">
-        <v>2006</v>
-      </c>
-      <c r="J16" s="33">
-        <v>2007</v>
-      </c>
-      <c r="K16" s="33">
-        <v>2008</v>
-      </c>
-      <c r="L16" s="33">
-        <v>2009</v>
-      </c>
-      <c r="M16" s="33">
-        <v>2010</v>
-      </c>
-      <c r="N16" s="33">
-        <v>2011</v>
-      </c>
-      <c r="O16" s="33">
-        <v>2012</v>
-      </c>
-      <c r="P16" s="33">
-        <v>2013</v>
-      </c>
-      <c r="Q16" s="33">
-        <v>2014</v>
-      </c>
-      <c r="R16" s="33">
-        <v>2015</v>
-      </c>
-      <c r="S16" s="33">
-        <v>2016</v>
-      </c>
-      <c r="T16" s="33">
-        <v>2017</v>
-      </c>
-      <c r="U16" s="33">
-        <v>2018</v>
-      </c>
-      <c r="V16" s="33">
-        <v>2019</v>
-      </c>
-      <c r="W16" s="33">
-        <v>2020</v>
-      </c>
-      <c r="X16" s="33">
-        <v>2021</v>
-      </c>
-      <c r="Y16" s="33">
-        <v>2022</v>
-      </c>
-      <c r="Z16" s="33">
-        <v>2023</v>
-      </c>
-      <c r="AA16" s="33">
-        <v>2024</v>
-      </c>
-      <c r="AB16" s="33">
-        <v>2025</v>
-      </c>
-      <c r="AC16" s="33">
-        <v>2026</v>
-      </c>
-      <c r="AD16" s="33">
-        <v>2027</v>
-      </c>
-      <c r="AE16" s="33">
-        <v>2028</v>
-      </c>
-      <c r="AF16" s="33">
-        <v>2029</v>
-      </c>
-      <c r="AG16" s="33">
-        <v>2030</v>
-      </c>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" ht="14">
-      <c r="A17" s="31"/>
-      <c r="B17" s="7" t="str">
-        <f>Populations!$C$3</f>
-        <v>M 15-49</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI17" s="35">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" ht="14">
-      <c r="A18" s="31"/>
-      <c r="B18" s="7" t="str">
-        <f>Populations!$C$4</f>
-        <v>F 15-49</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI18" s="35">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" ht="14">
-      <c r="A22" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-    </row>
-    <row r="23" spans="1:35" ht="14">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="33">
-        <v>2000</v>
-      </c>
-      <c r="D23" s="33">
-        <v>2001</v>
-      </c>
-      <c r="E23" s="33">
-        <v>2002</v>
-      </c>
-      <c r="F23" s="33">
-        <v>2003</v>
-      </c>
-      <c r="G23" s="33">
-        <v>2004</v>
-      </c>
-      <c r="H23" s="33">
-        <v>2005</v>
-      </c>
-      <c r="I23" s="33">
-        <v>2006</v>
-      </c>
-      <c r="J23" s="33">
-        <v>2007</v>
-      </c>
-      <c r="K23" s="33">
-        <v>2008</v>
-      </c>
-      <c r="L23" s="33">
-        <v>2009</v>
-      </c>
-      <c r="M23" s="33">
-        <v>2010</v>
-      </c>
-      <c r="N23" s="33">
-        <v>2011</v>
-      </c>
-      <c r="O23" s="33">
-        <v>2012</v>
-      </c>
-      <c r="P23" s="33">
-        <v>2013</v>
-      </c>
-      <c r="Q23" s="33">
-        <v>2014</v>
-      </c>
-      <c r="R23" s="33">
-        <v>2015</v>
-      </c>
-      <c r="S23" s="33">
-        <v>2016</v>
-      </c>
-      <c r="T23" s="33">
-        <v>2017</v>
-      </c>
-      <c r="U23" s="33">
-        <v>2018</v>
-      </c>
-      <c r="V23" s="33">
-        <v>2019</v>
-      </c>
-      <c r="W23" s="33">
-        <v>2020</v>
-      </c>
-      <c r="X23" s="33">
-        <v>2021</v>
-      </c>
-      <c r="Y23" s="33">
-        <v>2022</v>
-      </c>
-      <c r="Z23" s="33">
-        <v>2023</v>
-      </c>
-      <c r="AA23" s="33">
-        <v>2024</v>
-      </c>
-      <c r="AB23" s="33">
-        <v>2025</v>
-      </c>
-      <c r="AC23" s="33">
-        <v>2026</v>
-      </c>
-      <c r="AD23" s="33">
-        <v>2027</v>
-      </c>
-      <c r="AE23" s="33">
-        <v>2028</v>
-      </c>
-      <c r="AF23" s="33">
-        <v>2029</v>
-      </c>
-      <c r="AG23" s="33">
-        <v>2030</v>
-      </c>
-      <c r="AH23" s="31"/>
-      <c r="AI23" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" ht="14">
-      <c r="A24" s="31"/>
-      <c r="B24" s="7" t="str">
-        <f>Populations!$C$3</f>
-        <v>M 15-49</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI24" s="35">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" ht="14">
-      <c r="A25" s="31"/>
-      <c r="B25" s="7" t="str">
-        <f>Populations!$C$4</f>
-        <v>F 15-49</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI25" s="35">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" ht="14">
-      <c r="A29" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="31"/>
-      <c r="AG29" s="31"/>
-      <c r="AH29" s="31"/>
-      <c r="AI29" s="31"/>
-    </row>
-    <row r="30" spans="1:35" ht="14">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="33">
-        <v>2000</v>
-      </c>
-      <c r="D30" s="33">
-        <v>2001</v>
-      </c>
-      <c r="E30" s="33">
-        <v>2002</v>
-      </c>
-      <c r="F30" s="33">
-        <v>2003</v>
-      </c>
-      <c r="G30" s="33">
-        <v>2004</v>
-      </c>
-      <c r="H30" s="33">
-        <v>2005</v>
-      </c>
-      <c r="I30" s="33">
-        <v>2006</v>
-      </c>
-      <c r="J30" s="33">
-        <v>2007</v>
-      </c>
-      <c r="K30" s="33">
-        <v>2008</v>
-      </c>
-      <c r="L30" s="33">
-        <v>2009</v>
-      </c>
-      <c r="M30" s="33">
-        <v>2010</v>
-      </c>
-      <c r="N30" s="33">
-        <v>2011</v>
-      </c>
-      <c r="O30" s="33">
-        <v>2012</v>
-      </c>
-      <c r="P30" s="33">
-        <v>2013</v>
-      </c>
-      <c r="Q30" s="33">
-        <v>2014</v>
-      </c>
-      <c r="R30" s="33">
-        <v>2015</v>
-      </c>
-      <c r="S30" s="33">
-        <v>2016</v>
-      </c>
-      <c r="T30" s="33">
-        <v>2017</v>
-      </c>
-      <c r="U30" s="33">
-        <v>2018</v>
-      </c>
-      <c r="V30" s="33">
-        <v>2019</v>
-      </c>
-      <c r="W30" s="33">
-        <v>2020</v>
-      </c>
-      <c r="X30" s="33">
-        <v>2021</v>
-      </c>
-      <c r="Y30" s="33">
-        <v>2022</v>
-      </c>
-      <c r="Z30" s="33">
-        <v>2023</v>
-      </c>
-      <c r="AA30" s="33">
-        <v>2024</v>
-      </c>
-      <c r="AB30" s="33">
-        <v>2025</v>
-      </c>
-      <c r="AC30" s="33">
-        <v>2026</v>
-      </c>
-      <c r="AD30" s="33">
-        <v>2027</v>
-      </c>
-      <c r="AE30" s="33">
-        <v>2028</v>
-      </c>
-      <c r="AF30" s="33">
-        <v>2029</v>
-      </c>
-      <c r="AG30" s="33">
-        <v>2030</v>
-      </c>
-      <c r="AH30" s="31"/>
-      <c r="AI30" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" ht="14">
-      <c r="A31" s="31"/>
-      <c r="B31" s="7" t="str">
-        <f>Populations!$C$3</f>
-        <v>M 15-49</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="10"/>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
-      <c r="AH31" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI31" s="35">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" ht="14">
-      <c r="A32" s="31"/>
-      <c r="B32" s="7" t="str">
-        <f>Populations!$C$4</f>
-        <v>F 15-49</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="10"/>
-      <c r="AD32" s="10"/>
-      <c r="AE32" s="10"/>
-      <c r="AF32" s="10"/>
-      <c r="AG32" s="10"/>
-      <c r="AH32" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI32" s="35">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" ht="14">
-      <c r="A36" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="31"/>
-      <c r="AH36" s="31"/>
-      <c r="AI36" s="31"/>
-    </row>
-    <row r="37" spans="1:35" ht="14">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="33">
-        <v>2000</v>
-      </c>
-      <c r="D37" s="33">
-        <v>2001</v>
-      </c>
-      <c r="E37" s="33">
-        <v>2002</v>
-      </c>
-      <c r="F37" s="33">
-        <v>2003</v>
-      </c>
-      <c r="G37" s="33">
-        <v>2004</v>
-      </c>
-      <c r="H37" s="33">
-        <v>2005</v>
-      </c>
-      <c r="I37" s="33">
-        <v>2006</v>
-      </c>
-      <c r="J37" s="33">
-        <v>2007</v>
-      </c>
-      <c r="K37" s="33">
-        <v>2008</v>
-      </c>
-      <c r="L37" s="33">
-        <v>2009</v>
-      </c>
-      <c r="M37" s="33">
-        <v>2010</v>
-      </c>
-      <c r="N37" s="33">
-        <v>2011</v>
-      </c>
-      <c r="O37" s="33">
-        <v>2012</v>
-      </c>
-      <c r="P37" s="33">
-        <v>2013</v>
-      </c>
-      <c r="Q37" s="33">
-        <v>2014</v>
-      </c>
-      <c r="R37" s="33">
-        <v>2015</v>
-      </c>
-      <c r="S37" s="33">
-        <v>2016</v>
-      </c>
-      <c r="T37" s="33">
-        <v>2017</v>
-      </c>
-      <c r="U37" s="33">
-        <v>2018</v>
-      </c>
-      <c r="V37" s="33">
-        <v>2019</v>
-      </c>
-      <c r="W37" s="33">
-        <v>2020</v>
-      </c>
-      <c r="X37" s="33">
-        <v>2021</v>
-      </c>
-      <c r="Y37" s="33">
-        <v>2022</v>
-      </c>
-      <c r="Z37" s="33">
-        <v>2023</v>
-      </c>
-      <c r="AA37" s="33">
-        <v>2024</v>
-      </c>
-      <c r="AB37" s="33">
-        <v>2025</v>
-      </c>
-      <c r="AC37" s="33">
-        <v>2026</v>
-      </c>
-      <c r="AD37" s="33">
-        <v>2027</v>
-      </c>
-      <c r="AE37" s="33">
-        <v>2028</v>
-      </c>
-      <c r="AF37" s="33">
-        <v>2029</v>
-      </c>
-      <c r="AG37" s="33">
-        <v>2030</v>
-      </c>
-      <c r="AH37" s="31"/>
-      <c r="AI37" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35" ht="14">
-      <c r="A38" s="31"/>
-      <c r="B38" s="7" t="str">
-        <f>Populations!$C$3</f>
-        <v>M 15-49</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
-      <c r="AG38" s="10"/>
-      <c r="AH38" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI38" s="35">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35" ht="14">
-      <c r="A39" s="31"/>
-      <c r="B39" s="7" t="str">
-        <f>Populations!$C$4</f>
-        <v>F 15-49</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="10"/>
-      <c r="AF39" s="10"/>
-      <c r="AG39" s="10"/>
-      <c r="AH39" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI39" s="35">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35" ht="14">
-      <c r="A43" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31"/>
-      <c r="AC43" s="31"/>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="31"/>
-      <c r="AG43" s="31"/>
-      <c r="AH43" s="31"/>
-      <c r="AI43" s="31"/>
-    </row>
-    <row r="44" spans="1:35" ht="14">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="33">
-        <v>2000</v>
-      </c>
-      <c r="D44" s="33">
-        <v>2001</v>
-      </c>
-      <c r="E44" s="33">
-        <v>2002</v>
-      </c>
-      <c r="F44" s="33">
-        <v>2003</v>
-      </c>
-      <c r="G44" s="33">
-        <v>2004</v>
-      </c>
-      <c r="H44" s="33">
-        <v>2005</v>
-      </c>
-      <c r="I44" s="33">
-        <v>2006</v>
-      </c>
-      <c r="J44" s="33">
-        <v>2007</v>
-      </c>
-      <c r="K44" s="33">
-        <v>2008</v>
-      </c>
-      <c r="L44" s="33">
-        <v>2009</v>
-      </c>
-      <c r="M44" s="33">
-        <v>2010</v>
-      </c>
-      <c r="N44" s="33">
-        <v>2011</v>
-      </c>
-      <c r="O44" s="33">
-        <v>2012</v>
-      </c>
-      <c r="P44" s="33">
-        <v>2013</v>
-      </c>
-      <c r="Q44" s="33">
-        <v>2014</v>
-      </c>
-      <c r="R44" s="33">
-        <v>2015</v>
-      </c>
-      <c r="S44" s="33">
-        <v>2016</v>
-      </c>
-      <c r="T44" s="33">
-        <v>2017</v>
-      </c>
-      <c r="U44" s="33">
-        <v>2018</v>
-      </c>
-      <c r="V44" s="33">
-        <v>2019</v>
-      </c>
-      <c r="W44" s="33">
-        <v>2020</v>
-      </c>
-      <c r="X44" s="33">
-        <v>2021</v>
-      </c>
-      <c r="Y44" s="33">
-        <v>2022</v>
-      </c>
-      <c r="Z44" s="33">
-        <v>2023</v>
-      </c>
-      <c r="AA44" s="33">
-        <v>2024</v>
-      </c>
-      <c r="AB44" s="33">
-        <v>2025</v>
-      </c>
-      <c r="AC44" s="33">
-        <v>2026</v>
-      </c>
-      <c r="AD44" s="33">
-        <v>2027</v>
-      </c>
-      <c r="AE44" s="33">
-        <v>2028</v>
-      </c>
-      <c r="AF44" s="33">
-        <v>2029</v>
-      </c>
-      <c r="AG44" s="33">
-        <v>2030</v>
-      </c>
-      <c r="AH44" s="31"/>
-      <c r="AI44" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35" ht="14">
-      <c r="A45" s="31"/>
-      <c r="B45" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="35"/>
-      <c r="Y45" s="35"/>
-      <c r="Z45" s="35"/>
-      <c r="AA45" s="35"/>
-      <c r="AB45" s="35"/>
-      <c r="AC45" s="35"/>
-      <c r="AD45" s="35"/>
-      <c r="AE45" s="35"/>
-      <c r="AF45" s="35"/>
-      <c r="AG45" s="35"/>
-      <c r="AH45" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI45" s="35">
-        <v>0.1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8277,23 +7601,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI41"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B23"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="35" width="8.83203125" customWidth="1"/>
+    <col min="1" max="25" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="13.5" customHeight="1">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -8357,41 +7681,11 @@
       <c r="W2" s="5">
         <v>2020</v>
       </c>
-      <c r="X2" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC2" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD2" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE2" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF2" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG2" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="13.5" customHeight="1">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -8419,22 +7713,12 @@
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
+      <c r="X3" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI3" s="15"/>
-    </row>
-    <row r="4" spans="1:35" ht="13.5" customHeight="1">
+    </row>
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -8462,30 +7746,20 @@
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
+      <c r="X4" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI4" s="15"/>
-    </row>
-    <row r="5" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:35" ht="13.5" customHeight="1">
+    </row>
+    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="13.5" customHeight="1">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -8549,41 +7823,11 @@
       <c r="W9" s="5">
         <v>2020</v>
       </c>
-      <c r="X9" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA9" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB9" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC9" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF9" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG9" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI9" s="5" t="s">
+      <c r="Y9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="13.5" customHeight="1">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
@@ -8608,32 +7852,22 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="11" t="s">
+      <c r="X10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI10" s="16">
+      <c r="Y10" s="16">
         <v>0.65</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="13.5" customHeight="1">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
         <v>2000</v>
       </c>
@@ -8697,41 +7931,11 @@
       <c r="W15" s="5">
         <v>2020</v>
       </c>
-      <c r="X15" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z15" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA15" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB15" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC15" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD15" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE15" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF15" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG15" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI15" s="5" t="s">
+      <c r="Y15" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="13.5" customHeight="1">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
@@ -8766,30 +7970,20 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
+      <c r="X16" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI16" s="6"/>
-    </row>
-    <row r="17" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="18" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="19" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="20" spans="1:35" ht="13.5" customHeight="1">
+    </row>
+    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="13.5" customHeight="1">
+    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="5">
         <v>2000</v>
       </c>
@@ -8853,41 +8047,11 @@
       <c r="W21" s="5">
         <v>2020</v>
       </c>
-      <c r="X21" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y21" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z21" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA21" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB21" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC21" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD21" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE21" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF21" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG21" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI21" s="5" t="s">
+      <c r="Y21" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="13.5" customHeight="1">
+    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -8915,22 +8079,12 @@
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
+      <c r="X22" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI22" s="15"/>
-    </row>
-    <row r="23" spans="1:35" ht="13.5" customHeight="1">
+    </row>
+    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -8958,30 +8112,20 @@
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
+      <c r="X23" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="15"/>
-      <c r="AH23" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI23" s="15"/>
-    </row>
-    <row r="24" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="25" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="26" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="27" spans="1:35" ht="13.5" customHeight="1">
+    </row>
+    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="13.5" customHeight="1">
+    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="5">
         <v>2000</v>
       </c>
@@ -9045,41 +8189,11 @@
       <c r="W28" s="5">
         <v>2020</v>
       </c>
-      <c r="X28" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y28" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z28" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA28" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB28" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC28" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD28" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE28" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF28" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG28" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI28" s="5" t="s">
+      <c r="Y28" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="13.5" customHeight="1">
+    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>14</v>
       </c>
@@ -9114,30 +8228,20 @@
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
+      <c r="X29" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI29" s="6"/>
-    </row>
-    <row r="30" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="31" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="32" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="33" spans="1:35" ht="13.5" customHeight="1">
+    </row>
+    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="13.5" customHeight="1">
+    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="5">
         <v>2000</v>
       </c>
@@ -9201,41 +8305,11 @@
       <c r="W34" s="5">
         <v>2020</v>
       </c>
-      <c r="X34" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y34" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z34" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA34" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB34" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC34" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD34" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE34" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF34" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG34" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI34" s="5" t="s">
+      <c r="Y34" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="13.5" customHeight="1">
+    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9287,30 +8361,20 @@
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
+      <c r="X35" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI35" s="9"/>
-    </row>
-    <row r="36" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="37" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="38" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="39" spans="1:35" ht="13.5" customHeight="1">
+    </row>
+    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="13.5" customHeight="1">
+    <row r="40" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="5">
         <v>2000</v>
       </c>
@@ -9374,41 +8438,11 @@
       <c r="W40" s="5">
         <v>2020</v>
       </c>
-      <c r="X40" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y40" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z40" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA40" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB40" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC40" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD40" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE40" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF40" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG40" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI40" s="5" t="s">
+      <c r="Y40" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="13.5" customHeight="1">
+    <row r="41" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>14</v>
       </c>
@@ -9433,20 +8467,10 @@
       <c r="U41" s="15"/>
       <c r="V41" s="15"/>
       <c r="W41" s="15"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="15"/>
-      <c r="AA41" s="15"/>
-      <c r="AB41" s="15"/>
-      <c r="AC41" s="15"/>
-      <c r="AD41" s="15"/>
-      <c r="AE41" s="15"/>
-      <c r="AF41" s="15"/>
-      <c r="AG41" s="15"/>
-      <c r="AH41" s="11" t="s">
+      <c r="X41" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI41" s="18">
+      <c r="Y41" s="18">
         <f>14/100*87/100</f>
         <v>0.12180000000000002</v>
       </c>
@@ -9465,23 +8489,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI45"/>
+  <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView topLeftCell="V36" workbookViewId="0">
-      <selection activeCell="AI46" sqref="AI46"/>
+      <selection activeCell="AA53" sqref="AA53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="35" width="8.83203125" customWidth="1"/>
+    <col min="1" max="25" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="13.5" customHeight="1">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -9545,41 +8569,11 @@
       <c r="W2" s="5">
         <v>2020</v>
       </c>
-      <c r="X2" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC2" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD2" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE2" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF2" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG2" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="13.5" customHeight="1">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9605,24 +8599,14 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI3" s="17">
+      <c r="Y3" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="13.5" customHeight="1">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9648,32 +8632,22 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="11" t="s">
+      <c r="X4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI4" s="17">
+      <c r="Y4" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:35" ht="13.5" customHeight="1">
+    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="13.5" customHeight="1">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -9737,41 +8711,11 @@
       <c r="W9" s="5">
         <v>2020</v>
       </c>
-      <c r="X9" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA9" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB9" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC9" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF9" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG9" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI9" s="5" t="s">
+      <c r="Y9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="13.5" customHeight="1">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9797,25 +8741,15 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="11" t="s">
+      <c r="X10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI10" s="17">
+      <c r="Y10" s="17">
         <f>20%*3*20</f>
         <v>12.000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="13.5" customHeight="1">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9841,33 +8775,23 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="11" t="s">
+      <c r="X11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI11" s="17">
+      <c r="Y11" s="17">
         <f>10%*3*20</f>
         <v>6.0000000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:35" ht="13.5" customHeight="1">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="13.5" customHeight="1">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>2000</v>
       </c>
@@ -9931,41 +8855,11 @@
       <c r="W16" s="5">
         <v>2020</v>
       </c>
-      <c r="X16" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z16" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA16" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB16" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC16" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD16" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE16" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF16" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG16" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI16" s="5" t="s">
+      <c r="Y16" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="13.5" customHeight="1">
+    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9991,24 +8885,14 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="11" t="s">
+      <c r="X17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI17" s="6">
+      <c r="Y17" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="13.5" customHeight="1">
+    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -10034,32 +8918,22 @@
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="11" t="s">
+      <c r="X18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI18" s="6">
+      <c r="Y18" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="20" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="21" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="22" spans="1:35" ht="13.5" customHeight="1">
+    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="13.5" customHeight="1">
+    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="5">
         <v>2000</v>
       </c>
@@ -10123,41 +8997,11 @@
       <c r="W23" s="5">
         <v>2020</v>
       </c>
-      <c r="X23" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y23" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z23" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA23" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB23" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC23" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD23" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE23" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF23" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG23" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI23" s="5" t="s">
+      <c r="Y23" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="13.5" customHeight="1">
+    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -10183,24 +9027,14 @@
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="11" t="s">
+      <c r="X24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI24" s="19">
+      <c r="Y24" s="19">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="13.5" customHeight="1">
+    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -10226,32 +9060,22 @@
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="11" t="s">
+      <c r="X25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI25" s="19">
+      <c r="Y25" s="19">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="27" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="28" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="29" spans="1:35" ht="13.5" customHeight="1">
+    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="13.5" customHeight="1">
+    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="5">
         <v>2000</v>
       </c>
@@ -10315,41 +9139,11 @@
       <c r="W30" s="5">
         <v>2020</v>
       </c>
-      <c r="X30" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y30" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z30" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA30" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB30" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC30" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD30" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE30" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF30" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG30" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI30" s="5" t="s">
+      <c r="Y30" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="13.5" customHeight="1">
+    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -10375,24 +9169,14 @@
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
       <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="11" t="s">
+      <c r="X31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI31" s="15">
+      <c r="Y31" s="15">
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="13.5" customHeight="1">
+    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -10418,32 +9202,22 @@
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="15"/>
-      <c r="AH32" s="11" t="s">
+      <c r="X32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI32" s="15">
+      <c r="Y32" s="15">
         <v>0.4</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="34" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="35" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="36" spans="1:35" ht="13.5" customHeight="1">
+    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="13.5" customHeight="1">
+    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="5">
         <v>2000</v>
       </c>
@@ -10507,41 +9281,11 @@
       <c r="W37" s="5">
         <v>2020</v>
       </c>
-      <c r="X37" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y37" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z37" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA37" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB37" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC37" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD37" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE37" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF37" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG37" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI37" s="5" t="s">
+      <c r="Y37" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="13.5" customHeight="1">
+    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -10567,24 +9311,14 @@
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
       <c r="W38" s="15"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="15"/>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="15"/>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="15"/>
-      <c r="AF38" s="15"/>
-      <c r="AG38" s="15"/>
-      <c r="AH38" s="11" t="s">
+      <c r="X38" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI38" s="20">
+      <c r="Y38" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="13.5" customHeight="1">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -10610,32 +9344,22 @@
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
       <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="15"/>
-      <c r="AG39" s="15"/>
-      <c r="AH39" s="11" t="s">
+      <c r="X39" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI39" s="19">
+      <c r="Y39" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="41" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="42" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="43" spans="1:35" ht="13.5" customHeight="1">
+    <row r="40" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="13.5" customHeight="1">
+    <row r="44" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="5">
         <v>2000</v>
       </c>
@@ -10699,41 +9423,11 @@
       <c r="W44" s="5">
         <v>2020</v>
       </c>
-      <c r="X44" s="5">
-        <v>2021</v>
-      </c>
-      <c r="Y44" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z44" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA44" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB44" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC44" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD44" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE44" s="5">
-        <v>2028</v>
-      </c>
-      <c r="AF44" s="5">
-        <v>2029</v>
-      </c>
-      <c r="AG44" s="5">
-        <v>2030</v>
-      </c>
-      <c r="AI44" s="5" t="s">
+      <c r="Y44" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="13.5" customHeight="1">
+    <row r="45" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -10759,20 +9453,10 @@
       <c r="U45" s="15"/>
       <c r="V45" s="15"/>
       <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="15"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="15"/>
-      <c r="AC45" s="15"/>
-      <c r="AD45" s="15"/>
-      <c r="AE45" s="15"/>
-      <c r="AF45" s="15"/>
-      <c r="AG45" s="15"/>
-      <c r="AH45" s="11" t="s">
+      <c r="X45" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AI45" s="19">
+      <c r="Y45" s="19">
         <v>0.1</v>
       </c>
     </row>

--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="0" windowWidth="25605" windowHeight="14715" tabRatio="861" activeTab="11"/>
+    <workbookView xWindow="900" yWindow="0" windowWidth="25605" windowHeight="14715" tabRatio="861" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="16" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="Population size" sheetId="4" r:id="rId3"/>
     <sheet name="HIV prevalence" sheetId="15" r:id="rId4"/>
     <sheet name="Other epidemiology" sheetId="6" r:id="rId5"/>
-    <sheet name="Cascade" sheetId="18" r:id="rId6"/>
-    <sheet name="Optional indicators" sheetId="5" r:id="rId7"/>
-    <sheet name="Testing &amp; treatment" sheetId="7" r:id="rId8"/>
+    <sheet name="Optional indicators" sheetId="5" r:id="rId6"/>
+    <sheet name="Testing &amp; treatment" sheetId="7" r:id="rId7"/>
+    <sheet name="Cascade" sheetId="18" r:id="rId8"/>
     <sheet name="Sexual behavior" sheetId="8" r:id="rId9"/>
     <sheet name="Injecting behavior" sheetId="9" r:id="rId10"/>
     <sheet name="Partnerships &amp; transitions" sheetId="10" r:id="rId11"/>
@@ -884,12 +884,6 @@
     <xf numFmtId="9" fontId="1" fillId="8" borderId="2" xfId="104" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="113"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="113" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -910,6 +904,12 @@
     </xf>
     <xf numFmtId="165" fontId="16" fillId="10" borderId="2" xfId="113" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -2290,15 +2290,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
+      <c r="A2" s="41"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
+      <c r="A3" s="41"/>
     </row>
     <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -3037,7 +3037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
@@ -5229,1616 +5229,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y67"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-    </row>
-    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="37">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="37">
-        <v>2001</v>
-      </c>
-      <c r="E2" s="37">
-        <v>2002</v>
-      </c>
-      <c r="F2" s="37">
-        <v>2003</v>
-      </c>
-      <c r="G2" s="37">
-        <v>2004</v>
-      </c>
-      <c r="H2" s="37">
-        <v>2005</v>
-      </c>
-      <c r="I2" s="37">
-        <v>2006</v>
-      </c>
-      <c r="J2" s="37">
-        <v>2007</v>
-      </c>
-      <c r="K2" s="37">
-        <v>2008</v>
-      </c>
-      <c r="L2" s="37">
-        <v>2009</v>
-      </c>
-      <c r="M2" s="37">
-        <v>2010</v>
-      </c>
-      <c r="N2" s="37">
-        <v>2011</v>
-      </c>
-      <c r="O2" s="37">
-        <v>2012</v>
-      </c>
-      <c r="P2" s="37">
-        <v>2013</v>
-      </c>
-      <c r="Q2" s="37">
-        <v>2014</v>
-      </c>
-      <c r="R2" s="37">
-        <v>2015</v>
-      </c>
-      <c r="S2" s="37">
-        <v>2016</v>
-      </c>
-      <c r="T2" s="37">
-        <v>2017</v>
-      </c>
-      <c r="U2" s="37">
-        <v>2018</v>
-      </c>
-      <c r="V2" s="37">
-        <v>2019</v>
-      </c>
-      <c r="W2" s="37">
-        <v>2020</v>
-      </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y3" s="39">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="39">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-    </row>
-    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="37">
-        <v>2000</v>
-      </c>
-      <c r="D9" s="37">
-        <v>2001</v>
-      </c>
-      <c r="E9" s="37">
-        <v>2002</v>
-      </c>
-      <c r="F9" s="37">
-        <v>2003</v>
-      </c>
-      <c r="G9" s="37">
-        <v>2004</v>
-      </c>
-      <c r="H9" s="37">
-        <v>2005</v>
-      </c>
-      <c r="I9" s="37">
-        <v>2006</v>
-      </c>
-      <c r="J9" s="37">
-        <v>2007</v>
-      </c>
-      <c r="K9" s="37">
-        <v>2008</v>
-      </c>
-      <c r="L9" s="37">
-        <v>2009</v>
-      </c>
-      <c r="M9" s="37">
-        <v>2010</v>
-      </c>
-      <c r="N9" s="37">
-        <v>2011</v>
-      </c>
-      <c r="O9" s="37">
-        <v>2012</v>
-      </c>
-      <c r="P9" s="37">
-        <v>2013</v>
-      </c>
-      <c r="Q9" s="37">
-        <v>2014</v>
-      </c>
-      <c r="R9" s="37">
-        <v>2015</v>
-      </c>
-      <c r="S9" s="37">
-        <v>2016</v>
-      </c>
-      <c r="T9" s="37">
-        <v>2017</v>
-      </c>
-      <c r="U9" s="37">
-        <v>2018</v>
-      </c>
-      <c r="V9" s="37">
-        <v>2019</v>
-      </c>
-      <c r="W9" s="37">
-        <v>2020</v>
-      </c>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y10" s="39">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y11" s="39">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-    </row>
-    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="37">
-        <v>2000</v>
-      </c>
-      <c r="D16" s="37">
-        <v>2001</v>
-      </c>
-      <c r="E16" s="37">
-        <v>2002</v>
-      </c>
-      <c r="F16" s="37">
-        <v>2003</v>
-      </c>
-      <c r="G16" s="37">
-        <v>2004</v>
-      </c>
-      <c r="H16" s="37">
-        <v>2005</v>
-      </c>
-      <c r="I16" s="37">
-        <v>2006</v>
-      </c>
-      <c r="J16" s="37">
-        <v>2007</v>
-      </c>
-      <c r="K16" s="37">
-        <v>2008</v>
-      </c>
-      <c r="L16" s="37">
-        <v>2009</v>
-      </c>
-      <c r="M16" s="37">
-        <v>2010</v>
-      </c>
-      <c r="N16" s="37">
-        <v>2011</v>
-      </c>
-      <c r="O16" s="37">
-        <v>2012</v>
-      </c>
-      <c r="P16" s="37">
-        <v>2013</v>
-      </c>
-      <c r="Q16" s="37">
-        <v>2014</v>
-      </c>
-      <c r="R16" s="37">
-        <v>2015</v>
-      </c>
-      <c r="S16" s="37">
-        <v>2016</v>
-      </c>
-      <c r="T16" s="37">
-        <v>2017</v>
-      </c>
-      <c r="U16" s="37">
-        <v>2018</v>
-      </c>
-      <c r="V16" s="37">
-        <v>2019</v>
-      </c>
-      <c r="W16" s="37">
-        <v>2020</v>
-      </c>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y17" s="39">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y18" s="39">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-    </row>
-    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="37">
-        <v>2000</v>
-      </c>
-      <c r="D23" s="37">
-        <v>2001</v>
-      </c>
-      <c r="E23" s="37">
-        <v>2002</v>
-      </c>
-      <c r="F23" s="37">
-        <v>2003</v>
-      </c>
-      <c r="G23" s="37">
-        <v>2004</v>
-      </c>
-      <c r="H23" s="37">
-        <v>2005</v>
-      </c>
-      <c r="I23" s="37">
-        <v>2006</v>
-      </c>
-      <c r="J23" s="37">
-        <v>2007</v>
-      </c>
-      <c r="K23" s="37">
-        <v>2008</v>
-      </c>
-      <c r="L23" s="37">
-        <v>2009</v>
-      </c>
-      <c r="M23" s="37">
-        <v>2010</v>
-      </c>
-      <c r="N23" s="37">
-        <v>2011</v>
-      </c>
-      <c r="O23" s="37">
-        <v>2012</v>
-      </c>
-      <c r="P23" s="37">
-        <v>2013</v>
-      </c>
-      <c r="Q23" s="37">
-        <v>2014</v>
-      </c>
-      <c r="R23" s="37">
-        <v>2015</v>
-      </c>
-      <c r="S23" s="37">
-        <v>2016</v>
-      </c>
-      <c r="T23" s="37">
-        <v>2017</v>
-      </c>
-      <c r="U23" s="37">
-        <v>2018</v>
-      </c>
-      <c r="V23" s="37">
-        <v>2019</v>
-      </c>
-      <c r="W23" s="37">
-        <v>2020</v>
-      </c>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y24" s="39">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y25" s="39">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-    </row>
-    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="37">
-        <v>2000</v>
-      </c>
-      <c r="D30" s="37">
-        <v>2001</v>
-      </c>
-      <c r="E30" s="37">
-        <v>2002</v>
-      </c>
-      <c r="F30" s="37">
-        <v>2003</v>
-      </c>
-      <c r="G30" s="37">
-        <v>2004</v>
-      </c>
-      <c r="H30" s="37">
-        <v>2005</v>
-      </c>
-      <c r="I30" s="37">
-        <v>2006</v>
-      </c>
-      <c r="J30" s="37">
-        <v>2007</v>
-      </c>
-      <c r="K30" s="37">
-        <v>2008</v>
-      </c>
-      <c r="L30" s="37">
-        <v>2009</v>
-      </c>
-      <c r="M30" s="37">
-        <v>2010</v>
-      </c>
-      <c r="N30" s="37">
-        <v>2011</v>
-      </c>
-      <c r="O30" s="37">
-        <v>2012</v>
-      </c>
-      <c r="P30" s="37">
-        <v>2013</v>
-      </c>
-      <c r="Q30" s="37">
-        <v>2014</v>
-      </c>
-      <c r="R30" s="37">
-        <v>2015</v>
-      </c>
-      <c r="S30" s="37">
-        <v>2016</v>
-      </c>
-      <c r="T30" s="37">
-        <v>2017</v>
-      </c>
-      <c r="U30" s="37">
-        <v>2018</v>
-      </c>
-      <c r="V30" s="37">
-        <v>2019</v>
-      </c>
-      <c r="W30" s="37">
-        <v>2020</v>
-      </c>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y31" s="39">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-    </row>
-    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="37">
-        <v>2000</v>
-      </c>
-      <c r="D36" s="37">
-        <v>2001</v>
-      </c>
-      <c r="E36" s="37">
-        <v>2002</v>
-      </c>
-      <c r="F36" s="37">
-        <v>2003</v>
-      </c>
-      <c r="G36" s="37">
-        <v>2004</v>
-      </c>
-      <c r="H36" s="37">
-        <v>2005</v>
-      </c>
-      <c r="I36" s="37">
-        <v>2006</v>
-      </c>
-      <c r="J36" s="37">
-        <v>2007</v>
-      </c>
-      <c r="K36" s="37">
-        <v>2008</v>
-      </c>
-      <c r="L36" s="37">
-        <v>2009</v>
-      </c>
-      <c r="M36" s="37">
-        <v>2010</v>
-      </c>
-      <c r="N36" s="37">
-        <v>2011</v>
-      </c>
-      <c r="O36" s="37">
-        <v>2012</v>
-      </c>
-      <c r="P36" s="37">
-        <v>2013</v>
-      </c>
-      <c r="Q36" s="37">
-        <v>2014</v>
-      </c>
-      <c r="R36" s="37">
-        <v>2015</v>
-      </c>
-      <c r="S36" s="37">
-        <v>2016</v>
-      </c>
-      <c r="T36" s="37">
-        <v>2017</v>
-      </c>
-      <c r="U36" s="37">
-        <v>2018</v>
-      </c>
-      <c r="V36" s="37">
-        <v>2019</v>
-      </c>
-      <c r="W36" s="37">
-        <v>2020</v>
-      </c>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y37" s="39">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="33"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="33"/>
-    </row>
-    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="37">
-        <v>2000</v>
-      </c>
-      <c r="D42" s="37">
-        <v>2001</v>
-      </c>
-      <c r="E42" s="37">
-        <v>2002</v>
-      </c>
-      <c r="F42" s="37">
-        <v>2003</v>
-      </c>
-      <c r="G42" s="37">
-        <v>2004</v>
-      </c>
-      <c r="H42" s="37">
-        <v>2005</v>
-      </c>
-      <c r="I42" s="37">
-        <v>2006</v>
-      </c>
-      <c r="J42" s="37">
-        <v>2007</v>
-      </c>
-      <c r="K42" s="37">
-        <v>2008</v>
-      </c>
-      <c r="L42" s="37">
-        <v>2009</v>
-      </c>
-      <c r="M42" s="37">
-        <v>2010</v>
-      </c>
-      <c r="N42" s="37">
-        <v>2011</v>
-      </c>
-      <c r="O42" s="37">
-        <v>2012</v>
-      </c>
-      <c r="P42" s="37">
-        <v>2013</v>
-      </c>
-      <c r="Q42" s="37">
-        <v>2014</v>
-      </c>
-      <c r="R42" s="37">
-        <v>2015</v>
-      </c>
-      <c r="S42" s="37">
-        <v>2016</v>
-      </c>
-      <c r="T42" s="37">
-        <v>2017</v>
-      </c>
-      <c r="U42" s="37">
-        <v>2018</v>
-      </c>
-      <c r="V42" s="37">
-        <v>2019</v>
-      </c>
-      <c r="W42" s="37">
-        <v>2020</v>
-      </c>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="40"/>
-      <c r="U43" s="40"/>
-      <c r="V43" s="40"/>
-      <c r="W43" s="40"/>
-      <c r="X43" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y43" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="33"/>
-      <c r="W47" s="33"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
-    </row>
-    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="37">
-        <v>2000</v>
-      </c>
-      <c r="D48" s="37">
-        <v>2001</v>
-      </c>
-      <c r="E48" s="37">
-        <v>2002</v>
-      </c>
-      <c r="F48" s="37">
-        <v>2003</v>
-      </c>
-      <c r="G48" s="37">
-        <v>2004</v>
-      </c>
-      <c r="H48" s="37">
-        <v>2005</v>
-      </c>
-      <c r="I48" s="37">
-        <v>2006</v>
-      </c>
-      <c r="J48" s="37">
-        <v>2007</v>
-      </c>
-      <c r="K48" s="37">
-        <v>2008</v>
-      </c>
-      <c r="L48" s="37">
-        <v>2009</v>
-      </c>
-      <c r="M48" s="37">
-        <v>2010</v>
-      </c>
-      <c r="N48" s="37">
-        <v>2011</v>
-      </c>
-      <c r="O48" s="37">
-        <v>2012</v>
-      </c>
-      <c r="P48" s="37">
-        <v>2013</v>
-      </c>
-      <c r="Q48" s="37">
-        <v>2014</v>
-      </c>
-      <c r="R48" s="37">
-        <v>2015</v>
-      </c>
-      <c r="S48" s="37">
-        <v>2016</v>
-      </c>
-      <c r="T48" s="37">
-        <v>2017</v>
-      </c>
-      <c r="U48" s="37">
-        <v>2018</v>
-      </c>
-      <c r="V48" s="37">
-        <v>2019</v>
-      </c>
-      <c r="W48" s="37">
-        <v>2020</v>
-      </c>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
-      <c r="B49" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y49" s="39">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="33"/>
-      <c r="U53" s="33"/>
-      <c r="V53" s="33"/>
-      <c r="W53" s="33"/>
-      <c r="X53" s="33"/>
-      <c r="Y53" s="33"/>
-    </row>
-    <row r="54" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="37">
-        <v>2000</v>
-      </c>
-      <c r="D54" s="37">
-        <v>2001</v>
-      </c>
-      <c r="E54" s="37">
-        <v>2002</v>
-      </c>
-      <c r="F54" s="37">
-        <v>2003</v>
-      </c>
-      <c r="G54" s="37">
-        <v>2004</v>
-      </c>
-      <c r="H54" s="37">
-        <v>2005</v>
-      </c>
-      <c r="I54" s="37">
-        <v>2006</v>
-      </c>
-      <c r="J54" s="37">
-        <v>2007</v>
-      </c>
-      <c r="K54" s="37">
-        <v>2008</v>
-      </c>
-      <c r="L54" s="37">
-        <v>2009</v>
-      </c>
-      <c r="M54" s="37">
-        <v>2010</v>
-      </c>
-      <c r="N54" s="37">
-        <v>2011</v>
-      </c>
-      <c r="O54" s="37">
-        <v>2012</v>
-      </c>
-      <c r="P54" s="37">
-        <v>2013</v>
-      </c>
-      <c r="Q54" s="37">
-        <v>2014</v>
-      </c>
-      <c r="R54" s="37">
-        <v>2015</v>
-      </c>
-      <c r="S54" s="37">
-        <v>2016</v>
-      </c>
-      <c r="T54" s="37">
-        <v>2017</v>
-      </c>
-      <c r="U54" s="37">
-        <v>2018</v>
-      </c>
-      <c r="V54" s="37">
-        <v>2019</v>
-      </c>
-      <c r="W54" s="37">
-        <v>2020</v>
-      </c>
-      <c r="X54" s="33"/>
-      <c r="Y54" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
-      <c r="B55" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y55" s="39">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="33"/>
-      <c r="W59" s="33"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="33"/>
-    </row>
-    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="37">
-        <v>2000</v>
-      </c>
-      <c r="D60" s="37">
-        <v>2001</v>
-      </c>
-      <c r="E60" s="37">
-        <v>2002</v>
-      </c>
-      <c r="F60" s="37">
-        <v>2003</v>
-      </c>
-      <c r="G60" s="37">
-        <v>2004</v>
-      </c>
-      <c r="H60" s="37">
-        <v>2005</v>
-      </c>
-      <c r="I60" s="37">
-        <v>2006</v>
-      </c>
-      <c r="J60" s="37">
-        <v>2007</v>
-      </c>
-      <c r="K60" s="37">
-        <v>2008</v>
-      </c>
-      <c r="L60" s="37">
-        <v>2009</v>
-      </c>
-      <c r="M60" s="37">
-        <v>2010</v>
-      </c>
-      <c r="N60" s="37">
-        <v>2011</v>
-      </c>
-      <c r="O60" s="37">
-        <v>2012</v>
-      </c>
-      <c r="P60" s="37">
-        <v>2013</v>
-      </c>
-      <c r="Q60" s="37">
-        <v>2014</v>
-      </c>
-      <c r="R60" s="37">
-        <v>2015</v>
-      </c>
-      <c r="S60" s="37">
-        <v>2016</v>
-      </c>
-      <c r="T60" s="37">
-        <v>2017</v>
-      </c>
-      <c r="U60" s="37">
-        <v>2018</v>
-      </c>
-      <c r="V60" s="37">
-        <v>2019</v>
-      </c>
-      <c r="W60" s="37">
-        <v>2020</v>
-      </c>
-      <c r="X60" s="33"/>
-      <c r="Y60" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="39"/>
-      <c r="S61" s="39"/>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="39"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y61" s="39">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="33"/>
-      <c r="O65" s="33"/>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33"/>
-      <c r="S65" s="33"/>
-      <c r="T65" s="33"/>
-      <c r="U65" s="33"/>
-      <c r="V65" s="33"/>
-      <c r="W65" s="33"/>
-      <c r="X65" s="33"/>
-      <c r="Y65" s="33"/>
-    </row>
-    <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="37">
-        <v>2000</v>
-      </c>
-      <c r="D66" s="37">
-        <v>2001</v>
-      </c>
-      <c r="E66" s="37">
-        <v>2002</v>
-      </c>
-      <c r="F66" s="37">
-        <v>2003</v>
-      </c>
-      <c r="G66" s="37">
-        <v>2004</v>
-      </c>
-      <c r="H66" s="37">
-        <v>2005</v>
-      </c>
-      <c r="I66" s="37">
-        <v>2006</v>
-      </c>
-      <c r="J66" s="37">
-        <v>2007</v>
-      </c>
-      <c r="K66" s="37">
-        <v>2008</v>
-      </c>
-      <c r="L66" s="37">
-        <v>2009</v>
-      </c>
-      <c r="M66" s="37">
-        <v>2010</v>
-      </c>
-      <c r="N66" s="37">
-        <v>2011</v>
-      </c>
-      <c r="O66" s="37">
-        <v>2012</v>
-      </c>
-      <c r="P66" s="37">
-        <v>2013</v>
-      </c>
-      <c r="Q66" s="37">
-        <v>2014</v>
-      </c>
-      <c r="R66" s="37">
-        <v>2015</v>
-      </c>
-      <c r="S66" s="37">
-        <v>2016</v>
-      </c>
-      <c r="T66" s="37">
-        <v>2017</v>
-      </c>
-      <c r="U66" s="37">
-        <v>2018</v>
-      </c>
-      <c r="V66" s="37">
-        <v>2019</v>
-      </c>
-      <c r="W66" s="37">
-        <v>2020</v>
-      </c>
-      <c r="X66" s="33"/>
-      <c r="Y66" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
-      <c r="B67" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="39"/>
-      <c r="O67" s="39"/>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="39"/>
-      <c r="S67" s="39"/>
-      <c r="T67" s="39"/>
-      <c r="U67" s="39"/>
-      <c r="V67" s="39"/>
-      <c r="W67" s="39"/>
-      <c r="X67" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y67" s="39">
-        <v>0.85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView topLeftCell="F4" workbookViewId="0">
@@ -7599,7 +5989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y41"/>
   <sheetViews>
@@ -8487,6 +6877,1616 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+    </row>
+    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="35">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="35">
+        <v>2001</v>
+      </c>
+      <c r="E2" s="35">
+        <v>2002</v>
+      </c>
+      <c r="F2" s="35">
+        <v>2003</v>
+      </c>
+      <c r="G2" s="35">
+        <v>2004</v>
+      </c>
+      <c r="H2" s="35">
+        <v>2005</v>
+      </c>
+      <c r="I2" s="35">
+        <v>2006</v>
+      </c>
+      <c r="J2" s="35">
+        <v>2007</v>
+      </c>
+      <c r="K2" s="35">
+        <v>2008</v>
+      </c>
+      <c r="L2" s="35">
+        <v>2009</v>
+      </c>
+      <c r="M2" s="35">
+        <v>2010</v>
+      </c>
+      <c r="N2" s="35">
+        <v>2011</v>
+      </c>
+      <c r="O2" s="35">
+        <v>2012</v>
+      </c>
+      <c r="P2" s="35">
+        <v>2013</v>
+      </c>
+      <c r="Q2" s="35">
+        <v>2014</v>
+      </c>
+      <c r="R2" s="35">
+        <v>2015</v>
+      </c>
+      <c r="S2" s="35">
+        <v>2016</v>
+      </c>
+      <c r="T2" s="35">
+        <v>2017</v>
+      </c>
+      <c r="U2" s="35">
+        <v>2018</v>
+      </c>
+      <c r="V2" s="35">
+        <v>2019</v>
+      </c>
+      <c r="W2" s="35">
+        <v>2020</v>
+      </c>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+    </row>
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="35">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="35">
+        <v>2001</v>
+      </c>
+      <c r="E9" s="35">
+        <v>2002</v>
+      </c>
+      <c r="F9" s="35">
+        <v>2003</v>
+      </c>
+      <c r="G9" s="35">
+        <v>2004</v>
+      </c>
+      <c r="H9" s="35">
+        <v>2005</v>
+      </c>
+      <c r="I9" s="35">
+        <v>2006</v>
+      </c>
+      <c r="J9" s="35">
+        <v>2007</v>
+      </c>
+      <c r="K9" s="35">
+        <v>2008</v>
+      </c>
+      <c r="L9" s="35">
+        <v>2009</v>
+      </c>
+      <c r="M9" s="35">
+        <v>2010</v>
+      </c>
+      <c r="N9" s="35">
+        <v>2011</v>
+      </c>
+      <c r="O9" s="35">
+        <v>2012</v>
+      </c>
+      <c r="P9" s="35">
+        <v>2013</v>
+      </c>
+      <c r="Q9" s="35">
+        <v>2014</v>
+      </c>
+      <c r="R9" s="35">
+        <v>2015</v>
+      </c>
+      <c r="S9" s="35">
+        <v>2016</v>
+      </c>
+      <c r="T9" s="35">
+        <v>2017</v>
+      </c>
+      <c r="U9" s="35">
+        <v>2018</v>
+      </c>
+      <c r="V9" s="35">
+        <v>2019</v>
+      </c>
+      <c r="W9" s="35">
+        <v>2020</v>
+      </c>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y10" s="37">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="37">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+    </row>
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="35">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="35">
+        <v>2001</v>
+      </c>
+      <c r="E16" s="35">
+        <v>2002</v>
+      </c>
+      <c r="F16" s="35">
+        <v>2003</v>
+      </c>
+      <c r="G16" s="35">
+        <v>2004</v>
+      </c>
+      <c r="H16" s="35">
+        <v>2005</v>
+      </c>
+      <c r="I16" s="35">
+        <v>2006</v>
+      </c>
+      <c r="J16" s="35">
+        <v>2007</v>
+      </c>
+      <c r="K16" s="35">
+        <v>2008</v>
+      </c>
+      <c r="L16" s="35">
+        <v>2009</v>
+      </c>
+      <c r="M16" s="35">
+        <v>2010</v>
+      </c>
+      <c r="N16" s="35">
+        <v>2011</v>
+      </c>
+      <c r="O16" s="35">
+        <v>2012</v>
+      </c>
+      <c r="P16" s="35">
+        <v>2013</v>
+      </c>
+      <c r="Q16" s="35">
+        <v>2014</v>
+      </c>
+      <c r="R16" s="35">
+        <v>2015</v>
+      </c>
+      <c r="S16" s="35">
+        <v>2016</v>
+      </c>
+      <c r="T16" s="35">
+        <v>2017</v>
+      </c>
+      <c r="U16" s="35">
+        <v>2018</v>
+      </c>
+      <c r="V16" s="35">
+        <v>2019</v>
+      </c>
+      <c r="W16" s="35">
+        <v>2020</v>
+      </c>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="37">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y18" s="37">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+    </row>
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="35">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="35">
+        <v>2001</v>
+      </c>
+      <c r="E23" s="35">
+        <v>2002</v>
+      </c>
+      <c r="F23" s="35">
+        <v>2003</v>
+      </c>
+      <c r="G23" s="35">
+        <v>2004</v>
+      </c>
+      <c r="H23" s="35">
+        <v>2005</v>
+      </c>
+      <c r="I23" s="35">
+        <v>2006</v>
+      </c>
+      <c r="J23" s="35">
+        <v>2007</v>
+      </c>
+      <c r="K23" s="35">
+        <v>2008</v>
+      </c>
+      <c r="L23" s="35">
+        <v>2009</v>
+      </c>
+      <c r="M23" s="35">
+        <v>2010</v>
+      </c>
+      <c r="N23" s="35">
+        <v>2011</v>
+      </c>
+      <c r="O23" s="35">
+        <v>2012</v>
+      </c>
+      <c r="P23" s="35">
+        <v>2013</v>
+      </c>
+      <c r="Q23" s="35">
+        <v>2014</v>
+      </c>
+      <c r="R23" s="35">
+        <v>2015</v>
+      </c>
+      <c r="S23" s="35">
+        <v>2016</v>
+      </c>
+      <c r="T23" s="35">
+        <v>2017</v>
+      </c>
+      <c r="U23" s="35">
+        <v>2018</v>
+      </c>
+      <c r="V23" s="35">
+        <v>2019</v>
+      </c>
+      <c r="W23" s="35">
+        <v>2020</v>
+      </c>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y24" s="37">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y25" s="37">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+    </row>
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="35">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="35">
+        <v>2001</v>
+      </c>
+      <c r="E30" s="35">
+        <v>2002</v>
+      </c>
+      <c r="F30" s="35">
+        <v>2003</v>
+      </c>
+      <c r="G30" s="35">
+        <v>2004</v>
+      </c>
+      <c r="H30" s="35">
+        <v>2005</v>
+      </c>
+      <c r="I30" s="35">
+        <v>2006</v>
+      </c>
+      <c r="J30" s="35">
+        <v>2007</v>
+      </c>
+      <c r="K30" s="35">
+        <v>2008</v>
+      </c>
+      <c r="L30" s="35">
+        <v>2009</v>
+      </c>
+      <c r="M30" s="35">
+        <v>2010</v>
+      </c>
+      <c r="N30" s="35">
+        <v>2011</v>
+      </c>
+      <c r="O30" s="35">
+        <v>2012</v>
+      </c>
+      <c r="P30" s="35">
+        <v>2013</v>
+      </c>
+      <c r="Q30" s="35">
+        <v>2014</v>
+      </c>
+      <c r="R30" s="35">
+        <v>2015</v>
+      </c>
+      <c r="S30" s="35">
+        <v>2016</v>
+      </c>
+      <c r="T30" s="35">
+        <v>2017</v>
+      </c>
+      <c r="U30" s="35">
+        <v>2018</v>
+      </c>
+      <c r="V30" s="35">
+        <v>2019</v>
+      </c>
+      <c r="W30" s="35">
+        <v>2020</v>
+      </c>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y31" s="37">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+    </row>
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="35">
+        <v>2000</v>
+      </c>
+      <c r="D36" s="35">
+        <v>2001</v>
+      </c>
+      <c r="E36" s="35">
+        <v>2002</v>
+      </c>
+      <c r="F36" s="35">
+        <v>2003</v>
+      </c>
+      <c r="G36" s="35">
+        <v>2004</v>
+      </c>
+      <c r="H36" s="35">
+        <v>2005</v>
+      </c>
+      <c r="I36" s="35">
+        <v>2006</v>
+      </c>
+      <c r="J36" s="35">
+        <v>2007</v>
+      </c>
+      <c r="K36" s="35">
+        <v>2008</v>
+      </c>
+      <c r="L36" s="35">
+        <v>2009</v>
+      </c>
+      <c r="M36" s="35">
+        <v>2010</v>
+      </c>
+      <c r="N36" s="35">
+        <v>2011</v>
+      </c>
+      <c r="O36" s="35">
+        <v>2012</v>
+      </c>
+      <c r="P36" s="35">
+        <v>2013</v>
+      </c>
+      <c r="Q36" s="35">
+        <v>2014</v>
+      </c>
+      <c r="R36" s="35">
+        <v>2015</v>
+      </c>
+      <c r="S36" s="35">
+        <v>2016</v>
+      </c>
+      <c r="T36" s="35">
+        <v>2017</v>
+      </c>
+      <c r="U36" s="35">
+        <v>2018</v>
+      </c>
+      <c r="V36" s="35">
+        <v>2019</v>
+      </c>
+      <c r="W36" s="35">
+        <v>2020</v>
+      </c>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="31"/>
+      <c r="B37" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y37" s="37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+    </row>
+    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="35">
+        <v>2000</v>
+      </c>
+      <c r="D42" s="35">
+        <v>2001</v>
+      </c>
+      <c r="E42" s="35">
+        <v>2002</v>
+      </c>
+      <c r="F42" s="35">
+        <v>2003</v>
+      </c>
+      <c r="G42" s="35">
+        <v>2004</v>
+      </c>
+      <c r="H42" s="35">
+        <v>2005</v>
+      </c>
+      <c r="I42" s="35">
+        <v>2006</v>
+      </c>
+      <c r="J42" s="35">
+        <v>2007</v>
+      </c>
+      <c r="K42" s="35">
+        <v>2008</v>
+      </c>
+      <c r="L42" s="35">
+        <v>2009</v>
+      </c>
+      <c r="M42" s="35">
+        <v>2010</v>
+      </c>
+      <c r="N42" s="35">
+        <v>2011</v>
+      </c>
+      <c r="O42" s="35">
+        <v>2012</v>
+      </c>
+      <c r="P42" s="35">
+        <v>2013</v>
+      </c>
+      <c r="Q42" s="35">
+        <v>2014</v>
+      </c>
+      <c r="R42" s="35">
+        <v>2015</v>
+      </c>
+      <c r="S42" s="35">
+        <v>2016</v>
+      </c>
+      <c r="T42" s="35">
+        <v>2017</v>
+      </c>
+      <c r="U42" s="35">
+        <v>2018</v>
+      </c>
+      <c r="V42" s="35">
+        <v>2019</v>
+      </c>
+      <c r="W42" s="35">
+        <v>2020</v>
+      </c>
+      <c r="X42" s="31"/>
+      <c r="Y42" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="31"/>
+      <c r="B43" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y43" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="31"/>
+      <c r="Y47" s="31"/>
+    </row>
+    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="35">
+        <v>2000</v>
+      </c>
+      <c r="D48" s="35">
+        <v>2001</v>
+      </c>
+      <c r="E48" s="35">
+        <v>2002</v>
+      </c>
+      <c r="F48" s="35">
+        <v>2003</v>
+      </c>
+      <c r="G48" s="35">
+        <v>2004</v>
+      </c>
+      <c r="H48" s="35">
+        <v>2005</v>
+      </c>
+      <c r="I48" s="35">
+        <v>2006</v>
+      </c>
+      <c r="J48" s="35">
+        <v>2007</v>
+      </c>
+      <c r="K48" s="35">
+        <v>2008</v>
+      </c>
+      <c r="L48" s="35">
+        <v>2009</v>
+      </c>
+      <c r="M48" s="35">
+        <v>2010</v>
+      </c>
+      <c r="N48" s="35">
+        <v>2011</v>
+      </c>
+      <c r="O48" s="35">
+        <v>2012</v>
+      </c>
+      <c r="P48" s="35">
+        <v>2013</v>
+      </c>
+      <c r="Q48" s="35">
+        <v>2014</v>
+      </c>
+      <c r="R48" s="35">
+        <v>2015</v>
+      </c>
+      <c r="S48" s="35">
+        <v>2016</v>
+      </c>
+      <c r="T48" s="35">
+        <v>2017</v>
+      </c>
+      <c r="U48" s="35">
+        <v>2018</v>
+      </c>
+      <c r="V48" s="35">
+        <v>2019</v>
+      </c>
+      <c r="W48" s="35">
+        <v>2020</v>
+      </c>
+      <c r="X48" s="31"/>
+      <c r="Y48" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="31"/>
+      <c r="B49" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y49" s="37">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="31"/>
+      <c r="U53" s="31"/>
+      <c r="V53" s="31"/>
+      <c r="W53" s="31"/>
+      <c r="X53" s="31"/>
+      <c r="Y53" s="31"/>
+    </row>
+    <row r="54" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="35">
+        <v>2000</v>
+      </c>
+      <c r="D54" s="35">
+        <v>2001</v>
+      </c>
+      <c r="E54" s="35">
+        <v>2002</v>
+      </c>
+      <c r="F54" s="35">
+        <v>2003</v>
+      </c>
+      <c r="G54" s="35">
+        <v>2004</v>
+      </c>
+      <c r="H54" s="35">
+        <v>2005</v>
+      </c>
+      <c r="I54" s="35">
+        <v>2006</v>
+      </c>
+      <c r="J54" s="35">
+        <v>2007</v>
+      </c>
+      <c r="K54" s="35">
+        <v>2008</v>
+      </c>
+      <c r="L54" s="35">
+        <v>2009</v>
+      </c>
+      <c r="M54" s="35">
+        <v>2010</v>
+      </c>
+      <c r="N54" s="35">
+        <v>2011</v>
+      </c>
+      <c r="O54" s="35">
+        <v>2012</v>
+      </c>
+      <c r="P54" s="35">
+        <v>2013</v>
+      </c>
+      <c r="Q54" s="35">
+        <v>2014</v>
+      </c>
+      <c r="R54" s="35">
+        <v>2015</v>
+      </c>
+      <c r="S54" s="35">
+        <v>2016</v>
+      </c>
+      <c r="T54" s="35">
+        <v>2017</v>
+      </c>
+      <c r="U54" s="35">
+        <v>2018</v>
+      </c>
+      <c r="V54" s="35">
+        <v>2019</v>
+      </c>
+      <c r="W54" s="35">
+        <v>2020</v>
+      </c>
+      <c r="X54" s="31"/>
+      <c r="Y54" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="31"/>
+      <c r="B55" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y55" s="37">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="31"/>
+      <c r="V59" s="31"/>
+      <c r="W59" s="31"/>
+      <c r="X59" s="31"/>
+      <c r="Y59" s="31"/>
+    </row>
+    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="35">
+        <v>2000</v>
+      </c>
+      <c r="D60" s="35">
+        <v>2001</v>
+      </c>
+      <c r="E60" s="35">
+        <v>2002</v>
+      </c>
+      <c r="F60" s="35">
+        <v>2003</v>
+      </c>
+      <c r="G60" s="35">
+        <v>2004</v>
+      </c>
+      <c r="H60" s="35">
+        <v>2005</v>
+      </c>
+      <c r="I60" s="35">
+        <v>2006</v>
+      </c>
+      <c r="J60" s="35">
+        <v>2007</v>
+      </c>
+      <c r="K60" s="35">
+        <v>2008</v>
+      </c>
+      <c r="L60" s="35">
+        <v>2009</v>
+      </c>
+      <c r="M60" s="35">
+        <v>2010</v>
+      </c>
+      <c r="N60" s="35">
+        <v>2011</v>
+      </c>
+      <c r="O60" s="35">
+        <v>2012</v>
+      </c>
+      <c r="P60" s="35">
+        <v>2013</v>
+      </c>
+      <c r="Q60" s="35">
+        <v>2014</v>
+      </c>
+      <c r="R60" s="35">
+        <v>2015</v>
+      </c>
+      <c r="S60" s="35">
+        <v>2016</v>
+      </c>
+      <c r="T60" s="35">
+        <v>2017</v>
+      </c>
+      <c r="U60" s="35">
+        <v>2018</v>
+      </c>
+      <c r="V60" s="35">
+        <v>2019</v>
+      </c>
+      <c r="W60" s="35">
+        <v>2020</v>
+      </c>
+      <c r="X60" s="31"/>
+      <c r="Y60" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="31"/>
+      <c r="B61" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y61" s="37">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
+      <c r="T65" s="31"/>
+      <c r="U65" s="31"/>
+      <c r="V65" s="31"/>
+      <c r="W65" s="31"/>
+      <c r="X65" s="31"/>
+      <c r="Y65" s="31"/>
+    </row>
+    <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="35">
+        <v>2000</v>
+      </c>
+      <c r="D66" s="35">
+        <v>2001</v>
+      </c>
+      <c r="E66" s="35">
+        <v>2002</v>
+      </c>
+      <c r="F66" s="35">
+        <v>2003</v>
+      </c>
+      <c r="G66" s="35">
+        <v>2004</v>
+      </c>
+      <c r="H66" s="35">
+        <v>2005</v>
+      </c>
+      <c r="I66" s="35">
+        <v>2006</v>
+      </c>
+      <c r="J66" s="35">
+        <v>2007</v>
+      </c>
+      <c r="K66" s="35">
+        <v>2008</v>
+      </c>
+      <c r="L66" s="35">
+        <v>2009</v>
+      </c>
+      <c r="M66" s="35">
+        <v>2010</v>
+      </c>
+      <c r="N66" s="35">
+        <v>2011</v>
+      </c>
+      <c r="O66" s="35">
+        <v>2012</v>
+      </c>
+      <c r="P66" s="35">
+        <v>2013</v>
+      </c>
+      <c r="Q66" s="35">
+        <v>2014</v>
+      </c>
+      <c r="R66" s="35">
+        <v>2015</v>
+      </c>
+      <c r="S66" s="35">
+        <v>2016</v>
+      </c>
+      <c r="T66" s="35">
+        <v>2017</v>
+      </c>
+      <c r="U66" s="35">
+        <v>2018</v>
+      </c>
+      <c r="V66" s="35">
+        <v>2019</v>
+      </c>
+      <c r="W66" s="35">
+        <v>2020</v>
+      </c>
+      <c r="X66" s="31"/>
+      <c r="Y66" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="31"/>
+      <c r="B67" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y67" s="37">
+        <v>0.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y45"/>

--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="0" windowWidth="25605" windowHeight="14715" tabRatio="861" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="861" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="16" r:id="rId1"/>
@@ -20,7 +20,12 @@
     <sheet name="Partnerships &amp; transitions" sheetId="10" r:id="rId11"/>
     <sheet name="Constants" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -131,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="120">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -488,6 +493,48 @@
   </si>
   <si>
     <t>Proportion of people on ART with viral suppression (%)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Diagnosed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PLHIV </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">on treatment </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -495,8 +542,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
@@ -712,12 +759,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="114">
+  <cellStyleXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -827,8 +874,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -911,14 +962,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="113" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="114">
+  <cellStyles count="118">
     <cellStyle name="Comma 2" xfId="4"/>
     <cellStyle name="Comma 3" xfId="2"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="15"/>
     <cellStyle name="Followed Hyperlink 11" xfId="16"/>
     <cellStyle name="Followed Hyperlink 12" xfId="17"/>
@@ -1020,6 +1074,8 @@
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5"/>
     <cellStyle name="Normal 3" xfId="6"/>
@@ -2284,34 +2340,34 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="12.75" customHeight="1">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="41"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" s="41"/>
     </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="14">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="67.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="14">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="14">
       <c r="A7" s="21" t="s">
         <v>92</v>
       </c>
@@ -2337,17 +2393,17 @@
       <selection activeCell="X1" sqref="X1:AG1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="25" width="8.85546875" customWidth="1"/>
+    <col min="1" max="25" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -2415,7 +2471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2448,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2481,15 +2537,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -2557,7 +2613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="B10" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2590,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1">
       <c r="B11" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2623,15 +2679,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1">
       <c r="C16" s="5">
         <v>2000</v>
       </c>
@@ -2699,7 +2755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" ht="13.5" customHeight="1">
       <c r="B17" s="22" t="s">
         <v>14</v>
       </c>
@@ -2731,9 +2787,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:25" ht="13.5" customHeight="1"/>
+    <row r="19" spans="2:25" ht="13.5" customHeight="1"/>
+    <row r="20" spans="2:25" ht="13.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2752,21 +2808,21 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13.5" customHeight="1">
       <c r="C2" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2776,7 +2832,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="13.5" customHeight="1">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2786,7 +2842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="13.5" customHeight="1">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2794,26 +2850,26 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13.5" customHeight="1">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="13.5" customHeight="1">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="13.5" customHeight="1">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="13.5" customHeight="1">
       <c r="C9" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2823,7 +2879,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.5" customHeight="1">
       <c r="B10" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2833,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="13.5" customHeight="1">
       <c r="B11" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2841,26 +2897,26 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="13.5" customHeight="1">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="13.5" customHeight="1">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="13.5" customHeight="1">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="13.5" customHeight="1">
       <c r="C16" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2870,7 +2926,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="13.5" customHeight="1">
       <c r="B17" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2878,7 +2934,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="13.5" customHeight="1">
       <c r="B18" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2886,26 +2942,26 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="13.5" customHeight="1">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="13.5" customHeight="1">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="13.5" customHeight="1">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="13.5" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="13.5" customHeight="1">
       <c r="C23" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2915,7 +2971,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="13.5" customHeight="1">
       <c r="B24" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2923,7 +2979,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="13.5" customHeight="1">
       <c r="B25" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2931,14 +2987,14 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="13.5" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="13.5" customHeight="1">
       <c r="C30" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2948,7 +3004,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="13.5" customHeight="1">
       <c r="B31" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2956,14 +3012,14 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="35" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="13.5" customHeight="1">
       <c r="C36" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2973,7 +3029,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="13.5" customHeight="1">
       <c r="B37" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2981,7 +3037,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="13.5" customHeight="1">
       <c r="B38" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2989,14 +3045,14 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="13.5" customHeight="1">
       <c r="C43" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3006,7 +3062,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="13.5" customHeight="1">
       <c r="B44" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3014,7 +3070,7 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="13.5" customHeight="1">
       <c r="B45" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3041,14 +3097,14 @@
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="6" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="6" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>49</v>
       </c>
@@ -3057,7 +3113,7 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="27" t="s">
@@ -3070,7 +3126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1">
       <c r="A3" s="24"/>
       <c r="B3" s="26" t="s">
         <v>50</v>
@@ -3085,7 +3141,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
       <c r="A4" s="24"/>
       <c r="B4" s="26" t="s">
         <v>51</v>
@@ -3100,7 +3156,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1">
       <c r="A5" s="24"/>
       <c r="B5" s="26" t="s">
         <v>52</v>
@@ -3115,7 +3171,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1">
       <c r="A6" s="24"/>
       <c r="B6" s="26" t="s">
         <v>53</v>
@@ -3130,7 +3186,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1">
       <c r="A7" s="24"/>
       <c r="B7" s="26" t="s">
         <v>54</v>
@@ -3145,7 +3201,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1">
       <c r="A8" s="24"/>
       <c r="B8" s="26" t="s">
         <v>55</v>
@@ -3160,7 +3216,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1">
       <c r="A9" s="24"/>
       <c r="B9" s="26" t="s">
         <v>56</v>
@@ -3175,16 +3231,16 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="13.5" customHeight="1">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="13.5" customHeight="1">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13.5" customHeight="1">
       <c r="A13" s="25" t="s">
         <v>57</v>
       </c>
@@ -3193,7 +3249,7 @@
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="13.5" customHeight="1">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="27" t="s">
@@ -3206,7 +3262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="13.5" customHeight="1">
       <c r="A15" s="24"/>
       <c r="B15" s="26" t="s">
         <v>58</v>
@@ -3221,7 +3277,7 @@
         <v>48.02</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="13.5" customHeight="1">
       <c r="A16" s="24"/>
       <c r="B16" s="26" t="s">
         <v>59</v>
@@ -3236,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="13.5" customHeight="1">
       <c r="A17" s="24"/>
       <c r="B17" s="26" t="s">
         <v>60</v>
@@ -3251,7 +3307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="13.5" customHeight="1">
       <c r="A18" s="24"/>
       <c r="B18" s="26" t="s">
         <v>61</v>
@@ -3266,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="13.5" customHeight="1">
       <c r="A19" s="24"/>
       <c r="B19" s="26" t="s">
         <v>62</v>
@@ -3281,7 +3337,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="13.5" customHeight="1">
       <c r="A20" s="24"/>
       <c r="B20" s="26" t="s">
         <v>63</v>
@@ -3296,16 +3352,16 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="13.5" customHeight="1">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="13.5" customHeight="1">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="13.5" customHeight="1">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="13.5" customHeight="1">
       <c r="A24" s="25" t="s">
         <v>64</v>
       </c>
@@ -3314,7 +3370,7 @@
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="13.5" customHeight="1">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="27" t="s">
@@ -3327,7 +3383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="13.5" customHeight="1">
       <c r="A26" s="24"/>
       <c r="B26" s="26" t="s">
         <v>65</v>
@@ -3342,7 +3398,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="13.5" customHeight="1">
       <c r="A27" s="24"/>
       <c r="B27" s="26" t="s">
         <v>60</v>
@@ -3357,7 +3413,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="13.5" customHeight="1">
       <c r="A28" s="24"/>
       <c r="B28" s="26" t="s">
         <v>99</v>
@@ -3372,7 +3428,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="13.5" customHeight="1">
       <c r="A29" s="24"/>
       <c r="B29" s="26" t="s">
         <v>66</v>
@@ -3387,7 +3443,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="13.5" customHeight="1">
       <c r="A30" s="24"/>
       <c r="B30" s="26" t="s">
         <v>67</v>
@@ -3402,16 +3458,16 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="13.5" customHeight="1">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="13.5" customHeight="1">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.5" customHeight="1">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="13.5" customHeight="1">
       <c r="A34" s="25" t="s">
         <v>68</v>
       </c>
@@ -3420,7 +3476,7 @@
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
     </row>
-    <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="13.5" customHeight="1">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="27" t="s">
@@ -3433,7 +3489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="13.5" customHeight="1">
       <c r="A36" s="24"/>
       <c r="B36" s="26" t="s">
         <v>69</v>
@@ -3448,7 +3504,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="13.5" customHeight="1">
       <c r="A37" s="24"/>
       <c r="B37" s="26" t="s">
         <v>70</v>
@@ -3463,7 +3519,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="13.5" customHeight="1">
       <c r="A38" s="24"/>
       <c r="B38" s="26" t="s">
         <v>71</v>
@@ -3478,7 +3534,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="13.5" customHeight="1">
       <c r="A39" s="24"/>
       <c r="B39" s="26" t="s">
         <v>72</v>
@@ -3493,16 +3549,16 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="13.5" customHeight="1">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="13.5" customHeight="1">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="13.5" customHeight="1">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="13.5" customHeight="1">
       <c r="A43" s="25" t="s">
         <v>73</v>
       </c>
@@ -3511,7 +3567,7 @@
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
     </row>
-    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="13.5" customHeight="1">
       <c r="A44" s="24"/>
       <c r="B44" s="24"/>
       <c r="C44" s="27" t="s">
@@ -3524,7 +3580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="13.5" customHeight="1">
       <c r="A45" s="24"/>
       <c r="B45" s="26" t="s">
         <v>58</v>
@@ -3539,7 +3595,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="13.5" customHeight="1">
       <c r="A46" s="24"/>
       <c r="B46" s="26" t="s">
         <v>59</v>
@@ -3554,7 +3610,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="13.5" customHeight="1">
       <c r="A47" s="24"/>
       <c r="B47" s="26" t="s">
         <v>74</v>
@@ -3569,7 +3625,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="13.5" customHeight="1">
       <c r="A48" s="24"/>
       <c r="B48" s="26" t="s">
         <v>61</v>
@@ -3584,7 +3640,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="24"/>
       <c r="B49" s="26" t="s">
         <v>62</v>
@@ -3599,7 +3655,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="13.5" customHeight="1">
       <c r="A50" s="24"/>
       <c r="B50" s="26" t="s">
         <v>63</v>
@@ -3614,7 +3670,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="13.5" customHeight="1">
       <c r="A51" s="24"/>
       <c r="B51" s="26" t="s">
         <v>75</v>
@@ -3629,7 +3685,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="13.5" customHeight="1">
       <c r="A52" s="24"/>
       <c r="B52" s="26" t="s">
         <v>76</v>
@@ -3644,16 +3700,16 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="13.5" customHeight="1">
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="13.5" customHeight="1">
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="13.5" customHeight="1">
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="13.5" customHeight="1">
       <c r="A56" s="25" t="s">
         <v>100</v>
       </c>
@@ -3662,7 +3718,7 @@
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
     </row>
-    <row r="57" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="13.5" customHeight="1">
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
       <c r="C57" s="27" t="s">
@@ -3675,7 +3731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="13.5" customHeight="1">
       <c r="A58" s="24"/>
       <c r="B58" s="26" t="s">
         <v>77</v>
@@ -3693,7 +3749,7 @@
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="13.5" customHeight="1">
       <c r="A59" s="24"/>
       <c r="B59" s="26" t="s">
         <v>78</v>
@@ -3711,7 +3767,7 @@
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="13.5" customHeight="1">
       <c r="A60" s="24"/>
       <c r="B60" s="26" t="s">
         <v>79</v>
@@ -3729,7 +3785,7 @@
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="13.5" customHeight="1">
       <c r="A61" s="24"/>
       <c r="B61" s="26" t="s">
         <v>94</v>
@@ -3747,7 +3803,7 @@
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="13.5" customHeight="1">
       <c r="A62" s="24"/>
       <c r="B62" s="26" t="s">
         <v>80</v>
@@ -3765,7 +3821,7 @@
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
     </row>
-    <row r="63" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="13.5" customHeight="1">
       <c r="A63" s="24"/>
       <c r="B63" s="26" t="s">
         <v>81</v>
@@ -3783,7 +3839,7 @@
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
     </row>
-    <row r="64" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="13.5" customHeight="1">
       <c r="A64" s="24"/>
       <c r="B64" s="26" t="s">
         <v>82</v>
@@ -3801,7 +3857,7 @@
       <c r="H64" s="23"/>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="13.5" customHeight="1">
       <c r="A65" s="24"/>
       <c r="B65" s="26" t="s">
         <v>97</v>
@@ -3819,7 +3875,7 @@
       <c r="H65" s="23"/>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="13.5" customHeight="1">
       <c r="A66" s="24"/>
       <c r="B66" s="26" t="s">
         <v>98</v>
@@ -3834,12 +3890,12 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="13.5" customHeight="1">
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="13.5" customHeight="1"/>
+    <row r="69" spans="1:9" ht="13.5" customHeight="1"/>
+    <row r="70" spans="1:9" ht="13.5" customHeight="1">
       <c r="A70" s="25" t="s">
         <v>83</v>
       </c>
@@ -3848,7 +3904,7 @@
       <c r="D70" s="24"/>
       <c r="E70" s="24"/>
     </row>
-    <row r="71" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="13.5" customHeight="1">
       <c r="A71" s="24"/>
       <c r="B71" s="24"/>
       <c r="C71" s="27" t="s">
@@ -3861,7 +3917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="13.5" customHeight="1">
       <c r="A72" s="24"/>
       <c r="B72" s="26" t="s">
         <v>84</v>
@@ -3876,7 +3932,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="13.5" customHeight="1">
       <c r="A73" s="24"/>
       <c r="B73" s="26" t="s">
         <v>85</v>
@@ -3891,7 +3947,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="13.5" customHeight="1">
       <c r="A74" s="24"/>
       <c r="B74" s="26" t="s">
         <v>86</v>
@@ -3906,7 +3962,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="13.5" customHeight="1">
       <c r="A75" s="24"/>
       <c r="B75" s="26" t="s">
         <v>87</v>
@@ -3921,7 +3977,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="13.5" customHeight="1">
       <c r="A76" s="24"/>
       <c r="B76" s="26" t="s">
         <v>88</v>
@@ -3936,7 +3992,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15" customHeight="1">
       <c r="A77" s="24"/>
       <c r="B77" s="26" t="s">
         <v>89</v>
@@ -3951,7 +4007,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15" customHeight="1">
       <c r="A78" s="24"/>
       <c r="B78" s="26" t="s">
         <v>90</v>
@@ -3985,16 +4041,16 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4002,7 +4058,7 @@
       <c r="D1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="13.5" customHeight="1">
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
@@ -4028,7 +4084,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="13.5" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -4057,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -4086,47 +4142,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="13.5" customHeight="1">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="13.5" customHeight="1">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="13.5" customHeight="1">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="13.5" customHeight="1">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="13.5" customHeight="1">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="13.5" customHeight="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="13.5" customHeight="1">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="13.5" customHeight="1">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="13.5" customHeight="1">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="G13" s="3"/>
@@ -4149,17 +4205,17 @@
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="26" width="8.85546875" customWidth="1"/>
+    <col min="1" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1">
       <c r="D2" s="5">
         <v>2000</v>
       </c>
@@ -4227,7 +4283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4261,7 +4317,7 @@
       </c>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4303,7 +4359,7 @@
       </c>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4337,8 +4393,8 @@
       </c>
       <c r="Z5" s="12"/>
     </row>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4372,7 +4428,7 @@
       </c>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4414,7 +4470,7 @@
       </c>
       <c r="Z8" s="12"/>
     </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4448,7 +4504,7 @@
       </c>
       <c r="Z9" s="12"/>
     </row>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4468,17 +4524,17 @@
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="26" width="8.85546875" customWidth="1"/>
+    <col min="1" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1">
       <c r="D2" s="7">
         <v>2000</v>
       </c>
@@ -4546,7 +4602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4580,7 +4636,7 @@
       </c>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4620,7 +4676,7 @@
       </c>
       <c r="Z4" s="14"/>
     </row>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4654,8 +4710,8 @@
       </c>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4689,7 +4745,7 @@
       </c>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4729,7 +4785,7 @@
       </c>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4783,17 +4839,17 @@
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="25" width="8.85546875" customWidth="1"/>
+    <col min="1" max="25" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -4861,7 +4917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4896,7 +4952,7 @@
       </c>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4931,15 +4987,15 @@
       </c>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -5007,7 +5063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="B10" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5040,7 +5096,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1">
       <c r="B11" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5073,15 +5129,15 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1">
       <c r="C16" s="5">
         <v>2000</v>
       </c>
@@ -5149,7 +5205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" ht="13.5" customHeight="1">
       <c r="B17" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5182,7 +5238,7 @@
       </c>
       <c r="Y17" s="10"/>
     </row>
-    <row r="18" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" ht="13.5" customHeight="1">
       <c r="B18" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5229,23 +5285,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="25" width="8.85546875" customWidth="1"/>
+    <col min="1" max="25" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -5313,7 +5369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -5343,15 +5399,15 @@
       </c>
       <c r="Y3" s="9"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="5" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="13.5" customHeight="1">
       <c r="C8" s="5">
         <v>2000</v>
       </c>
@@ -5419,7 +5475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
@@ -5449,15 +5505,15 @@
       </c>
       <c r="Y9" s="9"/>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="13.5" customHeight="1">
       <c r="C14" s="5">
         <v>2000</v>
       </c>
@@ -5525,7 +5581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
@@ -5555,15 +5611,15 @@
       </c>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="17" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="18" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="19" spans="1:25" ht="13.5" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="13.5" customHeight="1">
       <c r="C20" s="5">
         <v>2000</v>
       </c>
@@ -5631,7 +5687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="13.5" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
@@ -5661,15 +5717,15 @@
       </c>
       <c r="Y21" s="9"/>
     </row>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="23" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="24" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="25" spans="1:25" ht="13.5" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="13.5" customHeight="1">
       <c r="C26" s="7">
         <v>2000</v>
       </c>
@@ -5737,7 +5793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="B27" s="7" t="s">
         <v>14</v>
       </c>
@@ -5767,15 +5823,15 @@
       </c>
       <c r="Y27" s="9"/>
     </row>
-    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="30" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="C32" s="5">
         <v>2000</v>
       </c>
@@ -5843,7 +5899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="13.5" customHeight="1">
       <c r="B33" s="5" t="s">
         <v>14</v>
       </c>
@@ -5873,15 +5929,15 @@
       </c>
       <c r="Y33" s="9"/>
     </row>
-    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="35" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="36" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="37" spans="1:25" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="13.5" customHeight="1">
       <c r="C38" s="5">
         <v>2000</v>
       </c>
@@ -5949,7 +6005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1">
       <c r="B39" s="5" t="s">
         <v>14</v>
       </c>
@@ -5979,8 +6035,277 @@
       </c>
       <c r="Y39" s="9"/>
     </row>
+    <row r="43" spans="1:25" ht="14">
+      <c r="A43" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="31"/>
+      <c r="X43" s="31"/>
+      <c r="Y43" s="31"/>
+    </row>
+    <row r="44" spans="1:25" ht="14">
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="35">
+        <v>2000</v>
+      </c>
+      <c r="D44" s="35">
+        <v>2001</v>
+      </c>
+      <c r="E44" s="35">
+        <v>2002</v>
+      </c>
+      <c r="F44" s="35">
+        <v>2003</v>
+      </c>
+      <c r="G44" s="35">
+        <v>2004</v>
+      </c>
+      <c r="H44" s="35">
+        <v>2005</v>
+      </c>
+      <c r="I44" s="35">
+        <v>2006</v>
+      </c>
+      <c r="J44" s="35">
+        <v>2007</v>
+      </c>
+      <c r="K44" s="35">
+        <v>2008</v>
+      </c>
+      <c r="L44" s="35">
+        <v>2009</v>
+      </c>
+      <c r="M44" s="35">
+        <v>2010</v>
+      </c>
+      <c r="N44" s="35">
+        <v>2011</v>
+      </c>
+      <c r="O44" s="35">
+        <v>2012</v>
+      </c>
+      <c r="P44" s="35">
+        <v>2013</v>
+      </c>
+      <c r="Q44" s="35">
+        <v>2014</v>
+      </c>
+      <c r="R44" s="35">
+        <v>2015</v>
+      </c>
+      <c r="S44" s="35">
+        <v>2016</v>
+      </c>
+      <c r="T44" s="35">
+        <v>2017</v>
+      </c>
+      <c r="U44" s="35">
+        <v>2018</v>
+      </c>
+      <c r="V44" s="35">
+        <v>2019</v>
+      </c>
+      <c r="W44" s="35">
+        <v>2020</v>
+      </c>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="14">
+      <c r="A45" s="31"/>
+      <c r="B45" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y45" s="37"/>
+    </row>
+    <row r="46" spans="1:25" ht="12"/>
+    <row r="47" spans="1:25" ht="12"/>
+    <row r="48" spans="1:25" ht="12"/>
+    <row r="49" spans="1:25" ht="14">
+      <c r="A49" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="31"/>
+      <c r="Y49" s="31"/>
+    </row>
+    <row r="50" spans="1:25" ht="14">
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="35">
+        <v>2000</v>
+      </c>
+      <c r="D50" s="35">
+        <v>2001</v>
+      </c>
+      <c r="E50" s="35">
+        <v>2002</v>
+      </c>
+      <c r="F50" s="35">
+        <v>2003</v>
+      </c>
+      <c r="G50" s="35">
+        <v>2004</v>
+      </c>
+      <c r="H50" s="35">
+        <v>2005</v>
+      </c>
+      <c r="I50" s="35">
+        <v>2006</v>
+      </c>
+      <c r="J50" s="35">
+        <v>2007</v>
+      </c>
+      <c r="K50" s="35">
+        <v>2008</v>
+      </c>
+      <c r="L50" s="35">
+        <v>2009</v>
+      </c>
+      <c r="M50" s="35">
+        <v>2010</v>
+      </c>
+      <c r="N50" s="35">
+        <v>2011</v>
+      </c>
+      <c r="O50" s="35">
+        <v>2012</v>
+      </c>
+      <c r="P50" s="35">
+        <v>2013</v>
+      </c>
+      <c r="Q50" s="35">
+        <v>2014</v>
+      </c>
+      <c r="R50" s="35">
+        <v>2015</v>
+      </c>
+      <c r="S50" s="35">
+        <v>2016</v>
+      </c>
+      <c r="T50" s="35">
+        <v>2017</v>
+      </c>
+      <c r="U50" s="35">
+        <v>2018</v>
+      </c>
+      <c r="V50" s="35">
+        <v>2019</v>
+      </c>
+      <c r="W50" s="35">
+        <v>2020</v>
+      </c>
+      <c r="X50" s="31"/>
+      <c r="Y50" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="14">
+      <c r="A51" s="31"/>
+      <c r="B51" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y51" s="37"/>
+    </row>
+    <row r="52" spans="1:25" ht="12"/>
+    <row r="53" spans="1:25" ht="12"/>
+    <row r="54" spans="1:25" ht="12"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5997,17 +6322,17 @@
       <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="25" width="8.85546875" customWidth="1"/>
+    <col min="1" max="25" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -6075,7 +6400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -6108,7 +6433,7 @@
       </c>
       <c r="Y3" s="15"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -6141,15 +6466,15 @@
       </c>
       <c r="Y4" s="15"/>
     </row>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -6217,7 +6542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
@@ -6249,15 +6574,15 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1">
       <c r="C15" s="5">
         <v>2000</v>
       </c>
@@ -6325,7 +6650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
@@ -6365,15 +6690,15 @@
       </c>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="18" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="19" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="20" spans="1:25" ht="13.5" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="13.5" customHeight="1">
       <c r="C21" s="5">
         <v>2000</v>
       </c>
@@ -6441,7 +6766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="13.5" customHeight="1">
       <c r="B22" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -6474,7 +6799,7 @@
       </c>
       <c r="Y22" s="15"/>
     </row>
-    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="13.5" customHeight="1">
       <c r="B23" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -6507,15 +6832,15 @@
       </c>
       <c r="Y23" s="15"/>
     </row>
-    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="25" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="26" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="13.5" customHeight="1">
       <c r="C28" s="5">
         <v>2000</v>
       </c>
@@ -6583,7 +6908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="B29" s="5" t="s">
         <v>14</v>
       </c>
@@ -6623,15 +6948,15 @@
       </c>
       <c r="Y29" s="6"/>
     </row>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="32" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="33" spans="1:25" ht="13.5" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="13.5" customHeight="1">
       <c r="C34" s="5">
         <v>2000</v>
       </c>
@@ -6699,7 +7024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="13.5" customHeight="1">
       <c r="B35" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -6756,15 +7081,15 @@
       </c>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="37" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="38" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="39" spans="1:25" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="13.5" customHeight="1">
       <c r="C40" s="5">
         <v>2000</v>
       </c>
@@ -6832,7 +7157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="13.5" customHeight="1">
       <c r="B41" s="5" t="s">
         <v>14</v>
       </c>
@@ -6879,15 +7204,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="14">
       <c r="A1" s="34" t="s">
         <v>106</v>
       </c>
@@ -6916,7 +7241,7 @@
       <c r="X1" s="31"/>
       <c r="Y1" s="31"/>
     </row>
-    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="14">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="35">
@@ -6987,7 +7312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="14">
       <c r="A3" s="31"/>
       <c r="B3" s="32" t="s">
         <v>95</v>
@@ -7020,7 +7345,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="14">
       <c r="A4" s="31"/>
       <c r="B4" s="32" t="s">
         <v>96</v>
@@ -7053,7 +7378,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="14">
       <c r="A8" s="34" t="s">
         <v>101</v>
       </c>
@@ -7082,7 +7407,7 @@
       <c r="X8" s="31"/>
       <c r="Y8" s="31"/>
     </row>
-    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="14">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
       <c r="C9" s="35">
@@ -7153,7 +7478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="14">
       <c r="A10" s="31"/>
       <c r="B10" s="32" t="s">
         <v>95</v>
@@ -7186,7 +7511,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="14">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>96</v>
@@ -7219,7 +7544,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="14">
       <c r="A15" s="34" t="s">
         <v>107</v>
       </c>
@@ -7248,7 +7573,7 @@
       <c r="X15" s="31"/>
       <c r="Y15" s="31"/>
     </row>
-    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="14">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="35">
@@ -7319,7 +7644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="14">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>95</v>
@@ -7352,7 +7677,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="14">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>96</v>
@@ -7385,7 +7710,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="14">
       <c r="A22" s="34" t="s">
         <v>108</v>
       </c>
@@ -7414,7 +7739,7 @@
       <c r="X22" s="31"/>
       <c r="Y22" s="31"/>
     </row>
-    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="14">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="35">
@@ -7485,7 +7810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="14">
       <c r="A24" s="31"/>
       <c r="B24" s="32" t="s">
         <v>95</v>
@@ -7518,7 +7843,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="14">
       <c r="A25" s="31"/>
       <c r="B25" s="32" t="s">
         <v>96</v>
@@ -7551,7 +7876,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="14">
       <c r="A29" s="34" t="s">
         <v>113</v>
       </c>
@@ -7580,7 +7905,7 @@
       <c r="X29" s="31"/>
       <c r="Y29" s="31"/>
     </row>
-    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="14">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="35">
@@ -7651,7 +7976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="14">
       <c r="A31" s="31"/>
       <c r="B31" s="35" t="s">
         <v>30</v>
@@ -7684,7 +8009,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="14">
       <c r="A35" s="34" t="s">
         <v>102</v>
       </c>
@@ -7713,7 +8038,7 @@
       <c r="X35" s="31"/>
       <c r="Y35" s="31"/>
     </row>
-    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="14">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="35">
@@ -7784,7 +8109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="14">
       <c r="A37" s="31"/>
       <c r="B37" s="35" t="s">
         <v>30</v>
@@ -7817,7 +8142,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="14">
       <c r="A41" s="34" t="s">
         <v>114</v>
       </c>
@@ -7846,7 +8171,7 @@
       <c r="X41" s="31"/>
       <c r="Y41" s="31"/>
     </row>
-    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="14">
       <c r="A42" s="31"/>
       <c r="B42" s="31"/>
       <c r="C42" s="35">
@@ -7917,7 +8242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="14">
       <c r="A43" s="31"/>
       <c r="B43" s="35" t="s">
         <v>30</v>
@@ -7950,7 +8275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="14">
       <c r="A47" s="34" t="s">
         <v>115</v>
       </c>
@@ -7979,7 +8304,7 @@
       <c r="X47" s="31"/>
       <c r="Y47" s="31"/>
     </row>
-    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="14">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="C48" s="35">
@@ -8050,7 +8375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="14">
       <c r="A49" s="31"/>
       <c r="B49" s="35" t="s">
         <v>30</v>
@@ -8083,9 +8408,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="14">
       <c r="A53" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
@@ -8112,7 +8437,7 @@
       <c r="X53" s="31"/>
       <c r="Y53" s="31"/>
     </row>
-    <row r="54" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" ht="14">
       <c r="A54" s="31"/>
       <c r="B54" s="31"/>
       <c r="C54" s="35">
@@ -8183,7 +8508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="14">
       <c r="A55" s="31"/>
       <c r="B55" s="35" t="s">
         <v>30</v>
@@ -8216,9 +8541,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" ht="14">
       <c r="A59" s="34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
@@ -8245,7 +8570,7 @@
       <c r="X59" s="31"/>
       <c r="Y59" s="31"/>
     </row>
-    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" ht="14">
       <c r="A60" s="31"/>
       <c r="B60" s="31"/>
       <c r="C60" s="35">
@@ -8316,7 +8641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" ht="14">
       <c r="A61" s="31"/>
       <c r="B61" s="35" t="s">
         <v>30</v>
@@ -8349,141 +8674,14 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="31"/>
-      <c r="T65" s="31"/>
-      <c r="U65" s="31"/>
-      <c r="V65" s="31"/>
-      <c r="W65" s="31"/>
-      <c r="X65" s="31"/>
-      <c r="Y65" s="31"/>
-    </row>
-    <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="35">
-        <v>2000</v>
-      </c>
-      <c r="D66" s="35">
-        <v>2001</v>
-      </c>
-      <c r="E66" s="35">
-        <v>2002</v>
-      </c>
-      <c r="F66" s="35">
-        <v>2003</v>
-      </c>
-      <c r="G66" s="35">
-        <v>2004</v>
-      </c>
-      <c r="H66" s="35">
-        <v>2005</v>
-      </c>
-      <c r="I66" s="35">
-        <v>2006</v>
-      </c>
-      <c r="J66" s="35">
-        <v>2007</v>
-      </c>
-      <c r="K66" s="35">
-        <v>2008</v>
-      </c>
-      <c r="L66" s="35">
-        <v>2009</v>
-      </c>
-      <c r="M66" s="35">
-        <v>2010</v>
-      </c>
-      <c r="N66" s="35">
-        <v>2011</v>
-      </c>
-      <c r="O66" s="35">
-        <v>2012</v>
-      </c>
-      <c r="P66" s="35">
-        <v>2013</v>
-      </c>
-      <c r="Q66" s="35">
-        <v>2014</v>
-      </c>
-      <c r="R66" s="35">
-        <v>2015</v>
-      </c>
-      <c r="S66" s="35">
-        <v>2016</v>
-      </c>
-      <c r="T66" s="35">
-        <v>2017</v>
-      </c>
-      <c r="U66" s="35">
-        <v>2018</v>
-      </c>
-      <c r="V66" s="35">
-        <v>2019</v>
-      </c>
-      <c r="W66" s="35">
-        <v>2020</v>
-      </c>
-      <c r="X66" s="31"/>
-      <c r="Y66" s="35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37"/>
-      <c r="U67" s="37"/>
-      <c r="V67" s="37"/>
-      <c r="W67" s="37"/>
-      <c r="X67" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y67" s="37">
-        <v>0.85</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8495,17 +8693,17 @@
       <selection activeCell="AA53" sqref="AA53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="25" width="8.85546875" customWidth="1"/>
+    <col min="1" max="25" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -8573,7 +8771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -8606,7 +8804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -8639,15 +8837,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -8715,7 +8913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="B10" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -8749,7 +8947,7 @@
         <v>12.000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1">
       <c r="B11" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -8783,15 +8981,15 @@
         <v>6.0000000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1">
       <c r="C16" s="5">
         <v>2000</v>
       </c>
@@ -8859,7 +9057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="13.5" customHeight="1">
       <c r="B17" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -8892,7 +9090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="13.5" customHeight="1">
       <c r="B18" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -8925,15 +9123,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="20" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="21" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="22" spans="1:25" ht="13.5" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="13.5" customHeight="1">
       <c r="C23" s="5">
         <v>2000</v>
       </c>
@@ -9001,7 +9199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="13.5" customHeight="1">
       <c r="B24" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9034,7 +9232,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="13.5" customHeight="1">
       <c r="B25" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9067,15 +9265,15 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="27" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="28" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="C30" s="5">
         <v>2000</v>
       </c>
@@ -9143,7 +9341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="B31" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9176,7 +9374,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="B32" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9209,15 +9407,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="34" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="35" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="36" spans="1:25" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="13.5" customHeight="1">
       <c r="C37" s="5">
         <v>2000</v>
       </c>
@@ -9285,7 +9483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="13.5" customHeight="1">
       <c r="B38" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9318,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1">
       <c r="B39" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9351,15 +9549,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="41" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="42" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="43" spans="1:25" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="13.5" customHeight="1">
       <c r="C44" s="5">
         <v>2000</v>
       </c>
@@ -9427,7 +9625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="13.5" customHeight="1">
       <c r="B45" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>

--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="861" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14715" tabRatio="861" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="16" r:id="rId1"/>
@@ -12,15 +12,15 @@
     <sheet name="Population size" sheetId="4" r:id="rId3"/>
     <sheet name="HIV prevalence" sheetId="15" r:id="rId4"/>
     <sheet name="Other epidemiology" sheetId="6" r:id="rId5"/>
-    <sheet name="Optional indicators" sheetId="5" r:id="rId6"/>
-    <sheet name="Testing &amp; treatment" sheetId="7" r:id="rId7"/>
+    <sheet name="Testing &amp; treatment" sheetId="7" r:id="rId6"/>
+    <sheet name="Optional indicators" sheetId="5" r:id="rId7"/>
     <sheet name="Cascade" sheetId="18" r:id="rId8"/>
     <sheet name="Sexual behavior" sheetId="8" r:id="rId9"/>
     <sheet name="Injecting behavior" sheetId="9" r:id="rId10"/>
     <sheet name="Partnerships &amp; transitions" sheetId="10" r:id="rId11"/>
     <sheet name="Constants" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="121">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -495,46 +495,10 @@
     <t>Proportion of people on ART with viral suppression (%)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Diagnosed </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PLHIV </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">on treatment </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(%)</t>
-    </r>
+    <t>Diagnosed PLHIV in care (%)</t>
+  </si>
+  <si>
+    <t>PLHIV in care on treatment (%)</t>
   </si>
 </sst>
 </file>
@@ -542,8 +506,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
@@ -762,9 +726,9 @@
   <cellStyleXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -956,13 +920,13 @@
     <xf numFmtId="165" fontId="16" fillId="10" borderId="2" xfId="113" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="113" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="113" applyFont="1"/>
   </cellXfs>
   <cellStyles count="118">
     <cellStyle name="Comma 2" xfId="4"/>
@@ -2340,34 +2304,34 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="41"/>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="41"/>
-    </row>
-    <row r="4" spans="1:1" ht="14">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="42"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="42"/>
+    </row>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" ht="67.5" customHeight="1">
+    <row r="5" spans="1:1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14">
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" ht="14">
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>92</v>
       </c>
@@ -2393,17 +2357,17 @@
       <selection activeCell="X1" sqref="X1:AG1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="25" width="8.83203125" customWidth="1"/>
+    <col min="1" max="25" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -2471,7 +2435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2504,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2537,15 +2501,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1">
+    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -2613,7 +2577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2646,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2679,15 +2643,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>2000</v>
       </c>
@@ -2755,7 +2719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="13.5" customHeight="1">
+    <row r="17" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>14</v>
       </c>
@@ -2787,9 +2751,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:25" ht="13.5" customHeight="1"/>
-    <row r="19" spans="2:25" ht="13.5" customHeight="1"/>
-    <row r="20" spans="2:25" ht="13.5" customHeight="1"/>
+    <row r="18" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2808,21 +2772,21 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.5" customHeight="1">
+    <row r="1" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="13.5" customHeight="1">
+    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2832,7 +2796,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" customHeight="1">
+    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2842,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2850,26 +2814,26 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="13.5" customHeight="1">
+    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="13.5" customHeight="1">
+    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="13.5" customHeight="1">
+    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="13.5" customHeight="1">
+    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="13.5" customHeight="1">
+    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2879,7 +2843,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.5" customHeight="1">
+    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2889,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1">
+    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2897,26 +2861,26 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1">
+    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="13.5" customHeight="1">
+    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="13.5" customHeight="1">
+    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="13.5" customHeight="1">
+    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="13.5" customHeight="1">
+    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2926,7 +2890,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1">
+    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2934,7 +2898,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="13.5" customHeight="1">
+    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2942,26 +2906,26 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="13.5" customHeight="1">
+    <row r="19" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="13.5" customHeight="1">
+    <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="13.5" customHeight="1">
+    <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="13.5" customHeight="1">
+    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="13.5" customHeight="1">
+    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2971,7 +2935,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.5" customHeight="1">
+    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2979,7 +2943,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="13.5" customHeight="1">
+    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2987,14 +2951,14 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="29" spans="1:4" ht="13.5" customHeight="1">
+    <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="13.5" customHeight="1">
+    <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3004,7 +2968,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="13.5" customHeight="1">
+    <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3012,14 +2976,14 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="35" spans="1:4" ht="13.5" customHeight="1">
+    <row r="35" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" ht="13.5" customHeight="1">
+    <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3029,7 +2993,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13.5" customHeight="1">
+    <row r="37" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3037,7 +3001,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" ht="13.5" customHeight="1">
+    <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3045,14 +3009,14 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="42" spans="1:4" ht="13.5" customHeight="1">
+    <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="13.5" customHeight="1">
+    <row r="43" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3062,7 +3026,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="13.5" customHeight="1">
+    <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3070,7 +3034,7 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" ht="13.5" customHeight="1">
+    <row r="45" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3097,14 +3061,14 @@
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="6" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" customHeight="1">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>49</v>
       </c>
@@ -3113,7 +3077,7 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="27" t="s">
@@ -3126,7 +3090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="26" t="s">
         <v>50</v>
@@ -3141,7 +3105,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="26" t="s">
         <v>51</v>
@@ -3156,7 +3120,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="26" t="s">
         <v>52</v>
@@ -3171,7 +3135,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="26" t="s">
         <v>53</v>
@@ -3186,7 +3150,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="26" t="s">
         <v>54</v>
@@ -3201,7 +3165,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="26" t="s">
         <v>55</v>
@@ -3216,7 +3180,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="26" t="s">
         <v>56</v>
@@ -3231,16 +3195,16 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="13.5" customHeight="1">
+    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="13.5" customHeight="1">
+    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="13.5" customHeight="1">
+    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>57</v>
       </c>
@@ -3249,7 +3213,7 @@
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:5" ht="13.5" customHeight="1">
+    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="27" t="s">
@@ -3262,7 +3226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.5" customHeight="1">
+    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="26" t="s">
         <v>58</v>
@@ -3277,7 +3241,7 @@
         <v>48.02</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.5" customHeight="1">
+    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="26" t="s">
         <v>59</v>
@@ -3292,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.5" customHeight="1">
+    <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="26" t="s">
         <v>60</v>
@@ -3307,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.5" customHeight="1">
+    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="26" t="s">
         <v>61</v>
@@ -3322,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13.5" customHeight="1">
+    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="26" t="s">
         <v>62</v>
@@ -3337,7 +3301,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.5" customHeight="1">
+    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="26" t="s">
         <v>63</v>
@@ -3352,16 +3316,16 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13.5" customHeight="1">
+    <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="13.5" customHeight="1">
+    <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="13.5" customHeight="1">
+    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="13.5" customHeight="1">
+    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>64</v>
       </c>
@@ -3370,7 +3334,7 @@
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" ht="13.5" customHeight="1">
+    <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="27" t="s">
@@ -3383,7 +3347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="13.5" customHeight="1">
+    <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="26" t="s">
         <v>65</v>
@@ -3398,7 +3362,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="13.5" customHeight="1">
+    <row r="27" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="26" t="s">
         <v>60</v>
@@ -3413,7 +3377,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="13.5" customHeight="1">
+    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="26" t="s">
         <v>99</v>
@@ -3428,7 +3392,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="13.5" customHeight="1">
+    <row r="29" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="26" t="s">
         <v>66</v>
@@ -3443,7 +3407,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="13.5" customHeight="1">
+    <row r="30" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="26" t="s">
         <v>67</v>
@@ -3458,16 +3422,16 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="13.5" customHeight="1">
+    <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="13.5" customHeight="1">
+    <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="13.5" customHeight="1">
+    <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="13.5" customHeight="1">
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>68</v>
       </c>
@@ -3476,7 +3440,7 @@
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
     </row>
-    <row r="35" spans="1:5" ht="13.5" customHeight="1">
+    <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="27" t="s">
@@ -3489,7 +3453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="13.5" customHeight="1">
+    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="26" t="s">
         <v>69</v>
@@ -3504,7 +3468,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="13.5" customHeight="1">
+    <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="26" t="s">
         <v>70</v>
@@ -3519,7 +3483,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="13.5" customHeight="1">
+    <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="26" t="s">
         <v>71</v>
@@ -3534,7 +3498,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="13.5" customHeight="1">
+    <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="26" t="s">
         <v>72</v>
@@ -3549,16 +3513,16 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="13.5" customHeight="1">
+    <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="13.5" customHeight="1">
+    <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="13.5" customHeight="1">
+    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="13.5" customHeight="1">
+    <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>73</v>
       </c>
@@ -3567,7 +3531,7 @@
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
     </row>
-    <row r="44" spans="1:5" ht="13.5" customHeight="1">
+    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="24"/>
       <c r="C44" s="27" t="s">
@@ -3580,7 +3544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="13.5" customHeight="1">
+    <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="26" t="s">
         <v>58</v>
@@ -3595,7 +3559,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="13.5" customHeight="1">
+    <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="26" t="s">
         <v>59</v>
@@ -3610,7 +3574,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="13.5" customHeight="1">
+    <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="26" t="s">
         <v>74</v>
@@ -3625,7 +3589,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="13.5" customHeight="1">
+    <row r="48" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="26" t="s">
         <v>61</v>
@@ -3640,7 +3604,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1">
+    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="26" t="s">
         <v>62</v>
@@ -3655,7 +3619,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="13.5" customHeight="1">
+    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="26" t="s">
         <v>63</v>
@@ -3670,7 +3634,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="13.5" customHeight="1">
+    <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="26" t="s">
         <v>75</v>
@@ -3685,7 +3649,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="13.5" customHeight="1">
+    <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="26" t="s">
         <v>76</v>
@@ -3700,16 +3664,16 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="13.5" customHeight="1">
+    <row r="53" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="13.5" customHeight="1">
+    <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="13.5" customHeight="1">
+    <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:9" ht="13.5" customHeight="1">
+    <row r="56" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>100</v>
       </c>
@@ -3718,7 +3682,7 @@
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
     </row>
-    <row r="57" spans="1:9" ht="13.5" customHeight="1">
+    <row r="57" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
       <c r="C57" s="27" t="s">
@@ -3731,7 +3695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="13.5" customHeight="1">
+    <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="26" t="s">
         <v>77</v>
@@ -3749,7 +3713,7 @@
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" ht="13.5" customHeight="1">
+    <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="26" t="s">
         <v>78</v>
@@ -3767,7 +3731,7 @@
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:9" ht="13.5" customHeight="1">
+    <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="26" t="s">
         <v>79</v>
@@ -3785,7 +3749,7 @@
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="1:9" ht="13.5" customHeight="1">
+    <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="26" t="s">
         <v>94</v>
@@ -3803,7 +3767,7 @@
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="1:9" ht="13.5" customHeight="1">
+    <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="26" t="s">
         <v>80</v>
@@ -3821,7 +3785,7 @@
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
     </row>
-    <row r="63" spans="1:9" ht="13.5" customHeight="1">
+    <row r="63" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="26" t="s">
         <v>81</v>
@@ -3839,7 +3803,7 @@
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
     </row>
-    <row r="64" spans="1:9" ht="13.5" customHeight="1">
+    <row r="64" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="26" t="s">
         <v>82</v>
@@ -3857,7 +3821,7 @@
       <c r="H64" s="23"/>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="1:9" ht="13.5" customHeight="1">
+    <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="26" t="s">
         <v>97</v>
@@ -3875,7 +3839,7 @@
       <c r="H65" s="23"/>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="1:9" ht="13.5" customHeight="1">
+    <row r="66" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="26" t="s">
         <v>98</v>
@@ -3890,12 +3854,12 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="13.5" customHeight="1">
+    <row r="67" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:9" ht="13.5" customHeight="1"/>
-    <row r="69" spans="1:9" ht="13.5" customHeight="1"/>
-    <row r="70" spans="1:9" ht="13.5" customHeight="1">
+    <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
         <v>83</v>
       </c>
@@ -3904,7 +3868,7 @@
       <c r="D70" s="24"/>
       <c r="E70" s="24"/>
     </row>
-    <row r="71" spans="1:9" ht="13.5" customHeight="1">
+    <row r="71" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="24"/>
       <c r="B71" s="24"/>
       <c r="C71" s="27" t="s">
@@ -3917,7 +3881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="13.5" customHeight="1">
+    <row r="72" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="26" t="s">
         <v>84</v>
@@ -3932,7 +3896,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="13.5" customHeight="1">
+    <row r="73" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
       <c r="B73" s="26" t="s">
         <v>85</v>
@@ -3947,7 +3911,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="13.5" customHeight="1">
+    <row r="74" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="24"/>
       <c r="B74" s="26" t="s">
         <v>86</v>
@@ -3962,7 +3926,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="13.5" customHeight="1">
+    <row r="75" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="24"/>
       <c r="B75" s="26" t="s">
         <v>87</v>
@@ -3977,7 +3941,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="13.5" customHeight="1">
+    <row r="76" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="24"/>
       <c r="B76" s="26" t="s">
         <v>88</v>
@@ -3992,7 +3956,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="24"/>
       <c r="B77" s="26" t="s">
         <v>89</v>
@@ -4007,7 +3971,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="24"/>
       <c r="B78" s="26" t="s">
         <v>90</v>
@@ -4041,16 +4005,16 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" customHeight="1">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4058,7 +4022,7 @@
       <c r="D1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="13.5" customHeight="1">
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
@@ -4084,7 +4048,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1">
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -4113,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -4142,47 +4106,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1">
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="13.5" customHeight="1">
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="13.5" customHeight="1">
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="13.5" customHeight="1">
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1">
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="13.5" customHeight="1">
+    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="13.5" customHeight="1">
+    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="13.5" customHeight="1">
+    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="G13" s="3"/>
@@ -4205,17 +4169,17 @@
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="8.83203125" customWidth="1"/>
+    <col min="1" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="5">
         <v>2000</v>
       </c>
@@ -4283,7 +4247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4317,7 +4281,7 @@
       </c>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4359,7 +4323,7 @@
       </c>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1">
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4393,8 +4357,8 @@
       </c>
       <c r="Z5" s="12"/>
     </row>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1">
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4428,7 +4392,7 @@
       </c>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4470,7 +4434,7 @@
       </c>
       <c r="Z8" s="12"/>
     </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1">
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4504,7 +4468,7 @@
       </c>
       <c r="Z9" s="12"/>
     </row>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4524,17 +4488,17 @@
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="8.83203125" customWidth="1"/>
+    <col min="1" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="7">
         <v>2000</v>
       </c>
@@ -4602,7 +4566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4636,7 +4600,7 @@
       </c>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4676,7 +4640,7 @@
       </c>
       <c r="Z4" s="14"/>
     </row>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1">
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4710,8 +4674,8 @@
       </c>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1">
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4745,7 +4709,7 @@
       </c>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4785,7 +4749,7 @@
       </c>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1">
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4839,17 +4803,17 @@
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="25" width="8.83203125" customWidth="1"/>
+    <col min="1" max="25" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -4917,7 +4881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4952,7 +4916,7 @@
       </c>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4987,15 +4951,15 @@
       </c>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1">
+    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -5063,7 +5027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5096,7 +5060,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5129,15 +5093,15 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>2000</v>
       </c>
@@ -5205,7 +5169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="13.5" customHeight="1">
+    <row r="17" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5238,7 +5202,7 @@
       </c>
       <c r="Y17" s="10"/>
     </row>
-    <row r="18" spans="2:25" ht="13.5" customHeight="1">
+    <row r="18" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5284,24 +5248,912 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y41"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="25" width="8.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2001</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2002</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2004</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2005</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2006</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2007</v>
+      </c>
+      <c r="K2" s="5">
+        <v>2008</v>
+      </c>
+      <c r="L2" s="5">
+        <v>2009</v>
+      </c>
+      <c r="M2" s="5">
+        <v>2010</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2011</v>
+      </c>
+      <c r="O2" s="5">
+        <v>2012</v>
+      </c>
+      <c r="P2" s="5">
+        <v>2013</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>2014</v>
+      </c>
+      <c r="R2" s="5">
+        <v>2015</v>
+      </c>
+      <c r="S2" s="5">
+        <v>2016</v>
+      </c>
+      <c r="T2" s="5">
+        <v>2017</v>
+      </c>
+      <c r="U2" s="5">
+        <v>2018</v>
+      </c>
+      <c r="V2" s="5">
+        <v>2019</v>
+      </c>
+      <c r="W2" s="5">
+        <v>2020</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="str">
+        <f>Populations!$C$3</f>
+        <v>M 15-49</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="15"/>
+    </row>
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="str">
+        <f>Populations!$C$4</f>
+        <v>F 15-49</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="15"/>
+    </row>
+    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2001</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2002</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2004</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2005</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2006</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2007</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2008</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2009</v>
+      </c>
+      <c r="M9" s="5">
+        <v>2010</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2011</v>
+      </c>
+      <c r="O9" s="5">
+        <v>2012</v>
+      </c>
+      <c r="P9" s="5">
+        <v>2013</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>2014</v>
+      </c>
+      <c r="R9" s="5">
+        <v>2015</v>
+      </c>
+      <c r="S9" s="5">
+        <v>2016</v>
+      </c>
+      <c r="T9" s="5">
+        <v>2017</v>
+      </c>
+      <c r="U9" s="5">
+        <v>2018</v>
+      </c>
+      <c r="V9" s="5">
+        <v>2019</v>
+      </c>
+      <c r="W9" s="5">
+        <v>2020</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2001</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2002</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2004</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2005</v>
+      </c>
+      <c r="I15" s="5">
+        <v>2006</v>
+      </c>
+      <c r="J15" s="5">
+        <v>2007</v>
+      </c>
+      <c r="K15" s="5">
+        <v>2008</v>
+      </c>
+      <c r="L15" s="5">
+        <v>2009</v>
+      </c>
+      <c r="M15" s="5">
+        <v>2010</v>
+      </c>
+      <c r="N15" s="5">
+        <v>2011</v>
+      </c>
+      <c r="O15" s="5">
+        <v>2012</v>
+      </c>
+      <c r="P15" s="5">
+        <v>2013</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>2014</v>
+      </c>
+      <c r="R15" s="5">
+        <v>2015</v>
+      </c>
+      <c r="S15" s="5">
+        <v>2016</v>
+      </c>
+      <c r="T15" s="5">
+        <v>2017</v>
+      </c>
+      <c r="U15" s="5">
+        <v>2018</v>
+      </c>
+      <c r="V15" s="5">
+        <v>2019</v>
+      </c>
+      <c r="W15" s="5">
+        <v>2020</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
+        <v>50</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6">
+        <v>600</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6">
+        <v>1900</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6">
+        <v>3200</v>
+      </c>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y16" s="6"/>
+    </row>
+    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2001</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2002</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G21" s="5">
+        <v>2004</v>
+      </c>
+      <c r="H21" s="5">
+        <v>2005</v>
+      </c>
+      <c r="I21" s="5">
+        <v>2006</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2007</v>
+      </c>
+      <c r="K21" s="5">
+        <v>2008</v>
+      </c>
+      <c r="L21" s="5">
+        <v>2009</v>
+      </c>
+      <c r="M21" s="5">
+        <v>2010</v>
+      </c>
+      <c r="N21" s="5">
+        <v>2011</v>
+      </c>
+      <c r="O21" s="5">
+        <v>2012</v>
+      </c>
+      <c r="P21" s="5">
+        <v>2013</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>2014</v>
+      </c>
+      <c r="R21" s="5">
+        <v>2015</v>
+      </c>
+      <c r="S21" s="5">
+        <v>2016</v>
+      </c>
+      <c r="T21" s="5">
+        <v>2017</v>
+      </c>
+      <c r="U21" s="5">
+        <v>2018</v>
+      </c>
+      <c r="V21" s="5">
+        <v>2019</v>
+      </c>
+      <c r="W21" s="5">
+        <v>2020</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="str">
+        <f>Populations!$C$3</f>
+        <v>M 15-49</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15">
+        <v>0</v>
+      </c>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y22" s="15"/>
+    </row>
+    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="str">
+        <f>Populations!$C$4</f>
+        <v>F 15-49</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15">
+        <v>0</v>
+      </c>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y23" s="15"/>
+    </row>
+    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2001</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2002</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2004</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2005</v>
+      </c>
+      <c r="I28" s="5">
+        <v>2006</v>
+      </c>
+      <c r="J28" s="5">
+        <v>2007</v>
+      </c>
+      <c r="K28" s="5">
+        <v>2008</v>
+      </c>
+      <c r="L28" s="5">
+        <v>2009</v>
+      </c>
+      <c r="M28" s="5">
+        <v>2010</v>
+      </c>
+      <c r="N28" s="5">
+        <v>2011</v>
+      </c>
+      <c r="O28" s="5">
+        <v>2012</v>
+      </c>
+      <c r="P28" s="5">
+        <v>2013</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>2014</v>
+      </c>
+      <c r="R28" s="5">
+        <v>2015</v>
+      </c>
+      <c r="S28" s="5">
+        <v>2016</v>
+      </c>
+      <c r="T28" s="5">
+        <v>2017</v>
+      </c>
+      <c r="U28" s="5">
+        <v>2018</v>
+      </c>
+      <c r="V28" s="5">
+        <v>2019</v>
+      </c>
+      <c r="W28" s="5">
+        <v>2020</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="10">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="M29" s="10">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="N29" s="10">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="P29" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y29" s="6"/>
+    </row>
+    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2001</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2002</v>
+      </c>
+      <c r="F34" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G34" s="5">
+        <v>2004</v>
+      </c>
+      <c r="H34" s="5">
+        <v>2005</v>
+      </c>
+      <c r="I34" s="5">
+        <v>2006</v>
+      </c>
+      <c r="J34" s="5">
+        <v>2007</v>
+      </c>
+      <c r="K34" s="5">
+        <v>2008</v>
+      </c>
+      <c r="L34" s="5">
+        <v>2009</v>
+      </c>
+      <c r="M34" s="5">
+        <v>2010</v>
+      </c>
+      <c r="N34" s="5">
+        <v>2011</v>
+      </c>
+      <c r="O34" s="5">
+        <v>2012</v>
+      </c>
+      <c r="P34" s="5">
+        <v>2013</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>2014</v>
+      </c>
+      <c r="R34" s="5">
+        <v>2015</v>
+      </c>
+      <c r="S34" s="5">
+        <v>2016</v>
+      </c>
+      <c r="T34" s="5">
+        <v>2017</v>
+      </c>
+      <c r="U34" s="5">
+        <v>2018</v>
+      </c>
+      <c r="V34" s="5">
+        <v>2019</v>
+      </c>
+      <c r="W34" s="5">
+        <v>2020</v>
+      </c>
+      <c r="Y34" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="str">
+        <f>Populations!$C$4</f>
+        <v>F 15-49</v>
+      </c>
+      <c r="C35" s="9">
+        <v>4.5925296336727484E-2</v>
+      </c>
+      <c r="D35" s="9">
+        <v>4.5324022610802442E-2</v>
+      </c>
+      <c r="E35" s="9">
+        <v>4.5258178531301665E-2</v>
+      </c>
+      <c r="F35" s="9">
+        <v>4.5643569591584512E-2</v>
+      </c>
+      <c r="G35" s="9">
+        <v>4.6393022020567463E-2</v>
+      </c>
+      <c r="H35" s="9">
+        <v>4.7380532618388635E-2</v>
+      </c>
+      <c r="I35" s="9">
+        <v>4.8776034491919598E-2</v>
+      </c>
+      <c r="J35" s="9">
+        <v>5.0081489017354618E-2</v>
+      </c>
+      <c r="K35" s="9">
+        <v>5.1207019154705748E-2</v>
+      </c>
+      <c r="L35" s="9">
+        <v>5.2116086916866047E-2</v>
+      </c>
+      <c r="M35" s="9">
+        <v>5.278448936292468E-2</v>
+      </c>
+      <c r="N35" s="9">
+        <v>5.2115181359517093E-2</v>
+      </c>
+      <c r="O35" s="9">
+        <v>5.2484499496074824E-2</v>
+      </c>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y35" s="9"/>
+    </row>
+    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2001</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2002</v>
+      </c>
+      <c r="F40" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G40" s="5">
+        <v>2004</v>
+      </c>
+      <c r="H40" s="5">
+        <v>2005</v>
+      </c>
+      <c r="I40" s="5">
+        <v>2006</v>
+      </c>
+      <c r="J40" s="5">
+        <v>2007</v>
+      </c>
+      <c r="K40" s="5">
+        <v>2008</v>
+      </c>
+      <c r="L40" s="5">
+        <v>2009</v>
+      </c>
+      <c r="M40" s="5">
+        <v>2010</v>
+      </c>
+      <c r="N40" s="5">
+        <v>2011</v>
+      </c>
+      <c r="O40" s="5">
+        <v>2012</v>
+      </c>
+      <c r="P40" s="5">
+        <v>2013</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>2014</v>
+      </c>
+      <c r="R40" s="5">
+        <v>2015</v>
+      </c>
+      <c r="S40" s="5">
+        <v>2016</v>
+      </c>
+      <c r="T40" s="5">
+        <v>2017</v>
+      </c>
+      <c r="U40" s="5">
+        <v>2018</v>
+      </c>
+      <c r="V40" s="5">
+        <v>2019</v>
+      </c>
+      <c r="W40" s="5">
+        <v>2020</v>
+      </c>
+      <c r="Y40" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y41" s="18">
+        <f>14/100*87/100</f>
+        <v>0.12180000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y54"/>
+  <dimension ref="A1:Y57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="25" width="8.83203125" customWidth="1"/>
+    <col min="1" max="25" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -5369,7 +6221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -5399,15 +6251,15 @@
       </c>
       <c r="Y3" s="9"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1">
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
         <v>2000</v>
       </c>
@@ -5475,7 +6327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
@@ -5505,15 +6357,15 @@
       </c>
       <c r="Y9" s="9"/>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1">
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="5">
         <v>2000</v>
       </c>
@@ -5581,7 +6433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
@@ -5611,15 +6463,15 @@
       </c>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="17" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="19" spans="1:25" ht="13.5" customHeight="1">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="13.5" customHeight="1">
+    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="5">
         <v>2000</v>
       </c>
@@ -5687,7 +6539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1">
+    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
@@ -5717,15 +6569,15 @@
       </c>
       <c r="Y21" s="9"/>
     </row>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="23" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="24" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1">
+    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1">
+    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="7">
         <v>2000</v>
       </c>
@@ -5793,7 +6645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1">
+    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>14</v>
       </c>
@@ -5823,15 +6675,15 @@
       </c>
       <c r="Y27" s="9"/>
     </row>
-    <row r="28" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1">
+    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1">
+    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="5">
         <v>2000</v>
       </c>
@@ -5899,7 +6751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="13.5" customHeight="1">
+    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>14</v>
       </c>
@@ -5929,15 +6781,15 @@
       </c>
       <c r="Y33" s="9"/>
     </row>
-    <row r="34" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="35" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="36" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="37" spans="1:25" ht="13.5" customHeight="1">
+    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="13.5" customHeight="1">
+    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="5">
         <v>2000</v>
       </c>
@@ -6005,7 +6857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="13.5" customHeight="1">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>14</v>
       </c>
@@ -6035,7 +6887,7 @@
       </c>
       <c r="Y39" s="9"/>
     </row>
-    <row r="43" spans="1:25" ht="14">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="34" t="s">
         <v>116</v>
       </c>
@@ -6064,7 +6916,7 @@
       <c r="X43" s="31"/>
       <c r="Y43" s="31"/>
     </row>
-    <row r="44" spans="1:25" ht="14">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
       <c r="C44" s="35">
@@ -6135,7 +6987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="14">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="31"/>
       <c r="B45" s="35" t="s">
         <v>30</v>
@@ -6166,11 +7018,11 @@
       </c>
       <c r="Y45" s="37"/>
     </row>
-    <row r="46" spans="1:25" ht="12"/>
-    <row r="47" spans="1:25" ht="12"/>
-    <row r="48" spans="1:25" ht="12"/>
-    <row r="49" spans="1:25" ht="14">
-      <c r="A49" s="42" t="s">
+    <row r="46" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B49" s="31"/>
@@ -6198,7 +7050,7 @@
       <c r="X49" s="31"/>
       <c r="Y49" s="31"/>
     </row>
-    <row r="50" spans="1:25" ht="14">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
       <c r="C50" s="35">
@@ -6269,7 +7121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="14">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
       <c r="B51" s="35" t="s">
         <v>30</v>
@@ -6300,900 +7152,143 @@
       </c>
       <c r="Y51" s="37"/>
     </row>
-    <row r="52" spans="1:25" ht="12"/>
-    <row r="53" spans="1:25" ht="12"/>
-    <row r="54" spans="1:25" ht="12"/>
+    <row r="52" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="31"/>
+      <c r="U55" s="31"/>
+      <c r="V55" s="31"/>
+      <c r="W55" s="31"/>
+      <c r="X55" s="31"/>
+      <c r="Y55" s="31"/>
+    </row>
+    <row r="56" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="35">
+        <v>2000</v>
+      </c>
+      <c r="D56" s="35">
+        <v>2001</v>
+      </c>
+      <c r="E56" s="35">
+        <v>2002</v>
+      </c>
+      <c r="F56" s="35">
+        <v>2003</v>
+      </c>
+      <c r="G56" s="35">
+        <v>2004</v>
+      </c>
+      <c r="H56" s="35">
+        <v>2005</v>
+      </c>
+      <c r="I56" s="35">
+        <v>2006</v>
+      </c>
+      <c r="J56" s="35">
+        <v>2007</v>
+      </c>
+      <c r="K56" s="35">
+        <v>2008</v>
+      </c>
+      <c r="L56" s="35">
+        <v>2009</v>
+      </c>
+      <c r="M56" s="35">
+        <v>2010</v>
+      </c>
+      <c r="N56" s="35">
+        <v>2011</v>
+      </c>
+      <c r="O56" s="35">
+        <v>2012</v>
+      </c>
+      <c r="P56" s="35">
+        <v>2013</v>
+      </c>
+      <c r="Q56" s="35">
+        <v>2014</v>
+      </c>
+      <c r="R56" s="35">
+        <v>2015</v>
+      </c>
+      <c r="S56" s="35">
+        <v>2016</v>
+      </c>
+      <c r="T56" s="35">
+        <v>2017</v>
+      </c>
+      <c r="U56" s="35">
+        <v>2018</v>
+      </c>
+      <c r="V56" s="35">
+        <v>2019</v>
+      </c>
+      <c r="W56" s="35">
+        <v>2020</v>
+      </c>
+      <c r="X56" s="31"/>
+      <c r="Y56" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="31"/>
+      <c r="B57" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="37"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y57" s="37"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y41"/>
-  <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="25" width="8.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1">
-      <c r="C2" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="5">
-        <v>2001</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2002</v>
-      </c>
-      <c r="F2" s="5">
-        <v>2003</v>
-      </c>
-      <c r="G2" s="5">
-        <v>2004</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2005</v>
-      </c>
-      <c r="I2" s="5">
-        <v>2006</v>
-      </c>
-      <c r="J2" s="5">
-        <v>2007</v>
-      </c>
-      <c r="K2" s="5">
-        <v>2008</v>
-      </c>
-      <c r="L2" s="5">
-        <v>2009</v>
-      </c>
-      <c r="M2" s="5">
-        <v>2010</v>
-      </c>
-      <c r="N2" s="5">
-        <v>2011</v>
-      </c>
-      <c r="O2" s="5">
-        <v>2012</v>
-      </c>
-      <c r="P2" s="5">
-        <v>2013</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>2014</v>
-      </c>
-      <c r="R2" s="5">
-        <v>2015</v>
-      </c>
-      <c r="S2" s="5">
-        <v>2016</v>
-      </c>
-      <c r="T2" s="5">
-        <v>2017</v>
-      </c>
-      <c r="U2" s="5">
-        <v>2018</v>
-      </c>
-      <c r="V2" s="5">
-        <v>2019</v>
-      </c>
-      <c r="W2" s="5">
-        <v>2020</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1">
-      <c r="B3" s="7" t="str">
-        <f>Populations!$C$3</f>
-        <v>M 15-49</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15">
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y3" s="15"/>
-    </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1">
-      <c r="B4" s="7" t="str">
-        <f>Populations!$C$4</f>
-        <v>F 15-49</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15">
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="15"/>
-    </row>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1">
-      <c r="C9" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2001</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2002</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2003</v>
-      </c>
-      <c r="G9" s="5">
-        <v>2004</v>
-      </c>
-      <c r="H9" s="5">
-        <v>2005</v>
-      </c>
-      <c r="I9" s="5">
-        <v>2006</v>
-      </c>
-      <c r="J9" s="5">
-        <v>2007</v>
-      </c>
-      <c r="K9" s="5">
-        <v>2008</v>
-      </c>
-      <c r="L9" s="5">
-        <v>2009</v>
-      </c>
-      <c r="M9" s="5">
-        <v>2010</v>
-      </c>
-      <c r="N9" s="5">
-        <v>2011</v>
-      </c>
-      <c r="O9" s="5">
-        <v>2012</v>
-      </c>
-      <c r="P9" s="5">
-        <v>2013</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>2014</v>
-      </c>
-      <c r="R9" s="5">
-        <v>2015</v>
-      </c>
-      <c r="S9" s="5">
-        <v>2016</v>
-      </c>
-      <c r="T9" s="5">
-        <v>2017</v>
-      </c>
-      <c r="U9" s="5">
-        <v>2018</v>
-      </c>
-      <c r="V9" s="5">
-        <v>2019</v>
-      </c>
-      <c r="W9" s="5">
-        <v>2020</v>
-      </c>
-      <c r="Y9" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y10" s="16">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="C15" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2001</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2002</v>
-      </c>
-      <c r="F15" s="5">
-        <v>2003</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2004</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2005</v>
-      </c>
-      <c r="I15" s="5">
-        <v>2006</v>
-      </c>
-      <c r="J15" s="5">
-        <v>2007</v>
-      </c>
-      <c r="K15" s="5">
-        <v>2008</v>
-      </c>
-      <c r="L15" s="5">
-        <v>2009</v>
-      </c>
-      <c r="M15" s="5">
-        <v>2010</v>
-      </c>
-      <c r="N15" s="5">
-        <v>2011</v>
-      </c>
-      <c r="O15" s="5">
-        <v>2012</v>
-      </c>
-      <c r="P15" s="5">
-        <v>2013</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>2014</v>
-      </c>
-      <c r="R15" s="5">
-        <v>2015</v>
-      </c>
-      <c r="S15" s="5">
-        <v>2016</v>
-      </c>
-      <c r="T15" s="5">
-        <v>2017</v>
-      </c>
-      <c r="U15" s="5">
-        <v>2018</v>
-      </c>
-      <c r="V15" s="5">
-        <v>2019</v>
-      </c>
-      <c r="W15" s="5">
-        <v>2020</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1">
-      <c r="B16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6">
-        <v>50</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6">
-        <v>600</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6">
-        <v>1900</v>
-      </c>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6">
-        <v>3200</v>
-      </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y16" s="6"/>
-    </row>
-    <row r="17" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="19" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1">
-      <c r="C21" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2001</v>
-      </c>
-      <c r="E21" s="5">
-        <v>2002</v>
-      </c>
-      <c r="F21" s="5">
-        <v>2003</v>
-      </c>
-      <c r="G21" s="5">
-        <v>2004</v>
-      </c>
-      <c r="H21" s="5">
-        <v>2005</v>
-      </c>
-      <c r="I21" s="5">
-        <v>2006</v>
-      </c>
-      <c r="J21" s="5">
-        <v>2007</v>
-      </c>
-      <c r="K21" s="5">
-        <v>2008</v>
-      </c>
-      <c r="L21" s="5">
-        <v>2009</v>
-      </c>
-      <c r="M21" s="5">
-        <v>2010</v>
-      </c>
-      <c r="N21" s="5">
-        <v>2011</v>
-      </c>
-      <c r="O21" s="5">
-        <v>2012</v>
-      </c>
-      <c r="P21" s="5">
-        <v>2013</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>2014</v>
-      </c>
-      <c r="R21" s="5">
-        <v>2015</v>
-      </c>
-      <c r="S21" s="5">
-        <v>2016</v>
-      </c>
-      <c r="T21" s="5">
-        <v>2017</v>
-      </c>
-      <c r="U21" s="5">
-        <v>2018</v>
-      </c>
-      <c r="V21" s="5">
-        <v>2019</v>
-      </c>
-      <c r="W21" s="5">
-        <v>2020</v>
-      </c>
-      <c r="Y21" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1">
-      <c r="B22" s="7" t="str">
-        <f>Populations!$C$3</f>
-        <v>M 15-49</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15">
-        <v>0</v>
-      </c>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y22" s="15"/>
-    </row>
-    <row r="23" spans="1:25" ht="13.5" customHeight="1">
-      <c r="B23" s="7" t="str">
-        <f>Populations!$C$4</f>
-        <v>F 15-49</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15">
-        <v>0</v>
-      </c>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y23" s="15"/>
-    </row>
-    <row r="24" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="C28" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D28" s="5">
-        <v>2001</v>
-      </c>
-      <c r="E28" s="5">
-        <v>2002</v>
-      </c>
-      <c r="F28" s="5">
-        <v>2003</v>
-      </c>
-      <c r="G28" s="5">
-        <v>2004</v>
-      </c>
-      <c r="H28" s="5">
-        <v>2005</v>
-      </c>
-      <c r="I28" s="5">
-        <v>2006</v>
-      </c>
-      <c r="J28" s="5">
-        <v>2007</v>
-      </c>
-      <c r="K28" s="5">
-        <v>2008</v>
-      </c>
-      <c r="L28" s="5">
-        <v>2009</v>
-      </c>
-      <c r="M28" s="5">
-        <v>2010</v>
-      </c>
-      <c r="N28" s="5">
-        <v>2011</v>
-      </c>
-      <c r="O28" s="5">
-        <v>2012</v>
-      </c>
-      <c r="P28" s="5">
-        <v>2013</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>2014</v>
-      </c>
-      <c r="R28" s="5">
-        <v>2015</v>
-      </c>
-      <c r="S28" s="5">
-        <v>2016</v>
-      </c>
-      <c r="T28" s="5">
-        <v>2017</v>
-      </c>
-      <c r="U28" s="5">
-        <v>2018</v>
-      </c>
-      <c r="V28" s="5">
-        <v>2019</v>
-      </c>
-      <c r="W28" s="5">
-        <v>2020</v>
-      </c>
-      <c r="Y28" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="B29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="10">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="M29" s="10">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="N29" s="10">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="O29" s="10">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="P29" s="10">
-        <v>0.86</v>
-      </c>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y29" s="6"/>
-    </row>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="33" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="13.5" customHeight="1">
-      <c r="C34" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D34" s="5">
-        <v>2001</v>
-      </c>
-      <c r="E34" s="5">
-        <v>2002</v>
-      </c>
-      <c r="F34" s="5">
-        <v>2003</v>
-      </c>
-      <c r="G34" s="5">
-        <v>2004</v>
-      </c>
-      <c r="H34" s="5">
-        <v>2005</v>
-      </c>
-      <c r="I34" s="5">
-        <v>2006</v>
-      </c>
-      <c r="J34" s="5">
-        <v>2007</v>
-      </c>
-      <c r="K34" s="5">
-        <v>2008</v>
-      </c>
-      <c r="L34" s="5">
-        <v>2009</v>
-      </c>
-      <c r="M34" s="5">
-        <v>2010</v>
-      </c>
-      <c r="N34" s="5">
-        <v>2011</v>
-      </c>
-      <c r="O34" s="5">
-        <v>2012</v>
-      </c>
-      <c r="P34" s="5">
-        <v>2013</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>2014</v>
-      </c>
-      <c r="R34" s="5">
-        <v>2015</v>
-      </c>
-      <c r="S34" s="5">
-        <v>2016</v>
-      </c>
-      <c r="T34" s="5">
-        <v>2017</v>
-      </c>
-      <c r="U34" s="5">
-        <v>2018</v>
-      </c>
-      <c r="V34" s="5">
-        <v>2019</v>
-      </c>
-      <c r="W34" s="5">
-        <v>2020</v>
-      </c>
-      <c r="Y34" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" ht="13.5" customHeight="1">
-      <c r="B35" s="7" t="str">
-        <f>Populations!$C$4</f>
-        <v>F 15-49</v>
-      </c>
-      <c r="C35" s="9">
-        <v>4.5925296336727484E-2</v>
-      </c>
-      <c r="D35" s="9">
-        <v>4.5324022610802442E-2</v>
-      </c>
-      <c r="E35" s="9">
-        <v>4.5258178531301665E-2</v>
-      </c>
-      <c r="F35" s="9">
-        <v>4.5643569591584512E-2</v>
-      </c>
-      <c r="G35" s="9">
-        <v>4.6393022020567463E-2</v>
-      </c>
-      <c r="H35" s="9">
-        <v>4.7380532618388635E-2</v>
-      </c>
-      <c r="I35" s="9">
-        <v>4.8776034491919598E-2</v>
-      </c>
-      <c r="J35" s="9">
-        <v>5.0081489017354618E-2</v>
-      </c>
-      <c r="K35" s="9">
-        <v>5.1207019154705748E-2</v>
-      </c>
-      <c r="L35" s="9">
-        <v>5.2116086916866047E-2</v>
-      </c>
-      <c r="M35" s="9">
-        <v>5.278448936292468E-2</v>
-      </c>
-      <c r="N35" s="9">
-        <v>5.2115181359517093E-2</v>
-      </c>
-      <c r="O35" s="9">
-        <v>5.2484499496074824E-2</v>
-      </c>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y35" s="9"/>
-    </row>
-    <row r="36" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="37" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="38" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="39" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" ht="13.5" customHeight="1">
-      <c r="C40" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D40" s="5">
-        <v>2001</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2002</v>
-      </c>
-      <c r="F40" s="5">
-        <v>2003</v>
-      </c>
-      <c r="G40" s="5">
-        <v>2004</v>
-      </c>
-      <c r="H40" s="5">
-        <v>2005</v>
-      </c>
-      <c r="I40" s="5">
-        <v>2006</v>
-      </c>
-      <c r="J40" s="5">
-        <v>2007</v>
-      </c>
-      <c r="K40" s="5">
-        <v>2008</v>
-      </c>
-      <c r="L40" s="5">
-        <v>2009</v>
-      </c>
-      <c r="M40" s="5">
-        <v>2010</v>
-      </c>
-      <c r="N40" s="5">
-        <v>2011</v>
-      </c>
-      <c r="O40" s="5">
-        <v>2012</v>
-      </c>
-      <c r="P40" s="5">
-        <v>2013</v>
-      </c>
-      <c r="Q40" s="5">
-        <v>2014</v>
-      </c>
-      <c r="R40" s="5">
-        <v>2015</v>
-      </c>
-      <c r="S40" s="5">
-        <v>2016</v>
-      </c>
-      <c r="T40" s="5">
-        <v>2017</v>
-      </c>
-      <c r="U40" s="5">
-        <v>2018</v>
-      </c>
-      <c r="V40" s="5">
-        <v>2019</v>
-      </c>
-      <c r="W40" s="5">
-        <v>2020</v>
-      </c>
-      <c r="Y40" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" ht="13.5" customHeight="1">
-      <c r="B41" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y41" s="18">
-        <f>14/100*87/100</f>
-        <v>0.12180000000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7210,9 +7305,9 @@
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="14">
+    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>106</v>
       </c>
@@ -7241,7 +7336,7 @@
       <c r="X1" s="31"/>
       <c r="Y1" s="31"/>
     </row>
-    <row r="2" spans="1:25" ht="14">
+    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="35">
@@ -7312,7 +7407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="14">
+    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="32" t="s">
         <v>95</v>
@@ -7345,7 +7440,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14">
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="32" t="s">
         <v>96</v>
@@ -7378,7 +7473,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14">
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>101</v>
       </c>
@@ -7407,7 +7502,7 @@
       <c r="X8" s="31"/>
       <c r="Y8" s="31"/>
     </row>
-    <row r="9" spans="1:25" ht="14">
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
       <c r="C9" s="35">
@@ -7478,7 +7573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="14">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="32" t="s">
         <v>95</v>
@@ -7511,7 +7606,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="14">
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>96</v>
@@ -7544,7 +7639,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="14">
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>107</v>
       </c>
@@ -7573,7 +7668,7 @@
       <c r="X15" s="31"/>
       <c r="Y15" s="31"/>
     </row>
-    <row r="16" spans="1:25" ht="14">
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="35">
@@ -7644,7 +7739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="14">
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>95</v>
@@ -7677,7 +7772,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="14">
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>96</v>
@@ -7710,7 +7805,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="14">
+    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>108</v>
       </c>
@@ -7739,7 +7834,7 @@
       <c r="X22" s="31"/>
       <c r="Y22" s="31"/>
     </row>
-    <row r="23" spans="1:25" ht="14">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="35">
@@ -7810,7 +7905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="14">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="32" t="s">
         <v>95</v>
@@ -7843,7 +7938,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="14">
+    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="32" t="s">
         <v>96</v>
@@ -7876,7 +7971,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="14">
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
         <v>113</v>
       </c>
@@ -7905,7 +8000,7 @@
       <c r="X29" s="31"/>
       <c r="Y29" s="31"/>
     </row>
-    <row r="30" spans="1:25" ht="14">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="35">
@@ -7976,7 +8071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="14">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="35" t="s">
         <v>30</v>
@@ -8009,7 +8104,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="14">
+    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>102</v>
       </c>
@@ -8038,7 +8133,7 @@
       <c r="X35" s="31"/>
       <c r="Y35" s="31"/>
     </row>
-    <row r="36" spans="1:25" ht="14">
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="35">
@@ -8109,7 +8204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="14">
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="35" t="s">
         <v>30</v>
@@ -8142,7 +8237,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="14">
+    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="34" t="s">
         <v>114</v>
       </c>
@@ -8171,7 +8266,7 @@
       <c r="X41" s="31"/>
       <c r="Y41" s="31"/>
     </row>
-    <row r="42" spans="1:25" ht="14">
+    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
       <c r="B42" s="31"/>
       <c r="C42" s="35">
@@ -8242,7 +8337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="14">
+    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
       <c r="B43" s="35" t="s">
         <v>30</v>
@@ -8275,7 +8370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="14">
+    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
         <v>115</v>
       </c>
@@ -8304,7 +8399,7 @@
       <c r="X47" s="31"/>
       <c r="Y47" s="31"/>
     </row>
-    <row r="48" spans="1:25" ht="14">
+    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="C48" s="35">
@@ -8375,7 +8470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="14">
+    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
       <c r="B49" s="35" t="s">
         <v>30</v>
@@ -8408,7 +8503,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="14">
+    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
         <v>117</v>
       </c>
@@ -8437,7 +8532,7 @@
       <c r="X53" s="31"/>
       <c r="Y53" s="31"/>
     </row>
-    <row r="54" spans="1:25" ht="14">
+    <row r="54" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
       <c r="B54" s="31"/>
       <c r="C54" s="35">
@@ -8508,7 +8603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="14">
+    <row r="55" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="31"/>
       <c r="B55" s="35" t="s">
         <v>30</v>
@@ -8541,7 +8636,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="14">
+    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
         <v>118</v>
       </c>
@@ -8570,7 +8665,7 @@
       <c r="X59" s="31"/>
       <c r="Y59" s="31"/>
     </row>
-    <row r="60" spans="1:25" ht="14">
+    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="31"/>
       <c r="B60" s="31"/>
       <c r="C60" s="35">
@@ -8641,7 +8736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="14">
+    <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="31"/>
       <c r="B61" s="35" t="s">
         <v>30</v>
@@ -8693,17 +8788,17 @@
       <selection activeCell="AA53" sqref="AA53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="25" width="8.83203125" customWidth="1"/>
+    <col min="1" max="25" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -8771,7 +8866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -8804,7 +8899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -8837,15 +8932,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1">
+    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -8913,7 +9008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -8947,7 +9042,7 @@
         <v>12.000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -8981,15 +9076,15 @@
         <v>6.0000000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>2000</v>
       </c>
@@ -9057,7 +9152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="13.5" customHeight="1">
+    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9090,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1">
+    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9123,15 +9218,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="20" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1">
+    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="13.5" customHeight="1">
+    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="5">
         <v>2000</v>
       </c>
@@ -9199,7 +9294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="13.5" customHeight="1">
+    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9232,7 +9327,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1">
+    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9265,15 +9360,15 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="28" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1">
+    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1">
+    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="5">
         <v>2000</v>
       </c>
@@ -9341,7 +9436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1">
+    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9374,7 +9469,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1">
+    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9407,15 +9502,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="34" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="35" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="36" spans="1:25" ht="13.5" customHeight="1">
+    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="13.5" customHeight="1">
+    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="5">
         <v>2000</v>
       </c>
@@ -9483,7 +9578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="13.5" customHeight="1">
+    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9516,7 +9611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="13.5" customHeight="1">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9549,15 +9644,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="41" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="42" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="43" spans="1:25" ht="13.5" customHeight="1">
+    <row r="40" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="13.5" customHeight="1">
+    <row r="44" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="5">
         <v>2000</v>
       </c>
@@ -9625,7 +9720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="13.5" customHeight="1">
+    <row r="45" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>

--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14715" tabRatio="861" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="861" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="16" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Partnerships &amp; transitions" sheetId="10" r:id="rId11"/>
     <sheet name="Constants" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -81,18 +81,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="L29" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Laura Grobicki:
-This value refers to number of pregnant women tested for HIV and who receive PMTCT</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="Y41" authorId="0">
       <text>
         <r>
@@ -240,9 +228,6 @@
     <t>Average number of acts with casual partners per person per year</t>
   </si>
   <si>
-    <t>Number (or percentage) of women on PMTCT (Option B/B+)</t>
-  </si>
-  <si>
     <t>Average percentage of people who receptively shared a needle/syringe at last injection</t>
   </si>
   <si>
@@ -499,6 +484,9 @@
   </si>
   <si>
     <t>PLHIV in care on treatment (%)</t>
+  </si>
+  <si>
+    <t>Number of women on PMTCT (Option B/B+)</t>
   </si>
 </sst>
 </file>
@@ -506,8 +494,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
@@ -723,12 +711,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="118">
+  <cellStyleXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -842,6 +830,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -928,7 +918,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="118">
+  <cellStyles count="120">
     <cellStyle name="Comma 2" xfId="4"/>
     <cellStyle name="Comma 3" xfId="2"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
@@ -937,6 +927,7 @@
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="15"/>
     <cellStyle name="Followed Hyperlink 11" xfId="16"/>
     <cellStyle name="Followed Hyperlink 12" xfId="17"/>
@@ -1040,6 +1031,7 @@
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5"/>
     <cellStyle name="Normal 3" xfId="6"/>
@@ -2304,36 +2296,36 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="12.75" customHeight="1">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="42"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" s="42"/>
     </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="14">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="67.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="14">
       <c r="A7" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2357,17 +2349,17 @@
       <selection activeCell="X1" sqref="X1:AG1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="25" width="8.85546875" customWidth="1"/>
+    <col min="1" max="25" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -2435,7 +2427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2468,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2501,15 +2493,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="13.5" customHeight="1">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -2577,7 +2569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="B10" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2610,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1">
       <c r="B11" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2643,15 +2635,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="13.5" customHeight="1">
       <c r="C16" s="5">
         <v>2000</v>
       </c>
@@ -2719,7 +2711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" ht="13.5" customHeight="1">
       <c r="B17" s="22" t="s">
         <v>14</v>
       </c>
@@ -2751,9 +2743,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:25" ht="13.5" customHeight="1"/>
+    <row r="19" spans="2:25" ht="13.5" customHeight="1"/>
+    <row r="20" spans="2:25" ht="13.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2772,21 +2764,21 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13.5" customHeight="1">
       <c r="C2" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2796,7 +2788,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="13.5" customHeight="1">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2806,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="13.5" customHeight="1">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2814,26 +2806,26 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13.5" customHeight="1">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="13.5" customHeight="1">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="13.5" customHeight="1">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="13.5" customHeight="1">
       <c r="C9" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2843,7 +2835,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.5" customHeight="1">
       <c r="B10" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2853,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="13.5" customHeight="1">
       <c r="B11" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2861,26 +2853,26 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="13.5" customHeight="1">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="13.5" customHeight="1">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="13.5" customHeight="1">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="13.5" customHeight="1">
       <c r="C16" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2890,7 +2882,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="13.5" customHeight="1">
       <c r="B17" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2898,7 +2890,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="13.5" customHeight="1">
       <c r="B18" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2906,26 +2898,26 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="13.5" customHeight="1">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="13.5" customHeight="1">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="13.5" customHeight="1">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="13.5" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="13.5" customHeight="1">
       <c r="C23" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2935,7 +2927,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="13.5" customHeight="1">
       <c r="B24" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2943,7 +2935,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="13.5" customHeight="1">
       <c r="B25" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2951,14 +2943,14 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="13.5" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="13.5" customHeight="1">
       <c r="C30" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2968,7 +2960,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="13.5" customHeight="1">
       <c r="B31" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2976,14 +2968,14 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="35" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="13.5" customHeight="1">
       <c r="C36" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2993,7 +2985,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="13.5" customHeight="1">
       <c r="B37" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3001,7 +2993,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="13.5" customHeight="1">
       <c r="B38" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3009,14 +3001,14 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="13.5" customHeight="1">
       <c r="C43" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3026,7 +3018,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="13.5" customHeight="1">
       <c r="B44" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3034,7 +3026,7 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="13.5" customHeight="1">
       <c r="B45" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3061,23 +3053,23 @@
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="6" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="6" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="27" t="s">
@@ -3090,10 +3082,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1">
       <c r="A3" s="24"/>
       <c r="B3" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="28">
         <v>4.0000000000000002E-4</v>
@@ -3105,10 +3097,10 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
       <c r="A4" s="24"/>
       <c r="B4" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="28">
         <v>8.0000000000000004E-4</v>
@@ -3120,10 +3112,10 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1">
       <c r="A5" s="24"/>
       <c r="B5" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="28">
         <v>1.38E-2</v>
@@ -3135,10 +3127,10 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1">
       <c r="A6" s="24"/>
       <c r="B6" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="28">
         <v>1.1000000000000001E-3</v>
@@ -3150,10 +3142,10 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1">
       <c r="A7" s="24"/>
       <c r="B7" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="28">
         <v>8.0000000000000002E-3</v>
@@ -3165,10 +3157,10 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1">
       <c r="A8" s="24"/>
       <c r="B8" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="28">
         <v>0.36699999999999999</v>
@@ -3180,10 +3172,10 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1">
       <c r="A9" s="24"/>
       <c r="B9" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="28">
         <v>0.20499999999999999</v>
@@ -3195,25 +3187,25 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="13.5" customHeight="1">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="13.5" customHeight="1">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13.5" customHeight="1">
       <c r="A13" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="13.5" customHeight="1">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="27" t="s">
@@ -3226,10 +3218,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="13.5" customHeight="1">
       <c r="A15" s="24"/>
       <c r="B15" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="29">
         <v>26.03</v>
@@ -3241,10 +3233,10 @@
         <v>48.02</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="13.5" customHeight="1">
       <c r="A16" s="24"/>
       <c r="B16" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="29">
         <v>1</v>
@@ -3256,10 +3248,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="13.5" customHeight="1">
       <c r="A17" s="24"/>
       <c r="B17" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="29">
         <v>1</v>
@@ -3271,10 +3263,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="13.5" customHeight="1">
       <c r="A18" s="24"/>
       <c r="B18" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="29">
         <v>1</v>
@@ -3286,10 +3278,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="13.5" customHeight="1">
       <c r="A19" s="24"/>
       <c r="B19" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="29">
         <v>3.49</v>
@@ -3301,10 +3293,10 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="13.5" customHeight="1">
       <c r="A20" s="24"/>
       <c r="B20" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="29">
         <v>7.17</v>
@@ -3316,25 +3308,25 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="13.5" customHeight="1">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="13.5" customHeight="1">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="13.5" customHeight="1">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="13.5" customHeight="1">
       <c r="A24" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="13.5" customHeight="1">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="27" t="s">
@@ -3347,10 +3339,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="13.5" customHeight="1">
       <c r="A26" s="24"/>
       <c r="B26" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="30">
         <v>4.1399999999999997</v>
@@ -3362,10 +3354,10 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="13.5" customHeight="1">
       <c r="A27" s="24"/>
       <c r="B27" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="30">
         <v>1.05</v>
@@ -3377,10 +3369,10 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="13.5" customHeight="1">
       <c r="A28" s="24"/>
       <c r="B28" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="30">
         <v>0.33</v>
@@ -3392,10 +3384,10 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="13.5" customHeight="1">
       <c r="A29" s="24"/>
       <c r="B29" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="30">
         <v>0.27</v>
@@ -3407,10 +3399,10 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="13.5" customHeight="1">
       <c r="A30" s="24"/>
       <c r="B30" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="30">
         <v>0.67</v>
@@ -3422,25 +3414,25 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="13.5" customHeight="1">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="13.5" customHeight="1">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.5" customHeight="1">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="13.5" customHeight="1">
       <c r="A34" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
     </row>
-    <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="13.5" customHeight="1">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="27" t="s">
@@ -3453,10 +3445,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="13.5" customHeight="1">
       <c r="A36" s="24"/>
       <c r="B36" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="30">
         <v>0.45</v>
@@ -3468,10 +3460,10 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="13.5" customHeight="1">
       <c r="A37" s="24"/>
       <c r="B37" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="30">
         <v>0.7</v>
@@ -3483,10 +3475,10 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="13.5" customHeight="1">
       <c r="A38" s="24"/>
       <c r="B38" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="30">
         <v>0.47</v>
@@ -3498,10 +3490,10 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="13.5" customHeight="1">
       <c r="A39" s="24"/>
       <c r="B39" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39" s="30">
         <v>1.52</v>
@@ -3513,25 +3505,25 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="13.5" customHeight="1">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="13.5" customHeight="1">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="13.5" customHeight="1">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="13.5" customHeight="1">
       <c r="A43" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
     </row>
-    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="13.5" customHeight="1">
       <c r="A44" s="24"/>
       <c r="B44" s="24"/>
       <c r="C44" s="27" t="s">
@@ -3544,10 +3536,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="13.5" customHeight="1">
       <c r="A45" s="24"/>
       <c r="B45" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="28">
         <v>3.5999999999999999E-3</v>
@@ -3559,10 +3551,10 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="13.5" customHeight="1">
       <c r="A46" s="24"/>
       <c r="B46" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="28">
         <v>3.5999999999999999E-3</v>
@@ -3574,10 +3566,10 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="13.5" customHeight="1">
       <c r="A47" s="24"/>
       <c r="B47" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="28">
         <v>5.7999999999999996E-3</v>
@@ -3589,10 +3581,10 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="13.5" customHeight="1">
       <c r="A48" s="24"/>
       <c r="B48" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="28">
         <v>8.8000000000000005E-3</v>
@@ -3604,10 +3596,10 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="24"/>
       <c r="B49" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="28">
         <v>5.8999999999999997E-2</v>
@@ -3619,10 +3611,10 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="13.5" customHeight="1">
       <c r="A50" s="24"/>
       <c r="B50" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" s="28">
         <v>0.32300000000000001</v>
@@ -3634,10 +3626,10 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="13.5" customHeight="1">
       <c r="A51" s="24"/>
       <c r="B51" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" s="28">
         <v>0.23</v>
@@ -3649,10 +3641,10 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="13.5" customHeight="1">
       <c r="A52" s="24"/>
       <c r="B52" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" s="28">
         <v>2.17</v>
@@ -3664,25 +3656,25 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="13.5" customHeight="1">
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="13.5" customHeight="1">
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="13.5" customHeight="1">
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="13.5" customHeight="1">
       <c r="A56" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
     </row>
-    <row r="57" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="13.5" customHeight="1">
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
       <c r="C57" s="27" t="s">
@@ -3695,10 +3687,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="13.5" customHeight="1">
       <c r="A58" s="24"/>
       <c r="B58" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="30">
         <v>0.95</v>
@@ -3713,10 +3705,10 @@
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="13.5" customHeight="1">
       <c r="A59" s="24"/>
       <c r="B59" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="30">
         <v>0.57999999999999996</v>
@@ -3731,10 +3723,10 @@
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="13.5" customHeight="1">
       <c r="A60" s="24"/>
       <c r="B60" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="30">
         <v>0</v>
@@ -3749,10 +3741,10 @@
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="13.5" customHeight="1">
       <c r="A61" s="24"/>
       <c r="B61" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C61" s="30">
         <v>2.65</v>
@@ -3767,10 +3759,10 @@
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="13.5" customHeight="1">
       <c r="A62" s="24"/>
       <c r="B62" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" s="30">
         <v>0.54</v>
@@ -3785,10 +3777,10 @@
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
     </row>
-    <row r="63" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="13.5" customHeight="1">
       <c r="A63" s="24"/>
       <c r="B63" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C63" s="30">
         <v>0.9</v>
@@ -3803,10 +3795,10 @@
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
     </row>
-    <row r="64" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="13.5" customHeight="1">
       <c r="A64" s="24"/>
       <c r="B64" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64" s="30">
         <v>0.73</v>
@@ -3821,10 +3813,10 @@
       <c r="H64" s="23"/>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="13.5" customHeight="1">
       <c r="A65" s="24"/>
       <c r="B65" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C65" s="30">
         <v>0.5</v>
@@ -3839,10 +3831,10 @@
       <c r="H65" s="23"/>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="13.5" customHeight="1">
       <c r="A66" s="24"/>
       <c r="B66" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C66" s="30">
         <v>0.92</v>
@@ -3854,21 +3846,21 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="13.5" customHeight="1">
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="13.5" customHeight="1"/>
+    <row r="69" spans="1:9" ht="13.5" customHeight="1"/>
+    <row r="70" spans="1:9" ht="13.5" customHeight="1">
       <c r="A70" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
       <c r="D70" s="24"/>
       <c r="E70" s="24"/>
     </row>
-    <row r="71" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="13.5" customHeight="1">
       <c r="A71" s="24"/>
       <c r="B71" s="24"/>
       <c r="C71" s="27" t="s">
@@ -3881,10 +3873,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="13.5" customHeight="1">
       <c r="A72" s="24"/>
       <c r="B72" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C72" s="29">
         <v>0.14599999999999999</v>
@@ -3896,10 +3888,10 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="13.5" customHeight="1">
       <c r="A73" s="24"/>
       <c r="B73" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C73" s="29">
         <v>8.0000000000000002E-3</v>
@@ -3911,10 +3903,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="13.5" customHeight="1">
       <c r="A74" s="24"/>
       <c r="B74" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C74" s="29">
         <v>0.02</v>
@@ -3926,10 +3918,10 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="13.5" customHeight="1">
       <c r="A75" s="24"/>
       <c r="B75" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C75" s="29">
         <v>7.0000000000000007E-2</v>
@@ -3941,10 +3933,10 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="13.5" customHeight="1">
       <c r="A76" s="24"/>
       <c r="B76" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C76" s="29">
         <v>0.26500000000000001</v>
@@ -3956,10 +3948,10 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15" customHeight="1">
       <c r="A77" s="24"/>
       <c r="B77" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C77" s="29">
         <v>0.54700000000000004</v>
@@ -3971,10 +3963,10 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15" customHeight="1">
       <c r="A78" s="24"/>
       <c r="B78" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C78" s="29">
         <v>5.2999999999999999E-2</v>
@@ -4005,16 +3997,16 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4022,7 +4014,7 @@
       <c r="D1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="13.5" customHeight="1">
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
@@ -4036,24 +4028,24 @@
         <v>5</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="I2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" ht="13.5" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>8</v>
@@ -4077,12 +4069,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>11</v>
@@ -4106,47 +4098,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="13.5" customHeight="1">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="13.5" customHeight="1">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="13.5" customHeight="1">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="13.5" customHeight="1">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="13.5" customHeight="1">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="13.5" customHeight="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="13.5" customHeight="1">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="13.5" customHeight="1">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="13.5" customHeight="1">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="G13" s="3"/>
@@ -4169,17 +4161,17 @@
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="26" width="8.85546875" customWidth="1"/>
+    <col min="1" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1">
       <c r="D2" s="5">
         <v>2000</v>
       </c>
@@ -4247,7 +4239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4281,7 +4273,7 @@
       </c>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4323,7 +4315,7 @@
       </c>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4357,8 +4349,8 @@
       </c>
       <c r="Z5" s="12"/>
     </row>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4392,7 +4384,7 @@
       </c>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4434,7 +4426,7 @@
       </c>
       <c r="Z8" s="12"/>
     </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4468,7 +4460,7 @@
       </c>
       <c r="Z9" s="12"/>
     </row>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4488,17 +4480,17 @@
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="26" width="8.85546875" customWidth="1"/>
+    <col min="1" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1">
       <c r="D2" s="7">
         <v>2000</v>
       </c>
@@ -4566,7 +4558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4600,7 +4592,7 @@
       </c>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4640,7 +4632,7 @@
       </c>
       <c r="Z4" s="14"/>
     </row>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4674,8 +4666,8 @@
       </c>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4709,7 +4701,7 @@
       </c>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4749,7 +4741,7 @@
       </c>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4803,17 +4795,17 @@
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="25" width="8.85546875" customWidth="1"/>
+    <col min="1" max="25" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -4881,7 +4873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4916,7 +4908,7 @@
       </c>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4951,15 +4943,15 @@
       </c>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -5027,7 +5019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="B10" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5060,7 +5052,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1">
       <c r="B11" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5093,15 +5085,15 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1">
       <c r="C16" s="5">
         <v>2000</v>
       </c>
@@ -5169,7 +5161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" ht="13.5" customHeight="1">
       <c r="B17" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5202,7 +5194,7 @@
       </c>
       <c r="Y17" s="10"/>
     </row>
-    <row r="18" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" ht="13.5" customHeight="1">
       <c r="B18" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5251,21 +5243,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="25" width="8.85546875" customWidth="1"/>
+    <col min="1" max="25" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -5333,7 +5325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5366,7 +5358,7 @@
       </c>
       <c r="Y3" s="15"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5399,15 +5391,15 @@
       </c>
       <c r="Y4" s="15"/>
     </row>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -5475,7 +5467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
@@ -5507,15 +5499,15 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1">
       <c r="C15" s="5">
         <v>2000</v>
       </c>
@@ -5583,7 +5575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
@@ -5623,15 +5615,15 @@
       </c>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="18" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="19" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="20" spans="1:25" ht="13.5" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="13.5" customHeight="1">
       <c r="C21" s="5">
         <v>2000</v>
       </c>
@@ -5699,7 +5691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="13.5" customHeight="1">
       <c r="B22" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5732,7 +5724,7 @@
       </c>
       <c r="Y22" s="15"/>
     </row>
-    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="13.5" customHeight="1">
       <c r="B23" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5765,15 +5757,15 @@
       </c>
       <c r="Y23" s="15"/>
     </row>
-    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="25" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="26" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="13.5" customHeight="1">
       <c r="C28" s="5">
         <v>2000</v>
       </c>
@@ -5841,7 +5833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="B29" s="5" t="s">
         <v>14</v>
       </c>
@@ -5854,21 +5846,13 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="10">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="M29" s="10">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="N29" s="10">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="O29" s="10">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="P29" s="10">
-        <v>0.86</v>
-      </c>
+      <c r="L29" s="6">
+        <v>200</v>
+      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
@@ -5881,15 +5865,15 @@
       </c>
       <c r="Y29" s="6"/>
     </row>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="32" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="33" spans="1:25" ht="13.5" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="13.5" customHeight="1">
       <c r="C34" s="5">
         <v>2000</v>
       </c>
@@ -5957,7 +5941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="13.5" customHeight="1">
       <c r="B35" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -6014,15 +5998,15 @@
       </c>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="37" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="38" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="39" spans="1:25" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="13.5" customHeight="1">
       <c r="C40" s="5">
         <v>2000</v>
       </c>
@@ -6090,7 +6074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="13.5" customHeight="1">
       <c r="B41" s="5" t="s">
         <v>14</v>
       </c>
@@ -6125,6 +6109,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
@@ -6139,21 +6124,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="25" width="8.85546875" customWidth="1"/>
+    <col min="1" max="25" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -6221,7 +6206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -6251,15 +6236,15 @@
       </c>
       <c r="Y3" s="9"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="5" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="13.5" customHeight="1">
       <c r="C8" s="5">
         <v>2000</v>
       </c>
@@ -6327,7 +6312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
@@ -6357,15 +6342,15 @@
       </c>
       <c r="Y9" s="9"/>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="13.5" customHeight="1">
       <c r="C14" s="5">
         <v>2000</v>
       </c>
@@ -6433,7 +6418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
@@ -6463,15 +6448,15 @@
       </c>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="17" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="18" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="19" spans="1:25" ht="13.5" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="13.5" customHeight="1">
       <c r="C20" s="5">
         <v>2000</v>
       </c>
@@ -6539,7 +6524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="13.5" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
@@ -6569,15 +6554,15 @@
       </c>
       <c r="Y21" s="9"/>
     </row>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="23" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="24" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="25" spans="1:25" ht="13.5" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="13.5" customHeight="1">
       <c r="C26" s="7">
         <v>2000</v>
       </c>
@@ -6645,7 +6630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="B27" s="7" t="s">
         <v>14</v>
       </c>
@@ -6675,15 +6660,15 @@
       </c>
       <c r="Y27" s="9"/>
     </row>
-    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="30" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="C32" s="5">
         <v>2000</v>
       </c>
@@ -6751,7 +6736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="13.5" customHeight="1">
       <c r="B33" s="5" t="s">
         <v>14</v>
       </c>
@@ -6781,15 +6766,15 @@
       </c>
       <c r="Y33" s="9"/>
     </row>
-    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="35" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="36" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="37" spans="1:25" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="13.5" customHeight="1">
       <c r="C38" s="5">
         <v>2000</v>
       </c>
@@ -6857,7 +6842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1">
       <c r="B39" s="5" t="s">
         <v>14</v>
       </c>
@@ -6887,9 +6872,9 @@
       </c>
       <c r="Y39" s="9"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="14">
       <c r="A43" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
@@ -6916,7 +6901,7 @@
       <c r="X43" s="31"/>
       <c r="Y43" s="31"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="14">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
       <c r="C44" s="35">
@@ -6987,7 +6972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="14">
       <c r="A45" s="31"/>
       <c r="B45" s="35" t="s">
         <v>30</v>
@@ -7018,12 +7003,12 @@
       </c>
       <c r="Y45" s="37"/>
     </row>
-    <row r="46" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="12"/>
+    <row r="47" spans="1:25" ht="12"/>
+    <row r="48" spans="1:25" ht="12"/>
+    <row r="49" spans="1:25" ht="14">
       <c r="A49" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
@@ -7050,7 +7035,7 @@
       <c r="X49" s="31"/>
       <c r="Y49" s="31"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="14">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
       <c r="C50" s="35">
@@ -7121,7 +7106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="14">
       <c r="A51" s="31"/>
       <c r="B51" s="35" t="s">
         <v>30</v>
@@ -7152,12 +7137,12 @@
       </c>
       <c r="Y51" s="37"/>
     </row>
-    <row r="52" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="12"/>
+    <row r="53" spans="1:25" ht="12"/>
+    <row r="54" spans="1:25" ht="12"/>
+    <row r="55" spans="1:25" ht="15" customHeight="1">
       <c r="A55" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
@@ -7184,7 +7169,7 @@
       <c r="X55" s="31"/>
       <c r="Y55" s="31"/>
     </row>
-    <row r="56" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" ht="15" customHeight="1">
       <c r="A56" s="31"/>
       <c r="B56" s="31"/>
       <c r="C56" s="35">
@@ -7255,7 +7240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" ht="15" customHeight="1">
       <c r="A57" s="31"/>
       <c r="B57" s="35" t="s">
         <v>30</v>
@@ -7305,11 +7290,11 @@
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="14">
       <c r="A1" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -7336,7 +7321,7 @@
       <c r="X1" s="31"/>
       <c r="Y1" s="31"/>
     </row>
-    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="14">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="35">
@@ -7407,10 +7392,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="14">
       <c r="A3" s="31"/>
       <c r="B3" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -7440,10 +7425,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="14">
       <c r="A4" s="31"/>
       <c r="B4" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -7473,9 +7458,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="14">
       <c r="A8" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -7502,7 +7487,7 @@
       <c r="X8" s="31"/>
       <c r="Y8" s="31"/>
     </row>
-    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="14">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
       <c r="C9" s="35">
@@ -7573,10 +7558,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="14">
       <c r="A10" s="31"/>
       <c r="B10" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -7606,10 +7591,10 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="14">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -7639,9 +7624,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="14">
       <c r="A15" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -7668,7 +7653,7 @@
       <c r="X15" s="31"/>
       <c r="Y15" s="31"/>
     </row>
-    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="14">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="35">
@@ -7739,10 +7724,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="14">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
@@ -7772,10 +7757,10 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="14">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -7805,9 +7790,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="14">
       <c r="A22" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -7834,7 +7819,7 @@
       <c r="X22" s="31"/>
       <c r="Y22" s="31"/>
     </row>
-    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="14">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="35">
@@ -7905,10 +7890,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="14">
       <c r="A24" s="31"/>
       <c r="B24" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
@@ -7938,10 +7923,10 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="14">
       <c r="A25" s="31"/>
       <c r="B25" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
@@ -7971,9 +7956,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="14">
       <c r="A29" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -8000,7 +7985,7 @@
       <c r="X29" s="31"/>
       <c r="Y29" s="31"/>
     </row>
-    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="14">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="35">
@@ -8071,7 +8056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="14">
       <c r="A31" s="31"/>
       <c r="B31" s="35" t="s">
         <v>30</v>
@@ -8104,9 +8089,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="14">
       <c r="A35" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
@@ -8133,7 +8118,7 @@
       <c r="X35" s="31"/>
       <c r="Y35" s="31"/>
     </row>
-    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="14">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="35">
@@ -8204,7 +8189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="14">
       <c r="A37" s="31"/>
       <c r="B37" s="35" t="s">
         <v>30</v>
@@ -8237,9 +8222,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="14">
       <c r="A41" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
@@ -8266,7 +8251,7 @@
       <c r="X41" s="31"/>
       <c r="Y41" s="31"/>
     </row>
-    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="14">
       <c r="A42" s="31"/>
       <c r="B42" s="31"/>
       <c r="C42" s="35">
@@ -8337,7 +8322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="14">
       <c r="A43" s="31"/>
       <c r="B43" s="35" t="s">
         <v>30</v>
@@ -8370,9 +8355,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="14">
       <c r="A47" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
@@ -8399,7 +8384,7 @@
       <c r="X47" s="31"/>
       <c r="Y47" s="31"/>
     </row>
-    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="14">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="C48" s="35">
@@ -8470,7 +8455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="14">
       <c r="A49" s="31"/>
       <c r="B49" s="35" t="s">
         <v>30</v>
@@ -8503,9 +8488,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="14">
       <c r="A53" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
@@ -8532,7 +8517,7 @@
       <c r="X53" s="31"/>
       <c r="Y53" s="31"/>
     </row>
-    <row r="54" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" ht="14">
       <c r="A54" s="31"/>
       <c r="B54" s="31"/>
       <c r="C54" s="35">
@@ -8603,7 +8588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="14">
       <c r="A55" s="31"/>
       <c r="B55" s="35" t="s">
         <v>30</v>
@@ -8636,9 +8621,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" ht="14">
       <c r="A59" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
@@ -8665,7 +8650,7 @@
       <c r="X59" s="31"/>
       <c r="Y59" s="31"/>
     </row>
-    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" ht="14">
       <c r="A60" s="31"/>
       <c r="B60" s="31"/>
       <c r="C60" s="35">
@@ -8736,7 +8721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" ht="14">
       <c r="A61" s="31"/>
       <c r="B61" s="35" t="s">
         <v>30</v>
@@ -8788,17 +8773,17 @@
       <selection activeCell="AA53" sqref="AA53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="25" width="8.85546875" customWidth="1"/>
+    <col min="1" max="25" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -8866,7 +8851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -8899,7 +8884,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -8932,15 +8917,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -9008,7 +8993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="B10" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9042,7 +9027,7 @@
         <v>12.000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1">
       <c r="B11" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9076,15 +9061,15 @@
         <v>6.0000000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="13.5" customHeight="1">
       <c r="C16" s="5">
         <v>2000</v>
       </c>
@@ -9152,7 +9137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="13.5" customHeight="1">
       <c r="B17" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9185,7 +9170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="13.5" customHeight="1">
       <c r="B18" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9218,15 +9203,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="20" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="21" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="22" spans="1:25" ht="13.5" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="13.5" customHeight="1">
       <c r="C23" s="5">
         <v>2000</v>
       </c>
@@ -9294,7 +9279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="13.5" customHeight="1">
       <c r="B24" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9327,7 +9312,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="13.5" customHeight="1">
       <c r="B25" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9360,15 +9345,15 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="27" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="28" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="C30" s="5">
         <v>2000</v>
       </c>
@@ -9436,7 +9421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="B31" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9469,7 +9454,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="B32" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9502,15 +9487,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="34" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="35" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="36" spans="1:25" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="13.5" customHeight="1">
       <c r="C37" s="5">
         <v>2000</v>
       </c>
@@ -9578,7 +9563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="13.5" customHeight="1">
       <c r="B38" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9611,7 +9596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1">
       <c r="B39" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9644,15 +9629,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="41" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="42" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="43" spans="1:25" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="13.5" customHeight="1">
       <c r="C44" s="5">
         <v>2000</v>
       </c>
@@ -9720,7 +9705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="13.5" customHeight="1">
       <c r="B45" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>

--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="861" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14715" tabRatio="861" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="16" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Partnerships &amp; transitions" sheetId="10" r:id="rId11"/>
     <sheet name="Constants" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="122">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>Number of women on PMTCT (Option B/B+)</t>
+  </si>
+  <si>
+    <t>Number of voluntary medical male circumcisions performed</t>
   </si>
 </sst>
 </file>
@@ -494,8 +497,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
@@ -714,9 +717,9 @@
   <cellStyleXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -833,7 +836,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -917,6 +920,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="120">
     <cellStyle name="Comma 2" xfId="4"/>
@@ -2296,34 +2301,34 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="42"/>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="42"/>
     </row>
-    <row r="4" spans="1:1" ht="14">
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" ht="67.5" customHeight="1">
+    <row r="5" spans="1:1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14">
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" ht="14">
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>91</v>
       </c>
@@ -2349,17 +2354,17 @@
       <selection activeCell="X1" sqref="X1:AG1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="25" width="8.83203125" customWidth="1"/>
+    <col min="1" max="25" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -2427,7 +2432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2460,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2493,15 +2498,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1">
+    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -2569,7 +2574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2602,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2635,15 +2640,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>2000</v>
       </c>
@@ -2711,7 +2716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="13.5" customHeight="1">
+    <row r="17" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>14</v>
       </c>
@@ -2743,9 +2748,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:25" ht="13.5" customHeight="1"/>
-    <row r="19" spans="2:25" ht="13.5" customHeight="1"/>
-    <row r="20" spans="2:25" ht="13.5" customHeight="1"/>
+    <row r="18" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2764,21 +2769,21 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.5" customHeight="1">
+    <row r="1" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="13.5" customHeight="1">
+    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2788,7 +2793,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" customHeight="1">
+    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2798,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2806,26 +2811,26 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="13.5" customHeight="1">
+    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="13.5" customHeight="1">
+    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="13.5" customHeight="1">
+    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="13.5" customHeight="1">
+    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="13.5" customHeight="1">
+    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2835,7 +2840,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.5" customHeight="1">
+    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2845,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1">
+    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2853,26 +2858,26 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1">
+    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="13.5" customHeight="1">
+    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="13.5" customHeight="1">
+    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="13.5" customHeight="1">
+    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="13.5" customHeight="1">
+    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2882,7 +2887,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1">
+    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2890,7 +2895,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="13.5" customHeight="1">
+    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2898,26 +2903,26 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="13.5" customHeight="1">
+    <row r="19" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="13.5" customHeight="1">
+    <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="13.5" customHeight="1">
+    <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="13.5" customHeight="1">
+    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="13.5" customHeight="1">
+    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2927,7 +2932,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.5" customHeight="1">
+    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2935,7 +2940,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="13.5" customHeight="1">
+    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2943,14 +2948,14 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="29" spans="1:4" ht="13.5" customHeight="1">
+    <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="13.5" customHeight="1">
+    <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2960,7 +2965,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="13.5" customHeight="1">
+    <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -2968,14 +2973,14 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="35" spans="1:4" ht="13.5" customHeight="1">
+    <row r="35" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" ht="13.5" customHeight="1">
+    <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2985,7 +2990,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13.5" customHeight="1">
+    <row r="37" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -2993,7 +2998,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" ht="13.5" customHeight="1">
+    <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3001,14 +3006,14 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="42" spans="1:4" ht="13.5" customHeight="1">
+    <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="13.5" customHeight="1">
+    <row r="43" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3018,7 +3023,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="13.5" customHeight="1">
+    <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3026,7 +3031,7 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" ht="13.5" customHeight="1">
+    <row r="45" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3053,14 +3058,14 @@
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="6" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" customHeight="1">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -3069,7 +3074,7 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="27" t="s">
@@ -3082,7 +3087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="26" t="s">
         <v>49</v>
@@ -3097,7 +3102,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="26" t="s">
         <v>50</v>
@@ -3112,7 +3117,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="26" t="s">
         <v>51</v>
@@ -3127,7 +3132,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="26" t="s">
         <v>52</v>
@@ -3142,7 +3147,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="26" t="s">
         <v>53</v>
@@ -3157,7 +3162,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="26" t="s">
         <v>54</v>
@@ -3172,7 +3177,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="26" t="s">
         <v>55</v>
@@ -3187,16 +3192,16 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="13.5" customHeight="1">
+    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="13.5" customHeight="1">
+    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="13.5" customHeight="1">
+    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>56</v>
       </c>
@@ -3205,7 +3210,7 @@
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:5" ht="13.5" customHeight="1">
+    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="27" t="s">
@@ -3218,7 +3223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.5" customHeight="1">
+    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="26" t="s">
         <v>57</v>
@@ -3233,7 +3238,7 @@
         <v>48.02</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.5" customHeight="1">
+    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="26" t="s">
         <v>58</v>
@@ -3248,7 +3253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.5" customHeight="1">
+    <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="26" t="s">
         <v>59</v>
@@ -3263,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.5" customHeight="1">
+    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="26" t="s">
         <v>60</v>
@@ -3278,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13.5" customHeight="1">
+    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="26" t="s">
         <v>61</v>
@@ -3293,7 +3298,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.5" customHeight="1">
+    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="26" t="s">
         <v>62</v>
@@ -3308,16 +3313,16 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13.5" customHeight="1">
+    <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="13.5" customHeight="1">
+    <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="13.5" customHeight="1">
+    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="13.5" customHeight="1">
+    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>63</v>
       </c>
@@ -3326,7 +3331,7 @@
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" ht="13.5" customHeight="1">
+    <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="27" t="s">
@@ -3339,7 +3344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="13.5" customHeight="1">
+    <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="26" t="s">
         <v>64</v>
@@ -3354,7 +3359,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="13.5" customHeight="1">
+    <row r="27" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="26" t="s">
         <v>59</v>
@@ -3369,7 +3374,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="13.5" customHeight="1">
+    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="26" t="s">
         <v>98</v>
@@ -3384,7 +3389,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="13.5" customHeight="1">
+    <row r="29" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="26" t="s">
         <v>65</v>
@@ -3399,7 +3404,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="13.5" customHeight="1">
+    <row r="30" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="26" t="s">
         <v>66</v>
@@ -3414,16 +3419,16 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="13.5" customHeight="1">
+    <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="13.5" customHeight="1">
+    <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="13.5" customHeight="1">
+    <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="13.5" customHeight="1">
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>67</v>
       </c>
@@ -3432,7 +3437,7 @@
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
     </row>
-    <row r="35" spans="1:5" ht="13.5" customHeight="1">
+    <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="27" t="s">
@@ -3445,7 +3450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="13.5" customHeight="1">
+    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="26" t="s">
         <v>68</v>
@@ -3460,7 +3465,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="13.5" customHeight="1">
+    <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="26" t="s">
         <v>69</v>
@@ -3475,7 +3480,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="13.5" customHeight="1">
+    <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="26" t="s">
         <v>70</v>
@@ -3490,7 +3495,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="13.5" customHeight="1">
+    <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="26" t="s">
         <v>71</v>
@@ -3505,16 +3510,16 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="13.5" customHeight="1">
+    <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="13.5" customHeight="1">
+    <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="13.5" customHeight="1">
+    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="13.5" customHeight="1">
+    <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>72</v>
       </c>
@@ -3523,7 +3528,7 @@
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
     </row>
-    <row r="44" spans="1:5" ht="13.5" customHeight="1">
+    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="24"/>
       <c r="C44" s="27" t="s">
@@ -3536,7 +3541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="13.5" customHeight="1">
+    <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="26" t="s">
         <v>57</v>
@@ -3551,7 +3556,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="13.5" customHeight="1">
+    <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="26" t="s">
         <v>58</v>
@@ -3566,7 +3571,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="13.5" customHeight="1">
+    <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="26" t="s">
         <v>73</v>
@@ -3581,7 +3586,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="13.5" customHeight="1">
+    <row r="48" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="26" t="s">
         <v>60</v>
@@ -3596,7 +3601,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1">
+    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="26" t="s">
         <v>61</v>
@@ -3611,7 +3616,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="13.5" customHeight="1">
+    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="26" t="s">
         <v>62</v>
@@ -3626,7 +3631,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="13.5" customHeight="1">
+    <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="26" t="s">
         <v>74</v>
@@ -3641,7 +3646,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="13.5" customHeight="1">
+    <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="26" t="s">
         <v>75</v>
@@ -3656,16 +3661,16 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="13.5" customHeight="1">
+    <row r="53" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="13.5" customHeight="1">
+    <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="13.5" customHeight="1">
+    <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:9" ht="13.5" customHeight="1">
+    <row r="56" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>99</v>
       </c>
@@ -3674,7 +3679,7 @@
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
     </row>
-    <row r="57" spans="1:9" ht="13.5" customHeight="1">
+    <row r="57" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
       <c r="C57" s="27" t="s">
@@ -3687,7 +3692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="13.5" customHeight="1">
+    <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="26" t="s">
         <v>76</v>
@@ -3705,7 +3710,7 @@
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" ht="13.5" customHeight="1">
+    <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="26" t="s">
         <v>77</v>
@@ -3723,7 +3728,7 @@
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:9" ht="13.5" customHeight="1">
+    <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="26" t="s">
         <v>78</v>
@@ -3741,7 +3746,7 @@
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="1:9" ht="13.5" customHeight="1">
+    <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="26" t="s">
         <v>93</v>
@@ -3759,7 +3764,7 @@
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="1:9" ht="13.5" customHeight="1">
+    <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="26" t="s">
         <v>79</v>
@@ -3777,7 +3782,7 @@
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
     </row>
-    <row r="63" spans="1:9" ht="13.5" customHeight="1">
+    <row r="63" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="26" t="s">
         <v>80</v>
@@ -3795,7 +3800,7 @@
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
     </row>
-    <row r="64" spans="1:9" ht="13.5" customHeight="1">
+    <row r="64" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="26" t="s">
         <v>81</v>
@@ -3813,7 +3818,7 @@
       <c r="H64" s="23"/>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="1:9" ht="13.5" customHeight="1">
+    <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="26" t="s">
         <v>96</v>
@@ -3831,7 +3836,7 @@
       <c r="H65" s="23"/>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="1:9" ht="13.5" customHeight="1">
+    <row r="66" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="26" t="s">
         <v>97</v>
@@ -3846,12 +3851,12 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="13.5" customHeight="1">
+    <row r="67" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:9" ht="13.5" customHeight="1"/>
-    <row r="69" spans="1:9" ht="13.5" customHeight="1"/>
-    <row r="70" spans="1:9" ht="13.5" customHeight="1">
+    <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
         <v>82</v>
       </c>
@@ -3860,7 +3865,7 @@
       <c r="D70" s="24"/>
       <c r="E70" s="24"/>
     </row>
-    <row r="71" spans="1:9" ht="13.5" customHeight="1">
+    <row r="71" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="24"/>
       <c r="B71" s="24"/>
       <c r="C71" s="27" t="s">
@@ -3873,7 +3878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="13.5" customHeight="1">
+    <row r="72" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="26" t="s">
         <v>83</v>
@@ -3888,7 +3893,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="13.5" customHeight="1">
+    <row r="73" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
       <c r="B73" s="26" t="s">
         <v>84</v>
@@ -3903,7 +3908,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="13.5" customHeight="1">
+    <row r="74" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="24"/>
       <c r="B74" s="26" t="s">
         <v>85</v>
@@ -3918,7 +3923,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="13.5" customHeight="1">
+    <row r="75" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="24"/>
       <c r="B75" s="26" t="s">
         <v>86</v>
@@ -3933,7 +3938,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="13.5" customHeight="1">
+    <row r="76" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="24"/>
       <c r="B76" s="26" t="s">
         <v>87</v>
@@ -3948,7 +3953,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="24"/>
       <c r="B77" s="26" t="s">
         <v>88</v>
@@ -3963,7 +3968,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="24"/>
       <c r="B78" s="26" t="s">
         <v>89</v>
@@ -3997,16 +4002,16 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" customHeight="1">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4014,7 +4019,7 @@
       <c r="D1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="13.5" customHeight="1">
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
@@ -4040,7 +4045,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1">
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -4069,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -4098,47 +4103,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1">
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="13.5" customHeight="1">
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="13.5" customHeight="1">
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="13.5" customHeight="1">
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1">
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="13.5" customHeight="1">
+    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="13.5" customHeight="1">
+    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="13.5" customHeight="1">
+    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="G13" s="3"/>
@@ -4161,17 +4166,17 @@
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="8.83203125" customWidth="1"/>
+    <col min="1" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="5">
         <v>2000</v>
       </c>
@@ -4239,7 +4244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4273,7 +4278,7 @@
       </c>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4315,7 +4320,7 @@
       </c>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1">
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4349,8 +4354,8 @@
       </c>
       <c r="Z5" s="12"/>
     </row>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1">
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4384,7 +4389,7 @@
       </c>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4426,7 +4431,7 @@
       </c>
       <c r="Z8" s="12"/>
     </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1">
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4460,7 +4465,7 @@
       </c>
       <c r="Z9" s="12"/>
     </row>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4480,17 +4485,17 @@
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="8.83203125" customWidth="1"/>
+    <col min="1" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="7">
         <v>2000</v>
       </c>
@@ -4558,7 +4563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4592,7 +4597,7 @@
       </c>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4632,7 +4637,7 @@
       </c>
       <c r="Z4" s="14"/>
     </row>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1">
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4666,8 +4671,8 @@
       </c>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1">
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4701,7 +4706,7 @@
       </c>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4741,7 +4746,7 @@
       </c>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1">
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4795,17 +4800,17 @@
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="25" width="8.83203125" customWidth="1"/>
+    <col min="1" max="25" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -4873,7 +4878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4908,7 +4913,7 @@
       </c>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4943,15 +4948,15 @@
       </c>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1">
+    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -5019,7 +5024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5052,7 +5057,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5085,15 +5090,15 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>2000</v>
       </c>
@@ -5161,7 +5166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="13.5" customHeight="1">
+    <row r="17" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5194,7 +5199,7 @@
       </c>
       <c r="Y17" s="10"/>
     </row>
-    <row r="18" spans="2:25" ht="13.5" customHeight="1">
+    <row r="18" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5243,21 +5248,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="25" width="8.83203125" customWidth="1"/>
+    <col min="1" max="25" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -5325,7 +5330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5358,7 +5363,7 @@
       </c>
       <c r="Y3" s="15"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5391,15 +5396,15 @@
       </c>
       <c r="Y4" s="15"/>
     </row>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1">
+    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -5467,7 +5472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
@@ -5499,15 +5504,15 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
         <v>2000</v>
       </c>
@@ -5575,7 +5580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
@@ -5615,15 +5620,15 @@
       </c>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="19" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="20" spans="1:25" ht="13.5" customHeight="1">
+    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1">
+    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="5">
         <v>2000</v>
       </c>
@@ -5691,7 +5696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1">
+    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5724,7 +5729,7 @@
       </c>
       <c r="Y22" s="15"/>
     </row>
-    <row r="23" spans="1:25" ht="13.5" customHeight="1">
+    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5757,15 +5762,15 @@
       </c>
       <c r="Y23" s="15"/>
     </row>
-    <row r="24" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1">
+    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="13.5" customHeight="1">
+    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="5">
         <v>2000</v>
       </c>
@@ -5833,7 +5838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1">
+    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>14</v>
       </c>
@@ -5865,15 +5870,15 @@
       </c>
       <c r="Y29" s="6"/>
     </row>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="33" spans="1:25" ht="13.5" customHeight="1">
+    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="13.5" customHeight="1">
+    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="5">
         <v>2000</v>
       </c>
@@ -5941,7 +5946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="13.5" customHeight="1">
+    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5998,15 +6003,15 @@
       </c>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="37" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="38" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="39" spans="1:25" ht="13.5" customHeight="1">
+    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="13.5" customHeight="1">
+    <row r="40" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="5">
         <v>2000</v>
       </c>
@@ -6074,7 +6079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="13.5" customHeight="1">
+    <row r="41" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>14</v>
       </c>
@@ -6128,17 +6133,17 @@
       <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="25" width="8.83203125" customWidth="1"/>
+    <col min="1" max="25" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -6206,7 +6211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -6236,15 +6241,15 @@
       </c>
       <c r="Y3" s="9"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1">
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
         <v>2000</v>
       </c>
@@ -6312,7 +6317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
@@ -6342,15 +6347,15 @@
       </c>
       <c r="Y9" s="9"/>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1">
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="5">
         <v>2000</v>
       </c>
@@ -6418,7 +6423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
@@ -6448,15 +6453,15 @@
       </c>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="17" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="19" spans="1:25" ht="13.5" customHeight="1">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="13.5" customHeight="1">
+    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="5">
         <v>2000</v>
       </c>
@@ -6524,7 +6529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1">
+    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
@@ -6554,15 +6559,15 @@
       </c>
       <c r="Y21" s="9"/>
     </row>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="23" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="24" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1">
+    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1">
+    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="7">
         <v>2000</v>
       </c>
@@ -6630,7 +6635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1">
+    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>14</v>
       </c>
@@ -6660,15 +6665,15 @@
       </c>
       <c r="Y27" s="9"/>
     </row>
-    <row r="28" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1">
+    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1">
+    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="5">
         <v>2000</v>
       </c>
@@ -6736,7 +6741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="13.5" customHeight="1">
+    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>14</v>
       </c>
@@ -6766,15 +6771,15 @@
       </c>
       <c r="Y33" s="9"/>
     </row>
-    <row r="34" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="35" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="36" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="37" spans="1:25" ht="13.5" customHeight="1">
+    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="13.5" customHeight="1">
+    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="5">
         <v>2000</v>
       </c>
@@ -6842,7 +6847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="13.5" customHeight="1">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>14</v>
       </c>
@@ -6872,7 +6877,7 @@
       </c>
       <c r="Y39" s="9"/>
     </row>
-    <row r="43" spans="1:25" ht="14">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="34" t="s">
         <v>115</v>
       </c>
@@ -6901,7 +6906,7 @@
       <c r="X43" s="31"/>
       <c r="Y43" s="31"/>
     </row>
-    <row r="44" spans="1:25" ht="14">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
       <c r="C44" s="35">
@@ -6972,7 +6977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="14">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="31"/>
       <c r="B45" s="35" t="s">
         <v>30</v>
@@ -7003,10 +7008,10 @@
       </c>
       <c r="Y45" s="37"/>
     </row>
-    <row r="46" spans="1:25" ht="12"/>
-    <row r="47" spans="1:25" ht="12"/>
-    <row r="48" spans="1:25" ht="12"/>
-    <row r="49" spans="1:25" ht="14">
+    <row r="46" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="40" t="s">
         <v>118</v>
       </c>
@@ -7035,7 +7040,7 @@
       <c r="X49" s="31"/>
       <c r="Y49" s="31"/>
     </row>
-    <row r="50" spans="1:25" ht="14">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
       <c r="C50" s="35">
@@ -7106,7 +7111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="14">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
       <c r="B51" s="35" t="s">
         <v>30</v>
@@ -7137,10 +7142,10 @@
       </c>
       <c r="Y51" s="37"/>
     </row>
-    <row r="52" spans="1:25" ht="12"/>
-    <row r="53" spans="1:25" ht="12"/>
-    <row r="54" spans="1:25" ht="12"/>
-    <row r="55" spans="1:25" ht="15" customHeight="1">
+    <row r="52" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:25" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="40" t="s">
         <v>119</v>
       </c>
@@ -7169,7 +7174,7 @@
       <c r="X55" s="31"/>
       <c r="Y55" s="31"/>
     </row>
-    <row r="56" spans="1:25" ht="15" customHeight="1">
+    <row r="56" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="31"/>
       <c r="B56" s="31"/>
       <c r="C56" s="35">
@@ -7240,7 +7245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="15" customHeight="1">
+    <row r="57" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31"/>
       <c r="B57" s="35" t="s">
         <v>30</v>
@@ -7290,9 +7295,9 @@
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="14">
+    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>105</v>
       </c>
@@ -7321,7 +7326,7 @@
       <c r="X1" s="31"/>
       <c r="Y1" s="31"/>
     </row>
-    <row r="2" spans="1:25" ht="14">
+    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="35">
@@ -7392,7 +7397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="14">
+    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="32" t="s">
         <v>94</v>
@@ -7425,7 +7430,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14">
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="32" t="s">
         <v>95</v>
@@ -7458,7 +7463,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14">
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>100</v>
       </c>
@@ -7487,7 +7492,7 @@
       <c r="X8" s="31"/>
       <c r="Y8" s="31"/>
     </row>
-    <row r="9" spans="1:25" ht="14">
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
       <c r="C9" s="35">
@@ -7558,7 +7563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="14">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="32" t="s">
         <v>94</v>
@@ -7591,7 +7596,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="14">
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>95</v>
@@ -7624,7 +7629,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="14">
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>106</v>
       </c>
@@ -7653,7 +7658,7 @@
       <c r="X15" s="31"/>
       <c r="Y15" s="31"/>
     </row>
-    <row r="16" spans="1:25" ht="14">
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="35">
@@ -7724,7 +7729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="14">
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>94</v>
@@ -7757,7 +7762,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="14">
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>95</v>
@@ -7790,7 +7795,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="14">
+    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>107</v>
       </c>
@@ -7819,7 +7824,7 @@
       <c r="X22" s="31"/>
       <c r="Y22" s="31"/>
     </row>
-    <row r="23" spans="1:25" ht="14">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="35">
@@ -7890,7 +7895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="14">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="32" t="s">
         <v>94</v>
@@ -7923,7 +7928,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="14">
+    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="32" t="s">
         <v>95</v>
@@ -7956,7 +7961,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="14">
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
         <v>112</v>
       </c>
@@ -7985,7 +7990,7 @@
       <c r="X29" s="31"/>
       <c r="Y29" s="31"/>
     </row>
-    <row r="30" spans="1:25" ht="14">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="35">
@@ -8056,7 +8061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="14">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="35" t="s">
         <v>30</v>
@@ -8089,7 +8094,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="14">
+    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>101</v>
       </c>
@@ -8118,7 +8123,7 @@
       <c r="X35" s="31"/>
       <c r="Y35" s="31"/>
     </row>
-    <row r="36" spans="1:25" ht="14">
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="35">
@@ -8189,7 +8194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="14">
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="35" t="s">
         <v>30</v>
@@ -8222,7 +8227,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="14">
+    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="34" t="s">
         <v>113</v>
       </c>
@@ -8251,7 +8256,7 @@
       <c r="X41" s="31"/>
       <c r="Y41" s="31"/>
     </row>
-    <row r="42" spans="1:25" ht="14">
+    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
       <c r="B42" s="31"/>
       <c r="C42" s="35">
@@ -8322,7 +8327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="14">
+    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
       <c r="B43" s="35" t="s">
         <v>30</v>
@@ -8355,7 +8360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="14">
+    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
         <v>114</v>
       </c>
@@ -8384,7 +8389,7 @@
       <c r="X47" s="31"/>
       <c r="Y47" s="31"/>
     </row>
-    <row r="48" spans="1:25" ht="14">
+    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="C48" s="35">
@@ -8455,7 +8460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="14">
+    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
       <c r="B49" s="35" t="s">
         <v>30</v>
@@ -8488,7 +8493,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="14">
+    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
         <v>116</v>
       </c>
@@ -8517,7 +8522,7 @@
       <c r="X53" s="31"/>
       <c r="Y53" s="31"/>
     </row>
-    <row r="54" spans="1:25" ht="14">
+    <row r="54" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
       <c r="B54" s="31"/>
       <c r="C54" s="35">
@@ -8588,7 +8593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="14">
+    <row r="55" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="31"/>
       <c r="B55" s="35" t="s">
         <v>30</v>
@@ -8621,7 +8626,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="14">
+    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
         <v>117</v>
       </c>
@@ -8650,7 +8655,7 @@
       <c r="X59" s="31"/>
       <c r="Y59" s="31"/>
     </row>
-    <row r="60" spans="1:25" ht="14">
+    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="31"/>
       <c r="B60" s="31"/>
       <c r="C60" s="35">
@@ -8721,7 +8726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="14">
+    <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="31"/>
       <c r="B61" s="35" t="s">
         <v>30</v>
@@ -8767,23 +8772,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView topLeftCell="V36" workbookViewId="0">
-      <selection activeCell="AA53" sqref="AA53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="25" width="8.83203125" customWidth="1"/>
+    <col min="1" max="25" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -8851,7 +8856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -8884,7 +8889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -8917,15 +8922,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1">
+    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -8993,7 +8998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9027,7 +9032,7 @@
         <v>12.000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9061,15 +9066,15 @@
         <v>6.0000000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>2000</v>
       </c>
@@ -9137,7 +9142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="13.5" customHeight="1">
+    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9170,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1">
+    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9203,15 +9208,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="20" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1">
+    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="13.5" customHeight="1">
+    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="5">
         <v>2000</v>
       </c>
@@ -9279,7 +9284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="13.5" customHeight="1">
+    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9312,7 +9317,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1">
+    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9345,15 +9350,15 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="28" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1">
+    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1">
+    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="5">
         <v>2000</v>
       </c>
@@ -9421,7 +9426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1">
+    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9454,7 +9459,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1">
+    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9487,15 +9492,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="34" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="35" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="36" spans="1:25" ht="13.5" customHeight="1">
+    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="13.5" customHeight="1">
+    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="5">
         <v>2000</v>
       </c>
@@ -9563,7 +9568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="13.5" customHeight="1">
+    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9596,7 +9601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="13.5" customHeight="1">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9629,15 +9634,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="41" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="42" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="43" spans="1:25" ht="13.5" customHeight="1">
+    <row r="40" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="13.5" customHeight="1">
+    <row r="44" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="5">
         <v>2000</v>
       </c>
@@ -9705,7 +9710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="13.5" customHeight="1">
+    <row r="45" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9738,6 +9743,112 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="49" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D50" s="7">
+        <v>2001</v>
+      </c>
+      <c r="E50" s="7">
+        <v>2002</v>
+      </c>
+      <c r="F50" s="7">
+        <v>2003</v>
+      </c>
+      <c r="G50" s="7">
+        <v>2004</v>
+      </c>
+      <c r="H50" s="7">
+        <v>2005</v>
+      </c>
+      <c r="I50" s="7">
+        <v>2006</v>
+      </c>
+      <c r="J50" s="7">
+        <v>2007</v>
+      </c>
+      <c r="K50" s="7">
+        <v>2008</v>
+      </c>
+      <c r="L50" s="7">
+        <v>2009</v>
+      </c>
+      <c r="M50" s="7">
+        <v>2010</v>
+      </c>
+      <c r="N50" s="7">
+        <v>2011</v>
+      </c>
+      <c r="O50" s="7">
+        <v>2012</v>
+      </c>
+      <c r="P50" s="7">
+        <v>2013</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>2014</v>
+      </c>
+      <c r="R50" s="7">
+        <v>2015</v>
+      </c>
+      <c r="S50" s="7">
+        <v>2016</v>
+      </c>
+      <c r="T50" s="7">
+        <v>2017</v>
+      </c>
+      <c r="U50" s="7">
+        <v>2018</v>
+      </c>
+      <c r="V50" s="7">
+        <v>2019</v>
+      </c>
+      <c r="W50" s="7">
+        <v>2020</v>
+      </c>
+      <c r="Y50" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="str">
+        <f>Populations!$C$3</f>
+        <v>M 15-49</v>
+      </c>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y51" s="43">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -501,19 +501,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0%"/>
-    <numFmt numFmtId="168" formatCode="0"/>
-    <numFmt numFmtId="169" formatCode="0.00E+00"/>
-    <numFmt numFmtId="170" formatCode="0.00%"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0"/>
-    <numFmt numFmtId="173" formatCode="0.00"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="0.00E+00"/>
+    <numFmt numFmtId="167" formatCode="0.00%"/>
+    <numFmt numFmtId="168" formatCode="0%"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0"/>
+    <numFmt numFmtId="171" formatCode="0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -536,16 +534,8 @@
       <family val="0"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="20"/>
+      <color rgb="FFD5AA1D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -553,13 +543,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FFD5AA1D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -578,13 +561,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -661,7 +637,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="125">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -685,605 +661,144 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="123" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="123" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="123" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="168" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="123" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="168" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="123" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="123" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="123" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="4" borderId="1" xfId="123" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="6" borderId="1" xfId="123" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="6" borderId="1" xfId="123" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="122" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="122" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="122" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="122" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="6" borderId="1" xfId="122" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="6" borderId="1" xfId="122" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="6" borderId="1" xfId="122" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Comma 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Comma 3" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 10" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 11" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 12" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 13" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 14" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 15" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 16" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 17" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 18" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 19" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 2" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 20" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 21" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 22" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 23" xfId="36" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 24" xfId="37" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 25" xfId="38" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 26" xfId="39" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 27" xfId="40" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 28" xfId="41" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 29" xfId="42" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 3" xfId="43" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 30" xfId="44" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 31" xfId="45" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 32" xfId="46" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 33" xfId="47" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 34" xfId="48" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 35" xfId="49" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 36" xfId="50" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 37" xfId="51" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 38" xfId="52" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 39" xfId="53" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 4" xfId="54" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 40" xfId="55" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 41" xfId="56" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 42" xfId="57" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 43" xfId="58" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 44" xfId="59" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 45" xfId="60" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 46" xfId="61" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 47" xfId="62" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 48" xfId="63" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 49" xfId="64" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 5" xfId="65" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 50" xfId="66" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 51" xfId="67" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 52" xfId="68" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 53" xfId="69" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 54" xfId="70" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 55" xfId="71" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 56" xfId="72" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 57" xfId="73" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 58" xfId="74" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 59" xfId="75" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 6" xfId="76" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 60" xfId="77" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 61" xfId="78" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 62" xfId="79" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 63" xfId="80" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 64" xfId="81" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 65" xfId="82" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 66" xfId="83" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 67" xfId="84" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 68" xfId="85" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 69" xfId="86" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 7" xfId="87" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 70" xfId="88" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 71" xfId="89" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 72" xfId="90" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 73" xfId="91" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 74" xfId="92" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 75" xfId="93" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 76" xfId="94" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 77" xfId="95" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 78" xfId="96" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 79" xfId="97" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 8" xfId="98" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 80" xfId="99" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 81" xfId="100" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 82" xfId="101" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 83" xfId="102" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 84" xfId="103" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 85" xfId="104" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 86" xfId="105" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 87" xfId="106" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 88" xfId="107" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 89" xfId="108" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 9" xfId="109" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 90" xfId="110" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 91" xfId="111" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 92" xfId="112" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 93" xfId="113" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 94" xfId="114" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 95" xfId="115" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 96" xfId="116" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 97" xfId="117" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Followed Hyperlink 98" xfId="118" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2" xfId="119" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3" xfId="120" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 4" xfId="121" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 5" xfId="122" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 6" xfId="123" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Percent 2" xfId="124" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1353,15 +868,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1370,8 +885,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="7086240"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="7124040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1398,15 +913,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1415,8 +930,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="7086240"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="7124040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1443,15 +958,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1460,8 +975,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="7086240"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="7124040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1488,15 +1003,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1505,8 +1020,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="7086240"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="7124040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1533,15 +1048,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1550,8 +1065,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="7086240"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="7124040"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1580,15 +1095,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1597,8 +1112,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="7295760"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="7314480"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1627,15 +1142,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1644,8 +1159,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="8324640"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="8438400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1672,15 +1187,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1689,8 +1204,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="8324640"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="8438400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1717,15 +1232,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1734,8 +1249,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="8324640"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="8438400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1762,15 +1277,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1779,8 +1294,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="8324640"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="8438400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1807,15 +1322,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1824,8 +1339,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="9658080"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="9771840"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1854,15 +1369,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1871,8 +1386,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="7657920"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="8000280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1899,15 +1414,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1916,8 +1431,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="7657920"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="8000280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1944,15 +1459,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1961,8 +1476,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="7657920"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="8000280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1989,15 +1504,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2006,8 +1521,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="7657920"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="8000280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2034,15 +1549,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2051,8 +1566,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="9943920"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="10286640"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -2081,15 +1596,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2098,8 +1613,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="9467640"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="9810000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2126,15 +1641,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2143,8 +1658,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="9467640"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="9810000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2171,15 +1686,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2188,8 +1703,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="9467640"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="9810000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2216,15 +1731,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2233,8 +1748,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="9467640"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="9810000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2261,15 +1776,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2278,8 +1793,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10825200" cy="9467640"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="11728800" cy="9810000"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -2316,8 +1831,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="96.7908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.52040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="104.474489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2374,8 +1889,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="9.52040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="18.6938775510204"/>
+    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="10.3214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2785,10 +2299,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.52040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.6530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="9.52040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="18.6938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6785714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.3214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3078,135 +2591,122 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.52040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.9285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.52040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34"/>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="37" t="n">
+      <c r="C3" s="30" t="n">
         <v>0.0004</v>
       </c>
-      <c r="D3" s="37" t="n">
+      <c r="D3" s="30" t="n">
         <v>0.0001</v>
       </c>
-      <c r="E3" s="37" t="n">
+      <c r="E3" s="30" t="n">
         <v>0.0014</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34"/>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="37" t="n">
+      <c r="C4" s="30" t="n">
         <v>0.0008</v>
       </c>
-      <c r="D4" s="37" t="n">
+      <c r="D4" s="30" t="n">
         <v>0.0006</v>
       </c>
-      <c r="E4" s="37" t="n">
+      <c r="E4" s="30" t="n">
         <v>0.0011</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="37" t="n">
+      <c r="C5" s="30" t="n">
         <v>0.0138</v>
       </c>
-      <c r="D5" s="37" t="n">
+      <c r="D5" s="30" t="n">
         <v>0.0102</v>
       </c>
-      <c r="E5" s="37" t="n">
+      <c r="E5" s="30" t="n">
         <v>0.0186</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34"/>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="37" t="n">
+      <c r="C6" s="30" t="n">
         <v>0.0011</v>
       </c>
-      <c r="D6" s="37" t="n">
+      <c r="D6" s="30" t="n">
         <v>0.0004</v>
       </c>
-      <c r="E6" s="37" t="n">
+      <c r="E6" s="30" t="n">
         <v>0.0028</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34"/>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="37" t="n">
+      <c r="C7" s="30" t="n">
         <v>0.008</v>
       </c>
-      <c r="D7" s="37" t="n">
+      <c r="D7" s="30" t="n">
         <v>0.0063</v>
       </c>
-      <c r="E7" s="37" t="n">
+      <c r="E7" s="30" t="n">
         <v>0.024</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34"/>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="37" t="n">
+      <c r="C8" s="30" t="n">
         <v>0.367</v>
       </c>
-      <c r="D8" s="37" t="n">
+      <c r="D8" s="30" t="n">
         <v>0.294</v>
       </c>
-      <c r="E8" s="37" t="n">
+      <c r="E8" s="30" t="n">
         <v>0.44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34"/>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="37" t="n">
+      <c r="C9" s="30" t="n">
         <v>0.205</v>
       </c>
-      <c r="D9" s="37" t="n">
+      <c r="D9" s="30" t="n">
         <v>0.14</v>
       </c>
-      <c r="E9" s="37" t="n">
+      <c r="E9" s="30" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -3220,114 +2720,102 @@
       <c r="B12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34"/>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="38" t="n">
+      <c r="C15" s="22" t="n">
         <v>26.03</v>
       </c>
-      <c r="D15" s="38" t="n">
+      <c r="D15" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="E15" s="38" t="n">
+      <c r="E15" s="22" t="n">
         <v>48.02</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34"/>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="38" t="n">
+      <c r="C16" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="38" t="n">
+      <c r="D16" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="38" t="n">
+      <c r="E16" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34"/>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="38" t="n">
+      <c r="C17" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="38" t="n">
+      <c r="D17" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="38" t="n">
+      <c r="E17" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34"/>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="38" t="n">
+      <c r="C18" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="38" t="n">
+      <c r="D18" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="38" t="n">
+      <c r="E18" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34"/>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="38" t="n">
+      <c r="C19" s="22" t="n">
         <v>3.49</v>
       </c>
-      <c r="D19" s="38" t="n">
+      <c r="D19" s="22" t="n">
         <v>1.76</v>
       </c>
-      <c r="E19" s="38" t="n">
+      <c r="E19" s="22" t="n">
         <v>6.92</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34"/>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="38" t="n">
+      <c r="C20" s="22" t="n">
         <v>7.17</v>
       </c>
-      <c r="D20" s="38" t="n">
+      <c r="D20" s="22" t="n">
         <v>3.9</v>
       </c>
-      <c r="E20" s="38" t="n">
+      <c r="E20" s="22" t="n">
         <v>12.08</v>
       </c>
     </row>
@@ -3341,99 +2829,88 @@
       <c r="B23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34"/>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="39" t="n">
+      <c r="C26" s="20" t="n">
         <v>4.14</v>
       </c>
-      <c r="D26" s="39" t="n">
+      <c r="D26" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E26" s="39" t="n">
+      <c r="E26" s="20" t="n">
         <v>9.76</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34"/>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="39" t="n">
+      <c r="C27" s="20" t="n">
         <v>1.05</v>
       </c>
-      <c r="D27" s="39" t="n">
+      <c r="D27" s="20" t="n">
         <v>0.86</v>
       </c>
-      <c r="E27" s="39" t="n">
+      <c r="E27" s="20" t="n">
         <v>1.61</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="34"/>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="39" t="n">
+      <c r="C28" s="20" t="n">
         <v>0.33</v>
       </c>
-      <c r="D28" s="39" t="n">
+      <c r="D28" s="20" t="n">
         <v>0.32</v>
       </c>
-      <c r="E28" s="39" t="n">
+      <c r="E28" s="20" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="34"/>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="39" t="n">
+      <c r="C29" s="20" t="n">
         <v>0.27</v>
       </c>
-      <c r="D29" s="39" t="n">
+      <c r="D29" s="20" t="n">
         <v>0.25</v>
       </c>
-      <c r="E29" s="39" t="n">
+      <c r="E29" s="20" t="n">
         <v>0.29</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="34"/>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="39" t="n">
+      <c r="C30" s="20" t="n">
         <v>0.67</v>
       </c>
-      <c r="D30" s="39" t="n">
+      <c r="D30" s="20" t="n">
         <v>0.44</v>
       </c>
-      <c r="E30" s="39" t="n">
+      <c r="E30" s="20" t="n">
         <v>0.88</v>
       </c>
     </row>
@@ -3447,84 +2924,74 @@
       <c r="B33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="34"/>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="39" t="n">
+      <c r="C36" s="20" t="n">
         <v>0.45</v>
       </c>
-      <c r="D36" s="39" t="n">
+      <c r="D36" s="20" t="n">
         <v>0.14</v>
       </c>
-      <c r="E36" s="39" t="n">
+      <c r="E36" s="20" t="n">
         <v>0.93</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="34"/>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="39" t="n">
+      <c r="C37" s="20" t="n">
         <v>0.7</v>
       </c>
-      <c r="D37" s="39" t="n">
+      <c r="D37" s="20" t="n">
         <v>0.29</v>
       </c>
-      <c r="E37" s="39" t="n">
+      <c r="E37" s="20" t="n">
         <v>1.11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="34"/>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="39" t="n">
+      <c r="C38" s="20" t="n">
         <v>0.47</v>
       </c>
-      <c r="D38" s="39" t="n">
+      <c r="D38" s="20" t="n">
         <v>0.33</v>
       </c>
-      <c r="E38" s="39" t="n">
+      <c r="E38" s="20" t="n">
         <v>0.72</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="34"/>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="39" t="n">
+      <c r="C39" s="20" t="n">
         <v>1.52</v>
       </c>
-      <c r="D39" s="39" t="n">
+      <c r="D39" s="20" t="n">
         <v>1.06</v>
       </c>
-      <c r="E39" s="39" t="n">
+      <c r="E39" s="20" t="n">
         <v>1.96</v>
       </c>
     </row>
@@ -3538,144 +3005,130 @@
       <c r="B42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="34"/>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="37" t="n">
+      <c r="C45" s="30" t="n">
         <v>0.0036</v>
       </c>
-      <c r="D45" s="37" t="n">
+      <c r="D45" s="30" t="n">
         <v>0.0029</v>
       </c>
-      <c r="E45" s="37" t="n">
+      <c r="E45" s="30" t="n">
         <v>0.0044</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="34"/>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="37" t="n">
+      <c r="C46" s="30" t="n">
         <v>0.0036</v>
       </c>
-      <c r="D46" s="37" t="n">
+      <c r="D46" s="30" t="n">
         <v>0.0029</v>
       </c>
-      <c r="E46" s="37" t="n">
+      <c r="E46" s="30" t="n">
         <v>0.0044</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="34"/>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="37" t="n">
+      <c r="C47" s="30" t="n">
         <v>0.0058</v>
       </c>
-      <c r="D47" s="37" t="n">
+      <c r="D47" s="30" t="n">
         <v>0.0048</v>
       </c>
-      <c r="E47" s="37" t="n">
+      <c r="E47" s="30" t="n">
         <v>0.0071</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="34"/>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="37" t="n">
+      <c r="C48" s="30" t="n">
         <v>0.0088</v>
       </c>
-      <c r="D48" s="37" t="n">
+      <c r="D48" s="30" t="n">
         <v>0.075</v>
       </c>
-      <c r="E48" s="37" t="n">
+      <c r="E48" s="30" t="n">
         <v>0.0101</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="34"/>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="37" t="n">
+      <c r="C49" s="30" t="n">
         <v>0.059</v>
       </c>
-      <c r="D49" s="37" t="n">
+      <c r="D49" s="30" t="n">
         <v>0.054</v>
       </c>
-      <c r="E49" s="37" t="n">
+      <c r="E49" s="30" t="n">
         <v>0.079</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="34"/>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="37" t="n">
+      <c r="C50" s="30" t="n">
         <v>0.323</v>
       </c>
-      <c r="D50" s="37" t="n">
+      <c r="D50" s="30" t="n">
         <v>0.296</v>
       </c>
-      <c r="E50" s="37" t="n">
+      <c r="E50" s="30" t="n">
         <v>0.432</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="34"/>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="37" t="n">
+      <c r="C51" s="30" t="n">
         <v>0.23</v>
       </c>
-      <c r="D51" s="37" t="n">
+      <c r="D51" s="30" t="n">
         <v>0.15</v>
       </c>
-      <c r="E51" s="37" t="n">
+      <c r="E51" s="30" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="34"/>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="37" t="n">
+      <c r="C52" s="30" t="n">
         <v>2.17</v>
       </c>
-      <c r="D52" s="37" t="n">
+      <c r="D52" s="30" t="n">
         <v>1.27</v>
       </c>
-      <c r="E52" s="37" t="n">
+      <c r="E52" s="30" t="n">
         <v>3.71</v>
       </c>
     </row>
@@ -3689,183 +3142,168 @@
       <c r="B55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="34"/>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="39" t="n">
+      <c r="C58" s="20" t="n">
         <v>0.95</v>
       </c>
-      <c r="D58" s="39" t="n">
+      <c r="D58" s="20" t="n">
         <v>0.8</v>
       </c>
-      <c r="E58" s="39" t="n">
+      <c r="E58" s="20" t="n">
         <v>0.98</v>
       </c>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="34"/>
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="39" t="n">
+      <c r="C59" s="20" t="n">
         <v>0.58</v>
       </c>
-      <c r="D59" s="39" t="n">
+      <c r="D59" s="20" t="n">
         <v>0.47</v>
       </c>
-      <c r="E59" s="39" t="n">
+      <c r="E59" s="20" t="n">
         <v>0.67</v>
       </c>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="34"/>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C60" s="39" t="n">
+      <c r="C60" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="D60" s="39" t="n">
+      <c r="D60" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="E60" s="39" t="n">
+      <c r="E60" s="20" t="n">
         <v>0.68</v>
       </c>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="34"/>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="39" t="n">
+      <c r="C61" s="20" t="n">
         <v>2.65</v>
       </c>
-      <c r="D61" s="39" t="n">
+      <c r="D61" s="20" t="n">
         <v>1.35</v>
       </c>
-      <c r="E61" s="39" t="n">
+      <c r="E61" s="20" t="n">
         <v>5.19</v>
       </c>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="34"/>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="39" t="n">
+      <c r="C62" s="20" t="n">
         <v>0.54</v>
       </c>
-      <c r="D62" s="39" t="n">
+      <c r="D62" s="20" t="n">
         <v>0.33</v>
       </c>
-      <c r="E62" s="39" t="n">
+      <c r="E62" s="20" t="n">
         <v>0.68</v>
       </c>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="34"/>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="39" t="n">
+      <c r="C63" s="20" t="n">
         <v>0.9</v>
       </c>
-      <c r="D63" s="39" t="n">
+      <c r="D63" s="20" t="n">
         <v>0.82</v>
       </c>
-      <c r="E63" s="39" t="n">
+      <c r="E63" s="20" t="n">
         <v>0.93</v>
       </c>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="34"/>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="39" t="n">
+      <c r="C64" s="20" t="n">
         <v>0.73</v>
       </c>
-      <c r="D64" s="39" t="n">
+      <c r="D64" s="20" t="n">
         <v>0.65</v>
       </c>
-      <c r="E64" s="39" t="n">
+      <c r="E64" s="20" t="n">
         <v>0.8</v>
       </c>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="34"/>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="39" t="n">
+      <c r="C65" s="20" t="n">
         <v>0.5</v>
       </c>
-      <c r="D65" s="39" t="n">
+      <c r="D65" s="20" t="n">
         <v>0.3</v>
       </c>
-      <c r="E65" s="39" t="n">
+      <c r="E65" s="20" t="n">
         <v>0.8</v>
       </c>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="34"/>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="39" t="n">
+      <c r="C66" s="20" t="n">
         <v>0.92</v>
       </c>
-      <c r="D66" s="39" t="n">
+      <c r="D66" s="20" t="n">
         <v>0.8</v>
       </c>
-      <c r="E66" s="39" t="n">
+      <c r="E66" s="20" t="n">
         <v>0.95</v>
       </c>
     </row>
@@ -3873,129 +3311,116 @@
       <c r="B67" s="4"/>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="33" t="s">
+      <c r="A70" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="34"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="35" t="s">
+      <c r="D71" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E71" s="35" t="s">
+      <c r="E71" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="34"/>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C72" s="38" t="n">
+      <c r="C72" s="22" t="n">
         <v>0.146</v>
       </c>
-      <c r="D72" s="38" t="n">
+      <c r="D72" s="22" t="n">
         <v>0.096</v>
       </c>
-      <c r="E72" s="38" t="n">
+      <c r="E72" s="22" t="n">
         <v>0.205</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="34"/>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C73" s="38" t="n">
+      <c r="C73" s="22" t="n">
         <v>0.008</v>
       </c>
-      <c r="D73" s="38" t="n">
+      <c r="D73" s="22" t="n">
         <v>0.005</v>
       </c>
-      <c r="E73" s="38" t="n">
+      <c r="E73" s="22" t="n">
         <v>0.011</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="34"/>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C74" s="38" t="n">
+      <c r="C74" s="22" t="n">
         <v>0.02</v>
       </c>
-      <c r="D74" s="38" t="n">
+      <c r="D74" s="22" t="n">
         <v>0.013</v>
       </c>
-      <c r="E74" s="38" t="n">
+      <c r="E74" s="22" t="n">
         <v>0.029</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="34"/>
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C75" s="38" t="n">
+      <c r="C75" s="22" t="n">
         <v>0.07</v>
       </c>
-      <c r="D75" s="38" t="n">
+      <c r="D75" s="22" t="n">
         <v>0.048</v>
       </c>
-      <c r="E75" s="38" t="n">
+      <c r="E75" s="22" t="n">
         <v>0.094</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="34"/>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C76" s="38" t="n">
+      <c r="C76" s="22" t="n">
         <v>0.265</v>
       </c>
-      <c r="D76" s="38" t="n">
+      <c r="D76" s="22" t="n">
         <v>0.114</v>
       </c>
-      <c r="E76" s="38" t="n">
+      <c r="E76" s="22" t="n">
         <v>0.474</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="34"/>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="38" t="n">
+      <c r="C77" s="22" t="n">
         <v>0.547</v>
       </c>
-      <c r="D77" s="38" t="n">
+      <c r="D77" s="22" t="n">
         <v>0.382</v>
       </c>
-      <c r="E77" s="38" t="n">
+      <c r="E77" s="22" t="n">
         <v>0.715</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="34"/>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="C78" s="38" t="n">
+      <c r="C78" s="22" t="n">
         <v>0.053</v>
       </c>
-      <c r="D78" s="38" t="n">
+      <c r="D78" s="22" t="n">
         <v>0.034</v>
       </c>
-      <c r="E78" s="38" t="n">
+      <c r="E78" s="22" t="n">
         <v>0.079</v>
       </c>
     </row>
@@ -4023,12 +3448,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.52040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.9285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="9.52040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="18.6938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.3622448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.6785714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4147,8 +3571,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="26" min="1" style="0" width="9.52040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="18.6938775510204"/>
+    <col collapsed="false" hidden="false" max="26" min="1" style="0" width="10.3214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4469,8 +3892,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="26" min="1" style="0" width="9.52040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="18.6938775510204"/>
+    <col collapsed="false" hidden="false" max="26" min="1" style="0" width="10.3214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4787,8 +4209,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="9.52040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="18.6938775510204"/>
+    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="10.3214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5232,14 +4653,13 @@
   </sheetPr>
   <dimension ref="A1:Y48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="9.52040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="18.6938775510204"/>
+    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="10.3214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6084,132 +5504,104 @@
       <c r="A45" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
-      <c r="Y45" s="19"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20" t="n">
+      <c r="C46" s="19" t="n">
         <v>2000</v>
       </c>
-      <c r="D46" s="20" t="n">
+      <c r="D46" s="19" t="n">
         <v>2001</v>
       </c>
-      <c r="E46" s="20" t="n">
+      <c r="E46" s="19" t="n">
         <v>2002</v>
       </c>
-      <c r="F46" s="20" t="n">
+      <c r="F46" s="19" t="n">
         <v>2003</v>
       </c>
-      <c r="G46" s="20" t="n">
+      <c r="G46" s="19" t="n">
         <v>2004</v>
       </c>
-      <c r="H46" s="20" t="n">
+      <c r="H46" s="19" t="n">
         <v>2005</v>
       </c>
-      <c r="I46" s="20" t="n">
+      <c r="I46" s="19" t="n">
         <v>2006</v>
       </c>
-      <c r="J46" s="20" t="n">
+      <c r="J46" s="19" t="n">
         <v>2007</v>
       </c>
-      <c r="K46" s="20" t="n">
+      <c r="K46" s="19" t="n">
         <v>2008</v>
       </c>
-      <c r="L46" s="20" t="n">
+      <c r="L46" s="19" t="n">
         <v>2009</v>
       </c>
-      <c r="M46" s="20" t="n">
+      <c r="M46" s="19" t="n">
         <v>2010</v>
       </c>
-      <c r="N46" s="20" t="n">
+      <c r="N46" s="19" t="n">
         <v>2011</v>
       </c>
-      <c r="O46" s="20" t="n">
+      <c r="O46" s="19" t="n">
         <v>2012</v>
       </c>
-      <c r="P46" s="20" t="n">
+      <c r="P46" s="19" t="n">
         <v>2013</v>
       </c>
-      <c r="Q46" s="20" t="n">
+      <c r="Q46" s="19" t="n">
         <v>2014</v>
       </c>
-      <c r="R46" s="20" t="n">
+      <c r="R46" s="19" t="n">
         <v>2015</v>
       </c>
-      <c r="S46" s="20" t="n">
+      <c r="S46" s="19" t="n">
         <v>2016</v>
       </c>
-      <c r="T46" s="20" t="n">
+      <c r="T46" s="19" t="n">
         <v>2017</v>
       </c>
-      <c r="U46" s="20" t="n">
+      <c r="U46" s="19" t="n">
         <v>2018</v>
       </c>
-      <c r="V46" s="20" t="n">
+      <c r="V46" s="19" t="n">
         <v>2019</v>
       </c>
-      <c r="W46" s="20" t="n">
+      <c r="W46" s="19" t="n">
         <v>2020</v>
       </c>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="20" t="s">
+      <c r="Y46" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="22" t="s">
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y47" s="21" t="n">
+      <c r="Y47" s="20" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -6241,8 +5633,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="9.52040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="18.6938775510204"/>
+    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="10.3214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6970,397 +6361,313 @@
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="19"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20" t="n">
+      <c r="C44" s="19" t="n">
         <v>2000</v>
       </c>
-      <c r="D44" s="20" t="n">
+      <c r="D44" s="19" t="n">
         <v>2001</v>
       </c>
-      <c r="E44" s="20" t="n">
+      <c r="E44" s="19" t="n">
         <v>2002</v>
       </c>
-      <c r="F44" s="20" t="n">
+      <c r="F44" s="19" t="n">
         <v>2003</v>
       </c>
-      <c r="G44" s="20" t="n">
+      <c r="G44" s="19" t="n">
         <v>2004</v>
       </c>
-      <c r="H44" s="20" t="n">
+      <c r="H44" s="19" t="n">
         <v>2005</v>
       </c>
-      <c r="I44" s="20" t="n">
+      <c r="I44" s="19" t="n">
         <v>2006</v>
       </c>
-      <c r="J44" s="20" t="n">
+      <c r="J44" s="19" t="n">
         <v>2007</v>
       </c>
-      <c r="K44" s="20" t="n">
+      <c r="K44" s="19" t="n">
         <v>2008</v>
       </c>
-      <c r="L44" s="20" t="n">
+      <c r="L44" s="19" t="n">
         <v>2009</v>
       </c>
-      <c r="M44" s="20" t="n">
+      <c r="M44" s="19" t="n">
         <v>2010</v>
       </c>
-      <c r="N44" s="20" t="n">
+      <c r="N44" s="19" t="n">
         <v>2011</v>
       </c>
-      <c r="O44" s="20" t="n">
+      <c r="O44" s="19" t="n">
         <v>2012</v>
       </c>
-      <c r="P44" s="20" t="n">
+      <c r="P44" s="19" t="n">
         <v>2013</v>
       </c>
-      <c r="Q44" s="20" t="n">
+      <c r="Q44" s="19" t="n">
         <v>2014</v>
       </c>
-      <c r="R44" s="20" t="n">
+      <c r="R44" s="19" t="n">
         <v>2015</v>
       </c>
-      <c r="S44" s="20" t="n">
+      <c r="S44" s="19" t="n">
         <v>2016</v>
       </c>
-      <c r="T44" s="20" t="n">
+      <c r="T44" s="19" t="n">
         <v>2017</v>
       </c>
-      <c r="U44" s="20" t="n">
+      <c r="U44" s="19" t="n">
         <v>2018</v>
       </c>
-      <c r="V44" s="20" t="n">
+      <c r="V44" s="19" t="n">
         <v>2019</v>
       </c>
-      <c r="W44" s="20" t="n">
+      <c r="W44" s="19" t="n">
         <v>2020</v>
       </c>
-      <c r="X44" s="19"/>
-      <c r="Y44" s="20" t="s">
+      <c r="Y44" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="22" t="s">
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y45" s="21"/>
+      <c r="Y45" s="20"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="19"/>
-      <c r="X49" s="19"/>
-      <c r="Y49" s="19"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20" t="n">
+      <c r="C50" s="19" t="n">
         <v>2000</v>
       </c>
-      <c r="D50" s="20" t="n">
+      <c r="D50" s="19" t="n">
         <v>2001</v>
       </c>
-      <c r="E50" s="20" t="n">
+      <c r="E50" s="19" t="n">
         <v>2002</v>
       </c>
-      <c r="F50" s="20" t="n">
+      <c r="F50" s="19" t="n">
         <v>2003</v>
       </c>
-      <c r="G50" s="20" t="n">
+      <c r="G50" s="19" t="n">
         <v>2004</v>
       </c>
-      <c r="H50" s="20" t="n">
+      <c r="H50" s="19" t="n">
         <v>2005</v>
       </c>
-      <c r="I50" s="20" t="n">
+      <c r="I50" s="19" t="n">
         <v>2006</v>
       </c>
-      <c r="J50" s="20" t="n">
+      <c r="J50" s="19" t="n">
         <v>2007</v>
       </c>
-      <c r="K50" s="20" t="n">
+      <c r="K50" s="19" t="n">
         <v>2008</v>
       </c>
-      <c r="L50" s="20" t="n">
+      <c r="L50" s="19" t="n">
         <v>2009</v>
       </c>
-      <c r="M50" s="20" t="n">
+      <c r="M50" s="19" t="n">
         <v>2010</v>
       </c>
-      <c r="N50" s="20" t="n">
+      <c r="N50" s="19" t="n">
         <v>2011</v>
       </c>
-      <c r="O50" s="20" t="n">
+      <c r="O50" s="19" t="n">
         <v>2012</v>
       </c>
-      <c r="P50" s="20" t="n">
+      <c r="P50" s="19" t="n">
         <v>2013</v>
       </c>
-      <c r="Q50" s="20" t="n">
+      <c r="Q50" s="19" t="n">
         <v>2014</v>
       </c>
-      <c r="R50" s="20" t="n">
+      <c r="R50" s="19" t="n">
         <v>2015</v>
       </c>
-      <c r="S50" s="20" t="n">
+      <c r="S50" s="19" t="n">
         <v>2016</v>
       </c>
-      <c r="T50" s="20" t="n">
+      <c r="T50" s="19" t="n">
         <v>2017</v>
       </c>
-      <c r="U50" s="20" t="n">
+      <c r="U50" s="19" t="n">
         <v>2018</v>
       </c>
-      <c r="V50" s="20" t="n">
+      <c r="V50" s="19" t="n">
         <v>2019</v>
       </c>
-      <c r="W50" s="20" t="n">
+      <c r="W50" s="19" t="n">
         <v>2020</v>
       </c>
-      <c r="X50" s="19"/>
-      <c r="Y50" s="20" t="s">
+      <c r="Y50" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="22" t="s">
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y51" s="21"/>
+      <c r="Y51" s="20"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19"/>
-      <c r="W55" s="19"/>
-      <c r="X55" s="19"/>
-      <c r="Y55" s="19"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20" t="n">
+      <c r="C56" s="19" t="n">
         <v>2000</v>
       </c>
-      <c r="D56" s="20" t="n">
+      <c r="D56" s="19" t="n">
         <v>2001</v>
       </c>
-      <c r="E56" s="20" t="n">
+      <c r="E56" s="19" t="n">
         <v>2002</v>
       </c>
-      <c r="F56" s="20" t="n">
+      <c r="F56" s="19" t="n">
         <v>2003</v>
       </c>
-      <c r="G56" s="20" t="n">
+      <c r="G56" s="19" t="n">
         <v>2004</v>
       </c>
-      <c r="H56" s="20" t="n">
+      <c r="H56" s="19" t="n">
         <v>2005</v>
       </c>
-      <c r="I56" s="20" t="n">
+      <c r="I56" s="19" t="n">
         <v>2006</v>
       </c>
-      <c r="J56" s="20" t="n">
+      <c r="J56" s="19" t="n">
         <v>2007</v>
       </c>
-      <c r="K56" s="20" t="n">
+      <c r="K56" s="19" t="n">
         <v>2008</v>
       </c>
-      <c r="L56" s="20" t="n">
+      <c r="L56" s="19" t="n">
         <v>2009</v>
       </c>
-      <c r="M56" s="20" t="n">
+      <c r="M56" s="19" t="n">
         <v>2010</v>
       </c>
-      <c r="N56" s="20" t="n">
+      <c r="N56" s="19" t="n">
         <v>2011</v>
       </c>
-      <c r="O56" s="20" t="n">
+      <c r="O56" s="19" t="n">
         <v>2012</v>
       </c>
-      <c r="P56" s="20" t="n">
+      <c r="P56" s="19" t="n">
         <v>2013</v>
       </c>
-      <c r="Q56" s="20" t="n">
+      <c r="Q56" s="19" t="n">
         <v>2014</v>
       </c>
-      <c r="R56" s="20" t="n">
+      <c r="R56" s="19" t="n">
         <v>2015</v>
       </c>
-      <c r="S56" s="20" t="n">
+      <c r="S56" s="19" t="n">
         <v>2016</v>
       </c>
-      <c r="T56" s="20" t="n">
+      <c r="T56" s="19" t="n">
         <v>2017</v>
       </c>
-      <c r="U56" s="20" t="n">
+      <c r="U56" s="19" t="n">
         <v>2018</v>
       </c>
-      <c r="V56" s="20" t="n">
+      <c r="V56" s="19" t="n">
         <v>2019</v>
       </c>
-      <c r="W56" s="20" t="n">
+      <c r="W56" s="19" t="n">
         <v>2020</v>
       </c>
-      <c r="X56" s="19"/>
-      <c r="Y56" s="20" t="s">
+      <c r="Y56" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="21"/>
-      <c r="T57" s="21"/>
-      <c r="U57" s="21"/>
-      <c r="V57" s="21"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="22" t="s">
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y57" s="21"/>
+      <c r="Y57" s="20"/>
     </row>
     <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -7381,1084 +6688,885 @@
   </sheetPr>
   <dimension ref="A1:Y65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.52040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="n">
+      <c r="C2" s="19" t="n">
         <v>2000</v>
       </c>
-      <c r="D2" s="20" t="n">
+      <c r="D2" s="19" t="n">
         <v>2001</v>
       </c>
-      <c r="E2" s="20" t="n">
+      <c r="E2" s="19" t="n">
         <v>2002</v>
       </c>
-      <c r="F2" s="20" t="n">
+      <c r="F2" s="19" t="n">
         <v>2003</v>
       </c>
-      <c r="G2" s="20" t="n">
+      <c r="G2" s="19" t="n">
         <v>2004</v>
       </c>
-      <c r="H2" s="20" t="n">
+      <c r="H2" s="19" t="n">
         <v>2005</v>
       </c>
-      <c r="I2" s="20" t="n">
+      <c r="I2" s="19" t="n">
         <v>2006</v>
       </c>
-      <c r="J2" s="20" t="n">
+      <c r="J2" s="19" t="n">
         <v>2007</v>
       </c>
-      <c r="K2" s="20" t="n">
+      <c r="K2" s="19" t="n">
         <v>2008</v>
       </c>
-      <c r="L2" s="20" t="n">
+      <c r="L2" s="19" t="n">
         <v>2009</v>
       </c>
-      <c r="M2" s="20" t="n">
+      <c r="M2" s="19" t="n">
         <v>2010</v>
       </c>
-      <c r="N2" s="20" t="n">
+      <c r="N2" s="19" t="n">
         <v>2011</v>
       </c>
-      <c r="O2" s="20" t="n">
+      <c r="O2" s="19" t="n">
         <v>2012</v>
       </c>
-      <c r="P2" s="20" t="n">
+      <c r="P2" s="19" t="n">
         <v>2013</v>
       </c>
-      <c r="Q2" s="20" t="n">
+      <c r="Q2" s="19" t="n">
         <v>2014</v>
       </c>
-      <c r="R2" s="20" t="n">
+      <c r="R2" s="19" t="n">
         <v>2015</v>
       </c>
-      <c r="S2" s="20" t="n">
+      <c r="S2" s="19" t="n">
         <v>2016</v>
       </c>
-      <c r="T2" s="20" t="n">
+      <c r="T2" s="19" t="n">
         <v>2017</v>
       </c>
-      <c r="U2" s="20" t="n">
+      <c r="U2" s="19" t="n">
         <v>2018</v>
       </c>
-      <c r="V2" s="20" t="n">
+      <c r="V2" s="19" t="n">
         <v>2019</v>
       </c>
-      <c r="W2" s="20" t="n">
+      <c r="W2" s="19" t="n">
         <v>2020</v>
       </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="22" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="21" t="n">
+      <c r="Y3" s="20" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="22" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="21" t="n">
+      <c r="Y4" s="20" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20" t="n">
+      <c r="C9" s="19" t="n">
         <v>2000</v>
       </c>
-      <c r="D9" s="20" t="n">
+      <c r="D9" s="19" t="n">
         <v>2001</v>
       </c>
-      <c r="E9" s="20" t="n">
+      <c r="E9" s="19" t="n">
         <v>2002</v>
       </c>
-      <c r="F9" s="20" t="n">
+      <c r="F9" s="19" t="n">
         <v>2003</v>
       </c>
-      <c r="G9" s="20" t="n">
+      <c r="G9" s="19" t="n">
         <v>2004</v>
       </c>
-      <c r="H9" s="20" t="n">
+      <c r="H9" s="19" t="n">
         <v>2005</v>
       </c>
-      <c r="I9" s="20" t="n">
+      <c r="I9" s="19" t="n">
         <v>2006</v>
       </c>
-      <c r="J9" s="20" t="n">
+      <c r="J9" s="19" t="n">
         <v>2007</v>
       </c>
-      <c r="K9" s="20" t="n">
+      <c r="K9" s="19" t="n">
         <v>2008</v>
       </c>
-      <c r="L9" s="20" t="n">
+      <c r="L9" s="19" t="n">
         <v>2009</v>
       </c>
-      <c r="M9" s="20" t="n">
+      <c r="M9" s="19" t="n">
         <v>2010</v>
       </c>
-      <c r="N9" s="20" t="n">
+      <c r="N9" s="19" t="n">
         <v>2011</v>
       </c>
-      <c r="O9" s="20" t="n">
+      <c r="O9" s="19" t="n">
         <v>2012</v>
       </c>
-      <c r="P9" s="20" t="n">
+      <c r="P9" s="19" t="n">
         <v>2013</v>
       </c>
-      <c r="Q9" s="20" t="n">
+      <c r="Q9" s="19" t="n">
         <v>2014</v>
       </c>
-      <c r="R9" s="20" t="n">
+      <c r="R9" s="19" t="n">
         <v>2015</v>
       </c>
-      <c r="S9" s="20" t="n">
+      <c r="S9" s="19" t="n">
         <v>2016</v>
       </c>
-      <c r="T9" s="20" t="n">
+      <c r="T9" s="19" t="n">
         <v>2017</v>
       </c>
-      <c r="U9" s="20" t="n">
+      <c r="U9" s="19" t="n">
         <v>2018</v>
       </c>
-      <c r="V9" s="20" t="n">
+      <c r="V9" s="19" t="n">
         <v>2019</v>
       </c>
-      <c r="W9" s="20" t="n">
+      <c r="W9" s="19" t="n">
         <v>2020</v>
       </c>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="20" t="s">
+      <c r="Y9" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="22" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y10" s="21" t="n">
+      <c r="Y10" s="20" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19"/>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="22" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="21" t="n">
+      <c r="Y11" s="20" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20" t="n">
+      <c r="C16" s="19" t="n">
         <v>2000</v>
       </c>
-      <c r="D16" s="20" t="n">
+      <c r="D16" s="19" t="n">
         <v>2001</v>
       </c>
-      <c r="E16" s="20" t="n">
+      <c r="E16" s="19" t="n">
         <v>2002</v>
       </c>
-      <c r="F16" s="20" t="n">
+      <c r="F16" s="19" t="n">
         <v>2003</v>
       </c>
-      <c r="G16" s="20" t="n">
+      <c r="G16" s="19" t="n">
         <v>2004</v>
       </c>
-      <c r="H16" s="20" t="n">
+      <c r="H16" s="19" t="n">
         <v>2005</v>
       </c>
-      <c r="I16" s="20" t="n">
+      <c r="I16" s="19" t="n">
         <v>2006</v>
       </c>
-      <c r="J16" s="20" t="n">
+      <c r="J16" s="19" t="n">
         <v>2007</v>
       </c>
-      <c r="K16" s="20" t="n">
+      <c r="K16" s="19" t="n">
         <v>2008</v>
       </c>
-      <c r="L16" s="20" t="n">
+      <c r="L16" s="19" t="n">
         <v>2009</v>
       </c>
-      <c r="M16" s="20" t="n">
+      <c r="M16" s="19" t="n">
         <v>2010</v>
       </c>
-      <c r="N16" s="20" t="n">
+      <c r="N16" s="19" t="n">
         <v>2011</v>
       </c>
-      <c r="O16" s="20" t="n">
+      <c r="O16" s="19" t="n">
         <v>2012</v>
       </c>
-      <c r="P16" s="20" t="n">
+      <c r="P16" s="19" t="n">
         <v>2013</v>
       </c>
-      <c r="Q16" s="20" t="n">
+      <c r="Q16" s="19" t="n">
         <v>2014</v>
       </c>
-      <c r="R16" s="20" t="n">
+      <c r="R16" s="19" t="n">
         <v>2015</v>
       </c>
-      <c r="S16" s="20" t="n">
+      <c r="S16" s="19" t="n">
         <v>2016</v>
       </c>
-      <c r="T16" s="20" t="n">
+      <c r="T16" s="19" t="n">
         <v>2017</v>
       </c>
-      <c r="U16" s="20" t="n">
+      <c r="U16" s="19" t="n">
         <v>2018</v>
       </c>
-      <c r="V16" s="20" t="n">
+      <c r="V16" s="19" t="n">
         <v>2019</v>
       </c>
-      <c r="W16" s="20" t="n">
+      <c r="W16" s="19" t="n">
         <v>2020</v>
       </c>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="20" t="s">
+      <c r="Y16" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19"/>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="22" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y17" s="21" t="n">
+      <c r="Y17" s="20" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19"/>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="22" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y18" s="21" t="n">
+      <c r="Y18" s="20" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20" t="n">
+      <c r="C23" s="19" t="n">
         <v>2000</v>
       </c>
-      <c r="D23" s="20" t="n">
+      <c r="D23" s="19" t="n">
         <v>2001</v>
       </c>
-      <c r="E23" s="20" t="n">
+      <c r="E23" s="19" t="n">
         <v>2002</v>
       </c>
-      <c r="F23" s="20" t="n">
+      <c r="F23" s="19" t="n">
         <v>2003</v>
       </c>
-      <c r="G23" s="20" t="n">
+      <c r="G23" s="19" t="n">
         <v>2004</v>
       </c>
-      <c r="H23" s="20" t="n">
+      <c r="H23" s="19" t="n">
         <v>2005</v>
       </c>
-      <c r="I23" s="20" t="n">
+      <c r="I23" s="19" t="n">
         <v>2006</v>
       </c>
-      <c r="J23" s="20" t="n">
+      <c r="J23" s="19" t="n">
         <v>2007</v>
       </c>
-      <c r="K23" s="20" t="n">
+      <c r="K23" s="19" t="n">
         <v>2008</v>
       </c>
-      <c r="L23" s="20" t="n">
+      <c r="L23" s="19" t="n">
         <v>2009</v>
       </c>
-      <c r="M23" s="20" t="n">
+      <c r="M23" s="19" t="n">
         <v>2010</v>
       </c>
-      <c r="N23" s="20" t="n">
+      <c r="N23" s="19" t="n">
         <v>2011</v>
       </c>
-      <c r="O23" s="20" t="n">
+      <c r="O23" s="19" t="n">
         <v>2012</v>
       </c>
-      <c r="P23" s="20" t="n">
+      <c r="P23" s="19" t="n">
         <v>2013</v>
       </c>
-      <c r="Q23" s="20" t="n">
+      <c r="Q23" s="19" t="n">
         <v>2014</v>
       </c>
-      <c r="R23" s="20" t="n">
+      <c r="R23" s="19" t="n">
         <v>2015</v>
       </c>
-      <c r="S23" s="20" t="n">
+      <c r="S23" s="19" t="n">
         <v>2016</v>
       </c>
-      <c r="T23" s="20" t="n">
+      <c r="T23" s="19" t="n">
         <v>2017</v>
       </c>
-      <c r="U23" s="20" t="n">
+      <c r="U23" s="19" t="n">
         <v>2018</v>
       </c>
-      <c r="V23" s="20" t="n">
+      <c r="V23" s="19" t="n">
         <v>2019</v>
       </c>
-      <c r="W23" s="20" t="n">
+      <c r="W23" s="19" t="n">
         <v>2020</v>
       </c>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="20" t="s">
+      <c r="Y23" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="22" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y24" s="21" t="n">
+      <c r="Y24" s="20" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19"/>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="22" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y25" s="21" t="n">
+      <c r="Y25" s="20" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="19" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="19" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E30" s="19" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F30" s="19" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G30" s="19" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H30" s="19" t="n">
+        <v>2005</v>
+      </c>
+      <c r="I30" s="19" t="n">
+        <v>2006</v>
+      </c>
+      <c r="J30" s="19" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K30" s="19" t="n">
+        <v>2008</v>
+      </c>
+      <c r="L30" s="19" t="n">
+        <v>2009</v>
+      </c>
+      <c r="M30" s="19" t="n">
+        <v>2010</v>
+      </c>
+      <c r="N30" s="19" t="n">
+        <v>2011</v>
+      </c>
+      <c r="O30" s="19" t="n">
+        <v>2012</v>
+      </c>
+      <c r="P30" s="19" t="n">
+        <v>2013</v>
+      </c>
+      <c r="Q30" s="19" t="n">
+        <v>2014</v>
+      </c>
+      <c r="R30" s="19" t="n">
+        <v>2015</v>
+      </c>
+      <c r="S30" s="19" t="n">
+        <v>2016</v>
+      </c>
+      <c r="T30" s="19" t="n">
+        <v>2017</v>
+      </c>
+      <c r="U30" s="19" t="n">
+        <v>2018</v>
+      </c>
+      <c r="V30" s="19" t="n">
+        <v>2019</v>
+      </c>
+      <c r="W30" s="19" t="n">
+        <v>2020</v>
+      </c>
+      <c r="Y30" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y31" s="20" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
+      <c r="A35" s="18" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20" t="n">
+      <c r="C36" s="19" t="n">
         <v>2000</v>
       </c>
-      <c r="D36" s="20" t="n">
+      <c r="D36" s="19" t="n">
         <v>2001</v>
       </c>
-      <c r="E36" s="20" t="n">
+      <c r="E36" s="19" t="n">
         <v>2002</v>
       </c>
-      <c r="F36" s="20" t="n">
+      <c r="F36" s="19" t="n">
         <v>2003</v>
       </c>
-      <c r="G36" s="20" t="n">
+      <c r="G36" s="19" t="n">
         <v>2004</v>
       </c>
-      <c r="H36" s="20" t="n">
+      <c r="H36" s="19" t="n">
         <v>2005</v>
       </c>
-      <c r="I36" s="20" t="n">
+      <c r="I36" s="19" t="n">
         <v>2006</v>
       </c>
-      <c r="J36" s="20" t="n">
+      <c r="J36" s="19" t="n">
         <v>2007</v>
       </c>
-      <c r="K36" s="20" t="n">
+      <c r="K36" s="19" t="n">
         <v>2008</v>
       </c>
-      <c r="L36" s="20" t="n">
+      <c r="L36" s="19" t="n">
         <v>2009</v>
       </c>
-      <c r="M36" s="20" t="n">
+      <c r="M36" s="19" t="n">
         <v>2010</v>
       </c>
-      <c r="N36" s="20" t="n">
+      <c r="N36" s="19" t="n">
         <v>2011</v>
       </c>
-      <c r="O36" s="20" t="n">
+      <c r="O36" s="19" t="n">
         <v>2012</v>
       </c>
-      <c r="P36" s="20" t="n">
+      <c r="P36" s="19" t="n">
         <v>2013</v>
       </c>
-      <c r="Q36" s="20" t="n">
+      <c r="Q36" s="19" t="n">
         <v>2014</v>
       </c>
-      <c r="R36" s="20" t="n">
+      <c r="R36" s="19" t="n">
         <v>2015</v>
       </c>
-      <c r="S36" s="20" t="n">
+      <c r="S36" s="19" t="n">
         <v>2016</v>
       </c>
-      <c r="T36" s="20" t="n">
+      <c r="T36" s="19" t="n">
         <v>2017</v>
       </c>
-      <c r="U36" s="20" t="n">
+      <c r="U36" s="19" t="n">
         <v>2018</v>
       </c>
-      <c r="V36" s="20" t="n">
+      <c r="V36" s="19" t="n">
         <v>2019</v>
       </c>
-      <c r="W36" s="20" t="n">
+      <c r="W36" s="19" t="n">
         <v>2020</v>
       </c>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="20" t="s">
+      <c r="Y36" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="22" t="s">
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y37" s="21" t="n">
-        <v>0.1</v>
+      <c r="Y37" s="23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
+      <c r="A41" s="18" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20" t="n">
+      <c r="C42" s="19" t="n">
         <v>2000</v>
       </c>
-      <c r="D42" s="20" t="n">
+      <c r="D42" s="19" t="n">
         <v>2001</v>
       </c>
-      <c r="E42" s="20" t="n">
+      <c r="E42" s="19" t="n">
         <v>2002</v>
       </c>
-      <c r="F42" s="20" t="n">
+      <c r="F42" s="19" t="n">
         <v>2003</v>
       </c>
-      <c r="G42" s="20" t="n">
+      <c r="G42" s="19" t="n">
         <v>2004</v>
       </c>
-      <c r="H42" s="20" t="n">
+      <c r="H42" s="19" t="n">
         <v>2005</v>
       </c>
-      <c r="I42" s="20" t="n">
+      <c r="I42" s="19" t="n">
         <v>2006</v>
       </c>
-      <c r="J42" s="20" t="n">
+      <c r="J42" s="19" t="n">
         <v>2007</v>
       </c>
-      <c r="K42" s="20" t="n">
+      <c r="K42" s="19" t="n">
         <v>2008</v>
       </c>
-      <c r="L42" s="20" t="n">
+      <c r="L42" s="19" t="n">
         <v>2009</v>
       </c>
-      <c r="M42" s="20" t="n">
+      <c r="M42" s="19" t="n">
         <v>2010</v>
       </c>
-      <c r="N42" s="20" t="n">
+      <c r="N42" s="19" t="n">
         <v>2011</v>
       </c>
-      <c r="O42" s="20" t="n">
+      <c r="O42" s="19" t="n">
         <v>2012</v>
       </c>
-      <c r="P42" s="20" t="n">
+      <c r="P42" s="19" t="n">
         <v>2013</v>
       </c>
-      <c r="Q42" s="20" t="n">
+      <c r="Q42" s="19" t="n">
         <v>2014</v>
       </c>
-      <c r="R42" s="20" t="n">
+      <c r="R42" s="19" t="n">
         <v>2015</v>
       </c>
-      <c r="S42" s="20" t="n">
+      <c r="S42" s="19" t="n">
         <v>2016</v>
       </c>
-      <c r="T42" s="20" t="n">
+      <c r="T42" s="19" t="n">
         <v>2017</v>
       </c>
-      <c r="U42" s="20" t="n">
+      <c r="U42" s="19" t="n">
         <v>2018</v>
       </c>
-      <c r="V42" s="20" t="n">
+      <c r="V42" s="19" t="n">
         <v>2019</v>
       </c>
-      <c r="W42" s="20" t="n">
+      <c r="W42" s="19" t="n">
         <v>2020</v>
       </c>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="20" t="s">
+      <c r="Y42" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="26"/>
-      <c r="X43" s="22" t="s">
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y43" s="27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D48" s="20" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E48" s="20" t="n">
-        <v>2002</v>
-      </c>
-      <c r="F48" s="20" t="n">
-        <v>2003</v>
-      </c>
-      <c r="G48" s="20" t="n">
-        <v>2004</v>
-      </c>
-      <c r="H48" s="20" t="n">
-        <v>2005</v>
-      </c>
-      <c r="I48" s="20" t="n">
-        <v>2006</v>
-      </c>
-      <c r="J48" s="20" t="n">
-        <v>2007</v>
-      </c>
-      <c r="K48" s="20" t="n">
-        <v>2008</v>
-      </c>
-      <c r="L48" s="20" t="n">
-        <v>2009</v>
-      </c>
-      <c r="M48" s="20" t="n">
-        <v>2010</v>
-      </c>
-      <c r="N48" s="20" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O48" s="20" t="n">
-        <v>2012</v>
-      </c>
-      <c r="P48" s="20" t="n">
-        <v>2013</v>
-      </c>
-      <c r="Q48" s="20" t="n">
-        <v>2014</v>
-      </c>
-      <c r="R48" s="20" t="n">
-        <v>2015</v>
-      </c>
-      <c r="S48" s="20" t="n">
-        <v>2016</v>
-      </c>
-      <c r="T48" s="20" t="n">
-        <v>2017</v>
-      </c>
-      <c r="U48" s="20" t="n">
-        <v>2018</v>
-      </c>
-      <c r="V48" s="20" t="n">
-        <v>2019</v>
-      </c>
-      <c r="W48" s="20" t="n">
-        <v>2020</v>
-      </c>
-      <c r="X48" s="19"/>
-      <c r="Y48" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y49" s="21" t="n">
+      <c r="Y43" s="20" t="n">
         <v>0.95</v>
       </c>
     </row>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8496,8 +7604,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="9.52040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="18.6938775510204"/>
+    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="10.3214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8602,7 +7709,7 @@
       <c r="X3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="28" t="n">
+      <c r="Y3" s="24" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8635,7 +7742,7 @@
       <c r="X4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="28" t="n">
+      <c r="Y4" s="24" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8741,7 +7848,7 @@
       <c r="X10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y10" s="28" t="n">
+      <c r="Y10" s="24" t="n">
         <f aca="false">0.2*3*20</f>
         <v>12</v>
       </c>
@@ -8775,7 +7882,7 @@
       <c r="X11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="28" t="n">
+      <c r="Y11" s="24" t="n">
         <f aca="false">0.1*3*20</f>
         <v>6</v>
       </c>
@@ -9021,7 +8128,7 @@
       <c r="X24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y24" s="29" t="n">
+      <c r="Y24" s="25" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -9054,7 +8161,7 @@
       <c r="X25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y25" s="29" t="n">
+      <c r="Y25" s="25" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -9299,7 +8406,7 @@
       <c r="X38" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y38" s="30" t="n">
+      <c r="Y38" s="26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9332,7 +8439,7 @@
       <c r="X39" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y39" s="29" t="n">
+      <c r="Y39" s="25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9438,7 +8545,7 @@
       <c r="X45" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y45" s="29" t="n">
+      <c r="Y45" s="25" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -9520,31 +8627,31 @@
         <f aca="false">Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="31"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="31"/>
-      <c r="W51" s="31"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="27"/>
       <c r="X51" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y51" s="32" t="n">
+      <c r="Y51" s="28" t="n">
         <v>0</v>
       </c>
     </row>

--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="121">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>PLHIV in care on treatment (%)</t>
+  </si>
+  <si>
+    <t>People on ART with viral suppression (%)</t>
   </si>
   <si>
     <t>Linkage to care from diagnosis within 1 month (%)</t>
@@ -868,15 +871,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -885,8 +888,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="7124040"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="7123680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -913,15 +916,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -930,8 +933,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="7124040"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="7123680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -958,15 +961,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -975,8 +978,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="7124040"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="7123680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1003,15 +1006,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1020,8 +1023,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="7124040"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="7123680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1048,15 +1051,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1065,8 +1068,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="7124040"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="7123680"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1095,15 +1098,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1112,8 +1115,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="7314480"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="7314120"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1142,15 +1145,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1159,8 +1162,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="8438400"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="8438040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1187,15 +1190,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1204,8 +1207,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="8438400"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="8438040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1232,15 +1235,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1249,8 +1252,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="8438400"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="8438040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1277,15 +1280,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1294,8 +1297,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="8438400"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="8438040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1322,15 +1325,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1339,8 +1342,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="9771840"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="9771480"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1369,15 +1372,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1386,8 +1389,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="8000280"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="7999920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1414,15 +1417,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1431,8 +1434,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="8000280"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="7999920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1459,15 +1462,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1476,8 +1479,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="8000280"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="7999920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1504,15 +1507,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1521,8 +1524,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="8000280"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="7999920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1549,15 +1552,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1566,8 +1569,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="10286640"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="10286280"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1596,15 +1599,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1613,8 +1616,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="9810000"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="9809640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1641,15 +1644,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1658,8 +1661,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="9810000"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="9809640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1686,15 +1689,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1703,8 +1706,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="9810000"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="9809640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1731,15 +1734,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1748,8 +1751,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="9810000"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="9809640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1776,15 +1779,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1793,8 +1796,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="11728800" cy="9810000"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="12632760" cy="9809640"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1831,8 +1834,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="104.474489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="112.841836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1889,12 +1892,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="11.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2033,7 +2037,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2172,7 +2176,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2299,14 +2303,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.3214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6785714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8316326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2353,7 +2358,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2400,7 +2405,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2445,7 +2450,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2478,7 +2483,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2503,7 +2508,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2536,7 +2541,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2591,14 +2596,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.1428571428572"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2614,7 +2619,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="30" t="n">
         <v>0.0004</v>
@@ -2628,7 +2633,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="30" t="n">
         <v>0.0008</v>
@@ -2642,7 +2647,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="30" t="n">
         <v>0.0138</v>
@@ -2656,7 +2661,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="30" t="n">
         <v>0.0011</v>
@@ -2670,7 +2675,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="30" t="n">
         <v>0.008</v>
@@ -2684,7 +2689,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="30" t="n">
         <v>0.367</v>
@@ -2698,7 +2703,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" s="30" t="n">
         <v>0.205</v>
@@ -2721,7 +2726,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2737,7 +2742,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" s="22" t="n">
         <v>26.03</v>
@@ -2751,7 +2756,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C16" s="22" t="n">
         <v>1</v>
@@ -2765,7 +2770,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17" s="22" t="n">
         <v>1</v>
@@ -2779,7 +2784,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" s="22" t="n">
         <v>1</v>
@@ -2793,7 +2798,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="22" t="n">
         <v>3.49</v>
@@ -2807,7 +2812,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="22" t="n">
         <v>7.17</v>
@@ -2830,7 +2835,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2846,7 +2851,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C26" s="20" t="n">
         <v>4.14</v>
@@ -2860,7 +2865,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" s="20" t="n">
         <v>1.05</v>
@@ -2874,7 +2879,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="20" t="n">
         <v>0.33</v>
@@ -2888,7 +2893,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" s="20" t="n">
         <v>0.27</v>
@@ -2902,7 +2907,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" s="20" t="n">
         <v>0.67</v>
@@ -2925,7 +2930,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2941,7 +2946,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C36" s="20" t="n">
         <v>0.45</v>
@@ -2955,7 +2960,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C37" s="20" t="n">
         <v>0.7</v>
@@ -2969,7 +2974,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C38" s="20" t="n">
         <v>0.47</v>
@@ -2983,7 +2988,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C39" s="20" t="n">
         <v>1.52</v>
@@ -3006,7 +3011,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3022,7 +3027,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C45" s="30" t="n">
         <v>0.0036</v>
@@ -3036,7 +3041,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C46" s="30" t="n">
         <v>0.0036</v>
@@ -3050,7 +3055,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" s="30" t="n">
         <v>0.0058</v>
@@ -3064,7 +3069,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C48" s="30" t="n">
         <v>0.0088</v>
@@ -3078,7 +3083,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C49" s="30" t="n">
         <v>0.059</v>
@@ -3092,7 +3097,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C50" s="30" t="n">
         <v>0.323</v>
@@ -3106,7 +3111,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C51" s="30" t="n">
         <v>0.23</v>
@@ -3120,7 +3125,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C52" s="30" t="n">
         <v>2.17</v>
@@ -3143,7 +3148,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3159,7 +3164,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C58" s="20" t="n">
         <v>0.95</v>
@@ -3176,7 +3181,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C59" s="20" t="n">
         <v>0.58</v>
@@ -3193,7 +3198,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C60" s="20" t="n">
         <v>0</v>
@@ -3210,7 +3215,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C61" s="20" t="n">
         <v>2.65</v>
@@ -3227,7 +3232,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C62" s="20" t="n">
         <v>0.54</v>
@@ -3244,7 +3249,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C63" s="20" t="n">
         <v>0.9</v>
@@ -3261,7 +3266,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C64" s="20" t="n">
         <v>0.73</v>
@@ -3278,7 +3283,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C65" s="20" t="n">
         <v>0.5</v>
@@ -3295,7 +3300,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C66" s="20" t="n">
         <v>0.92</v>
@@ -3312,7 +3317,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3328,7 +3333,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C72" s="22" t="n">
         <v>0.146</v>
@@ -3342,7 +3347,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C73" s="22" t="n">
         <v>0.008</v>
@@ -3356,7 +3361,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C74" s="22" t="n">
         <v>0.02</v>
@@ -3370,7 +3375,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C75" s="22" t="n">
         <v>0.07</v>
@@ -3384,7 +3389,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C76" s="22" t="n">
         <v>0.265</v>
@@ -3398,7 +3403,7 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C77" s="22" t="n">
         <v>0.547</v>
@@ -3412,7 +3417,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C78" s="22" t="n">
         <v>0.053</v>
@@ -3448,11 +3453,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.3214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.3622448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.3214285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.6785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.1428571428572"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.1224489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3571,7 +3577,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="26" min="1" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="26" min="1" style="0" width="11.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3892,7 +3899,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="26" min="1" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="26" min="1" style="0" width="11.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4209,7 +4217,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="11.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4659,7 +4668,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="11.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5625,15 +5635,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y65536"/>
+  <dimension ref="A1:AI65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J61" activeCellId="0" sqref="J61"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J63" activeCellId="0" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="11.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6669,6 +6680,155 @@
       </c>
       <c r="Y57" s="20"/>
     </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="19" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D62" s="19" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E62" s="19" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F62" s="19" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G62" s="19" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H62" s="19" t="n">
+        <v>2005</v>
+      </c>
+      <c r="I62" s="19" t="n">
+        <v>2006</v>
+      </c>
+      <c r="J62" s="19" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K62" s="19" t="n">
+        <v>2008</v>
+      </c>
+      <c r="L62" s="19" t="n">
+        <v>2009</v>
+      </c>
+      <c r="M62" s="19" t="n">
+        <v>2010</v>
+      </c>
+      <c r="N62" s="19" t="n">
+        <v>2011</v>
+      </c>
+      <c r="O62" s="19" t="n">
+        <v>2012</v>
+      </c>
+      <c r="P62" s="19" t="n">
+        <v>2013</v>
+      </c>
+      <c r="Q62" s="19" t="n">
+        <v>2014</v>
+      </c>
+      <c r="R62" s="19" t="n">
+        <v>2015</v>
+      </c>
+      <c r="S62" s="19" t="n">
+        <v>2016</v>
+      </c>
+      <c r="T62" s="19" t="n">
+        <v>2017</v>
+      </c>
+      <c r="U62" s="19" t="n">
+        <v>2018</v>
+      </c>
+      <c r="V62" s="19" t="n">
+        <v>2019</v>
+      </c>
+      <c r="W62" s="19" t="n">
+        <v>2020</v>
+      </c>
+      <c r="X62" s="19" t="n">
+        <v>2021</v>
+      </c>
+      <c r="Y62" s="19" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Z62" s="19" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AA62" s="19" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AB62" s="19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="AC62" s="19" t="n">
+        <v>2026</v>
+      </c>
+      <c r="AD62" s="19" t="n">
+        <v>2027</v>
+      </c>
+      <c r="AE62" s="19" t="n">
+        <v>2028</v>
+      </c>
+      <c r="AF62" s="19" t="n">
+        <v>2029</v>
+      </c>
+      <c r="AG62" s="19" t="n">
+        <v>2030</v>
+      </c>
+      <c r="AI62" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="20"/>
+      <c r="W63" s="20"/>
+      <c r="X63" s="20"/>
+      <c r="Y63" s="20"/>
+      <c r="Z63" s="20"/>
+      <c r="AA63" s="20"/>
+      <c r="AB63" s="20"/>
+      <c r="AC63" s="20"/>
+      <c r="AD63" s="20"/>
+      <c r="AE63" s="20"/>
+      <c r="AF63" s="20"/>
+      <c r="AG63" s="20"/>
+      <c r="AH63" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI63" s="20" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6688,18 +6848,18 @@
   </sheetPr>
   <dimension ref="A1:Y65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6836,7 +6996,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6973,7 +7133,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7110,7 +7270,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7248,7 +7408,7 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7353,7 +7513,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7458,7 +7618,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7604,12 +7764,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="11.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7748,7 +7909,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7889,7 +8050,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8028,7 +8189,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8167,7 +8328,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8306,7 +8467,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8445,7 +8606,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8551,7 +8712,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -5637,8 +5637,8 @@
   </sheetPr>
   <dimension ref="A1:AI65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J63" activeCellId="0" sqref="J63"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="988" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Populations" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Population size" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="HIV prevalence" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Other epidemiology" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Testing &amp; treatment" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Optional indicators" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Cascade" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Sexual behavior" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Injecting behavior" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Partnerships &amp; transitions" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Constants" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Instructions" sheetId="1" r:id="rId1"/>
+    <sheet name="Populations" sheetId="2" r:id="rId2"/>
+    <sheet name="Population size" sheetId="3" r:id="rId3"/>
+    <sheet name="HIV prevalence" sheetId="4" r:id="rId4"/>
+    <sheet name="Other epidemiology" sheetId="5" r:id="rId5"/>
+    <sheet name="Testing &amp; treatment" sheetId="6" r:id="rId6"/>
+    <sheet name="Optional indicators" sheetId="7" r:id="rId7"/>
+    <sheet name="Cascade" sheetId="8" r:id="rId8"/>
+    <sheet name="Sexual behavior" sheetId="9" r:id="rId9"/>
+    <sheet name="Injecting behavior" sheetId="10" r:id="rId10"/>
+    <sheet name="Partnerships &amp; transitions" sheetId="11" r:id="rId11"/>
+    <sheet name="Constants" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,8 +29,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
@@ -68,8 +67,8 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
@@ -101,8 +100,7 @@
 Based on 2005 MICS survey (for general population not HIV +: 87% ever breastfed.
 Approximately 11 per cent of children aged less than six months are exclusively breastfed. At age 6-9 months, 34.8 per cent of children are receiving breast milk and solid or semi-solid foods. 
 We therefore assume that the HIV + population is similar to the general population at 11% breastfed. 
-Rate of breastfeeding among HIV+ women in Georgia is 0% (best estimate by experts). Therefore rte is 14% (who don't know their status) x 87%)
-</t>
+Rate of breastfeeding among HIV+ women in Georgia is 0% (best estimate by experts). Therefore rte is 14% (who don't know their status) x 87%)</t>
         </r>
       </text>
     </comment>
@@ -110,8 +108,8 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
@@ -135,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="123">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -498,43 +496,27 @@
   </si>
   <si>
     <t>Treated HIV</t>
+  </si>
+  <si>
+    <t>People on unsuppressive ART who recover (%)</t>
+  </si>
+  <si>
+    <t>People on unsuppressive ART who progress (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="0.00E+00"/>
-    <numFmt numFmtId="167" formatCode="0.00%"/>
-    <numFmt numFmtId="168" formatCode="0%"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="20"/>
@@ -551,7 +533,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -564,6 +546,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -617,14 +606,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -640,169 +629,73 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -861,13 +754,26 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -881,9 +787,9 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -895,7 +801,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -905,9 +811,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -926,9 +838,9 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -940,7 +852,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -950,9 +862,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -971,9 +889,9 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -985,7 +903,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -995,9 +913,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1016,9 +940,9 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1030,7 +954,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1040,9 +964,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1061,9 +991,9 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1072,7 +1002,7 @@
           <a:ext cx="12632760" cy="7123680"/>
         </a:xfrm>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1082,9 +1012,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1094,7 +1030,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1108,7 +1044,7 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -1119,7 +1055,7 @@
           <a:ext cx="12632760" cy="7314120"/>
         </a:xfrm>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1129,9 +1065,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1141,7 +1083,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1155,7 +1097,7 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1169,7 +1111,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1179,9 +1121,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1200,7 +1148,7 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1214,7 +1162,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1224,9 +1172,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1245,7 +1199,7 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1259,7 +1213,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1269,9 +1223,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1290,7 +1250,7 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1304,7 +1264,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1314,9 +1274,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1335,7 +1301,7 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -1346,7 +1312,7 @@
           <a:ext cx="12632760" cy="9771480"/>
         </a:xfrm>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1356,11 +1322,103 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3076" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3074" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1368,7 +1426,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1382,7 +1440,7 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1396,7 +1454,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1406,9 +1464,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1427,7 +1491,7 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1441,7 +1505,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1451,9 +1515,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1472,7 +1542,7 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1486,7 +1556,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1496,9 +1566,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1517,7 +1593,7 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1531,7 +1607,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1541,9 +1617,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1562,7 +1644,7 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -1573,7 +1655,7 @@
           <a:ext cx="12632760" cy="10286280"/>
         </a:xfrm>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1583,11 +1665,103 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4100" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4098" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1595,7 +1769,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1609,7 +1783,7 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1623,7 +1797,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1633,9 +1807,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1654,7 +1834,7 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1668,7 +1848,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1678,9 +1858,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1699,7 +1885,7 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1713,7 +1899,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1723,9 +1909,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1744,7 +1936,7 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1758,7 +1950,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1768,9 +1960,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1789,7 +1987,7 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -1800,7 +1998,7 @@
           <a:ext cx="12632760" cy="9809640"/>
         </a:xfrm>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1810,57 +2008,388 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5122" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="112.841836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.1224489795918"/>
+    <col min="1" max="1" width="112.85546875"/>
+    <col min="2" max="1025" width="11.140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -1869,109 +2398,100 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A3"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.16836734693878"/>
+    <col min="1" max="25" width="11.140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="n">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="6">
         <v>2000</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="6">
         <v>2001</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>2002</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>2003</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>2004</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>2005</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>2006</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="6">
         <v>2007</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="6">
         <v>2008</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="6">
         <v>2009</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="6">
         <v>2010</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="6">
         <v>2011</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="6">
         <v>2012</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="6">
         <v>2013</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="6">
         <v>2014</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="6">
         <v>2015</v>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="6">
         <v>2016</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="6">
         <v>2017</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="6">
         <v>2018</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="V2" s="6">
         <v>2019</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="6">
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C3" s="7"/>
@@ -1998,13 +2518,13 @@
       <c r="X3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="7" t="n">
+      <c r="Y3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C4" s="7"/>
@@ -2031,86 +2551,86 @@
       <c r="X4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="7" t="n">
+      <c r="Y4" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="6" t="n">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="6">
         <v>2000</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6">
         <v>2001</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="6">
         <v>2002</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="6">
         <v>2003</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="6">
         <v>2004</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="6">
         <v>2005</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>2006</v>
       </c>
-      <c r="J9" s="6" t="n">
+      <c r="J9" s="6">
         <v>2007</v>
       </c>
-      <c r="K9" s="6" t="n">
+      <c r="K9" s="6">
         <v>2008</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="6">
         <v>2009</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="6">
         <v>2010</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="6">
         <v>2011</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="O9" s="6">
         <v>2012</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="P9" s="6">
         <v>2013</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="Q9" s="6">
         <v>2014</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="R9" s="6">
         <v>2015</v>
       </c>
-      <c r="S9" s="6" t="n">
+      <c r="S9" s="6">
         <v>2016</v>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="T9" s="6">
         <v>2017</v>
       </c>
-      <c r="U9" s="6" t="n">
+      <c r="U9" s="6">
         <v>2018</v>
       </c>
-      <c r="V9" s="6" t="n">
+      <c r="V9" s="6">
         <v>2019</v>
       </c>
-      <c r="W9" s="6" t="n">
+      <c r="W9" s="6">
         <v>2020</v>
       </c>
       <c r="Y9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C10" s="14"/>
@@ -2137,13 +2657,13 @@
       <c r="X10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y10" s="14" t="n">
+      <c r="Y10" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C11" s="14"/>
@@ -2170,84 +2690,84 @@
       <c r="X11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="14" t="n">
+      <c r="Y11" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="6" t="n">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="6">
         <v>2000</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="6">
         <v>2001</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="6">
         <v>2002</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="6">
         <v>2003</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="6">
         <v>2004</v>
       </c>
-      <c r="H16" s="6" t="n">
+      <c r="H16" s="6">
         <v>2005</v>
       </c>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="6">
         <v>2006</v>
       </c>
-      <c r="J16" s="6" t="n">
+      <c r="J16" s="6">
         <v>2007</v>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K16" s="6">
         <v>2008</v>
       </c>
-      <c r="L16" s="6" t="n">
+      <c r="L16" s="6">
         <v>2009</v>
       </c>
-      <c r="M16" s="6" t="n">
+      <c r="M16" s="6">
         <v>2010</v>
       </c>
-      <c r="N16" s="6" t="n">
+      <c r="N16" s="6">
         <v>2011</v>
       </c>
-      <c r="O16" s="6" t="n">
+      <c r="O16" s="6">
         <v>2012</v>
       </c>
-      <c r="P16" s="6" t="n">
+      <c r="P16" s="6">
         <v>2013</v>
       </c>
-      <c r="Q16" s="6" t="n">
+      <c r="Q16" s="6">
         <v>2014</v>
       </c>
-      <c r="R16" s="6" t="n">
+      <c r="R16" s="6">
         <v>2015</v>
       </c>
-      <c r="S16" s="6" t="n">
+      <c r="S16" s="6">
         <v>2016</v>
       </c>
-      <c r="T16" s="6" t="n">
+      <c r="T16" s="6">
         <v>2017</v>
       </c>
-      <c r="U16" s="6" t="n">
+      <c r="U16" s="6">
         <v>2018</v>
       </c>
-      <c r="V16" s="6" t="n">
+      <c r="V16" s="6">
         <v>2019</v>
       </c>
-      <c r="W16" s="6" t="n">
+      <c r="W16" s="6">
         <v>2020</v>
       </c>
       <c r="Y16" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>32</v>
       </c>
@@ -2275,338 +2795,321 @@
       <c r="X17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y17" s="7" t="n">
+      <c r="Y17" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.16836734693878"/>
+    <col min="1" max="2" width="11.140625"/>
+    <col min="3" max="4" width="15.85546875"/>
+    <col min="5" max="6" width="11.140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="D2" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="D9" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="D16" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="D23" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="D30" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="D36" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="D43" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G60" activeCellId="0" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.1428571428572"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.1224489795918"/>
+    <col min="1" max="1" width="11.140625"/>
+    <col min="2" max="2" width="51.140625"/>
+    <col min="3" max="1025" width="11.140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
@@ -2617,119 +3120,119 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="30" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="D3" s="30" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="E3" s="30" t="n">
-        <v>0.0014</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C3" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D3" s="30">
+        <v>1E-4</v>
+      </c>
+      <c r="E3" s="30">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="30" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="D4" s="30" t="n">
-        <v>0.0006</v>
-      </c>
-      <c r="E4" s="30" t="n">
-        <v>0.0011</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="30">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D4" s="30">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E4" s="30">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="30" t="n">
-        <v>0.0138</v>
-      </c>
-      <c r="D5" s="30" t="n">
-        <v>0.0102</v>
-      </c>
-      <c r="E5" s="30" t="n">
-        <v>0.0186</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C5" s="30">
+        <v>1.38E-2</v>
+      </c>
+      <c r="D5" s="30">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E5" s="30">
+        <v>1.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="30" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="D6" s="30" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="E6" s="30" t="n">
-        <v>0.0028</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="30">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D6" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E6" s="30">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="30" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="D7" s="30" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="E7" s="30" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C7" s="30">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D7" s="30">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E7" s="30">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="30" t="n">
-        <v>0.367</v>
-      </c>
-      <c r="D8" s="30" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="E8" s="30" t="n">
+      <c r="C8" s="30">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D8" s="30">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="E8" s="30">
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="30" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="D9" s="30" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E9" s="30" t="n">
+      <c r="C9" s="30">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D9" s="30">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E9" s="30">
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="19" t="s">
         <v>22</v>
       </c>
@@ -2740,105 +3243,105 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="22" t="n">
+      <c r="C15" s="22">
         <v>26.03</v>
       </c>
-      <c r="D15" s="22" t="n">
+      <c r="D15" s="22">
         <v>2</v>
       </c>
-      <c r="E15" s="22" t="n">
+      <c r="E15" s="22">
         <v>48.02</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="22" t="n">
+      <c r="C16" s="22">
         <v>1</v>
       </c>
-      <c r="D16" s="22" t="n">
+      <c r="D16" s="22">
         <v>1</v>
       </c>
-      <c r="E16" s="22" t="n">
+      <c r="E16" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="22" t="n">
+      <c r="C17" s="22">
         <v>1</v>
       </c>
-      <c r="D17" s="22" t="n">
+      <c r="D17" s="22">
         <v>1</v>
       </c>
-      <c r="E17" s="22" t="n">
+      <c r="E17" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="22" t="n">
+      <c r="C18" s="22">
         <v>1</v>
       </c>
-      <c r="D18" s="22" t="n">
+      <c r="D18" s="22">
         <v>1</v>
       </c>
-      <c r="E18" s="22" t="n">
+      <c r="E18" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="22" t="n">
+      <c r="C19" s="22">
         <v>3.49</v>
       </c>
-      <c r="D19" s="22" t="n">
+      <c r="D19" s="22">
         <v>1.76</v>
       </c>
-      <c r="E19" s="22" t="n">
+      <c r="E19" s="22">
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="22" t="n">
+      <c r="C20" s="22">
         <v>7.17</v>
       </c>
-      <c r="D20" s="22" t="n">
+      <c r="D20" s="22">
         <v>3.9</v>
       </c>
-      <c r="E20" s="22" t="n">
+      <c r="E20" s="22">
         <v>12.08</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="19" t="s">
         <v>22</v>
       </c>
@@ -2849,619 +3352,642 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="20" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D26" s="20" t="n">
+      <c r="C26" s="20">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D26" s="20">
         <v>2</v>
       </c>
-      <c r="E26" s="20" t="n">
+      <c r="E26" s="20">
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="20" t="n">
+      <c r="C27" s="20">
         <v>1.05</v>
       </c>
-      <c r="D27" s="20" t="n">
+      <c r="D27" s="20">
         <v>0.86</v>
       </c>
-      <c r="E27" s="20" t="n">
+      <c r="E27" s="20">
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="20" t="n">
+      <c r="C28" s="20">
         <v>0.33</v>
       </c>
-      <c r="D28" s="20" t="n">
+      <c r="D28" s="20">
         <v>0.32</v>
       </c>
-      <c r="E28" s="20" t="n">
+      <c r="E28" s="20">
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="20" t="n">
+      <c r="C29" s="20">
         <v>0.27</v>
       </c>
-      <c r="D29" s="20" t="n">
+      <c r="D29" s="20">
         <v>0.25</v>
       </c>
-      <c r="E29" s="20" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E29" s="20">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="20" t="n">
+      <c r="C30" s="20">
         <v>0.67</v>
       </c>
-      <c r="D30" s="20" t="n">
+      <c r="D30" s="20">
         <v>0.44</v>
       </c>
-      <c r="E30" s="20" t="n">
+      <c r="E30" s="20">
         <v>0.88</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="D31" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E31" s="20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="32"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18" t="s">
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C35" s="19" t="s">
+    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D36" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E36" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="29" t="s">
+    <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="20" t="n">
+      <c r="C37" s="20">
         <v>0.45</v>
       </c>
-      <c r="D36" s="20" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E36" s="20" t="n">
+      <c r="D37" s="20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E37" s="20">
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="29" t="s">
+    <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="20" t="n">
+      <c r="C38" s="20">
         <v>0.7</v>
       </c>
-      <c r="D37" s="20" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="E37" s="20" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="29" t="s">
+      <c r="D38" s="20">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E38" s="20">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="20" t="n">
+      <c r="C39" s="20">
         <v>0.47</v>
       </c>
-      <c r="D38" s="20" t="n">
+      <c r="D39" s="20">
         <v>0.33</v>
       </c>
-      <c r="E38" s="20" t="n">
+      <c r="E39" s="20">
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="29" t="s">
+    <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="20" t="n">
+      <c r="C40" s="20">
         <v>1.52</v>
       </c>
-      <c r="D39" s="20" t="n">
+      <c r="D40" s="20">
         <v>1.06</v>
       </c>
-      <c r="E39" s="20" t="n">
+      <c r="E40" s="20">
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="D41" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E41" s="20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18" t="s">
+    <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C44" s="19" t="s">
+    <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D46" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E46" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="29" t="s">
+    <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="30" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="D45" s="30" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="E45" s="30" t="n">
-        <v>0.0044</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="29" t="s">
+      <c r="C47" s="30">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D47" s="30">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E47" s="30">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="30" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="D46" s="30" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="E46" s="30" t="n">
-        <v>0.0044</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="29" t="s">
+      <c r="C48" s="30">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D48" s="30">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E48" s="30">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="30" t="n">
-        <v>0.0058</v>
-      </c>
-      <c r="D47" s="30" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="E47" s="30" t="n">
-        <v>0.0071</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="29" t="s">
+      <c r="C49" s="30">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="D49" s="30">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E49" s="30">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="30" t="n">
-        <v>0.0088</v>
-      </c>
-      <c r="D48" s="30" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="E48" s="30" t="n">
-        <v>0.0101</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="29" t="s">
+      <c r="C50" s="30">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D50" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E50" s="30">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="30" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="D49" s="30" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="E49" s="30" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="29" t="s">
+      <c r="C51" s="30">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D51" s="30">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E51" s="30">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="30" t="n">
-        <v>0.323</v>
-      </c>
-      <c r="D50" s="30" t="n">
-        <v>0.296</v>
-      </c>
-      <c r="E50" s="30" t="n">
+      <c r="C52" s="30">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D52" s="30">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E52" s="30">
         <v>0.432</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="29" t="s">
+    <row r="53" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="30" t="n">
+      <c r="C53" s="30">
         <v>0.23</v>
       </c>
-      <c r="D51" s="30" t="n">
+      <c r="D53" s="30">
         <v>0.15</v>
       </c>
-      <c r="E51" s="30" t="n">
+      <c r="E53" s="30">
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="29" t="s">
+    <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="30" t="n">
+      <c r="C54" s="30">
         <v>2.17</v>
       </c>
-      <c r="D52" s="30" t="n">
+      <c r="D54" s="30">
         <v>1.27</v>
       </c>
-      <c r="E52" s="30" t="n">
+      <c r="E54" s="30">
         <v>3.71</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="4"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
     </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="18" t="s">
+    <row r="56" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C57" s="19" t="s">
+    <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D59" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E59" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="29" t="s">
+    <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="20" t="n">
+      <c r="C60" s="20">
         <v>0.95</v>
       </c>
-      <c r="D58" s="20" t="n">
+      <c r="D60" s="20">
         <v>0.8</v>
       </c>
-      <c r="E58" s="20" t="n">
+      <c r="E60" s="20">
         <v>0.98</v>
-      </c>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="20" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="D59" s="20" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E59" s="20" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" s="20" t="n">
-        <v>0.68</v>
       </c>
       <c r="G60" s="31"/>
       <c r="H60" s="31"/>
       <c r="I60" s="31"/>
     </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="20" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="D61" s="20" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="E61" s="20" t="n">
-        <v>5.19</v>
+        <v>105</v>
+      </c>
+      <c r="C61" s="20">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D61" s="20">
+        <v>0.47</v>
+      </c>
+      <c r="E61" s="20">
+        <v>0.67</v>
       </c>
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="31"/>
     </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="20" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="D62" s="20" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E62" s="20" t="n">
+        <v>106</v>
+      </c>
+      <c r="C62" s="20">
+        <v>0</v>
+      </c>
+      <c r="D62" s="20">
+        <v>0</v>
+      </c>
+      <c r="E62" s="20">
         <v>0.68</v>
       </c>
       <c r="G62" s="31"/>
       <c r="H62" s="31"/>
       <c r="I62" s="31"/>
     </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63" s="20" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D63" s="20" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="E63" s="20" t="n">
-        <v>0.93</v>
+        <v>107</v>
+      </c>
+      <c r="C63" s="20">
+        <v>2.65</v>
+      </c>
+      <c r="D63" s="20">
+        <v>1.35</v>
+      </c>
+      <c r="E63" s="20">
+        <v>5.19</v>
       </c>
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="31"/>
     </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C64" s="20" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="D64" s="20" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E64" s="20" t="n">
-        <v>0.8</v>
+        <v>108</v>
+      </c>
+      <c r="C64" s="20">
+        <v>0.54</v>
+      </c>
+      <c r="D64" s="20">
+        <v>0.33</v>
+      </c>
+      <c r="E64" s="20">
+        <v>0.68</v>
       </c>
       <c r="G64" s="31"/>
       <c r="H64" s="31"/>
       <c r="I64" s="31"/>
     </row>
-    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D65" s="20" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E65" s="20" t="n">
-        <v>0.8</v>
+        <v>109</v>
+      </c>
+      <c r="C65" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="D65" s="20">
+        <v>0.82</v>
+      </c>
+      <c r="E65" s="20">
+        <v>0.93</v>
       </c>
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="31"/>
     </row>
-    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="20">
+        <v>0.73</v>
+      </c>
+      <c r="D66" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="E66" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+    </row>
+    <row r="67" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="D67" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E67" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+    </row>
+    <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C66" s="20" t="n">
+      <c r="C68" s="20">
         <v>0.92</v>
       </c>
-      <c r="D66" s="20" t="n">
+      <c r="D68" s="20">
         <v>0.8</v>
       </c>
-      <c r="E66" s="20" t="n">
+      <c r="E68" s="20">
         <v>0.95</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="4"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="18" t="s">
+    <row r="69" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+    </row>
+    <row r="72" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C71" s="19" t="s">
+    <row r="73" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="D73" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E73" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="29" t="s">
+    <row r="74" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C72" s="22" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="D72" s="22" t="n">
-        <v>0.096</v>
-      </c>
-      <c r="E72" s="22" t="n">
-        <v>0.205</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="29" t="s">
+      <c r="C74" s="22">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D74" s="22">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E74" s="22">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C73" s="22" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="D73" s="22" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="E73" s="22" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="29" t="s">
+      <c r="C75" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D75" s="22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E75" s="22">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C74" s="22" t="n">
+      <c r="C76" s="22">
         <v>0.02</v>
       </c>
-      <c r="D74" s="22" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="E74" s="22" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="29" t="s">
+      <c r="D76" s="22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E76" s="22">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C75" s="22" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="D75" s="22" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="E75" s="22" t="n">
-        <v>0.094</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="29" t="s">
+      <c r="C77" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D77" s="22">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E77" s="22">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="C76" s="22" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="D76" s="22" t="n">
+      <c r="C78" s="22">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D78" s="22">
         <v>0.114</v>
       </c>
-      <c r="E76" s="22" t="n">
-        <v>0.474</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="29" t="s">
+      <c r="E78" s="22">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="C77" s="22" t="n">
-        <v>0.547</v>
-      </c>
-      <c r="D77" s="22" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="E77" s="22" t="n">
-        <v>0.715</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="29" t="s">
+      <c r="C79" s="22">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D79" s="22">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E79" s="22">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C78" s="22" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="D78" s="22" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="E78" s="22" t="n">
-        <v>0.079</v>
+      <c r="C80" s="22">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D80" s="22">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E80" s="22">
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.1428571428572"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.16836734693878"/>
+    <col min="1" max="2" width="11.140625"/>
+    <col min="3" max="3" width="19.5703125"/>
+    <col min="4" max="4" width="51.140625"/>
+    <col min="5" max="6" width="11.140625"/>
+    <col min="7" max="7" width="15.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -3469,7 +3995,7 @@
       <c r="D1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
@@ -3495,8 +4021,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="6" t="n">
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -3511,21 +4037,21 @@
       <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="7">
         <v>15</v>
       </c>
-      <c r="H3" s="7" t="n">
+      <c r="H3" s="7">
         <v>49</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="7">
         <v>0</v>
       </c>
-      <c r="J3" s="7" t="n">
+      <c r="J3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6" t="n">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -3540,123 +4066,114 @@
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="7">
         <v>15</v>
       </c>
-      <c r="H4" s="7" t="n">
+      <c r="H4" s="7">
         <v>49</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="J4" s="7" t="n">
+      <c r="J4" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V12" activeCellId="0" sqref="V12"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="26" min="1" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.16836734693878"/>
+    <col min="1" max="26" width="11.140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D2" s="6" t="n">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="6">
         <v>2000</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>2001</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>2002</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>2003</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>2004</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>2005</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="6">
         <v>2006</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="6">
         <v>2007</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="6">
         <v>2008</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="6">
         <v>2009</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="6">
         <v>2010</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="6">
         <v>2011</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="6">
         <v>2012</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="6">
         <v>2013</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="6">
         <v>2014</v>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="6">
         <v>2015</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="6">
         <v>2016</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="6">
         <v>2017</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="V2" s="6">
         <v>2018</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="6">
         <v>2019</v>
       </c>
-      <c r="X2" s="6" t="n">
+      <c r="X2" s="6">
         <v>2020</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -3688,15 +4205,15 @@
       </c>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="8">
         <v>525000</v>
       </c>
       <c r="E4" s="8"/>
@@ -3708,9 +4225,9 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="8" t="n">
-        <f aca="false">'Population size'!D4*(1.03^10)</f>
-        <v>705556.099155664</v>
+      <c r="N4" s="8">
+        <f>'Population size'!D4*(1.03^10)</f>
+        <v>705556.09915566398</v>
       </c>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -3721,18 +4238,18 @@
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
-      <c r="X4" s="11" t="n">
-        <f aca="false">'Population size'!N4*1.02^10</f>
-        <v>860068.947864022</v>
+      <c r="X4" s="11">
+        <f>'Population size'!N4*1.02^10</f>
+        <v>860068.94786402199</v>
       </c>
       <c r="Y4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3764,9 +4281,9 @@
       </c>
       <c r="Z5" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3798,15 +4315,15 @@
       </c>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="10">
         <v>626000</v>
       </c>
       <c r="E8" s="10"/>
@@ -3818,9 +4335,9 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="10" t="n">
-        <f aca="false">'Population size'!D8*1.03^10</f>
-        <v>841291.65346942</v>
+      <c r="N8" s="10">
+        <f>'Population size'!D8*1.03^10</f>
+        <v>841291.65346942027</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -3831,18 +4348,18 @@
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
-      <c r="X8" s="10" t="n">
-        <f aca="false">'Population size'!N8*1.02^10</f>
-        <v>1025529.83116739</v>
+      <c r="X8" s="10">
+        <f>'Population size'!N8*1.02^10</f>
+        <v>1025529.8311673861</v>
       </c>
       <c r="Y8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -3875,110 +4392,101 @@
       <c r="Z9" s="10"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V16" activeCellId="0" sqref="V16"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="26" min="1" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.16836734693878"/>
+    <col min="1" max="26" width="11.140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D2" s="6" t="n">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="6">
         <v>2000</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>2001</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>2002</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>2003</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>2004</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>2005</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="6">
         <v>2006</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="6">
         <v>2007</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="6">
         <v>2008</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="6">
         <v>2009</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="6">
         <v>2010</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="6">
         <v>2011</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="6">
         <v>2012</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="6">
         <v>2013</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="6">
         <v>2014</v>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="6">
         <v>2015</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="6">
         <v>2016</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="6">
         <v>2017</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="V2" s="6">
         <v>2018</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="6">
         <v>2019</v>
       </c>
-      <c r="X2" s="6" t="n">
+      <c r="X2" s="6">
         <v>2020</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -4010,28 +4518,28 @@
       </c>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="12">
         <v>0.01</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="12" t="n">
+      <c r="H4" s="12">
         <v>0.02</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="12" t="n">
-        <v>0.015</v>
+      <c r="L4" s="12">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
@@ -4050,9 +4558,9 @@
       </c>
       <c r="Z4" s="13"/>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -4084,9 +4592,9 @@
       </c>
       <c r="Z5" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -4118,23 +4626,23 @@
       </c>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="12" t="n">
-        <v>0.015</v>
+      <c r="E8" s="12">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="12" t="n">
+      <c r="J8" s="12">
         <v>0.03</v>
       </c>
       <c r="K8" s="12"/>
@@ -4144,7 +4652,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
-      <c r="R8" s="12" t="n">
+      <c r="R8" s="12">
         <v>0.02</v>
       </c>
       <c r="S8" s="12"/>
@@ -4158,9 +4666,9 @@
       </c>
       <c r="Z8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -4193,114 +4701,105 @@
       <c r="Z9" s="12"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T24" activeCellId="0" sqref="T24"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.16836734693878"/>
+    <col min="1" max="25" width="11.140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="n">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="6">
         <v>2000</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="6">
         <v>2001</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>2002</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>2003</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>2004</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>2005</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>2006</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="6">
         <v>2007</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="6">
         <v>2008</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="6">
         <v>2009</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="6">
         <v>2010</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="6">
         <v>2011</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="6">
         <v>2012</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="6">
         <v>2013</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="6">
         <v>2014</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="6">
         <v>2015</v>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="6">
         <v>2016</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="6">
         <v>2017</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="6">
         <v>2018</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="V2" s="6">
         <v>2019</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="6">
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C3" s="12" t="n">
-        <v>0.003</v>
+      <c r="C3" s="12">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -4311,8 +4810,8 @@
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="12" t="n">
-        <v>0.002</v>
+      <c r="M3" s="12">
+        <v>2E-3</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
@@ -4329,13 +4828,13 @@
       </c>
       <c r="Y3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C4" s="12" t="n">
-        <v>0.003</v>
+      <c r="C4" s="12">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -4346,8 +4845,8 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="12" t="n">
-        <v>0.002</v>
+      <c r="M4" s="12">
+        <v>2E-3</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -4364,82 +4863,82 @@
       </c>
       <c r="Y4" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="6" t="n">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="6">
         <v>2000</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6">
         <v>2001</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="6">
         <v>2002</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="6">
         <v>2003</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="6">
         <v>2004</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="6">
         <v>2005</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>2006</v>
       </c>
-      <c r="J9" s="6" t="n">
+      <c r="J9" s="6">
         <v>2007</v>
       </c>
-      <c r="K9" s="6" t="n">
+      <c r="K9" s="6">
         <v>2008</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="6">
         <v>2009</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="6">
         <v>2010</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="6">
         <v>2011</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="O9" s="6">
         <v>2012</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="P9" s="6">
         <v>2013</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="Q9" s="6">
         <v>2014</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="R9" s="6">
         <v>2015</v>
       </c>
-      <c r="S9" s="6" t="n">
+      <c r="S9" s="6">
         <v>2016</v>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="T9" s="6">
         <v>2017</v>
       </c>
-      <c r="U9" s="6" t="n">
+      <c r="U9" s="6">
         <v>2018</v>
       </c>
-      <c r="V9" s="6" t="n">
+      <c r="V9" s="6">
         <v>2019</v>
       </c>
-      <c r="W9" s="6" t="n">
+      <c r="W9" s="6">
         <v>2020</v>
       </c>
       <c r="Y9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C10" s="12"/>
@@ -4466,13 +4965,13 @@
       <c r="X10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y10" s="12" t="n">
+      <c r="Y10" s="12">
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C11" s="12"/>
@@ -4499,86 +4998,86 @@
       <c r="X11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="12" t="n">
+      <c r="Y11" s="12">
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="6" t="n">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="6">
         <v>2000</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="6">
         <v>2001</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="6">
         <v>2002</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="6">
         <v>2003</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="6">
         <v>2004</v>
       </c>
-      <c r="H16" s="6" t="n">
+      <c r="H16" s="6">
         <v>2005</v>
       </c>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="6">
         <v>2006</v>
       </c>
-      <c r="J16" s="6" t="n">
+      <c r="J16" s="6">
         <v>2007</v>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K16" s="6">
         <v>2008</v>
       </c>
-      <c r="L16" s="6" t="n">
+      <c r="L16" s="6">
         <v>2009</v>
       </c>
-      <c r="M16" s="6" t="n">
+      <c r="M16" s="6">
         <v>2010</v>
       </c>
-      <c r="N16" s="6" t="n">
+      <c r="N16" s="6">
         <v>2011</v>
       </c>
-      <c r="O16" s="6" t="n">
+      <c r="O16" s="6">
         <v>2012</v>
       </c>
-      <c r="P16" s="6" t="n">
+      <c r="P16" s="6">
         <v>2013</v>
       </c>
-      <c r="Q16" s="6" t="n">
+      <c r="Q16" s="6">
         <v>2014</v>
       </c>
-      <c r="R16" s="6" t="n">
+      <c r="R16" s="6">
         <v>2015</v>
       </c>
-      <c r="S16" s="6" t="n">
+      <c r="S16" s="6">
         <v>2016</v>
       </c>
-      <c r="T16" s="6" t="n">
+      <c r="T16" s="6">
         <v>2017</v>
       </c>
-      <c r="U16" s="6" t="n">
+      <c r="U16" s="6">
         <v>2018</v>
       </c>
-      <c r="V16" s="6" t="n">
+      <c r="V16" s="6">
         <v>2019</v>
       </c>
-      <c r="W16" s="6" t="n">
+      <c r="W16" s="6">
         <v>2020</v>
       </c>
       <c r="Y16" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C17" s="12"/>
@@ -4594,8 +5093,8 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="12" t="n">
-        <v>0.0018</v>
+      <c r="P17" s="12">
+        <v>1.8E-3</v>
       </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
@@ -4609,9 +5108,9 @@
       </c>
       <c r="Y17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C18" s="12"/>
@@ -4627,8 +5126,8 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="12" t="n">
-        <v>0.0008</v>
+      <c r="P18" s="12">
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
@@ -4643,111 +5142,102 @@
       <c r="Y18" s="12"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Y48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.16836734693878"/>
+    <col min="1" max="25" width="11.140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="n">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="6">
         <v>2000</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="6">
         <v>2001</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>2002</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>2003</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>2004</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>2005</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>2006</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="6">
         <v>2007</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="6">
         <v>2008</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="6">
         <v>2009</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="6">
         <v>2010</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="6">
         <v>2011</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="6">
         <v>2012</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="6">
         <v>2013</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="6">
         <v>2014</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="6">
         <v>2015</v>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="6">
         <v>2016</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="6">
         <v>2017</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="6">
         <v>2018</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="V2" s="6">
         <v>2019</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="6">
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C3" s="14"/>
@@ -4760,8 +5250,8 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
-      <c r="M3" s="14" t="n">
-        <v>0.0645</v>
+      <c r="M3" s="14">
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -4778,9 +5268,9 @@
       </c>
       <c r="Y3" s="14"/>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C4" s="14"/>
@@ -4793,8 +5283,8 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="14" t="n">
-        <v>0.0645</v>
+      <c r="M4" s="14">
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
@@ -4811,80 +5301,80 @@
       </c>
       <c r="Y4" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="6" t="n">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="6">
         <v>2000</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6">
         <v>2001</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="6">
         <v>2002</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="6">
         <v>2003</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="6">
         <v>2004</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="6">
         <v>2005</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>2006</v>
       </c>
-      <c r="J9" s="6" t="n">
+      <c r="J9" s="6">
         <v>2007</v>
       </c>
-      <c r="K9" s="6" t="n">
+      <c r="K9" s="6">
         <v>2008</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="6">
         <v>2009</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="6">
         <v>2010</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="6">
         <v>2011</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="O9" s="6">
         <v>2012</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="P9" s="6">
         <v>2013</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="Q9" s="6">
         <v>2014</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="R9" s="6">
         <v>2015</v>
       </c>
-      <c r="S9" s="6" t="n">
+      <c r="S9" s="6">
         <v>2016</v>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="T9" s="6">
         <v>2017</v>
       </c>
-      <c r="U9" s="6" t="n">
+      <c r="U9" s="6">
         <v>2018</v>
       </c>
-      <c r="V9" s="6" t="n">
+      <c r="V9" s="6">
         <v>2019</v>
       </c>
-      <c r="W9" s="6" t="n">
+      <c r="W9" s="6">
         <v>2020</v>
       </c>
       <c r="Y9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
@@ -4912,111 +5402,111 @@
       <c r="X10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y10" s="15" t="n">
+      <c r="Y10" s="15">
         <v>0.65</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="6" t="n">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="6">
         <v>2000</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="6">
         <v>2001</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="6">
         <v>2002</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="6">
         <v>2003</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="6">
         <v>2004</v>
       </c>
-      <c r="H15" s="6" t="n">
+      <c r="H15" s="6">
         <v>2005</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="6">
         <v>2006</v>
       </c>
-      <c r="J15" s="6" t="n">
+      <c r="J15" s="6">
         <v>2007</v>
       </c>
-      <c r="K15" s="6" t="n">
+      <c r="K15" s="6">
         <v>2008</v>
       </c>
-      <c r="L15" s="6" t="n">
+      <c r="L15" s="6">
         <v>2009</v>
       </c>
-      <c r="M15" s="6" t="n">
+      <c r="M15" s="6">
         <v>2010</v>
       </c>
-      <c r="N15" s="6" t="n">
+      <c r="N15" s="6">
         <v>2011</v>
       </c>
-      <c r="O15" s="6" t="n">
+      <c r="O15" s="6">
         <v>2012</v>
       </c>
-      <c r="P15" s="6" t="n">
+      <c r="P15" s="6">
         <v>2013</v>
       </c>
-      <c r="Q15" s="6" t="n">
+      <c r="Q15" s="6">
         <v>2014</v>
       </c>
-      <c r="R15" s="6" t="n">
+      <c r="R15" s="6">
         <v>2015</v>
       </c>
-      <c r="S15" s="6" t="n">
+      <c r="S15" s="6">
         <v>2016</v>
       </c>
-      <c r="T15" s="6" t="n">
+      <c r="T15" s="6">
         <v>2017</v>
       </c>
-      <c r="U15" s="6" t="n">
+      <c r="U15" s="6">
         <v>2018</v>
       </c>
-      <c r="V15" s="6" t="n">
+      <c r="V15" s="6">
         <v>2019</v>
       </c>
-      <c r="W15" s="6" t="n">
+      <c r="W15" s="6">
         <v>2020</v>
       </c>
       <c r="Y15" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="7">
         <v>0</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="7">
         <v>50</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="7" t="n">
+      <c r="J16" s="7">
         <v>600</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="7" t="n">
+      <c r="O16" s="7">
         <v>1900</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7" t="n">
+      <c r="R16" s="7">
         <v>3200</v>
       </c>
       <c r="S16" s="7"/>
@@ -5029,82 +5519,82 @@
       </c>
       <c r="Y16" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="6" t="n">
+    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="6">
         <v>2000</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="6">
         <v>2001</v>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="6">
         <v>2002</v>
       </c>
-      <c r="F21" s="6" t="n">
+      <c r="F21" s="6">
         <v>2003</v>
       </c>
-      <c r="G21" s="6" t="n">
+      <c r="G21" s="6">
         <v>2004</v>
       </c>
-      <c r="H21" s="6" t="n">
+      <c r="H21" s="6">
         <v>2005</v>
       </c>
-      <c r="I21" s="6" t="n">
+      <c r="I21" s="6">
         <v>2006</v>
       </c>
-      <c r="J21" s="6" t="n">
+      <c r="J21" s="6">
         <v>2007</v>
       </c>
-      <c r="K21" s="6" t="n">
+      <c r="K21" s="6">
         <v>2008</v>
       </c>
-      <c r="L21" s="6" t="n">
+      <c r="L21" s="6">
         <v>2009</v>
       </c>
-      <c r="M21" s="6" t="n">
+      <c r="M21" s="6">
         <v>2010</v>
       </c>
-      <c r="N21" s="6" t="n">
+      <c r="N21" s="6">
         <v>2011</v>
       </c>
-      <c r="O21" s="6" t="n">
+      <c r="O21" s="6">
         <v>2012</v>
       </c>
-      <c r="P21" s="6" t="n">
+      <c r="P21" s="6">
         <v>2013</v>
       </c>
-      <c r="Q21" s="6" t="n">
+      <c r="Q21" s="6">
         <v>2014</v>
       </c>
-      <c r="R21" s="6" t="n">
+      <c r="R21" s="6">
         <v>2015</v>
       </c>
-      <c r="S21" s="6" t="n">
+      <c r="S21" s="6">
         <v>2016</v>
       </c>
-      <c r="T21" s="6" t="n">
+      <c r="T21" s="6">
         <v>2017</v>
       </c>
-      <c r="U21" s="6" t="n">
+      <c r="U21" s="6">
         <v>2018</v>
       </c>
-      <c r="V21" s="6" t="n">
+      <c r="V21" s="6">
         <v>2019</v>
       </c>
-      <c r="W21" s="6" t="n">
+      <c r="W21" s="6">
         <v>2020</v>
       </c>
       <c r="Y21" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C22" s="14"/>
@@ -5121,7 +5611,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
-      <c r="Q22" s="14" t="n">
+      <c r="Q22" s="14">
         <v>0</v>
       </c>
       <c r="R22" s="14"/>
@@ -5135,9 +5625,9 @@
       </c>
       <c r="Y22" s="14"/>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C23" s="14"/>
@@ -5154,7 +5644,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
-      <c r="Q23" s="14" t="n">
+      <c r="Q23" s="14">
         <v>0</v>
       </c>
       <c r="R23" s="14"/>
@@ -5168,80 +5658,80 @@
       </c>
       <c r="Y23" s="14"/>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="6" t="n">
+    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="6">
         <v>2000</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="6">
         <v>2001</v>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E28" s="6">
         <v>2002</v>
       </c>
-      <c r="F28" s="6" t="n">
+      <c r="F28" s="6">
         <v>2003</v>
       </c>
-      <c r="G28" s="6" t="n">
+      <c r="G28" s="6">
         <v>2004</v>
       </c>
-      <c r="H28" s="6" t="n">
+      <c r="H28" s="6">
         <v>2005</v>
       </c>
-      <c r="I28" s="6" t="n">
+      <c r="I28" s="6">
         <v>2006</v>
       </c>
-      <c r="J28" s="6" t="n">
+      <c r="J28" s="6">
         <v>2007</v>
       </c>
-      <c r="K28" s="6" t="n">
+      <c r="K28" s="6">
         <v>2008</v>
       </c>
-      <c r="L28" s="6" t="n">
+      <c r="L28" s="6">
         <v>2009</v>
       </c>
-      <c r="M28" s="6" t="n">
+      <c r="M28" s="6">
         <v>2010</v>
       </c>
-      <c r="N28" s="6" t="n">
+      <c r="N28" s="6">
         <v>2011</v>
       </c>
-      <c r="O28" s="6" t="n">
+      <c r="O28" s="6">
         <v>2012</v>
       </c>
-      <c r="P28" s="6" t="n">
+      <c r="P28" s="6">
         <v>2013</v>
       </c>
-      <c r="Q28" s="6" t="n">
+      <c r="Q28" s="6">
         <v>2014</v>
       </c>
-      <c r="R28" s="6" t="n">
+      <c r="R28" s="6">
         <v>2015</v>
       </c>
-      <c r="S28" s="6" t="n">
+      <c r="S28" s="6">
         <v>2016</v>
       </c>
-      <c r="T28" s="6" t="n">
+      <c r="T28" s="6">
         <v>2017</v>
       </c>
-      <c r="U28" s="6" t="n">
+      <c r="U28" s="6">
         <v>2018</v>
       </c>
-      <c r="V28" s="6" t="n">
+      <c r="V28" s="6">
         <v>2019</v>
       </c>
-      <c r="W28" s="6" t="n">
+      <c r="W28" s="6">
         <v>2020</v>
       </c>
       <c r="Y28" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>32</v>
       </c>
@@ -5254,7 +5744,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="7" t="n">
+      <c r="L29" s="7">
         <v>200</v>
       </c>
       <c r="M29" s="7"/>
@@ -5273,122 +5763,122 @@
       </c>
       <c r="Y29" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C34" s="6" t="n">
+    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="6">
         <v>2000</v>
       </c>
-      <c r="D34" s="6" t="n">
+      <c r="D34" s="6">
         <v>2001</v>
       </c>
-      <c r="E34" s="6" t="n">
+      <c r="E34" s="6">
         <v>2002</v>
       </c>
-      <c r="F34" s="6" t="n">
+      <c r="F34" s="6">
         <v>2003</v>
       </c>
-      <c r="G34" s="6" t="n">
+      <c r="G34" s="6">
         <v>2004</v>
       </c>
-      <c r="H34" s="6" t="n">
+      <c r="H34" s="6">
         <v>2005</v>
       </c>
-      <c r="I34" s="6" t="n">
+      <c r="I34" s="6">
         <v>2006</v>
       </c>
-      <c r="J34" s="6" t="n">
+      <c r="J34" s="6">
         <v>2007</v>
       </c>
-      <c r="K34" s="6" t="n">
+      <c r="K34" s="6">
         <v>2008</v>
       </c>
-      <c r="L34" s="6" t="n">
+      <c r="L34" s="6">
         <v>2009</v>
       </c>
-      <c r="M34" s="6" t="n">
+      <c r="M34" s="6">
         <v>2010</v>
       </c>
-      <c r="N34" s="6" t="n">
+      <c r="N34" s="6">
         <v>2011</v>
       </c>
-      <c r="O34" s="6" t="n">
+      <c r="O34" s="6">
         <v>2012</v>
       </c>
-      <c r="P34" s="6" t="n">
+      <c r="P34" s="6">
         <v>2013</v>
       </c>
-      <c r="Q34" s="6" t="n">
+      <c r="Q34" s="6">
         <v>2014</v>
       </c>
-      <c r="R34" s="6" t="n">
+      <c r="R34" s="6">
         <v>2015</v>
       </c>
-      <c r="S34" s="6" t="n">
+      <c r="S34" s="6">
         <v>2016</v>
       </c>
-      <c r="T34" s="6" t="n">
+      <c r="T34" s="6">
         <v>2017</v>
       </c>
-      <c r="U34" s="6" t="n">
+      <c r="U34" s="6">
         <v>2018</v>
       </c>
-      <c r="V34" s="6" t="n">
+      <c r="V34" s="6">
         <v>2019</v>
       </c>
-      <c r="W34" s="6" t="n">
+      <c r="W34" s="6">
         <v>2020</v>
       </c>
       <c r="Y34" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C35" s="16" t="n">
-        <v>0.0459252963367275</v>
-      </c>
-      <c r="D35" s="16" t="n">
-        <v>0.0453240226108024</v>
-      </c>
-      <c r="E35" s="16" t="n">
-        <v>0.0452581785313017</v>
-      </c>
-      <c r="F35" s="16" t="n">
-        <v>0.0456435695915845</v>
-      </c>
-      <c r="G35" s="16" t="n">
-        <v>0.0463930220205675</v>
-      </c>
-      <c r="H35" s="16" t="n">
-        <v>0.0473805326183886</v>
-      </c>
-      <c r="I35" s="16" t="n">
-        <v>0.0487760344919196</v>
-      </c>
-      <c r="J35" s="16" t="n">
-        <v>0.0500814890173546</v>
-      </c>
-      <c r="K35" s="16" t="n">
-        <v>0.0512070191547057</v>
-      </c>
-      <c r="L35" s="16" t="n">
-        <v>0.0521160869168661</v>
-      </c>
-      <c r="M35" s="16" t="n">
-        <v>0.0527844893629247</v>
-      </c>
-      <c r="N35" s="16" t="n">
-        <v>0.0521151813595171</v>
-      </c>
-      <c r="O35" s="16" t="n">
-        <v>0.0524844994960748</v>
+      <c r="C35" s="16">
+        <v>4.5925296336727497E-2</v>
+      </c>
+      <c r="D35" s="16">
+        <v>4.53240226108024E-2</v>
+      </c>
+      <c r="E35" s="16">
+        <v>4.52581785313017E-2</v>
+      </c>
+      <c r="F35" s="16">
+        <v>4.5643569591584499E-2</v>
+      </c>
+      <c r="G35" s="16">
+        <v>4.6393022020567498E-2</v>
+      </c>
+      <c r="H35" s="16">
+        <v>4.73805326183886E-2</v>
+      </c>
+      <c r="I35" s="16">
+        <v>4.8776034491919598E-2</v>
+      </c>
+      <c r="J35" s="16">
+        <v>5.0081489017354597E-2</v>
+      </c>
+      <c r="K35" s="16">
+        <v>5.1207019154705699E-2</v>
+      </c>
+      <c r="L35" s="16">
+        <v>5.2116086916866103E-2</v>
+      </c>
+      <c r="M35" s="16">
+        <v>5.2784489362924701E-2</v>
+      </c>
+      <c r="N35" s="16">
+        <v>5.21151813595171E-2</v>
+      </c>
+      <c r="O35" s="16">
+        <v>5.2484499496074803E-2</v>
       </c>
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
@@ -5403,80 +5893,80 @@
       </c>
       <c r="Y35" s="16"/>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C40" s="6" t="n">
+    <row r="40" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="6">
         <v>2000</v>
       </c>
-      <c r="D40" s="6" t="n">
+      <c r="D40" s="6">
         <v>2001</v>
       </c>
-      <c r="E40" s="6" t="n">
+      <c r="E40" s="6">
         <v>2002</v>
       </c>
-      <c r="F40" s="6" t="n">
+      <c r="F40" s="6">
         <v>2003</v>
       </c>
-      <c r="G40" s="6" t="n">
+      <c r="G40" s="6">
         <v>2004</v>
       </c>
-      <c r="H40" s="6" t="n">
+      <c r="H40" s="6">
         <v>2005</v>
       </c>
-      <c r="I40" s="6" t="n">
+      <c r="I40" s="6">
         <v>2006</v>
       </c>
-      <c r="J40" s="6" t="n">
+      <c r="J40" s="6">
         <v>2007</v>
       </c>
-      <c r="K40" s="6" t="n">
+      <c r="K40" s="6">
         <v>2008</v>
       </c>
-      <c r="L40" s="6" t="n">
+      <c r="L40" s="6">
         <v>2009</v>
       </c>
-      <c r="M40" s="6" t="n">
+      <c r="M40" s="6">
         <v>2010</v>
       </c>
-      <c r="N40" s="6" t="n">
+      <c r="N40" s="6">
         <v>2011</v>
       </c>
-      <c r="O40" s="6" t="n">
+      <c r="O40" s="6">
         <v>2012</v>
       </c>
-      <c r="P40" s="6" t="n">
+      <c r="P40" s="6">
         <v>2013</v>
       </c>
-      <c r="Q40" s="6" t="n">
+      <c r="Q40" s="6">
         <v>2014</v>
       </c>
-      <c r="R40" s="6" t="n">
+      <c r="R40" s="6">
         <v>2015</v>
       </c>
-      <c r="S40" s="6" t="n">
+      <c r="S40" s="6">
         <v>2016</v>
       </c>
-      <c r="T40" s="6" t="n">
+      <c r="T40" s="6">
         <v>2017</v>
       </c>
-      <c r="U40" s="6" t="n">
+      <c r="U40" s="6">
         <v>2018</v>
       </c>
-      <c r="V40" s="6" t="n">
+      <c r="V40" s="6">
         <v>2019</v>
       </c>
-      <c r="W40" s="6" t="n">
+      <c r="W40" s="6">
         <v>2020</v>
       </c>
       <c r="Y40" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>32</v>
       </c>
@@ -5504,86 +5994,85 @@
       <c r="X41" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y41" s="17" t="n">
-        <f aca="false">14/100*87/100</f>
-        <v>0.1218</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y41" s="17">
+        <f>14/100*87/100</f>
+        <v>0.12180000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="19" t="n">
+    <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="C46" s="19">
         <v>2000</v>
       </c>
-      <c r="D46" s="19" t="n">
+      <c r="D46" s="19">
         <v>2001</v>
       </c>
-      <c r="E46" s="19" t="n">
+      <c r="E46" s="19">
         <v>2002</v>
       </c>
-      <c r="F46" s="19" t="n">
+      <c r="F46" s="19">
         <v>2003</v>
       </c>
-      <c r="G46" s="19" t="n">
+      <c r="G46" s="19">
         <v>2004</v>
       </c>
-      <c r="H46" s="19" t="n">
+      <c r="H46" s="19">
         <v>2005</v>
       </c>
-      <c r="I46" s="19" t="n">
+      <c r="I46" s="19">
         <v>2006</v>
       </c>
-      <c r="J46" s="19" t="n">
+      <c r="J46" s="19">
         <v>2007</v>
       </c>
-      <c r="K46" s="19" t="n">
+      <c r="K46" s="19">
         <v>2008</v>
       </c>
-      <c r="L46" s="19" t="n">
+      <c r="L46" s="19">
         <v>2009</v>
       </c>
-      <c r="M46" s="19" t="n">
+      <c r="M46" s="19">
         <v>2010</v>
       </c>
-      <c r="N46" s="19" t="n">
+      <c r="N46" s="19">
         <v>2011</v>
       </c>
-      <c r="O46" s="19" t="n">
+      <c r="O46" s="19">
         <v>2012</v>
       </c>
-      <c r="P46" s="19" t="n">
+      <c r="P46" s="19">
         <v>2013</v>
       </c>
-      <c r="Q46" s="19" t="n">
+      <c r="Q46" s="19">
         <v>2014</v>
       </c>
-      <c r="R46" s="19" t="n">
+      <c r="R46" s="19">
         <v>2015</v>
       </c>
-      <c r="S46" s="19" t="n">
+      <c r="S46" s="19">
         <v>2016</v>
       </c>
-      <c r="T46" s="19" t="n">
+      <c r="T46" s="19">
         <v>2017</v>
       </c>
-      <c r="U46" s="19" t="n">
+      <c r="U46" s="19">
         <v>2018</v>
       </c>
-      <c r="V46" s="19" t="n">
+      <c r="V46" s="19">
         <v>2019</v>
       </c>
-      <c r="W46" s="19" t="n">
+      <c r="W46" s="19">
         <v>2020</v>
       </c>
       <c r="Y46" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="19" t="s">
         <v>30</v>
       </c>
@@ -5611,116 +6100,105 @@
       <c r="X47" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y47" s="20" t="n">
+      <c r="Y47" s="20">
         <v>0.9</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AI65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.16836734693878"/>
+    <col min="1" max="25" width="11.140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="n">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="6">
         <v>2000</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="6">
         <v>2001</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>2002</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>2003</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>2004</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>2005</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>2006</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="6">
         <v>2007</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="6">
         <v>2008</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="6">
         <v>2009</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="6">
         <v>2010</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="6">
         <v>2011</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="6">
         <v>2012</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="6">
         <v>2013</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="6">
         <v>2014</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="6">
         <v>2015</v>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="6">
         <v>2016</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="6">
         <v>2017</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="6">
         <v>2018</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="V2" s="6">
         <v>2019</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="6">
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
@@ -5750,80 +6228,80 @@
       </c>
       <c r="Y3" s="16"/>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C8" s="6" t="n">
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="6">
         <v>2000</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="6">
         <v>2001</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="6">
         <v>2002</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="6">
         <v>2003</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="6">
         <v>2004</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="6">
         <v>2005</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="6">
         <v>2006</v>
       </c>
-      <c r="J8" s="6" t="n">
+      <c r="J8" s="6">
         <v>2007</v>
       </c>
-      <c r="K8" s="6" t="n">
+      <c r="K8" s="6">
         <v>2008</v>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="6">
         <v>2009</v>
       </c>
-      <c r="M8" s="6" t="n">
+      <c r="M8" s="6">
         <v>2010</v>
       </c>
-      <c r="N8" s="6" t="n">
+      <c r="N8" s="6">
         <v>2011</v>
       </c>
-      <c r="O8" s="6" t="n">
+      <c r="O8" s="6">
         <v>2012</v>
       </c>
-      <c r="P8" s="6" t="n">
+      <c r="P8" s="6">
         <v>2013</v>
       </c>
-      <c r="Q8" s="6" t="n">
+      <c r="Q8" s="6">
         <v>2014</v>
       </c>
-      <c r="R8" s="6" t="n">
+      <c r="R8" s="6">
         <v>2015</v>
       </c>
-      <c r="S8" s="6" t="n">
+      <c r="S8" s="6">
         <v>2016</v>
       </c>
-      <c r="T8" s="6" t="n">
+      <c r="T8" s="6">
         <v>2017</v>
       </c>
-      <c r="U8" s="6" t="n">
+      <c r="U8" s="6">
         <v>2018</v>
       </c>
-      <c r="V8" s="6" t="n">
+      <c r="V8" s="6">
         <v>2019</v>
       </c>
-      <c r="W8" s="6" t="n">
+      <c r="W8" s="6">
         <v>2020</v>
       </c>
       <c r="Y8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
@@ -5853,80 +6331,80 @@
       </c>
       <c r="Y9" s="16"/>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="6" t="n">
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="6">
         <v>2000</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="6">
         <v>2001</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="6">
         <v>2002</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="F14" s="6">
         <v>2003</v>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G14" s="6">
         <v>2004</v>
       </c>
-      <c r="H14" s="6" t="n">
+      <c r="H14" s="6">
         <v>2005</v>
       </c>
-      <c r="I14" s="6" t="n">
+      <c r="I14" s="6">
         <v>2006</v>
       </c>
-      <c r="J14" s="6" t="n">
+      <c r="J14" s="6">
         <v>2007</v>
       </c>
-      <c r="K14" s="6" t="n">
+      <c r="K14" s="6">
         <v>2008</v>
       </c>
-      <c r="L14" s="6" t="n">
+      <c r="L14" s="6">
         <v>2009</v>
       </c>
-      <c r="M14" s="6" t="n">
+      <c r="M14" s="6">
         <v>2010</v>
       </c>
-      <c r="N14" s="6" t="n">
+      <c r="N14" s="6">
         <v>2011</v>
       </c>
-      <c r="O14" s="6" t="n">
+      <c r="O14" s="6">
         <v>2012</v>
       </c>
-      <c r="P14" s="6" t="n">
+      <c r="P14" s="6">
         <v>2013</v>
       </c>
-      <c r="Q14" s="6" t="n">
+      <c r="Q14" s="6">
         <v>2014</v>
       </c>
-      <c r="R14" s="6" t="n">
+      <c r="R14" s="6">
         <v>2015</v>
       </c>
-      <c r="S14" s="6" t="n">
+      <c r="S14" s="6">
         <v>2016</v>
       </c>
-      <c r="T14" s="6" t="n">
+      <c r="T14" s="6">
         <v>2017</v>
       </c>
-      <c r="U14" s="6" t="n">
+      <c r="U14" s="6">
         <v>2018</v>
       </c>
-      <c r="V14" s="6" t="n">
+      <c r="V14" s="6">
         <v>2019</v>
       </c>
-      <c r="W14" s="6" t="n">
+      <c r="W14" s="6">
         <v>2020</v>
       </c>
       <c r="Y14" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>32</v>
       </c>
@@ -5956,80 +6434,80 @@
       </c>
       <c r="Y15" s="16"/>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="6" t="n">
+    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="6">
         <v>2000</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="6">
         <v>2001</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="6">
         <v>2002</v>
       </c>
-      <c r="F20" s="6" t="n">
+      <c r="F20" s="6">
         <v>2003</v>
       </c>
-      <c r="G20" s="6" t="n">
+      <c r="G20" s="6">
         <v>2004</v>
       </c>
-      <c r="H20" s="6" t="n">
+      <c r="H20" s="6">
         <v>2005</v>
       </c>
-      <c r="I20" s="6" t="n">
+      <c r="I20" s="6">
         <v>2006</v>
       </c>
-      <c r="J20" s="6" t="n">
+      <c r="J20" s="6">
         <v>2007</v>
       </c>
-      <c r="K20" s="6" t="n">
+      <c r="K20" s="6">
         <v>2008</v>
       </c>
-      <c r="L20" s="6" t="n">
+      <c r="L20" s="6">
         <v>2009</v>
       </c>
-      <c r="M20" s="6" t="n">
+      <c r="M20" s="6">
         <v>2010</v>
       </c>
-      <c r="N20" s="6" t="n">
+      <c r="N20" s="6">
         <v>2011</v>
       </c>
-      <c r="O20" s="6" t="n">
+      <c r="O20" s="6">
         <v>2012</v>
       </c>
-      <c r="P20" s="6" t="n">
+      <c r="P20" s="6">
         <v>2013</v>
       </c>
-      <c r="Q20" s="6" t="n">
+      <c r="Q20" s="6">
         <v>2014</v>
       </c>
-      <c r="R20" s="6" t="n">
+      <c r="R20" s="6">
         <v>2015</v>
       </c>
-      <c r="S20" s="6" t="n">
+      <c r="S20" s="6">
         <v>2016</v>
       </c>
-      <c r="T20" s="6" t="n">
+      <c r="T20" s="6">
         <v>2017</v>
       </c>
-      <c r="U20" s="6" t="n">
+      <c r="U20" s="6">
         <v>2018</v>
       </c>
-      <c r="V20" s="6" t="n">
+      <c r="V20" s="6">
         <v>2019</v>
       </c>
-      <c r="W20" s="6" t="n">
+      <c r="W20" s="6">
         <v>2020</v>
       </c>
       <c r="Y20" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>32</v>
       </c>
@@ -6059,80 +6537,80 @@
       </c>
       <c r="Y21" s="16"/>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="6" t="n">
+    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="6">
         <v>2000</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="6">
         <v>2001</v>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="E26" s="6">
         <v>2002</v>
       </c>
-      <c r="F26" s="6" t="n">
+      <c r="F26" s="6">
         <v>2003</v>
       </c>
-      <c r="G26" s="6" t="n">
+      <c r="G26" s="6">
         <v>2004</v>
       </c>
-      <c r="H26" s="6" t="n">
+      <c r="H26" s="6">
         <v>2005</v>
       </c>
-      <c r="I26" s="6" t="n">
+      <c r="I26" s="6">
         <v>2006</v>
       </c>
-      <c r="J26" s="6" t="n">
+      <c r="J26" s="6">
         <v>2007</v>
       </c>
-      <c r="K26" s="6" t="n">
+      <c r="K26" s="6">
         <v>2008</v>
       </c>
-      <c r="L26" s="6" t="n">
+      <c r="L26" s="6">
         <v>2009</v>
       </c>
-      <c r="M26" s="6" t="n">
+      <c r="M26" s="6">
         <v>2010</v>
       </c>
-      <c r="N26" s="6" t="n">
+      <c r="N26" s="6">
         <v>2011</v>
       </c>
-      <c r="O26" s="6" t="n">
+      <c r="O26" s="6">
         <v>2012</v>
       </c>
-      <c r="P26" s="6" t="n">
+      <c r="P26" s="6">
         <v>2013</v>
       </c>
-      <c r="Q26" s="6" t="n">
+      <c r="Q26" s="6">
         <v>2014</v>
       </c>
-      <c r="R26" s="6" t="n">
+      <c r="R26" s="6">
         <v>2015</v>
       </c>
-      <c r="S26" s="6" t="n">
+      <c r="S26" s="6">
         <v>2016</v>
       </c>
-      <c r="T26" s="6" t="n">
+      <c r="T26" s="6">
         <v>2017</v>
       </c>
-      <c r="U26" s="6" t="n">
+      <c r="U26" s="6">
         <v>2018</v>
       </c>
-      <c r="V26" s="6" t="n">
+      <c r="V26" s="6">
         <v>2019</v>
       </c>
-      <c r="W26" s="6" t="n">
+      <c r="W26" s="6">
         <v>2020</v>
       </c>
       <c r="Y26" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>32</v>
       </c>
@@ -6162,80 +6640,80 @@
       </c>
       <c r="Y27" s="16"/>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C32" s="6" t="n">
+    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="6">
         <v>2000</v>
       </c>
-      <c r="D32" s="6" t="n">
+      <c r="D32" s="6">
         <v>2001</v>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="E32" s="6">
         <v>2002</v>
       </c>
-      <c r="F32" s="6" t="n">
+      <c r="F32" s="6">
         <v>2003</v>
       </c>
-      <c r="G32" s="6" t="n">
+      <c r="G32" s="6">
         <v>2004</v>
       </c>
-      <c r="H32" s="6" t="n">
+      <c r="H32" s="6">
         <v>2005</v>
       </c>
-      <c r="I32" s="6" t="n">
+      <c r="I32" s="6">
         <v>2006</v>
       </c>
-      <c r="J32" s="6" t="n">
+      <c r="J32" s="6">
         <v>2007</v>
       </c>
-      <c r="K32" s="6" t="n">
+      <c r="K32" s="6">
         <v>2008</v>
       </c>
-      <c r="L32" s="6" t="n">
+      <c r="L32" s="6">
         <v>2009</v>
       </c>
-      <c r="M32" s="6" t="n">
+      <c r="M32" s="6">
         <v>2010</v>
       </c>
-      <c r="N32" s="6" t="n">
+      <c r="N32" s="6">
         <v>2011</v>
       </c>
-      <c r="O32" s="6" t="n">
+      <c r="O32" s="6">
         <v>2012</v>
       </c>
-      <c r="P32" s="6" t="n">
+      <c r="P32" s="6">
         <v>2013</v>
       </c>
-      <c r="Q32" s="6" t="n">
+      <c r="Q32" s="6">
         <v>2014</v>
       </c>
-      <c r="R32" s="6" t="n">
+      <c r="R32" s="6">
         <v>2015</v>
       </c>
-      <c r="S32" s="6" t="n">
+      <c r="S32" s="6">
         <v>2016</v>
       </c>
-      <c r="T32" s="6" t="n">
+      <c r="T32" s="6">
         <v>2017</v>
       </c>
-      <c r="U32" s="6" t="n">
+      <c r="U32" s="6">
         <v>2018</v>
       </c>
-      <c r="V32" s="6" t="n">
+      <c r="V32" s="6">
         <v>2019</v>
       </c>
-      <c r="W32" s="6" t="n">
+      <c r="W32" s="6">
         <v>2020</v>
       </c>
       <c r="Y32" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>32</v>
       </c>
@@ -6265,80 +6743,80 @@
       </c>
       <c r="Y33" s="16"/>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C38" s="6" t="n">
+    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="6">
         <v>2000</v>
       </c>
-      <c r="D38" s="6" t="n">
+      <c r="D38" s="6">
         <v>2001</v>
       </c>
-      <c r="E38" s="6" t="n">
+      <c r="E38" s="6">
         <v>2002</v>
       </c>
-      <c r="F38" s="6" t="n">
+      <c r="F38" s="6">
         <v>2003</v>
       </c>
-      <c r="G38" s="6" t="n">
+      <c r="G38" s="6">
         <v>2004</v>
       </c>
-      <c r="H38" s="6" t="n">
+      <c r="H38" s="6">
         <v>2005</v>
       </c>
-      <c r="I38" s="6" t="n">
+      <c r="I38" s="6">
         <v>2006</v>
       </c>
-      <c r="J38" s="6" t="n">
+      <c r="J38" s="6">
         <v>2007</v>
       </c>
-      <c r="K38" s="6" t="n">
+      <c r="K38" s="6">
         <v>2008</v>
       </c>
-      <c r="L38" s="6" t="n">
+      <c r="L38" s="6">
         <v>2009</v>
       </c>
-      <c r="M38" s="6" t="n">
+      <c r="M38" s="6">
         <v>2010</v>
       </c>
-      <c r="N38" s="6" t="n">
+      <c r="N38" s="6">
         <v>2011</v>
       </c>
-      <c r="O38" s="6" t="n">
+      <c r="O38" s="6">
         <v>2012</v>
       </c>
-      <c r="P38" s="6" t="n">
+      <c r="P38" s="6">
         <v>2013</v>
       </c>
-      <c r="Q38" s="6" t="n">
+      <c r="Q38" s="6">
         <v>2014</v>
       </c>
-      <c r="R38" s="6" t="n">
+      <c r="R38" s="6">
         <v>2015</v>
       </c>
-      <c r="S38" s="6" t="n">
+      <c r="S38" s="6">
         <v>2016</v>
       </c>
-      <c r="T38" s="6" t="n">
+      <c r="T38" s="6">
         <v>2017</v>
       </c>
-      <c r="U38" s="6" t="n">
+      <c r="U38" s="6">
         <v>2018</v>
       </c>
-      <c r="V38" s="6" t="n">
+      <c r="V38" s="6">
         <v>2019</v>
       </c>
-      <c r="W38" s="6" t="n">
+      <c r="W38" s="6">
         <v>2020</v>
       </c>
       <c r="Y38" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>32</v>
       </c>
@@ -6368,83 +6846,83 @@
       </c>
       <c r="Y39" s="16"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="19" t="n">
+    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="C44" s="19">
         <v>2000</v>
       </c>
-      <c r="D44" s="19" t="n">
+      <c r="D44" s="19">
         <v>2001</v>
       </c>
-      <c r="E44" s="19" t="n">
+      <c r="E44" s="19">
         <v>2002</v>
       </c>
-      <c r="F44" s="19" t="n">
+      <c r="F44" s="19">
         <v>2003</v>
       </c>
-      <c r="G44" s="19" t="n">
+      <c r="G44" s="19">
         <v>2004</v>
       </c>
-      <c r="H44" s="19" t="n">
+      <c r="H44" s="19">
         <v>2005</v>
       </c>
-      <c r="I44" s="19" t="n">
+      <c r="I44" s="19">
         <v>2006</v>
       </c>
-      <c r="J44" s="19" t="n">
+      <c r="J44" s="19">
         <v>2007</v>
       </c>
-      <c r="K44" s="19" t="n">
+      <c r="K44" s="19">
         <v>2008</v>
       </c>
-      <c r="L44" s="19" t="n">
+      <c r="L44" s="19">
         <v>2009</v>
       </c>
-      <c r="M44" s="19" t="n">
+      <c r="M44" s="19">
         <v>2010</v>
       </c>
-      <c r="N44" s="19" t="n">
+      <c r="N44" s="19">
         <v>2011</v>
       </c>
-      <c r="O44" s="19" t="n">
+      <c r="O44" s="19">
         <v>2012</v>
       </c>
-      <c r="P44" s="19" t="n">
+      <c r="P44" s="19">
         <v>2013</v>
       </c>
-      <c r="Q44" s="19" t="n">
+      <c r="Q44" s="19">
         <v>2014</v>
       </c>
-      <c r="R44" s="19" t="n">
+      <c r="R44" s="19">
         <v>2015</v>
       </c>
-      <c r="S44" s="19" t="n">
+      <c r="S44" s="19">
         <v>2016</v>
       </c>
-      <c r="T44" s="19" t="n">
+      <c r="T44" s="19">
         <v>2017</v>
       </c>
-      <c r="U44" s="19" t="n">
+      <c r="U44" s="19">
         <v>2018</v>
       </c>
-      <c r="V44" s="19" t="n">
+      <c r="V44" s="19">
         <v>2019</v>
       </c>
-      <c r="W44" s="19" t="n">
+      <c r="W44" s="19">
         <v>2020</v>
       </c>
       <c r="Y44" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
         <v>30</v>
       </c>
@@ -6474,80 +6952,80 @@
       </c>
       <c r="Y45" s="20"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="19" t="n">
+    <row r="50" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="C50" s="19">
         <v>2000</v>
       </c>
-      <c r="D50" s="19" t="n">
+      <c r="D50" s="19">
         <v>2001</v>
       </c>
-      <c r="E50" s="19" t="n">
+      <c r="E50" s="19">
         <v>2002</v>
       </c>
-      <c r="F50" s="19" t="n">
+      <c r="F50" s="19">
         <v>2003</v>
       </c>
-      <c r="G50" s="19" t="n">
+      <c r="G50" s="19">
         <v>2004</v>
       </c>
-      <c r="H50" s="19" t="n">
+      <c r="H50" s="19">
         <v>2005</v>
       </c>
-      <c r="I50" s="19" t="n">
+      <c r="I50" s="19">
         <v>2006</v>
       </c>
-      <c r="J50" s="19" t="n">
+      <c r="J50" s="19">
         <v>2007</v>
       </c>
-      <c r="K50" s="19" t="n">
+      <c r="K50" s="19">
         <v>2008</v>
       </c>
-      <c r="L50" s="19" t="n">
+      <c r="L50" s="19">
         <v>2009</v>
       </c>
-      <c r="M50" s="19" t="n">
+      <c r="M50" s="19">
         <v>2010</v>
       </c>
-      <c r="N50" s="19" t="n">
+      <c r="N50" s="19">
         <v>2011</v>
       </c>
-      <c r="O50" s="19" t="n">
+      <c r="O50" s="19">
         <v>2012</v>
       </c>
-      <c r="P50" s="19" t="n">
+      <c r="P50" s="19">
         <v>2013</v>
       </c>
-      <c r="Q50" s="19" t="n">
+      <c r="Q50" s="19">
         <v>2014</v>
       </c>
-      <c r="R50" s="19" t="n">
+      <c r="R50" s="19">
         <v>2015</v>
       </c>
-      <c r="S50" s="19" t="n">
+      <c r="S50" s="19">
         <v>2016</v>
       </c>
-      <c r="T50" s="19" t="n">
+      <c r="T50" s="19">
         <v>2017</v>
       </c>
-      <c r="U50" s="19" t="n">
+      <c r="U50" s="19">
         <v>2018</v>
       </c>
-      <c r="V50" s="19" t="n">
+      <c r="V50" s="19">
         <v>2019</v>
       </c>
-      <c r="W50" s="19" t="n">
+      <c r="W50" s="19">
         <v>2020</v>
       </c>
       <c r="Y50" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>30</v>
       </c>
@@ -6577,80 +7055,80 @@
       </c>
       <c r="Y51" s="20"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C56" s="19" t="n">
+    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="19">
         <v>2000</v>
       </c>
-      <c r="D56" s="19" t="n">
+      <c r="D56" s="19">
         <v>2001</v>
       </c>
-      <c r="E56" s="19" t="n">
+      <c r="E56" s="19">
         <v>2002</v>
       </c>
-      <c r="F56" s="19" t="n">
+      <c r="F56" s="19">
         <v>2003</v>
       </c>
-      <c r="G56" s="19" t="n">
+      <c r="G56" s="19">
         <v>2004</v>
       </c>
-      <c r="H56" s="19" t="n">
+      <c r="H56" s="19">
         <v>2005</v>
       </c>
-      <c r="I56" s="19" t="n">
+      <c r="I56" s="19">
         <v>2006</v>
       </c>
-      <c r="J56" s="19" t="n">
+      <c r="J56" s="19">
         <v>2007</v>
       </c>
-      <c r="K56" s="19" t="n">
+      <c r="K56" s="19">
         <v>2008</v>
       </c>
-      <c r="L56" s="19" t="n">
+      <c r="L56" s="19">
         <v>2009</v>
       </c>
-      <c r="M56" s="19" t="n">
+      <c r="M56" s="19">
         <v>2010</v>
       </c>
-      <c r="N56" s="19" t="n">
+      <c r="N56" s="19">
         <v>2011</v>
       </c>
-      <c r="O56" s="19" t="n">
+      <c r="O56" s="19">
         <v>2012</v>
       </c>
-      <c r="P56" s="19" t="n">
+      <c r="P56" s="19">
         <v>2013</v>
       </c>
-      <c r="Q56" s="19" t="n">
+      <c r="Q56" s="19">
         <v>2014</v>
       </c>
-      <c r="R56" s="19" t="n">
+      <c r="R56" s="19">
         <v>2015</v>
       </c>
-      <c r="S56" s="19" t="n">
+      <c r="S56" s="19">
         <v>2016</v>
       </c>
-      <c r="T56" s="19" t="n">
+      <c r="T56" s="19">
         <v>2017</v>
       </c>
-      <c r="U56" s="19" t="n">
+      <c r="U56" s="19">
         <v>2018</v>
       </c>
-      <c r="V56" s="19" t="n">
+      <c r="V56" s="19">
         <v>2019</v>
       </c>
-      <c r="W56" s="19" t="n">
+      <c r="W56" s="19">
         <v>2020</v>
       </c>
       <c r="Y56" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="19" t="s">
         <v>30</v>
       </c>
@@ -6680,113 +7158,110 @@
       </c>
       <c r="Y57" s="20"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="19" t="n">
+    <row r="62" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="C62" s="19">
         <v>2000</v>
       </c>
-      <c r="D62" s="19" t="n">
+      <c r="D62" s="19">
         <v>2001</v>
       </c>
-      <c r="E62" s="19" t="n">
+      <c r="E62" s="19">
         <v>2002</v>
       </c>
-      <c r="F62" s="19" t="n">
+      <c r="F62" s="19">
         <v>2003</v>
       </c>
-      <c r="G62" s="19" t="n">
+      <c r="G62" s="19">
         <v>2004</v>
       </c>
-      <c r="H62" s="19" t="n">
+      <c r="H62" s="19">
         <v>2005</v>
       </c>
-      <c r="I62" s="19" t="n">
+      <c r="I62" s="19">
         <v>2006</v>
       </c>
-      <c r="J62" s="19" t="n">
+      <c r="J62" s="19">
         <v>2007</v>
       </c>
-      <c r="K62" s="19" t="n">
+      <c r="K62" s="19">
         <v>2008</v>
       </c>
-      <c r="L62" s="19" t="n">
+      <c r="L62" s="19">
         <v>2009</v>
       </c>
-      <c r="M62" s="19" t="n">
+      <c r="M62" s="19">
         <v>2010</v>
       </c>
-      <c r="N62" s="19" t="n">
+      <c r="N62" s="19">
         <v>2011</v>
       </c>
-      <c r="O62" s="19" t="n">
+      <c r="O62" s="19">
         <v>2012</v>
       </c>
-      <c r="P62" s="19" t="n">
+      <c r="P62" s="19">
         <v>2013</v>
       </c>
-      <c r="Q62" s="19" t="n">
+      <c r="Q62" s="19">
         <v>2014</v>
       </c>
-      <c r="R62" s="19" t="n">
+      <c r="R62" s="19">
         <v>2015</v>
       </c>
-      <c r="S62" s="19" t="n">
+      <c r="S62" s="19">
         <v>2016</v>
       </c>
-      <c r="T62" s="19" t="n">
+      <c r="T62" s="19">
         <v>2017</v>
       </c>
-      <c r="U62" s="19" t="n">
+      <c r="U62" s="19">
         <v>2018</v>
       </c>
-      <c r="V62" s="19" t="n">
+      <c r="V62" s="19">
         <v>2019</v>
       </c>
-      <c r="W62" s="19" t="n">
+      <c r="W62" s="19">
         <v>2020</v>
       </c>
-      <c r="X62" s="19" t="n">
+      <c r="X62" s="19">
         <v>2021</v>
       </c>
-      <c r="Y62" s="19" t="n">
+      <c r="Y62" s="19">
         <v>2022</v>
       </c>
-      <c r="Z62" s="19" t="n">
+      <c r="Z62" s="19">
         <v>2023</v>
       </c>
-      <c r="AA62" s="19" t="n">
+      <c r="AA62" s="19">
         <v>2024</v>
       </c>
-      <c r="AB62" s="19" t="n">
+      <c r="AB62" s="19">
         <v>2025</v>
       </c>
-      <c r="AC62" s="19" t="n">
+      <c r="AC62" s="19">
         <v>2026</v>
       </c>
-      <c r="AD62" s="19" t="n">
+      <c r="AD62" s="19">
         <v>2027</v>
       </c>
-      <c r="AE62" s="19" t="n">
+      <c r="AE62" s="19">
         <v>2028</v>
       </c>
-      <c r="AF62" s="19" t="n">
+      <c r="AF62" s="19">
         <v>2029</v>
       </c>
-      <c r="AG62" s="19" t="n">
+      <c r="AG62" s="19">
         <v>2030</v>
       </c>
       <c r="AI62" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B63" s="19" t="s">
         <v>30</v>
       </c>
@@ -6824,113 +7299,104 @@
       <c r="AH63" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AI63" s="20" t="n">
+      <c r="AI63" s="20">
         <v>0.85</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Y65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.1224489795918"/>
+    <col min="1" max="1025" width="11.140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="19" t="n">
+    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="C2" s="19">
         <v>2000</v>
       </c>
-      <c r="D2" s="19" t="n">
+      <c r="D2" s="19">
         <v>2001</v>
       </c>
-      <c r="E2" s="19" t="n">
+      <c r="E2" s="19">
         <v>2002</v>
       </c>
-      <c r="F2" s="19" t="n">
+      <c r="F2" s="19">
         <v>2003</v>
       </c>
-      <c r="G2" s="19" t="n">
+      <c r="G2" s="19">
         <v>2004</v>
       </c>
-      <c r="H2" s="19" t="n">
+      <c r="H2" s="19">
         <v>2005</v>
       </c>
-      <c r="I2" s="19" t="n">
+      <c r="I2" s="19">
         <v>2006</v>
       </c>
-      <c r="J2" s="19" t="n">
+      <c r="J2" s="19">
         <v>2007</v>
       </c>
-      <c r="K2" s="19" t="n">
+      <c r="K2" s="19">
         <v>2008</v>
       </c>
-      <c r="L2" s="19" t="n">
+      <c r="L2" s="19">
         <v>2009</v>
       </c>
-      <c r="M2" s="19" t="n">
+      <c r="M2" s="19">
         <v>2010</v>
       </c>
-      <c r="N2" s="19" t="n">
+      <c r="N2" s="19">
         <v>2011</v>
       </c>
-      <c r="O2" s="19" t="n">
+      <c r="O2" s="19">
         <v>2012</v>
       </c>
-      <c r="P2" s="19" t="n">
+      <c r="P2" s="19">
         <v>2013</v>
       </c>
-      <c r="Q2" s="19" t="n">
+      <c r="Q2" s="19">
         <v>2014</v>
       </c>
-      <c r="R2" s="19" t="n">
+      <c r="R2" s="19">
         <v>2015</v>
       </c>
-      <c r="S2" s="19" t="n">
+      <c r="S2" s="19">
         <v>2016</v>
       </c>
-      <c r="T2" s="19" t="n">
+      <c r="T2" s="19">
         <v>2017</v>
       </c>
-      <c r="U2" s="19" t="n">
+      <c r="U2" s="19">
         <v>2018</v>
       </c>
-      <c r="V2" s="19" t="n">
+      <c r="V2" s="19">
         <v>2019</v>
       </c>
-      <c r="W2" s="19" t="n">
+      <c r="W2" s="19">
         <v>2020</v>
       </c>
       <c r="Y2" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
@@ -6958,11 +7424,11 @@
       <c r="X3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="20" t="n">
+      <c r="Y3" s="20">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -6990,84 +7456,84 @@
       <c r="X4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="20" t="n">
+      <c r="Y4" s="20">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="19" t="n">
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="C9" s="19">
         <v>2000</v>
       </c>
-      <c r="D9" s="19" t="n">
+      <c r="D9" s="19">
         <v>2001</v>
       </c>
-      <c r="E9" s="19" t="n">
+      <c r="E9" s="19">
         <v>2002</v>
       </c>
-      <c r="F9" s="19" t="n">
+      <c r="F9" s="19">
         <v>2003</v>
       </c>
-      <c r="G9" s="19" t="n">
+      <c r="G9" s="19">
         <v>2004</v>
       </c>
-      <c r="H9" s="19" t="n">
+      <c r="H9" s="19">
         <v>2005</v>
       </c>
-      <c r="I9" s="19" t="n">
+      <c r="I9" s="19">
         <v>2006</v>
       </c>
-      <c r="J9" s="19" t="n">
+      <c r="J9" s="19">
         <v>2007</v>
       </c>
-      <c r="K9" s="19" t="n">
+      <c r="K9" s="19">
         <v>2008</v>
       </c>
-      <c r="L9" s="19" t="n">
+      <c r="L9" s="19">
         <v>2009</v>
       </c>
-      <c r="M9" s="19" t="n">
+      <c r="M9" s="19">
         <v>2010</v>
       </c>
-      <c r="N9" s="19" t="n">
+      <c r="N9" s="19">
         <v>2011</v>
       </c>
-      <c r="O9" s="19" t="n">
+      <c r="O9" s="19">
         <v>2012</v>
       </c>
-      <c r="P9" s="19" t="n">
+      <c r="P9" s="19">
         <v>2013</v>
       </c>
-      <c r="Q9" s="19" t="n">
+      <c r="Q9" s="19">
         <v>2014</v>
       </c>
-      <c r="R9" s="19" t="n">
+      <c r="R9" s="19">
         <v>2015</v>
       </c>
-      <c r="S9" s="19" t="n">
+      <c r="S9" s="19">
         <v>2016</v>
       </c>
-      <c r="T9" s="19" t="n">
+      <c r="T9" s="19">
         <v>2017</v>
       </c>
-      <c r="U9" s="19" t="n">
+      <c r="U9" s="19">
         <v>2018</v>
       </c>
-      <c r="V9" s="19" t="n">
+      <c r="V9" s="19">
         <v>2019</v>
       </c>
-      <c r="W9" s="19" t="n">
+      <c r="W9" s="19">
         <v>2020</v>
       </c>
       <c r="Y9" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
@@ -7095,11 +7561,11 @@
       <c r="X10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y10" s="20" t="n">
+      <c r="Y10" s="20">
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
@@ -7127,84 +7593,84 @@
       <c r="X11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="20" t="n">
+      <c r="Y11" s="20">
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="19" t="n">
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="C16" s="19">
         <v>2000</v>
       </c>
-      <c r="D16" s="19" t="n">
+      <c r="D16" s="19">
         <v>2001</v>
       </c>
-      <c r="E16" s="19" t="n">
+      <c r="E16" s="19">
         <v>2002</v>
       </c>
-      <c r="F16" s="19" t="n">
+      <c r="F16" s="19">
         <v>2003</v>
       </c>
-      <c r="G16" s="19" t="n">
+      <c r="G16" s="19">
         <v>2004</v>
       </c>
-      <c r="H16" s="19" t="n">
+      <c r="H16" s="19">
         <v>2005</v>
       </c>
-      <c r="I16" s="19" t="n">
+      <c r="I16" s="19">
         <v>2006</v>
       </c>
-      <c r="J16" s="19" t="n">
+      <c r="J16" s="19">
         <v>2007</v>
       </c>
-      <c r="K16" s="19" t="n">
+      <c r="K16" s="19">
         <v>2008</v>
       </c>
-      <c r="L16" s="19" t="n">
+      <c r="L16" s="19">
         <v>2009</v>
       </c>
-      <c r="M16" s="19" t="n">
+      <c r="M16" s="19">
         <v>2010</v>
       </c>
-      <c r="N16" s="19" t="n">
+      <c r="N16" s="19">
         <v>2011</v>
       </c>
-      <c r="O16" s="19" t="n">
+      <c r="O16" s="19">
         <v>2012</v>
       </c>
-      <c r="P16" s="19" t="n">
+      <c r="P16" s="19">
         <v>2013</v>
       </c>
-      <c r="Q16" s="19" t="n">
+      <c r="Q16" s="19">
         <v>2014</v>
       </c>
-      <c r="R16" s="19" t="n">
+      <c r="R16" s="19">
         <v>2015</v>
       </c>
-      <c r="S16" s="19" t="n">
+      <c r="S16" s="19">
         <v>2016</v>
       </c>
-      <c r="T16" s="19" t="n">
+      <c r="T16" s="19">
         <v>2017</v>
       </c>
-      <c r="U16" s="19" t="n">
+      <c r="U16" s="19">
         <v>2018</v>
       </c>
-      <c r="V16" s="19" t="n">
+      <c r="V16" s="19">
         <v>2019</v>
       </c>
-      <c r="W16" s="19" t="n">
+      <c r="W16" s="19">
         <v>2020</v>
       </c>
       <c r="Y16" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
@@ -7232,11 +7698,11 @@
       <c r="X17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y17" s="20" t="n">
+      <c r="Y17" s="20">
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
@@ -7264,84 +7730,84 @@
       <c r="X18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y18" s="20" t="n">
+      <c r="Y18" s="20">
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="19" t="n">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="C23" s="19">
         <v>2000</v>
       </c>
-      <c r="D23" s="19" t="n">
+      <c r="D23" s="19">
         <v>2001</v>
       </c>
-      <c r="E23" s="19" t="n">
+      <c r="E23" s="19">
         <v>2002</v>
       </c>
-      <c r="F23" s="19" t="n">
+      <c r="F23" s="19">
         <v>2003</v>
       </c>
-      <c r="G23" s="19" t="n">
+      <c r="G23" s="19">
         <v>2004</v>
       </c>
-      <c r="H23" s="19" t="n">
+      <c r="H23" s="19">
         <v>2005</v>
       </c>
-      <c r="I23" s="19" t="n">
+      <c r="I23" s="19">
         <v>2006</v>
       </c>
-      <c r="J23" s="19" t="n">
+      <c r="J23" s="19">
         <v>2007</v>
       </c>
-      <c r="K23" s="19" t="n">
+      <c r="K23" s="19">
         <v>2008</v>
       </c>
-      <c r="L23" s="19" t="n">
+      <c r="L23" s="19">
         <v>2009</v>
       </c>
-      <c r="M23" s="19" t="n">
+      <c r="M23" s="19">
         <v>2010</v>
       </c>
-      <c r="N23" s="19" t="n">
+      <c r="N23" s="19">
         <v>2011</v>
       </c>
-      <c r="O23" s="19" t="n">
+      <c r="O23" s="19">
         <v>2012</v>
       </c>
-      <c r="P23" s="19" t="n">
+      <c r="P23" s="19">
         <v>2013</v>
       </c>
-      <c r="Q23" s="19" t="n">
+      <c r="Q23" s="19">
         <v>2014</v>
       </c>
-      <c r="R23" s="19" t="n">
+      <c r="R23" s="19">
         <v>2015</v>
       </c>
-      <c r="S23" s="19" t="n">
+      <c r="S23" s="19">
         <v>2016</v>
       </c>
-      <c r="T23" s="19" t="n">
+      <c r="T23" s="19">
         <v>2017</v>
       </c>
-      <c r="U23" s="19" t="n">
+      <c r="U23" s="19">
         <v>2018</v>
       </c>
-      <c r="V23" s="19" t="n">
+      <c r="V23" s="19">
         <v>2019</v>
       </c>
-      <c r="W23" s="19" t="n">
+      <c r="W23" s="19">
         <v>2020</v>
       </c>
       <c r="Y23" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
@@ -7369,11 +7835,11 @@
       <c r="X24" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y24" s="20" t="n">
+      <c r="Y24" s="20">
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>16</v>
       </c>
@@ -7401,85 +7867,84 @@
       <c r="X25" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y25" s="20" t="n">
+      <c r="Y25" s="20">
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="19" t="n">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="C30" s="19">
         <v>2000</v>
       </c>
-      <c r="D30" s="19" t="n">
+      <c r="D30" s="19">
         <v>2001</v>
       </c>
-      <c r="E30" s="19" t="n">
+      <c r="E30" s="19">
         <v>2002</v>
       </c>
-      <c r="F30" s="19" t="n">
+      <c r="F30" s="19">
         <v>2003</v>
       </c>
-      <c r="G30" s="19" t="n">
+      <c r="G30" s="19">
         <v>2004</v>
       </c>
-      <c r="H30" s="19" t="n">
+      <c r="H30" s="19">
         <v>2005</v>
       </c>
-      <c r="I30" s="19" t="n">
+      <c r="I30" s="19">
         <v>2006</v>
       </c>
-      <c r="J30" s="19" t="n">
+      <c r="J30" s="19">
         <v>2007</v>
       </c>
-      <c r="K30" s="19" t="n">
+      <c r="K30" s="19">
         <v>2008</v>
       </c>
-      <c r="L30" s="19" t="n">
+      <c r="L30" s="19">
         <v>2009</v>
       </c>
-      <c r="M30" s="19" t="n">
+      <c r="M30" s="19">
         <v>2010</v>
       </c>
-      <c r="N30" s="19" t="n">
+      <c r="N30" s="19">
         <v>2011</v>
       </c>
-      <c r="O30" s="19" t="n">
+      <c r="O30" s="19">
         <v>2012</v>
       </c>
-      <c r="P30" s="19" t="n">
+      <c r="P30" s="19">
         <v>2013</v>
       </c>
-      <c r="Q30" s="19" t="n">
+      <c r="Q30" s="19">
         <v>2014</v>
       </c>
-      <c r="R30" s="19" t="n">
+      <c r="R30" s="19">
         <v>2015</v>
       </c>
-      <c r="S30" s="19" t="n">
+      <c r="S30" s="19">
         <v>2016</v>
       </c>
-      <c r="T30" s="19" t="n">
+      <c r="T30" s="19">
         <v>2017</v>
       </c>
-      <c r="U30" s="19" t="n">
+      <c r="U30" s="19">
         <v>2018</v>
       </c>
-      <c r="V30" s="19" t="n">
+      <c r="V30" s="19">
         <v>2019</v>
       </c>
-      <c r="W30" s="19" t="n">
+      <c r="W30" s="19">
         <v>2020</v>
       </c>
       <c r="Y30" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="19" t="s">
         <v>30</v>
       </c>
@@ -7507,84 +7972,84 @@
       <c r="X31" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y31" s="20" t="n">
+      <c r="Y31" s="20">
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="19" t="n">
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="C36" s="19">
         <v>2000</v>
       </c>
-      <c r="D36" s="19" t="n">
+      <c r="D36" s="19">
         <v>2001</v>
       </c>
-      <c r="E36" s="19" t="n">
+      <c r="E36" s="19">
         <v>2002</v>
       </c>
-      <c r="F36" s="19" t="n">
+      <c r="F36" s="19">
         <v>2003</v>
       </c>
-      <c r="G36" s="19" t="n">
+      <c r="G36" s="19">
         <v>2004</v>
       </c>
-      <c r="H36" s="19" t="n">
+      <c r="H36" s="19">
         <v>2005</v>
       </c>
-      <c r="I36" s="19" t="n">
+      <c r="I36" s="19">
         <v>2006</v>
       </c>
-      <c r="J36" s="19" t="n">
+      <c r="J36" s="19">
         <v>2007</v>
       </c>
-      <c r="K36" s="19" t="n">
+      <c r="K36" s="19">
         <v>2008</v>
       </c>
-      <c r="L36" s="19" t="n">
+      <c r="L36" s="19">
         <v>2009</v>
       </c>
-      <c r="M36" s="19" t="n">
+      <c r="M36" s="19">
         <v>2010</v>
       </c>
-      <c r="N36" s="19" t="n">
+      <c r="N36" s="19">
         <v>2011</v>
       </c>
-      <c r="O36" s="19" t="n">
+      <c r="O36" s="19">
         <v>2012</v>
       </c>
-      <c r="P36" s="19" t="n">
+      <c r="P36" s="19">
         <v>2013</v>
       </c>
-      <c r="Q36" s="19" t="n">
+      <c r="Q36" s="19">
         <v>2014</v>
       </c>
-      <c r="R36" s="19" t="n">
+      <c r="R36" s="19">
         <v>2015</v>
       </c>
-      <c r="S36" s="19" t="n">
+      <c r="S36" s="19">
         <v>2016</v>
       </c>
-      <c r="T36" s="19" t="n">
+      <c r="T36" s="19">
         <v>2017</v>
       </c>
-      <c r="U36" s="19" t="n">
+      <c r="U36" s="19">
         <v>2018</v>
       </c>
-      <c r="V36" s="19" t="n">
+      <c r="V36" s="19">
         <v>2019</v>
       </c>
-      <c r="W36" s="19" t="n">
+      <c r="W36" s="19">
         <v>2020</v>
       </c>
       <c r="Y36" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
         <v>30</v>
       </c>
@@ -7612,84 +8077,84 @@
       <c r="X37" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y37" s="23" t="n">
+      <c r="Y37" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="19" t="n">
+    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="C42" s="19">
         <v>2000</v>
       </c>
-      <c r="D42" s="19" t="n">
+      <c r="D42" s="19">
         <v>2001</v>
       </c>
-      <c r="E42" s="19" t="n">
+      <c r="E42" s="19">
         <v>2002</v>
       </c>
-      <c r="F42" s="19" t="n">
+      <c r="F42" s="19">
         <v>2003</v>
       </c>
-      <c r="G42" s="19" t="n">
+      <c r="G42" s="19">
         <v>2004</v>
       </c>
-      <c r="H42" s="19" t="n">
+      <c r="H42" s="19">
         <v>2005</v>
       </c>
-      <c r="I42" s="19" t="n">
+      <c r="I42" s="19">
         <v>2006</v>
       </c>
-      <c r="J42" s="19" t="n">
+      <c r="J42" s="19">
         <v>2007</v>
       </c>
-      <c r="K42" s="19" t="n">
+      <c r="K42" s="19">
         <v>2008</v>
       </c>
-      <c r="L42" s="19" t="n">
+      <c r="L42" s="19">
         <v>2009</v>
       </c>
-      <c r="M42" s="19" t="n">
+      <c r="M42" s="19">
         <v>2010</v>
       </c>
-      <c r="N42" s="19" t="n">
+      <c r="N42" s="19">
         <v>2011</v>
       </c>
-      <c r="O42" s="19" t="n">
+      <c r="O42" s="19">
         <v>2012</v>
       </c>
-      <c r="P42" s="19" t="n">
+      <c r="P42" s="19">
         <v>2013</v>
       </c>
-      <c r="Q42" s="19" t="n">
+      <c r="Q42" s="19">
         <v>2014</v>
       </c>
-      <c r="R42" s="19" t="n">
+      <c r="R42" s="19">
         <v>2015</v>
       </c>
-      <c r="S42" s="19" t="n">
+      <c r="S42" s="19">
         <v>2016</v>
       </c>
-      <c r="T42" s="19" t="n">
+      <c r="T42" s="19">
         <v>2017</v>
       </c>
-      <c r="U42" s="19" t="n">
+      <c r="U42" s="19">
         <v>2018</v>
       </c>
-      <c r="V42" s="19" t="n">
+      <c r="V42" s="19">
         <v>2019</v>
       </c>
-      <c r="W42" s="19" t="n">
+      <c r="W42" s="19">
         <v>2020</v>
       </c>
       <c r="Y42" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="19" t="s">
         <v>30</v>
       </c>
@@ -7717,133 +8182,105 @@
       <c r="X43" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y43" s="20" t="n">
+      <c r="Y43" s="20">
         <v>0.95</v>
       </c>
     </row>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I54" activeCellId="0" sqref="I54"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.16836734693878"/>
+    <col min="1" max="25" width="11.140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="n">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="6">
         <v>2000</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="6">
         <v>2001</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>2002</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>2003</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>2004</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>2005</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>2006</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="6">
         <v>2007</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="6">
         <v>2008</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="6">
         <v>2009</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="6">
         <v>2010</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="6">
         <v>2011</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="6">
         <v>2012</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="6">
         <v>2013</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="6">
         <v>2014</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="6">
         <v>2015</v>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="6">
         <v>2016</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="6">
         <v>2017</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="6">
         <v>2018</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="V2" s="6">
         <v>2019</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="6">
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C3" s="7"/>
@@ -7870,13 +8307,13 @@
       <c r="X3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="24" t="n">
+      <c r="Y3" s="24">
         <v>100</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C4" s="7"/>
@@ -7903,86 +8340,86 @@
       <c r="X4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="24" t="n">
+      <c r="Y4" s="24">
         <v>100</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="6" t="n">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="6">
         <v>2000</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6">
         <v>2001</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="6">
         <v>2002</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="6">
         <v>2003</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="6">
         <v>2004</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="6">
         <v>2005</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>2006</v>
       </c>
-      <c r="J9" s="6" t="n">
+      <c r="J9" s="6">
         <v>2007</v>
       </c>
-      <c r="K9" s="6" t="n">
+      <c r="K9" s="6">
         <v>2008</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="6">
         <v>2009</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="6">
         <v>2010</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="6">
         <v>2011</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="O9" s="6">
         <v>2012</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="P9" s="6">
         <v>2013</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="Q9" s="6">
         <v>2014</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="R9" s="6">
         <v>2015</v>
       </c>
-      <c r="S9" s="6" t="n">
+      <c r="S9" s="6">
         <v>2016</v>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="T9" s="6">
         <v>2017</v>
       </c>
-      <c r="U9" s="6" t="n">
+      <c r="U9" s="6">
         <v>2018</v>
       </c>
-      <c r="V9" s="6" t="n">
+      <c r="V9" s="6">
         <v>2019</v>
       </c>
-      <c r="W9" s="6" t="n">
+      <c r="W9" s="6">
         <v>2020</v>
       </c>
       <c r="Y9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C10" s="7"/>
@@ -8009,14 +8446,14 @@
       <c r="X10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y10" s="24" t="n">
-        <f aca="false">0.2*3*20</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Y10" s="24">
+        <f>0.2*3*20</f>
+        <v>12.000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C11" s="7"/>
@@ -8043,87 +8480,87 @@
       <c r="X11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="24" t="n">
-        <f aca="false">0.1*3*20</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Y11" s="24">
+        <f>0.1*3*20</f>
+        <v>6.0000000000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="6" t="n">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="6">
         <v>2000</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="6">
         <v>2001</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="6">
         <v>2002</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="6">
         <v>2003</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="6">
         <v>2004</v>
       </c>
-      <c r="H16" s="6" t="n">
+      <c r="H16" s="6">
         <v>2005</v>
       </c>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="6">
         <v>2006</v>
       </c>
-      <c r="J16" s="6" t="n">
+      <c r="J16" s="6">
         <v>2007</v>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K16" s="6">
         <v>2008</v>
       </c>
-      <c r="L16" s="6" t="n">
+      <c r="L16" s="6">
         <v>2009</v>
       </c>
-      <c r="M16" s="6" t="n">
+      <c r="M16" s="6">
         <v>2010</v>
       </c>
-      <c r="N16" s="6" t="n">
+      <c r="N16" s="6">
         <v>2011</v>
       </c>
-      <c r="O16" s="6" t="n">
+      <c r="O16" s="6">
         <v>2012</v>
       </c>
-      <c r="P16" s="6" t="n">
+      <c r="P16" s="6">
         <v>2013</v>
       </c>
-      <c r="Q16" s="6" t="n">
+      <c r="Q16" s="6">
         <v>2014</v>
       </c>
-      <c r="R16" s="6" t="n">
+      <c r="R16" s="6">
         <v>2015</v>
       </c>
-      <c r="S16" s="6" t="n">
+      <c r="S16" s="6">
         <v>2016</v>
       </c>
-      <c r="T16" s="6" t="n">
+      <c r="T16" s="6">
         <v>2017</v>
       </c>
-      <c r="U16" s="6" t="n">
+      <c r="U16" s="6">
         <v>2018</v>
       </c>
-      <c r="V16" s="6" t="n">
+      <c r="V16" s="6">
         <v>2019</v>
       </c>
-      <c r="W16" s="6" t="n">
+      <c r="W16" s="6">
         <v>2020</v>
       </c>
       <c r="Y16" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C17" s="7"/>
@@ -8150,13 +8587,13 @@
       <c r="X17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y17" s="7" t="n">
+      <c r="Y17" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C18" s="7"/>
@@ -8183,86 +8620,86 @@
       <c r="X18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y18" s="7" t="n">
+      <c r="Y18" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="6" t="n">
+    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="6">
         <v>2000</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="6">
         <v>2001</v>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E23" s="6">
         <v>2002</v>
       </c>
-      <c r="F23" s="6" t="n">
+      <c r="F23" s="6">
         <v>2003</v>
       </c>
-      <c r="G23" s="6" t="n">
+      <c r="G23" s="6">
         <v>2004</v>
       </c>
-      <c r="H23" s="6" t="n">
+      <c r="H23" s="6">
         <v>2005</v>
       </c>
-      <c r="I23" s="6" t="n">
+      <c r="I23" s="6">
         <v>2006</v>
       </c>
-      <c r="J23" s="6" t="n">
+      <c r="J23" s="6">
         <v>2007</v>
       </c>
-      <c r="K23" s="6" t="n">
+      <c r="K23" s="6">
         <v>2008</v>
       </c>
-      <c r="L23" s="6" t="n">
+      <c r="L23" s="6">
         <v>2009</v>
       </c>
-      <c r="M23" s="6" t="n">
+      <c r="M23" s="6">
         <v>2010</v>
       </c>
-      <c r="N23" s="6" t="n">
+      <c r="N23" s="6">
         <v>2011</v>
       </c>
-      <c r="O23" s="6" t="n">
+      <c r="O23" s="6">
         <v>2012</v>
       </c>
-      <c r="P23" s="6" t="n">
+      <c r="P23" s="6">
         <v>2013</v>
       </c>
-      <c r="Q23" s="6" t="n">
+      <c r="Q23" s="6">
         <v>2014</v>
       </c>
-      <c r="R23" s="6" t="n">
+      <c r="R23" s="6">
         <v>2015</v>
       </c>
-      <c r="S23" s="6" t="n">
+      <c r="S23" s="6">
         <v>2016</v>
       </c>
-      <c r="T23" s="6" t="n">
+      <c r="T23" s="6">
         <v>2017</v>
       </c>
-      <c r="U23" s="6" t="n">
+      <c r="U23" s="6">
         <v>2018</v>
       </c>
-      <c r="V23" s="6" t="n">
+      <c r="V23" s="6">
         <v>2019</v>
       </c>
-      <c r="W23" s="6" t="n">
+      <c r="W23" s="6">
         <v>2020</v>
       </c>
       <c r="Y23" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C24" s="14"/>
@@ -8289,13 +8726,13 @@
       <c r="X24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y24" s="25" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Y24" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C25" s="14"/>
@@ -8322,86 +8759,86 @@
       <c r="X25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y25" s="25" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Y25" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C30" s="6" t="n">
+    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="6">
         <v>2000</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="6">
         <v>2001</v>
       </c>
-      <c r="E30" s="6" t="n">
+      <c r="E30" s="6">
         <v>2002</v>
       </c>
-      <c r="F30" s="6" t="n">
+      <c r="F30" s="6">
         <v>2003</v>
       </c>
-      <c r="G30" s="6" t="n">
+      <c r="G30" s="6">
         <v>2004</v>
       </c>
-      <c r="H30" s="6" t="n">
+      <c r="H30" s="6">
         <v>2005</v>
       </c>
-      <c r="I30" s="6" t="n">
+      <c r="I30" s="6">
         <v>2006</v>
       </c>
-      <c r="J30" s="6" t="n">
+      <c r="J30" s="6">
         <v>2007</v>
       </c>
-      <c r="K30" s="6" t="n">
+      <c r="K30" s="6">
         <v>2008</v>
       </c>
-      <c r="L30" s="6" t="n">
+      <c r="L30" s="6">
         <v>2009</v>
       </c>
-      <c r="M30" s="6" t="n">
+      <c r="M30" s="6">
         <v>2010</v>
       </c>
-      <c r="N30" s="6" t="n">
+      <c r="N30" s="6">
         <v>2011</v>
       </c>
-      <c r="O30" s="6" t="n">
+      <c r="O30" s="6">
         <v>2012</v>
       </c>
-      <c r="P30" s="6" t="n">
+      <c r="P30" s="6">
         <v>2013</v>
       </c>
-      <c r="Q30" s="6" t="n">
+      <c r="Q30" s="6">
         <v>2014</v>
       </c>
-      <c r="R30" s="6" t="n">
+      <c r="R30" s="6">
         <v>2015</v>
       </c>
-      <c r="S30" s="6" t="n">
+      <c r="S30" s="6">
         <v>2016</v>
       </c>
-      <c r="T30" s="6" t="n">
+      <c r="T30" s="6">
         <v>2017</v>
       </c>
-      <c r="U30" s="6" t="n">
+      <c r="U30" s="6">
         <v>2018</v>
       </c>
-      <c r="V30" s="6" t="n">
+      <c r="V30" s="6">
         <v>2019</v>
       </c>
-      <c r="W30" s="6" t="n">
+      <c r="W30" s="6">
         <v>2020</v>
       </c>
       <c r="Y30" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C31" s="14"/>
@@ -8428,13 +8865,13 @@
       <c r="X31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y31" s="14" t="n">
+      <c r="Y31" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C32" s="14"/>
@@ -8461,86 +8898,86 @@
       <c r="X32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y32" s="14" t="n">
+      <c r="Y32" s="14">
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C37" s="6" t="n">
+    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="6">
         <v>2000</v>
       </c>
-      <c r="D37" s="6" t="n">
+      <c r="D37" s="6">
         <v>2001</v>
       </c>
-      <c r="E37" s="6" t="n">
+      <c r="E37" s="6">
         <v>2002</v>
       </c>
-      <c r="F37" s="6" t="n">
+      <c r="F37" s="6">
         <v>2003</v>
       </c>
-      <c r="G37" s="6" t="n">
+      <c r="G37" s="6">
         <v>2004</v>
       </c>
-      <c r="H37" s="6" t="n">
+      <c r="H37" s="6">
         <v>2005</v>
       </c>
-      <c r="I37" s="6" t="n">
+      <c r="I37" s="6">
         <v>2006</v>
       </c>
-      <c r="J37" s="6" t="n">
+      <c r="J37" s="6">
         <v>2007</v>
       </c>
-      <c r="K37" s="6" t="n">
+      <c r="K37" s="6">
         <v>2008</v>
       </c>
-      <c r="L37" s="6" t="n">
+      <c r="L37" s="6">
         <v>2009</v>
       </c>
-      <c r="M37" s="6" t="n">
+      <c r="M37" s="6">
         <v>2010</v>
       </c>
-      <c r="N37" s="6" t="n">
+      <c r="N37" s="6">
         <v>2011</v>
       </c>
-      <c r="O37" s="6" t="n">
+      <c r="O37" s="6">
         <v>2012</v>
       </c>
-      <c r="P37" s="6" t="n">
+      <c r="P37" s="6">
         <v>2013</v>
       </c>
-      <c r="Q37" s="6" t="n">
+      <c r="Q37" s="6">
         <v>2014</v>
       </c>
-      <c r="R37" s="6" t="n">
+      <c r="R37" s="6">
         <v>2015</v>
       </c>
-      <c r="S37" s="6" t="n">
+      <c r="S37" s="6">
         <v>2016</v>
       </c>
-      <c r="T37" s="6" t="n">
+      <c r="T37" s="6">
         <v>2017</v>
       </c>
-      <c r="U37" s="6" t="n">
+      <c r="U37" s="6">
         <v>2018</v>
       </c>
-      <c r="V37" s="6" t="n">
+      <c r="V37" s="6">
         <v>2019</v>
       </c>
-      <c r="W37" s="6" t="n">
+      <c r="W37" s="6">
         <v>2020</v>
       </c>
       <c r="Y37" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C38" s="14"/>
@@ -8567,13 +9004,13 @@
       <c r="X38" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y38" s="26" t="n">
+      <c r="Y38" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C39" s="14"/>
@@ -8600,86 +9037,86 @@
       <c r="X39" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y39" s="25" t="n">
+      <c r="Y39" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C44" s="6" t="n">
+    <row r="44" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="6">
         <v>2000</v>
       </c>
-      <c r="D44" s="6" t="n">
+      <c r="D44" s="6">
         <v>2001</v>
       </c>
-      <c r="E44" s="6" t="n">
+      <c r="E44" s="6">
         <v>2002</v>
       </c>
-      <c r="F44" s="6" t="n">
+      <c r="F44" s="6">
         <v>2003</v>
       </c>
-      <c r="G44" s="6" t="n">
+      <c r="G44" s="6">
         <v>2004</v>
       </c>
-      <c r="H44" s="6" t="n">
+      <c r="H44" s="6">
         <v>2005</v>
       </c>
-      <c r="I44" s="6" t="n">
+      <c r="I44" s="6">
         <v>2006</v>
       </c>
-      <c r="J44" s="6" t="n">
+      <c r="J44" s="6">
         <v>2007</v>
       </c>
-      <c r="K44" s="6" t="n">
+      <c r="K44" s="6">
         <v>2008</v>
       </c>
-      <c r="L44" s="6" t="n">
+      <c r="L44" s="6">
         <v>2009</v>
       </c>
-      <c r="M44" s="6" t="n">
+      <c r="M44" s="6">
         <v>2010</v>
       </c>
-      <c r="N44" s="6" t="n">
+      <c r="N44" s="6">
         <v>2011</v>
       </c>
-      <c r="O44" s="6" t="n">
+      <c r="O44" s="6">
         <v>2012</v>
       </c>
-      <c r="P44" s="6" t="n">
+      <c r="P44" s="6">
         <v>2013</v>
       </c>
-      <c r="Q44" s="6" t="n">
+      <c r="Q44" s="6">
         <v>2014</v>
       </c>
-      <c r="R44" s="6" t="n">
+      <c r="R44" s="6">
         <v>2015</v>
       </c>
-      <c r="S44" s="6" t="n">
+      <c r="S44" s="6">
         <v>2016</v>
       </c>
-      <c r="T44" s="6" t="n">
+      <c r="T44" s="6">
         <v>2017</v>
       </c>
-      <c r="U44" s="6" t="n">
+      <c r="U44" s="6">
         <v>2018</v>
       </c>
-      <c r="V44" s="6" t="n">
+      <c r="V44" s="6">
         <v>2019</v>
       </c>
-      <c r="W44" s="6" t="n">
+      <c r="W44" s="6">
         <v>2020</v>
       </c>
       <c r="Y44" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C45" s="14"/>
@@ -8706,86 +9143,86 @@
       <c r="X45" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y45" s="25" t="n">
+      <c r="Y45" s="25">
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C50" s="6" t="n">
+    <row r="50" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="6">
         <v>2000</v>
       </c>
-      <c r="D50" s="6" t="n">
+      <c r="D50" s="6">
         <v>2001</v>
       </c>
-      <c r="E50" s="6" t="n">
+      <c r="E50" s="6">
         <v>2002</v>
       </c>
-      <c r="F50" s="6" t="n">
+      <c r="F50" s="6">
         <v>2003</v>
       </c>
-      <c r="G50" s="6" t="n">
+      <c r="G50" s="6">
         <v>2004</v>
       </c>
-      <c r="H50" s="6" t="n">
+      <c r="H50" s="6">
         <v>2005</v>
       </c>
-      <c r="I50" s="6" t="n">
+      <c r="I50" s="6">
         <v>2006</v>
       </c>
-      <c r="J50" s="6" t="n">
+      <c r="J50" s="6">
         <v>2007</v>
       </c>
-      <c r="K50" s="6" t="n">
+      <c r="K50" s="6">
         <v>2008</v>
       </c>
-      <c r="L50" s="6" t="n">
+      <c r="L50" s="6">
         <v>2009</v>
       </c>
-      <c r="M50" s="6" t="n">
+      <c r="M50" s="6">
         <v>2010</v>
       </c>
-      <c r="N50" s="6" t="n">
+      <c r="N50" s="6">
         <v>2011</v>
       </c>
-      <c r="O50" s="6" t="n">
+      <c r="O50" s="6">
         <v>2012</v>
       </c>
-      <c r="P50" s="6" t="n">
+      <c r="P50" s="6">
         <v>2013</v>
       </c>
-      <c r="Q50" s="6" t="n">
+      <c r="Q50" s="6">
         <v>2014</v>
       </c>
-      <c r="R50" s="6" t="n">
+      <c r="R50" s="6">
         <v>2015</v>
       </c>
-      <c r="S50" s="6" t="n">
+      <c r="S50" s="6">
         <v>2016</v>
       </c>
-      <c r="T50" s="6" t="n">
+      <c r="T50" s="6">
         <v>2017</v>
       </c>
-      <c r="U50" s="6" t="n">
+      <c r="U50" s="6">
         <v>2018</v>
       </c>
-      <c r="V50" s="6" t="n">
+      <c r="V50" s="6">
         <v>2019</v>
       </c>
-      <c r="W50" s="6" t="n">
+      <c r="W50" s="6">
         <v>2020</v>
       </c>
       <c r="Y50" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C51" s="27"/>
@@ -8812,19 +9249,14 @@
       <c r="X51" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y51" s="28" t="n">
+      <c r="Y51" s="28">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="988" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Populations" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Population size" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="HIV prevalence" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Other epidemiology" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Testing &amp; treatment" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Optional indicators" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Cascade" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Sexual behavior" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Injecting behavior" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Partnerships &amp; transitions" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Constants" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Instructions" sheetId="1" r:id="rId1"/>
+    <sheet name="Populations" sheetId="2" r:id="rId2"/>
+    <sheet name="Population size" sheetId="3" r:id="rId3"/>
+    <sheet name="HIV prevalence" sheetId="4" r:id="rId4"/>
+    <sheet name="Other epidemiology" sheetId="5" r:id="rId5"/>
+    <sheet name="Testing &amp; treatment" sheetId="6" r:id="rId6"/>
+    <sheet name="Optional indicators" sheetId="7" r:id="rId7"/>
+    <sheet name="Cascade" sheetId="8" r:id="rId8"/>
+    <sheet name="Sexual behavior" sheetId="9" r:id="rId9"/>
+    <sheet name="Injecting behavior" sheetId="10" r:id="rId10"/>
+    <sheet name="Partnerships &amp; transitions" sheetId="11" r:id="rId11"/>
+    <sheet name="Constants" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
@@ -68,8 +62,8 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
@@ -109,8 +103,8 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
@@ -514,38 +508,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="0.00E+00"/>
-    <numFmt numFmtId="167" formatCode="0.00%"/>
-    <numFmt numFmtId="168" formatCode="0%"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="20"/>
@@ -562,7 +535,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -575,6 +548,33 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -628,14 +628,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -651,169 +651,115 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Explanatory Text 2" xfId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Percent 2" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -872,13 +818,26 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -892,9 +851,9 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -906,16 +865,22 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -934,9 +899,9 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -948,16 +913,22 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -976,9 +947,9 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -990,16 +961,22 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1018,9 +995,9 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1032,16 +1009,22 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1060,9 +1043,9 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1071,16 +1054,22 @@
           <a:ext cx="13536720" cy="6265800"/>
         </a:xfrm>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1090,7 +1079,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1104,7 +1093,7 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -1115,16 +1104,22 @@
           <a:ext cx="13536720" cy="6427800"/>
         </a:xfrm>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1134,7 +1129,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1148,7 +1143,7 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1162,16 +1157,22 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1190,7 +1191,7 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1204,16 +1205,22 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1232,7 +1239,7 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1246,16 +1253,22 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1274,7 +1287,7 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1288,16 +1301,22 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1316,7 +1335,7 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -1327,16 +1346,22 @@
           <a:ext cx="13536720" cy="8628120"/>
         </a:xfrm>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1355,7 +1380,7 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1369,7 +1394,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1379,9 +1404,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1400,7 +1431,7 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1414,7 +1445,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1424,11 +1455,103 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3076" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3074" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1436,7 +1559,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1450,7 +1573,7 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1464,16 +1587,22 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1492,7 +1621,7 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1506,16 +1635,22 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1534,7 +1669,7 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1548,16 +1683,22 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1576,7 +1717,7 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1590,16 +1731,22 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1618,7 +1765,7 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -1629,16 +1776,22 @@
           <a:ext cx="13536720" cy="9558360"/>
         </a:xfrm>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1657,7 +1810,7 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1671,7 +1824,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1681,9 +1834,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1702,7 +1861,7 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1716,7 +1875,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1726,11 +1885,103 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4100" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4098" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1738,7 +1989,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1752,7 +2003,7 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1766,16 +2017,22 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1794,7 +2051,7 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1808,16 +2065,22 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1836,7 +2099,7 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1850,16 +2113,22 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1878,7 +2147,7 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1892,16 +2161,22 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1920,7 +2195,7 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -1931,16 +2206,22 @@
           <a:ext cx="13536720" cy="9123480"/>
         </a:xfrm>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1959,7 +2240,7 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1973,7 +2254,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1983,57 +2264,388 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5122" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="121.908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.9234693877551"/>
+    <col min="1" max="1" width="121.85546875"/>
+    <col min="2" max="1025" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2042,109 +2654,100 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A3"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="11.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.16836734693878"/>
+    <col min="1" max="25" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="n">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="6">
         <v>2000</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="6">
         <v>2001</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>2002</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>2003</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>2004</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>2005</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>2006</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="6">
         <v>2007</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="6">
         <v>2008</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="6">
         <v>2009</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="6">
         <v>2010</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="6">
         <v>2011</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="6">
         <v>2012</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="6">
         <v>2013</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="6">
         <v>2014</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="6">
         <v>2015</v>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="6">
         <v>2016</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="6">
         <v>2017</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="6">
         <v>2018</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="V2" s="6">
         <v>2019</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="6">
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C3" s="7"/>
@@ -2171,13 +2774,13 @@
       <c r="X3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="7" t="n">
+      <c r="Y3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C4" s="7"/>
@@ -2204,86 +2807,86 @@
       <c r="X4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="7" t="n">
+      <c r="Y4" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="6" t="n">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="6">
         <v>2000</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6">
         <v>2001</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="6">
         <v>2002</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="6">
         <v>2003</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="6">
         <v>2004</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="6">
         <v>2005</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>2006</v>
       </c>
-      <c r="J9" s="6" t="n">
+      <c r="J9" s="6">
         <v>2007</v>
       </c>
-      <c r="K9" s="6" t="n">
+      <c r="K9" s="6">
         <v>2008</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="6">
         <v>2009</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="6">
         <v>2010</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="6">
         <v>2011</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="O9" s="6">
         <v>2012</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="P9" s="6">
         <v>2013</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="Q9" s="6">
         <v>2014</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="R9" s="6">
         <v>2015</v>
       </c>
-      <c r="S9" s="6" t="n">
+      <c r="S9" s="6">
         <v>2016</v>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="T9" s="6">
         <v>2017</v>
       </c>
-      <c r="U9" s="6" t="n">
+      <c r="U9" s="6">
         <v>2018</v>
       </c>
-      <c r="V9" s="6" t="n">
+      <c r="V9" s="6">
         <v>2019</v>
       </c>
-      <c r="W9" s="6" t="n">
+      <c r="W9" s="6">
         <v>2020</v>
       </c>
       <c r="Y9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C10" s="14"/>
@@ -2310,13 +2913,13 @@
       <c r="X10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y10" s="14" t="n">
+      <c r="Y10" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C11" s="14"/>
@@ -2343,84 +2946,84 @@
       <c r="X11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="14" t="n">
+      <c r="Y11" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="6" t="n">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="6">
         <v>2000</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="6">
         <v>2001</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="6">
         <v>2002</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="6">
         <v>2003</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="6">
         <v>2004</v>
       </c>
-      <c r="H16" s="6" t="n">
+      <c r="H16" s="6">
         <v>2005</v>
       </c>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="6">
         <v>2006</v>
       </c>
-      <c r="J16" s="6" t="n">
+      <c r="J16" s="6">
         <v>2007</v>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K16" s="6">
         <v>2008</v>
       </c>
-      <c r="L16" s="6" t="n">
+      <c r="L16" s="6">
         <v>2009</v>
       </c>
-      <c r="M16" s="6" t="n">
+      <c r="M16" s="6">
         <v>2010</v>
       </c>
-      <c r="N16" s="6" t="n">
+      <c r="N16" s="6">
         <v>2011</v>
       </c>
-      <c r="O16" s="6" t="n">
+      <c r="O16" s="6">
         <v>2012</v>
       </c>
-      <c r="P16" s="6" t="n">
+      <c r="P16" s="6">
         <v>2013</v>
       </c>
-      <c r="Q16" s="6" t="n">
+      <c r="Q16" s="6">
         <v>2014</v>
       </c>
-      <c r="R16" s="6" t="n">
+      <c r="R16" s="6">
         <v>2015</v>
       </c>
-      <c r="S16" s="6" t="n">
+      <c r="S16" s="6">
         <v>2016</v>
       </c>
-      <c r="T16" s="6" t="n">
+      <c r="T16" s="6">
         <v>2017</v>
       </c>
-      <c r="U16" s="6" t="n">
+      <c r="U16" s="6">
         <v>2018</v>
       </c>
-      <c r="V16" s="6" t="n">
+      <c r="V16" s="6">
         <v>2019</v>
       </c>
-      <c r="W16" s="6" t="n">
+      <c r="W16" s="6">
         <v>2020</v>
       </c>
       <c r="Y16" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>32</v>
       </c>
@@ -2448,1258 +3051,1273 @@
       <c r="X17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y17" s="7" t="n">
+      <c r="Y17" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.9234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.16836734693878"/>
+    <col min="1" max="2" width="11.85546875"/>
+    <col min="3" max="4" width="17.140625"/>
+    <col min="5" max="6" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="D2" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="D9" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="D16" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="D23" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="D30" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="D36" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="D43" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A87" activeCellId="0" sqref="A87"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.9234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.9234693877551"/>
+    <col min="1" max="1" width="11.85546875" style="44"/>
+    <col min="2" max="2" width="55.140625" style="44"/>
+    <col min="3" max="1025" width="11.85546875" style="44"/>
+    <col min="1026" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="19" t="s">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="30" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="D3" s="30" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="E3" s="30" t="n">
-        <v>0.0014</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="29" t="s">
+      <c r="C3" s="45">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D3" s="45">
+        <v>1E-4</v>
+      </c>
+      <c r="E3" s="45">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="30" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="D4" s="30" t="n">
-        <v>0.0006</v>
-      </c>
-      <c r="E4" s="30" t="n">
-        <v>0.0011</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="29" t="s">
+      <c r="C4" s="45">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D4" s="45">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E4" s="45">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="30" t="n">
-        <v>0.0138</v>
-      </c>
-      <c r="D5" s="30" t="n">
-        <v>0.0102</v>
-      </c>
-      <c r="E5" s="30" t="n">
-        <v>0.0186</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="29" t="s">
+      <c r="C5" s="45">
+        <v>1.38E-2</v>
+      </c>
+      <c r="D5" s="45">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E5" s="45">
+        <v>1.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="30" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="D6" s="30" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="E6" s="30" t="n">
-        <v>0.0028</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="29" t="s">
+      <c r="C6" s="45">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D6" s="45">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E6" s="45">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="30" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="D7" s="30" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="E7" s="30" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="29" t="s">
+      <c r="C7" s="45">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D7" s="45">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E7" s="45">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="30" t="n">
-        <v>0.367</v>
-      </c>
-      <c r="D8" s="30" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="E8" s="30" t="n">
+      <c r="C8" s="45">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D8" s="45">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="E8" s="45">
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="29" t="s">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="30" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="D9" s="30" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E9" s="30" t="n">
+      <c r="C9" s="45">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D9" s="45">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E9" s="45">
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="42"/>
+    </row>
+    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="42"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="42"/>
+    </row>
+    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="19" t="s">
+    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="29" t="s">
+    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="22" t="n">
+      <c r="C15" s="46">
         <v>26.03</v>
       </c>
-      <c r="D15" s="22" t="n">
+      <c r="D15" s="46">
         <v>2</v>
       </c>
-      <c r="E15" s="22" t="n">
+      <c r="E15" s="46">
         <v>48.02</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="29" t="s">
+    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="22" t="n">
+      <c r="C16" s="46">
         <v>1</v>
       </c>
-      <c r="D16" s="22" t="n">
+      <c r="D16" s="46">
         <v>1</v>
       </c>
-      <c r="E16" s="22" t="n">
+      <c r="E16" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="29" t="s">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="22" t="n">
+      <c r="C17" s="46">
         <v>1</v>
       </c>
-      <c r="D17" s="22" t="n">
+      <c r="D17" s="46">
         <v>1</v>
       </c>
-      <c r="E17" s="22" t="n">
+      <c r="E17" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="29" t="s">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="22" t="n">
+      <c r="C18" s="46">
         <v>1</v>
       </c>
-      <c r="D18" s="22" t="n">
+      <c r="D18" s="46">
         <v>1</v>
       </c>
-      <c r="E18" s="22" t="n">
+      <c r="E18" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="29" t="s">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="22" t="n">
+      <c r="C19" s="46">
         <v>3.49</v>
       </c>
-      <c r="D19" s="22" t="n">
+      <c r="D19" s="46">
         <v>1.76</v>
       </c>
-      <c r="E19" s="22" t="n">
+      <c r="E19" s="46">
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="29" t="s">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="22" t="n">
+      <c r="C20" s="46">
         <v>7.17</v>
       </c>
-      <c r="D20" s="22" t="n">
+      <c r="D20" s="46">
         <v>3.9</v>
       </c>
-      <c r="E20" s="22" t="n">
+      <c r="E20" s="46">
         <v>12.08</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="42"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="42"/>
+    </row>
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="42"/>
+    </row>
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="19" t="s">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="29" t="s">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="20" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D26" s="20" t="n">
+      <c r="C26" s="47">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D26" s="47">
         <v>2</v>
       </c>
-      <c r="E26" s="20" t="n">
+      <c r="E26" s="47">
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="29" t="s">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="20" t="n">
+      <c r="C27" s="47">
         <v>1.05</v>
       </c>
-      <c r="D27" s="20" t="n">
+      <c r="D27" s="47">
         <v>0.86</v>
       </c>
-      <c r="E27" s="20" t="n">
+      <c r="E27" s="47">
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="29" t="s">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="20" t="n">
+      <c r="C28" s="47">
         <v>0.33</v>
       </c>
-      <c r="D28" s="20" t="n">
+      <c r="D28" s="47">
         <v>0.32</v>
       </c>
-      <c r="E28" s="20" t="n">
+      <c r="E28" s="47">
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="29" t="s">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="20" t="n">
+      <c r="C29" s="47">
         <v>0.27</v>
       </c>
-      <c r="D29" s="20" t="n">
+      <c r="D29" s="47">
         <v>0.25</v>
       </c>
-      <c r="E29" s="20" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="29" t="s">
+      <c r="E29" s="47">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="20" t="n">
+      <c r="C30" s="47">
         <v>0.67</v>
       </c>
-      <c r="D30" s="20" t="n">
+      <c r="D30" s="47">
         <v>0.44</v>
       </c>
-      <c r="E30" s="20" t="n">
+      <c r="E30" s="47">
         <v>0.88</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18" t="s">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="43"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+    </row>
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="42"/>
+    </row>
+    <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="42"/>
+    </row>
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C35" s="19" t="s">
+    <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="29" t="s">
+    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="20" t="n">
+      <c r="C36" s="47">
         <v>0.45</v>
       </c>
-      <c r="D36" s="20" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E36" s="20" t="n">
+      <c r="D36" s="47">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E36" s="47">
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="29" t="s">
+    <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="20" t="n">
+      <c r="C37" s="47">
         <v>0.7</v>
       </c>
-      <c r="D37" s="20" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="E37" s="20" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="29" t="s">
+      <c r="D37" s="47">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E37" s="47">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="20" t="n">
+      <c r="C38" s="47">
         <v>0.47</v>
       </c>
-      <c r="D38" s="20" t="n">
+      <c r="D38" s="47">
         <v>0.33</v>
       </c>
-      <c r="E38" s="20" t="n">
+      <c r="E38" s="47">
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="29" t="s">
+    <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="20" t="n">
+      <c r="C39" s="47">
         <v>1.52</v>
       </c>
-      <c r="D39" s="20" t="n">
+      <c r="D39" s="47">
         <v>1.06</v>
       </c>
-      <c r="E39" s="20" t="n">
+      <c r="E39" s="47">
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18" t="s">
+    <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="42"/>
+    </row>
+    <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="42"/>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="42"/>
+    </row>
+    <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C44" s="19" t="s">
+    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="29" t="s">
+    <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="30" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="D45" s="30" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="E45" s="30" t="n">
-        <v>0.0044</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="29" t="s">
+      <c r="C45" s="45">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D45" s="45">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E45" s="45">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="30" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="D46" s="30" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="E46" s="30" t="n">
-        <v>0.0044</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="29" t="s">
+      <c r="C46" s="45">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D46" s="45">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E46" s="45">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="30" t="n">
-        <v>0.0058</v>
-      </c>
-      <c r="D47" s="30" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="E47" s="30" t="n">
-        <v>0.0071</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="29" t="s">
+      <c r="C47" s="45">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="D47" s="45">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E47" s="45">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="30" t="n">
-        <v>0.0088</v>
-      </c>
-      <c r="D48" s="30" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="E48" s="30" t="n">
-        <v>0.0101</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="29" t="s">
+      <c r="C48" s="45">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D48" s="45">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E48" s="45">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="30" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="D49" s="30" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="E49" s="30" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="29" t="s">
+      <c r="C49" s="45">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D49" s="45">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E49" s="45">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="30" t="n">
-        <v>0.323</v>
-      </c>
-      <c r="D50" s="30" t="n">
-        <v>0.296</v>
-      </c>
-      <c r="E50" s="30" t="n">
+      <c r="C50" s="45">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D50" s="45">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E50" s="45">
         <v>0.432</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="29" t="s">
+    <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="30" t="n">
+      <c r="C51" s="45">
         <v>0.23</v>
       </c>
-      <c r="D51" s="30" t="n">
+      <c r="D51" s="45">
         <v>0.15</v>
       </c>
-      <c r="E51" s="30" t="n">
+      <c r="E51" s="45">
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="29" t="s">
+    <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="30" t="n">
+      <c r="C52" s="45">
         <v>2.17</v>
       </c>
-      <c r="D52" s="30" t="n">
+      <c r="D52" s="45">
         <v>1.27</v>
       </c>
-      <c r="E52" s="30" t="n">
+      <c r="E52" s="45">
         <v>3.71</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="4"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="4"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="18" t="s">
+    <row r="53" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="42"/>
+    </row>
+    <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="42"/>
+    </row>
+    <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="42"/>
+    </row>
+    <row r="56" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C57" s="19" t="s">
+    <row r="57" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="29" t="s">
+    <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="20" t="n">
+      <c r="C58" s="47">
         <v>0.95</v>
       </c>
-      <c r="D58" s="20" t="n">
+      <c r="D58" s="47">
         <v>0.8</v>
       </c>
-      <c r="E58" s="20" t="n">
+      <c r="E58" s="47">
         <v>0.98</v>
       </c>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="29" t="s">
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+    </row>
+    <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="20" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="D59" s="20" t="n">
+      <c r="C59" s="47">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D59" s="47">
         <v>0.47</v>
       </c>
-      <c r="E59" s="20" t="n">
+      <c r="E59" s="47">
         <v>0.67</v>
       </c>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="29" t="s">
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+    </row>
+    <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="20" t="n">
+      <c r="C60" s="47">
         <v>0</v>
       </c>
-      <c r="D60" s="20" t="n">
+      <c r="D60" s="47">
         <v>0</v>
       </c>
-      <c r="E60" s="20" t="n">
+      <c r="E60" s="47">
         <v>0.68</v>
       </c>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="29" t="s">
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+    </row>
+    <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="20" t="n">
+      <c r="C61" s="47">
         <v>2.65</v>
       </c>
-      <c r="D61" s="20" t="n">
+      <c r="D61" s="47">
         <v>1.35</v>
       </c>
-      <c r="E61" s="20" t="n">
+      <c r="E61" s="47">
         <v>5.19</v>
       </c>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="29" t="s">
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+    </row>
+    <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="20" t="n">
+      <c r="C62" s="47">
         <v>0.54</v>
       </c>
-      <c r="D62" s="20" t="n">
+      <c r="D62" s="47">
         <v>0.33</v>
       </c>
-      <c r="E62" s="20" t="n">
+      <c r="E62" s="47">
         <v>0.68</v>
       </c>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="29" t="s">
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+    </row>
+    <row r="63" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="20" t="n">
+      <c r="C63" s="47">
         <v>0.9</v>
       </c>
-      <c r="D63" s="20" t="n">
+      <c r="D63" s="47">
         <v>0.82</v>
       </c>
-      <c r="E63" s="20" t="n">
+      <c r="E63" s="47">
         <v>0.93</v>
       </c>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="29" t="s">
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+    </row>
+    <row r="64" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="20" t="n">
+      <c r="C64" s="47">
         <v>0.73</v>
       </c>
-      <c r="D64" s="20" t="n">
+      <c r="D64" s="47">
         <v>0.65</v>
       </c>
-      <c r="E64" s="20" t="n">
+      <c r="E64" s="47">
         <v>0.8</v>
       </c>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="29" t="s">
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+    </row>
+    <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="20" t="n">
+      <c r="C65" s="47">
         <v>0.5</v>
       </c>
-      <c r="D65" s="20" t="n">
+      <c r="D65" s="47">
         <v>0.3</v>
       </c>
-      <c r="E65" s="20" t="n">
+      <c r="E65" s="47">
         <v>0.8</v>
       </c>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="29" t="s">
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+    </row>
+    <row r="66" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C66" s="20" t="n">
+      <c r="C66" s="47">
         <v>0.92</v>
       </c>
-      <c r="D66" s="20" t="n">
+      <c r="D66" s="47">
         <v>0.8</v>
       </c>
-      <c r="E66" s="20" t="n">
+      <c r="E66" s="47">
         <v>0.95</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="4"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="18" t="s">
+    <row r="67" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="42"/>
+    </row>
+    <row r="70" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+    </row>
+    <row r="71" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="37"/>
+      <c r="B72" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="D72" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="E72" s="38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="37"/>
+      <c r="B73" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="D73" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="E73" s="38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="37"/>
+      <c r="B74" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="D74" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="E74" s="38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+    </row>
+    <row r="76" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+    </row>
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="29"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+    </row>
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="33" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C71" s="19" t="s">
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="D79" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E79" s="34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="29" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="29"/>
+      <c r="B80" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C72" s="22" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="D72" s="22" t="n">
-        <v>0.096</v>
-      </c>
-      <c r="E72" s="22" t="n">
-        <v>0.205</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="29" t="s">
+      <c r="C80" s="36">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D80" s="36">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E80" s="36">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="29"/>
+      <c r="B81" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C73" s="22" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="D73" s="22" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="E73" s="22" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="29" t="s">
+      <c r="C81" s="36">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D81" s="36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E81" s="36">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="29"/>
+      <c r="B82" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C74" s="22" t="n">
+      <c r="C82" s="36">
         <v>0.02</v>
       </c>
-      <c r="D74" s="22" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="E74" s="22" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="29" t="s">
+      <c r="D82" s="36">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E82" s="36">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="29"/>
+      <c r="B83" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C75" s="22" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="D75" s="22" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="E75" s="22" t="n">
-        <v>0.094</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="29" t="s">
+      <c r="C83" s="36">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D83" s="36">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E83" s="36">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="29"/>
+      <c r="B84" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C76" s="22" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="D76" s="22" t="n">
+      <c r="C84" s="36">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D84" s="36">
         <v>0.114</v>
       </c>
-      <c r="E76" s="22" t="n">
-        <v>0.474</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="29" t="s">
+      <c r="E84" s="36">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="29"/>
+      <c r="B85" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="C77" s="22" t="n">
-        <v>0.547</v>
-      </c>
-      <c r="D77" s="22" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="E77" s="22" t="n">
-        <v>0.715</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="29" t="s">
+      <c r="C85" s="36">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D85" s="36">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E85" s="36">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="29"/>
+      <c r="B86" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C78" s="22" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="D78" s="22" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="E78" s="22" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C84" s="20" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D84" s="20" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E84" s="20" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C85" s="20" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D85" s="20" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E85" s="20" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C86" s="20" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D86" s="20" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E86" s="20" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C86" s="36">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D86" s="36">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E86" s="36">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.9234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.1683673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.9234693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.16836734693878"/>
+    <col min="1" max="2" width="11.85546875"/>
+    <col min="3" max="3" width="21.140625"/>
+    <col min="4" max="4" width="55.140625"/>
+    <col min="5" max="6" width="11.85546875"/>
+    <col min="7" max="7" width="17.140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -3707,7 +4325,7 @@
       <c r="D1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
@@ -3733,8 +4351,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="6" t="n">
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -3749,21 +4367,21 @@
       <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="7">
         <v>15</v>
       </c>
-      <c r="H3" s="7" t="n">
+      <c r="H3" s="7">
         <v>49</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="7">
         <v>0</v>
       </c>
-      <c r="J3" s="7" t="n">
+      <c r="J3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6" t="n">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -3778,123 +4396,114 @@
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="7">
         <v>15</v>
       </c>
-      <c r="H4" s="7" t="n">
+      <c r="H4" s="7">
         <v>49</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="J4" s="7" t="n">
+      <c r="J4" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V12" activeCellId="0" sqref="V12"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="26" min="1" style="0" width="11.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.16836734693878"/>
+    <col min="1" max="26" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D2" s="6" t="n">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="6">
         <v>2000</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>2001</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>2002</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>2003</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>2004</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>2005</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="6">
         <v>2006</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="6">
         <v>2007</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="6">
         <v>2008</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="6">
         <v>2009</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="6">
         <v>2010</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="6">
         <v>2011</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="6">
         <v>2012</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="6">
         <v>2013</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="6">
         <v>2014</v>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="6">
         <v>2015</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="6">
         <v>2016</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="6">
         <v>2017</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="V2" s="6">
         <v>2018</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="6">
         <v>2019</v>
       </c>
-      <c r="X2" s="6" t="n">
+      <c r="X2" s="6">
         <v>2020</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -3926,15 +4535,15 @@
       </c>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="8">
         <v>525000</v>
       </c>
       <c r="E4" s="8"/>
@@ -3946,9 +4555,9 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="8" t="n">
-        <f aca="false">'Population size'!D4*(1.03^10)</f>
-        <v>705556.099155664</v>
+      <c r="N4" s="8">
+        <f>'Population size'!D4*(1.03^10)</f>
+        <v>705556.09915566398</v>
       </c>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -3959,18 +4568,18 @@
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
-      <c r="X4" s="11" t="n">
-        <f aca="false">'Population size'!N4*1.02^10</f>
-        <v>860068.947864022</v>
+      <c r="X4" s="11">
+        <f>'Population size'!N4*1.02^10</f>
+        <v>860068.94786402199</v>
       </c>
       <c r="Y4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -4002,9 +4611,9 @@
       </c>
       <c r="Z5" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -4036,15 +4645,15 @@
       </c>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="10">
         <v>626000</v>
       </c>
       <c r="E8" s="10"/>
@@ -4056,9 +4665,9 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="10" t="n">
-        <f aca="false">'Population size'!D8*1.03^10</f>
-        <v>841291.65346942</v>
+      <c r="N8" s="10">
+        <f>'Population size'!D8*1.03^10</f>
+        <v>841291.65346942027</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -4069,18 +4678,18 @@
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
-      <c r="X8" s="10" t="n">
-        <f aca="false">'Population size'!N8*1.02^10</f>
-        <v>1025529.83116739</v>
+      <c r="X8" s="10">
+        <f>'Population size'!N8*1.02^10</f>
+        <v>1025529.8311673861</v>
       </c>
       <c r="Y8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -4113,110 +4722,101 @@
       <c r="Z9" s="10"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V16" activeCellId="0" sqref="V16"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="26" min="1" style="0" width="11.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.16836734693878"/>
+    <col min="1" max="26" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D2" s="6" t="n">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="6">
         <v>2000</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>2001</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>2002</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>2003</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>2004</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>2005</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="6">
         <v>2006</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="6">
         <v>2007</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="6">
         <v>2008</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="6">
         <v>2009</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="6">
         <v>2010</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="6">
         <v>2011</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="6">
         <v>2012</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="6">
         <v>2013</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="6">
         <v>2014</v>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="6">
         <v>2015</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="6">
         <v>2016</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="6">
         <v>2017</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="V2" s="6">
         <v>2018</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="6">
         <v>2019</v>
       </c>
-      <c r="X2" s="6" t="n">
+      <c r="X2" s="6">
         <v>2020</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -4248,28 +4848,28 @@
       </c>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="12">
         <v>0.01</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="12" t="n">
+      <c r="H4" s="12">
         <v>0.02</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="12" t="n">
-        <v>0.015</v>
+      <c r="L4" s="12">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
@@ -4288,9 +4888,9 @@
       </c>
       <c r="Z4" s="13"/>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -4322,9 +4922,9 @@
       </c>
       <c r="Z5" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -4356,23 +4956,23 @@
       </c>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="12" t="n">
-        <v>0.015</v>
+      <c r="E8" s="12">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="12" t="n">
+      <c r="J8" s="12">
         <v>0.03</v>
       </c>
       <c r="K8" s="12"/>
@@ -4382,7 +4982,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
-      <c r="R8" s="12" t="n">
+      <c r="R8" s="12">
         <v>0.02</v>
       </c>
       <c r="S8" s="12"/>
@@ -4396,9 +4996,9 @@
       </c>
       <c r="Z8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -4431,114 +5031,105 @@
       <c r="Z9" s="12"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T24" activeCellId="0" sqref="T24"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="11.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.16836734693878"/>
+    <col min="1" max="25" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="n">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="6">
         <v>2000</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="6">
         <v>2001</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>2002</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>2003</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>2004</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>2005</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>2006</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="6">
         <v>2007</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="6">
         <v>2008</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="6">
         <v>2009</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="6">
         <v>2010</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="6">
         <v>2011</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="6">
         <v>2012</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="6">
         <v>2013</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="6">
         <v>2014</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="6">
         <v>2015</v>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="6">
         <v>2016</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="6">
         <v>2017</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="6">
         <v>2018</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="V2" s="6">
         <v>2019</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="6">
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
-      <c r="C3" s="12" t="n">
-        <v>0.003</v>
+      <c r="C3" s="12">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -4549,8 +5140,8 @@
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="12" t="n">
-        <v>0.002</v>
+      <c r="M3" s="12">
+        <v>2E-3</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
@@ -4567,13 +5158,13 @@
       </c>
       <c r="Y3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C4" s="12" t="n">
-        <v>0.003</v>
+      <c r="C4" s="12">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -4584,8 +5175,8 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="12" t="n">
-        <v>0.002</v>
+      <c r="M4" s="12">
+        <v>2E-3</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -4602,82 +5193,82 @@
       </c>
       <c r="Y4" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="6" t="n">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="6">
         <v>2000</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6">
         <v>2001</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="6">
         <v>2002</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="6">
         <v>2003</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="6">
         <v>2004</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="6">
         <v>2005</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>2006</v>
       </c>
-      <c r="J9" s="6" t="n">
+      <c r="J9" s="6">
         <v>2007</v>
       </c>
-      <c r="K9" s="6" t="n">
+      <c r="K9" s="6">
         <v>2008</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="6">
         <v>2009</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="6">
         <v>2010</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="6">
         <v>2011</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="O9" s="6">
         <v>2012</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="P9" s="6">
         <v>2013</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="Q9" s="6">
         <v>2014</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="R9" s="6">
         <v>2015</v>
       </c>
-      <c r="S9" s="6" t="n">
+      <c r="S9" s="6">
         <v>2016</v>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="T9" s="6">
         <v>2017</v>
       </c>
-      <c r="U9" s="6" t="n">
+      <c r="U9" s="6">
         <v>2018</v>
       </c>
-      <c r="V9" s="6" t="n">
+      <c r="V9" s="6">
         <v>2019</v>
       </c>
-      <c r="W9" s="6" t="n">
+      <c r="W9" s="6">
         <v>2020</v>
       </c>
       <c r="Y9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C10" s="12"/>
@@ -4704,13 +5295,13 @@
       <c r="X10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y10" s="12" t="n">
+      <c r="Y10" s="12">
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C11" s="12"/>
@@ -4737,86 +5328,86 @@
       <c r="X11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="12" t="n">
+      <c r="Y11" s="12">
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="6" t="n">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="6">
         <v>2000</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="6">
         <v>2001</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="6">
         <v>2002</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="6">
         <v>2003</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="6">
         <v>2004</v>
       </c>
-      <c r="H16" s="6" t="n">
+      <c r="H16" s="6">
         <v>2005</v>
       </c>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="6">
         <v>2006</v>
       </c>
-      <c r="J16" s="6" t="n">
+      <c r="J16" s="6">
         <v>2007</v>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K16" s="6">
         <v>2008</v>
       </c>
-      <c r="L16" s="6" t="n">
+      <c r="L16" s="6">
         <v>2009</v>
       </c>
-      <c r="M16" s="6" t="n">
+      <c r="M16" s="6">
         <v>2010</v>
       </c>
-      <c r="N16" s="6" t="n">
+      <c r="N16" s="6">
         <v>2011</v>
       </c>
-      <c r="O16" s="6" t="n">
+      <c r="O16" s="6">
         <v>2012</v>
       </c>
-      <c r="P16" s="6" t="n">
+      <c r="P16" s="6">
         <v>2013</v>
       </c>
-      <c r="Q16" s="6" t="n">
+      <c r="Q16" s="6">
         <v>2014</v>
       </c>
-      <c r="R16" s="6" t="n">
+      <c r="R16" s="6">
         <v>2015</v>
       </c>
-      <c r="S16" s="6" t="n">
+      <c r="S16" s="6">
         <v>2016</v>
       </c>
-      <c r="T16" s="6" t="n">
+      <c r="T16" s="6">
         <v>2017</v>
       </c>
-      <c r="U16" s="6" t="n">
+      <c r="U16" s="6">
         <v>2018</v>
       </c>
-      <c r="V16" s="6" t="n">
+      <c r="V16" s="6">
         <v>2019</v>
       </c>
-      <c r="W16" s="6" t="n">
+      <c r="W16" s="6">
         <v>2020</v>
       </c>
       <c r="Y16" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C17" s="12"/>
@@ -4832,8 +5423,8 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="12" t="n">
-        <v>0.0018</v>
+      <c r="P17" s="12">
+        <v>1.8E-3</v>
       </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
@@ -4847,9 +5438,9 @@
       </c>
       <c r="Y17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C18" s="12"/>
@@ -4865,8 +5456,8 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="12" t="n">
-        <v>0.0008</v>
+      <c r="P18" s="12">
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
@@ -4881,111 +5472,102 @@
       <c r="Y18" s="12"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="11.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.16836734693878"/>
+    <col min="1" max="25" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="n">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="6">
         <v>2000</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="6">
         <v>2001</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>2002</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>2003</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>2004</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>2005</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>2006</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="6">
         <v>2007</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="6">
         <v>2008</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="6">
         <v>2009</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="6">
         <v>2010</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="6">
         <v>2011</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="6">
         <v>2012</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="6">
         <v>2013</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="6">
         <v>2014</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="6">
         <v>2015</v>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="6">
         <v>2016</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="6">
         <v>2017</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="6">
         <v>2018</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="V2" s="6">
         <v>2019</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="6">
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C3" s="14"/>
@@ -4998,8 +5580,8 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
-      <c r="M3" s="14" t="n">
-        <v>0.0645</v>
+      <c r="M3" s="14">
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -5016,9 +5598,9 @@
       </c>
       <c r="Y3" s="14"/>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C4" s="14"/>
@@ -5031,8 +5613,8 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="14" t="n">
-        <v>0.0645</v>
+      <c r="M4" s="14">
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
@@ -5049,80 +5631,80 @@
       </c>
       <c r="Y4" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="6" t="n">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="6">
         <v>2000</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6">
         <v>2001</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="6">
         <v>2002</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="6">
         <v>2003</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="6">
         <v>2004</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="6">
         <v>2005</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>2006</v>
       </c>
-      <c r="J9" s="6" t="n">
+      <c r="J9" s="6">
         <v>2007</v>
       </c>
-      <c r="K9" s="6" t="n">
+      <c r="K9" s="6">
         <v>2008</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="6">
         <v>2009</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="6">
         <v>2010</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="6">
         <v>2011</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="O9" s="6">
         <v>2012</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="P9" s="6">
         <v>2013</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="Q9" s="6">
         <v>2014</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="R9" s="6">
         <v>2015</v>
       </c>
-      <c r="S9" s="6" t="n">
+      <c r="S9" s="6">
         <v>2016</v>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="T9" s="6">
         <v>2017</v>
       </c>
-      <c r="U9" s="6" t="n">
+      <c r="U9" s="6">
         <v>2018</v>
       </c>
-      <c r="V9" s="6" t="n">
+      <c r="V9" s="6">
         <v>2019</v>
       </c>
-      <c r="W9" s="6" t="n">
+      <c r="W9" s="6">
         <v>2020</v>
       </c>
       <c r="Y9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
@@ -5150,111 +5732,111 @@
       <c r="X10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y10" s="15" t="n">
+      <c r="Y10" s="15">
         <v>0.65</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="6" t="n">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="6">
         <v>2000</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="6">
         <v>2001</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="6">
         <v>2002</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="6">
         <v>2003</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="6">
         <v>2004</v>
       </c>
-      <c r="H15" s="6" t="n">
+      <c r="H15" s="6">
         <v>2005</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="6">
         <v>2006</v>
       </c>
-      <c r="J15" s="6" t="n">
+      <c r="J15" s="6">
         <v>2007</v>
       </c>
-      <c r="K15" s="6" t="n">
+      <c r="K15" s="6">
         <v>2008</v>
       </c>
-      <c r="L15" s="6" t="n">
+      <c r="L15" s="6">
         <v>2009</v>
       </c>
-      <c r="M15" s="6" t="n">
+      <c r="M15" s="6">
         <v>2010</v>
       </c>
-      <c r="N15" s="6" t="n">
+      <c r="N15" s="6">
         <v>2011</v>
       </c>
-      <c r="O15" s="6" t="n">
+      <c r="O15" s="6">
         <v>2012</v>
       </c>
-      <c r="P15" s="6" t="n">
+      <c r="P15" s="6">
         <v>2013</v>
       </c>
-      <c r="Q15" s="6" t="n">
+      <c r="Q15" s="6">
         <v>2014</v>
       </c>
-      <c r="R15" s="6" t="n">
+      <c r="R15" s="6">
         <v>2015</v>
       </c>
-      <c r="S15" s="6" t="n">
+      <c r="S15" s="6">
         <v>2016</v>
       </c>
-      <c r="T15" s="6" t="n">
+      <c r="T15" s="6">
         <v>2017</v>
       </c>
-      <c r="U15" s="6" t="n">
+      <c r="U15" s="6">
         <v>2018</v>
       </c>
-      <c r="V15" s="6" t="n">
+      <c r="V15" s="6">
         <v>2019</v>
       </c>
-      <c r="W15" s="6" t="n">
+      <c r="W15" s="6">
         <v>2020</v>
       </c>
       <c r="Y15" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="7">
         <v>0</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="7">
         <v>50</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="7" t="n">
+      <c r="J16" s="7">
         <v>600</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="7" t="n">
+      <c r="O16" s="7">
         <v>1900</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7" t="n">
+      <c r="R16" s="7">
         <v>3200</v>
       </c>
       <c r="S16" s="7"/>
@@ -5267,82 +5849,82 @@
       </c>
       <c r="Y16" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="6" t="n">
+    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="6">
         <v>2000</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="6">
         <v>2001</v>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="6">
         <v>2002</v>
       </c>
-      <c r="F21" s="6" t="n">
+      <c r="F21" s="6">
         <v>2003</v>
       </c>
-      <c r="G21" s="6" t="n">
+      <c r="G21" s="6">
         <v>2004</v>
       </c>
-      <c r="H21" s="6" t="n">
+      <c r="H21" s="6">
         <v>2005</v>
       </c>
-      <c r="I21" s="6" t="n">
+      <c r="I21" s="6">
         <v>2006</v>
       </c>
-      <c r="J21" s="6" t="n">
+      <c r="J21" s="6">
         <v>2007</v>
       </c>
-      <c r="K21" s="6" t="n">
+      <c r="K21" s="6">
         <v>2008</v>
       </c>
-      <c r="L21" s="6" t="n">
+      <c r="L21" s="6">
         <v>2009</v>
       </c>
-      <c r="M21" s="6" t="n">
+      <c r="M21" s="6">
         <v>2010</v>
       </c>
-      <c r="N21" s="6" t="n">
+      <c r="N21" s="6">
         <v>2011</v>
       </c>
-      <c r="O21" s="6" t="n">
+      <c r="O21" s="6">
         <v>2012</v>
       </c>
-      <c r="P21" s="6" t="n">
+      <c r="P21" s="6">
         <v>2013</v>
       </c>
-      <c r="Q21" s="6" t="n">
+      <c r="Q21" s="6">
         <v>2014</v>
       </c>
-      <c r="R21" s="6" t="n">
+      <c r="R21" s="6">
         <v>2015</v>
       </c>
-      <c r="S21" s="6" t="n">
+      <c r="S21" s="6">
         <v>2016</v>
       </c>
-      <c r="T21" s="6" t="n">
+      <c r="T21" s="6">
         <v>2017</v>
       </c>
-      <c r="U21" s="6" t="n">
+      <c r="U21" s="6">
         <v>2018</v>
       </c>
-      <c r="V21" s="6" t="n">
+      <c r="V21" s="6">
         <v>2019</v>
       </c>
-      <c r="W21" s="6" t="n">
+      <c r="W21" s="6">
         <v>2020</v>
       </c>
       <c r="Y21" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C22" s="14"/>
@@ -5359,7 +5941,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
-      <c r="Q22" s="14" t="n">
+      <c r="Q22" s="14">
         <v>0</v>
       </c>
       <c r="R22" s="14"/>
@@ -5373,9 +5955,9 @@
       </c>
       <c r="Y22" s="14"/>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C23" s="14"/>
@@ -5392,7 +5974,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
-      <c r="Q23" s="14" t="n">
+      <c r="Q23" s="14">
         <v>0</v>
       </c>
       <c r="R23" s="14"/>
@@ -5406,80 +5988,80 @@
       </c>
       <c r="Y23" s="14"/>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="6" t="n">
+    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="6">
         <v>2000</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="6">
         <v>2001</v>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E28" s="6">
         <v>2002</v>
       </c>
-      <c r="F28" s="6" t="n">
+      <c r="F28" s="6">
         <v>2003</v>
       </c>
-      <c r="G28" s="6" t="n">
+      <c r="G28" s="6">
         <v>2004</v>
       </c>
-      <c r="H28" s="6" t="n">
+      <c r="H28" s="6">
         <v>2005</v>
       </c>
-      <c r="I28" s="6" t="n">
+      <c r="I28" s="6">
         <v>2006</v>
       </c>
-      <c r="J28" s="6" t="n">
+      <c r="J28" s="6">
         <v>2007</v>
       </c>
-      <c r="K28" s="6" t="n">
+      <c r="K28" s="6">
         <v>2008</v>
       </c>
-      <c r="L28" s="6" t="n">
+      <c r="L28" s="6">
         <v>2009</v>
       </c>
-      <c r="M28" s="6" t="n">
+      <c r="M28" s="6">
         <v>2010</v>
       </c>
-      <c r="N28" s="6" t="n">
+      <c r="N28" s="6">
         <v>2011</v>
       </c>
-      <c r="O28" s="6" t="n">
+      <c r="O28" s="6">
         <v>2012</v>
       </c>
-      <c r="P28" s="6" t="n">
+      <c r="P28" s="6">
         <v>2013</v>
       </c>
-      <c r="Q28" s="6" t="n">
+      <c r="Q28" s="6">
         <v>2014</v>
       </c>
-      <c r="R28" s="6" t="n">
+      <c r="R28" s="6">
         <v>2015</v>
       </c>
-      <c r="S28" s="6" t="n">
+      <c r="S28" s="6">
         <v>2016</v>
       </c>
-      <c r="T28" s="6" t="n">
+      <c r="T28" s="6">
         <v>2017</v>
       </c>
-      <c r="U28" s="6" t="n">
+      <c r="U28" s="6">
         <v>2018</v>
       </c>
-      <c r="V28" s="6" t="n">
+      <c r="V28" s="6">
         <v>2019</v>
       </c>
-      <c r="W28" s="6" t="n">
+      <c r="W28" s="6">
         <v>2020</v>
       </c>
       <c r="Y28" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>32</v>
       </c>
@@ -5492,7 +6074,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="7" t="n">
+      <c r="L29" s="7">
         <v>200</v>
       </c>
       <c r="M29" s="7"/>
@@ -5511,122 +6093,122 @@
       </c>
       <c r="Y29" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C34" s="6" t="n">
+    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="6">
         <v>2000</v>
       </c>
-      <c r="D34" s="6" t="n">
+      <c r="D34" s="6">
         <v>2001</v>
       </c>
-      <c r="E34" s="6" t="n">
+      <c r="E34" s="6">
         <v>2002</v>
       </c>
-      <c r="F34" s="6" t="n">
+      <c r="F34" s="6">
         <v>2003</v>
       </c>
-      <c r="G34" s="6" t="n">
+      <c r="G34" s="6">
         <v>2004</v>
       </c>
-      <c r="H34" s="6" t="n">
+      <c r="H34" s="6">
         <v>2005</v>
       </c>
-      <c r="I34" s="6" t="n">
+      <c r="I34" s="6">
         <v>2006</v>
       </c>
-      <c r="J34" s="6" t="n">
+      <c r="J34" s="6">
         <v>2007</v>
       </c>
-      <c r="K34" s="6" t="n">
+      <c r="K34" s="6">
         <v>2008</v>
       </c>
-      <c r="L34" s="6" t="n">
+      <c r="L34" s="6">
         <v>2009</v>
       </c>
-      <c r="M34" s="6" t="n">
+      <c r="M34" s="6">
         <v>2010</v>
       </c>
-      <c r="N34" s="6" t="n">
+      <c r="N34" s="6">
         <v>2011</v>
       </c>
-      <c r="O34" s="6" t="n">
+      <c r="O34" s="6">
         <v>2012</v>
       </c>
-      <c r="P34" s="6" t="n">
+      <c r="P34" s="6">
         <v>2013</v>
       </c>
-      <c r="Q34" s="6" t="n">
+      <c r="Q34" s="6">
         <v>2014</v>
       </c>
-      <c r="R34" s="6" t="n">
+      <c r="R34" s="6">
         <v>2015</v>
       </c>
-      <c r="S34" s="6" t="n">
+      <c r="S34" s="6">
         <v>2016</v>
       </c>
-      <c r="T34" s="6" t="n">
+      <c r="T34" s="6">
         <v>2017</v>
       </c>
-      <c r="U34" s="6" t="n">
+      <c r="U34" s="6">
         <v>2018</v>
       </c>
-      <c r="V34" s="6" t="n">
+      <c r="V34" s="6">
         <v>2019</v>
       </c>
-      <c r="W34" s="6" t="n">
+      <c r="W34" s="6">
         <v>2020</v>
       </c>
       <c r="Y34" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
-      <c r="C35" s="16" t="n">
-        <v>0.0459252963367275</v>
-      </c>
-      <c r="D35" s="16" t="n">
-        <v>0.0453240226108024</v>
-      </c>
-      <c r="E35" s="16" t="n">
-        <v>0.0452581785313017</v>
-      </c>
-      <c r="F35" s="16" t="n">
-        <v>0.0456435695915845</v>
-      </c>
-      <c r="G35" s="16" t="n">
-        <v>0.0463930220205675</v>
-      </c>
-      <c r="H35" s="16" t="n">
-        <v>0.0473805326183886</v>
-      </c>
-      <c r="I35" s="16" t="n">
-        <v>0.0487760344919196</v>
-      </c>
-      <c r="J35" s="16" t="n">
-        <v>0.0500814890173546</v>
-      </c>
-      <c r="K35" s="16" t="n">
-        <v>0.0512070191547057</v>
-      </c>
-      <c r="L35" s="16" t="n">
-        <v>0.0521160869168661</v>
-      </c>
-      <c r="M35" s="16" t="n">
-        <v>0.0527844893629247</v>
-      </c>
-      <c r="N35" s="16" t="n">
-        <v>0.0521151813595171</v>
-      </c>
-      <c r="O35" s="16" t="n">
-        <v>0.0524844994960748</v>
+      <c r="C35" s="16">
+        <v>4.5925296336727497E-2</v>
+      </c>
+      <c r="D35" s="16">
+        <v>4.53240226108024E-2</v>
+      </c>
+      <c r="E35" s="16">
+        <v>4.52581785313017E-2</v>
+      </c>
+      <c r="F35" s="16">
+        <v>4.5643569591584499E-2</v>
+      </c>
+      <c r="G35" s="16">
+        <v>4.6393022020567498E-2</v>
+      </c>
+      <c r="H35" s="16">
+        <v>4.73805326183886E-2</v>
+      </c>
+      <c r="I35" s="16">
+        <v>4.8776034491919598E-2</v>
+      </c>
+      <c r="J35" s="16">
+        <v>5.0081489017354597E-2</v>
+      </c>
+      <c r="K35" s="16">
+        <v>5.1207019154705699E-2</v>
+      </c>
+      <c r="L35" s="16">
+        <v>5.2116086916866103E-2</v>
+      </c>
+      <c r="M35" s="16">
+        <v>5.2784489362924701E-2</v>
+      </c>
+      <c r="N35" s="16">
+        <v>5.21151813595171E-2</v>
+      </c>
+      <c r="O35" s="16">
+        <v>5.2484499496074803E-2</v>
       </c>
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
@@ -5641,80 +6223,80 @@
       </c>
       <c r="Y35" s="16"/>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C40" s="6" t="n">
+    <row r="40" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="6">
         <v>2000</v>
       </c>
-      <c r="D40" s="6" t="n">
+      <c r="D40" s="6">
         <v>2001</v>
       </c>
-      <c r="E40" s="6" t="n">
+      <c r="E40" s="6">
         <v>2002</v>
       </c>
-      <c r="F40" s="6" t="n">
+      <c r="F40" s="6">
         <v>2003</v>
       </c>
-      <c r="G40" s="6" t="n">
+      <c r="G40" s="6">
         <v>2004</v>
       </c>
-      <c r="H40" s="6" t="n">
+      <c r="H40" s="6">
         <v>2005</v>
       </c>
-      <c r="I40" s="6" t="n">
+      <c r="I40" s="6">
         <v>2006</v>
       </c>
-      <c r="J40" s="6" t="n">
+      <c r="J40" s="6">
         <v>2007</v>
       </c>
-      <c r="K40" s="6" t="n">
+      <c r="K40" s="6">
         <v>2008</v>
       </c>
-      <c r="L40" s="6" t="n">
+      <c r="L40" s="6">
         <v>2009</v>
       </c>
-      <c r="M40" s="6" t="n">
+      <c r="M40" s="6">
         <v>2010</v>
       </c>
-      <c r="N40" s="6" t="n">
+      <c r="N40" s="6">
         <v>2011</v>
       </c>
-      <c r="O40" s="6" t="n">
+      <c r="O40" s="6">
         <v>2012</v>
       </c>
-      <c r="P40" s="6" t="n">
+      <c r="P40" s="6">
         <v>2013</v>
       </c>
-      <c r="Q40" s="6" t="n">
+      <c r="Q40" s="6">
         <v>2014</v>
       </c>
-      <c r="R40" s="6" t="n">
+      <c r="R40" s="6">
         <v>2015</v>
       </c>
-      <c r="S40" s="6" t="n">
+      <c r="S40" s="6">
         <v>2016</v>
       </c>
-      <c r="T40" s="6" t="n">
+      <c r="T40" s="6">
         <v>2017</v>
       </c>
-      <c r="U40" s="6" t="n">
+      <c r="U40" s="6">
         <v>2018</v>
       </c>
-      <c r="V40" s="6" t="n">
+      <c r="V40" s="6">
         <v>2019</v>
       </c>
-      <c r="W40" s="6" t="n">
+      <c r="W40" s="6">
         <v>2020</v>
       </c>
       <c r="Y40" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>32</v>
       </c>
@@ -5742,85 +6324,85 @@
       <c r="X41" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y41" s="17" t="n">
-        <f aca="false">14/100*87/100</f>
-        <v>0.1218</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y41" s="17">
+        <f>14/100*87/100</f>
+        <v>0.12180000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="19" t="n">
+    <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="C46" s="19">
         <v>2000</v>
       </c>
-      <c r="D46" s="19" t="n">
+      <c r="D46" s="19">
         <v>2001</v>
       </c>
-      <c r="E46" s="19" t="n">
+      <c r="E46" s="19">
         <v>2002</v>
       </c>
-      <c r="F46" s="19" t="n">
+      <c r="F46" s="19">
         <v>2003</v>
       </c>
-      <c r="G46" s="19" t="n">
+      <c r="G46" s="19">
         <v>2004</v>
       </c>
-      <c r="H46" s="19" t="n">
+      <c r="H46" s="19">
         <v>2005</v>
       </c>
-      <c r="I46" s="19" t="n">
+      <c r="I46" s="19">
         <v>2006</v>
       </c>
-      <c r="J46" s="19" t="n">
+      <c r="J46" s="19">
         <v>2007</v>
       </c>
-      <c r="K46" s="19" t="n">
+      <c r="K46" s="19">
         <v>2008</v>
       </c>
-      <c r="L46" s="19" t="n">
+      <c r="L46" s="19">
         <v>2009</v>
       </c>
-      <c r="M46" s="19" t="n">
+      <c r="M46" s="19">
         <v>2010</v>
       </c>
-      <c r="N46" s="19" t="n">
+      <c r="N46" s="19">
         <v>2011</v>
       </c>
-      <c r="O46" s="19" t="n">
+      <c r="O46" s="19">
         <v>2012</v>
       </c>
-      <c r="P46" s="19" t="n">
+      <c r="P46" s="19">
         <v>2013</v>
       </c>
-      <c r="Q46" s="19" t="n">
+      <c r="Q46" s="19">
         <v>2014</v>
       </c>
-      <c r="R46" s="19" t="n">
+      <c r="R46" s="19">
         <v>2015</v>
       </c>
-      <c r="S46" s="19" t="n">
+      <c r="S46" s="19">
         <v>2016</v>
       </c>
-      <c r="T46" s="19" t="n">
+      <c r="T46" s="19">
         <v>2017</v>
       </c>
-      <c r="U46" s="19" t="n">
+      <c r="U46" s="19">
         <v>2018</v>
       </c>
-      <c r="V46" s="19" t="n">
+      <c r="V46" s="19">
         <v>2019</v>
       </c>
-      <c r="W46" s="19" t="n">
+      <c r="W46" s="19">
         <v>2020</v>
       </c>
       <c r="Y46" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="19" t="s">
         <v>30</v>
       </c>
@@ -5848,114 +6430,105 @@
       <c r="X47" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y47" s="20" t="n">
+      <c r="Y47" s="20">
         <v>0.9</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AI65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="11.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.16836734693878"/>
+    <col min="1" max="25" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="n">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="6">
         <v>2000</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="6">
         <v>2001</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>2002</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>2003</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>2004</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>2005</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>2006</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="6">
         <v>2007</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="6">
         <v>2008</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="6">
         <v>2009</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="6">
         <v>2010</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="6">
         <v>2011</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="6">
         <v>2012</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="6">
         <v>2013</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="6">
         <v>2014</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="6">
         <v>2015</v>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="6">
         <v>2016</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="6">
         <v>2017</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="6">
         <v>2018</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="V2" s="6">
         <v>2019</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="6">
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
@@ -5985,80 +6558,80 @@
       </c>
       <c r="Y3" s="16"/>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C8" s="6" t="n">
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="6">
         <v>2000</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="6">
         <v>2001</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="6">
         <v>2002</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="6">
         <v>2003</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="6">
         <v>2004</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="6">
         <v>2005</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="6">
         <v>2006</v>
       </c>
-      <c r="J8" s="6" t="n">
+      <c r="J8" s="6">
         <v>2007</v>
       </c>
-      <c r="K8" s="6" t="n">
+      <c r="K8" s="6">
         <v>2008</v>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="6">
         <v>2009</v>
       </c>
-      <c r="M8" s="6" t="n">
+      <c r="M8" s="6">
         <v>2010</v>
       </c>
-      <c r="N8" s="6" t="n">
+      <c r="N8" s="6">
         <v>2011</v>
       </c>
-      <c r="O8" s="6" t="n">
+      <c r="O8" s="6">
         <v>2012</v>
       </c>
-      <c r="P8" s="6" t="n">
+      <c r="P8" s="6">
         <v>2013</v>
       </c>
-      <c r="Q8" s="6" t="n">
+      <c r="Q8" s="6">
         <v>2014</v>
       </c>
-      <c r="R8" s="6" t="n">
+      <c r="R8" s="6">
         <v>2015</v>
       </c>
-      <c r="S8" s="6" t="n">
+      <c r="S8" s="6">
         <v>2016</v>
       </c>
-      <c r="T8" s="6" t="n">
+      <c r="T8" s="6">
         <v>2017</v>
       </c>
-      <c r="U8" s="6" t="n">
+      <c r="U8" s="6">
         <v>2018</v>
       </c>
-      <c r="V8" s="6" t="n">
+      <c r="V8" s="6">
         <v>2019</v>
       </c>
-      <c r="W8" s="6" t="n">
+      <c r="W8" s="6">
         <v>2020</v>
       </c>
       <c r="Y8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
@@ -6088,80 +6661,80 @@
       </c>
       <c r="Y9" s="16"/>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="6" t="n">
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="6">
         <v>2000</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="6">
         <v>2001</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="6">
         <v>2002</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="F14" s="6">
         <v>2003</v>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G14" s="6">
         <v>2004</v>
       </c>
-      <c r="H14" s="6" t="n">
+      <c r="H14" s="6">
         <v>2005</v>
       </c>
-      <c r="I14" s="6" t="n">
+      <c r="I14" s="6">
         <v>2006</v>
       </c>
-      <c r="J14" s="6" t="n">
+      <c r="J14" s="6">
         <v>2007</v>
       </c>
-      <c r="K14" s="6" t="n">
+      <c r="K14" s="6">
         <v>2008</v>
       </c>
-      <c r="L14" s="6" t="n">
+      <c r="L14" s="6">
         <v>2009</v>
       </c>
-      <c r="M14" s="6" t="n">
+      <c r="M14" s="6">
         <v>2010</v>
       </c>
-      <c r="N14" s="6" t="n">
+      <c r="N14" s="6">
         <v>2011</v>
       </c>
-      <c r="O14" s="6" t="n">
+      <c r="O14" s="6">
         <v>2012</v>
       </c>
-      <c r="P14" s="6" t="n">
+      <c r="P14" s="6">
         <v>2013</v>
       </c>
-      <c r="Q14" s="6" t="n">
+      <c r="Q14" s="6">
         <v>2014</v>
       </c>
-      <c r="R14" s="6" t="n">
+      <c r="R14" s="6">
         <v>2015</v>
       </c>
-      <c r="S14" s="6" t="n">
+      <c r="S14" s="6">
         <v>2016</v>
       </c>
-      <c r="T14" s="6" t="n">
+      <c r="T14" s="6">
         <v>2017</v>
       </c>
-      <c r="U14" s="6" t="n">
+      <c r="U14" s="6">
         <v>2018</v>
       </c>
-      <c r="V14" s="6" t="n">
+      <c r="V14" s="6">
         <v>2019</v>
       </c>
-      <c r="W14" s="6" t="n">
+      <c r="W14" s="6">
         <v>2020</v>
       </c>
       <c r="Y14" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>32</v>
       </c>
@@ -6191,80 +6764,80 @@
       </c>
       <c r="Y15" s="16"/>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="6" t="n">
+    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="6">
         <v>2000</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="6">
         <v>2001</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="6">
         <v>2002</v>
       </c>
-      <c r="F20" s="6" t="n">
+      <c r="F20" s="6">
         <v>2003</v>
       </c>
-      <c r="G20" s="6" t="n">
+      <c r="G20" s="6">
         <v>2004</v>
       </c>
-      <c r="H20" s="6" t="n">
+      <c r="H20" s="6">
         <v>2005</v>
       </c>
-      <c r="I20" s="6" t="n">
+      <c r="I20" s="6">
         <v>2006</v>
       </c>
-      <c r="J20" s="6" t="n">
+      <c r="J20" s="6">
         <v>2007</v>
       </c>
-      <c r="K20" s="6" t="n">
+      <c r="K20" s="6">
         <v>2008</v>
       </c>
-      <c r="L20" s="6" t="n">
+      <c r="L20" s="6">
         <v>2009</v>
       </c>
-      <c r="M20" s="6" t="n">
+      <c r="M20" s="6">
         <v>2010</v>
       </c>
-      <c r="N20" s="6" t="n">
+      <c r="N20" s="6">
         <v>2011</v>
       </c>
-      <c r="O20" s="6" t="n">
+      <c r="O20" s="6">
         <v>2012</v>
       </c>
-      <c r="P20" s="6" t="n">
+      <c r="P20" s="6">
         <v>2013</v>
       </c>
-      <c r="Q20" s="6" t="n">
+      <c r="Q20" s="6">
         <v>2014</v>
       </c>
-      <c r="R20" s="6" t="n">
+      <c r="R20" s="6">
         <v>2015</v>
       </c>
-      <c r="S20" s="6" t="n">
+      <c r="S20" s="6">
         <v>2016</v>
       </c>
-      <c r="T20" s="6" t="n">
+      <c r="T20" s="6">
         <v>2017</v>
       </c>
-      <c r="U20" s="6" t="n">
+      <c r="U20" s="6">
         <v>2018</v>
       </c>
-      <c r="V20" s="6" t="n">
+      <c r="V20" s="6">
         <v>2019</v>
       </c>
-      <c r="W20" s="6" t="n">
+      <c r="W20" s="6">
         <v>2020</v>
       </c>
       <c r="Y20" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>32</v>
       </c>
@@ -6294,80 +6867,80 @@
       </c>
       <c r="Y21" s="16"/>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="6" t="n">
+    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="6">
         <v>2000</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="6">
         <v>2001</v>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="E26" s="6">
         <v>2002</v>
       </c>
-      <c r="F26" s="6" t="n">
+      <c r="F26" s="6">
         <v>2003</v>
       </c>
-      <c r="G26" s="6" t="n">
+      <c r="G26" s="6">
         <v>2004</v>
       </c>
-      <c r="H26" s="6" t="n">
+      <c r="H26" s="6">
         <v>2005</v>
       </c>
-      <c r="I26" s="6" t="n">
+      <c r="I26" s="6">
         <v>2006</v>
       </c>
-      <c r="J26" s="6" t="n">
+      <c r="J26" s="6">
         <v>2007</v>
       </c>
-      <c r="K26" s="6" t="n">
+      <c r="K26" s="6">
         <v>2008</v>
       </c>
-      <c r="L26" s="6" t="n">
+      <c r="L26" s="6">
         <v>2009</v>
       </c>
-      <c r="M26" s="6" t="n">
+      <c r="M26" s="6">
         <v>2010</v>
       </c>
-      <c r="N26" s="6" t="n">
+      <c r="N26" s="6">
         <v>2011</v>
       </c>
-      <c r="O26" s="6" t="n">
+      <c r="O26" s="6">
         <v>2012</v>
       </c>
-      <c r="P26" s="6" t="n">
+      <c r="P26" s="6">
         <v>2013</v>
       </c>
-      <c r="Q26" s="6" t="n">
+      <c r="Q26" s="6">
         <v>2014</v>
       </c>
-      <c r="R26" s="6" t="n">
+      <c r="R26" s="6">
         <v>2015</v>
       </c>
-      <c r="S26" s="6" t="n">
+      <c r="S26" s="6">
         <v>2016</v>
       </c>
-      <c r="T26" s="6" t="n">
+      <c r="T26" s="6">
         <v>2017</v>
       </c>
-      <c r="U26" s="6" t="n">
+      <c r="U26" s="6">
         <v>2018</v>
       </c>
-      <c r="V26" s="6" t="n">
+      <c r="V26" s="6">
         <v>2019</v>
       </c>
-      <c r="W26" s="6" t="n">
+      <c r="W26" s="6">
         <v>2020</v>
       </c>
       <c r="Y26" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>32</v>
       </c>
@@ -6397,80 +6970,80 @@
       </c>
       <c r="Y27" s="16"/>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C32" s="6" t="n">
+    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="6">
         <v>2000</v>
       </c>
-      <c r="D32" s="6" t="n">
+      <c r="D32" s="6">
         <v>2001</v>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="E32" s="6">
         <v>2002</v>
       </c>
-      <c r="F32" s="6" t="n">
+      <c r="F32" s="6">
         <v>2003</v>
       </c>
-      <c r="G32" s="6" t="n">
+      <c r="G32" s="6">
         <v>2004</v>
       </c>
-      <c r="H32" s="6" t="n">
+      <c r="H32" s="6">
         <v>2005</v>
       </c>
-      <c r="I32" s="6" t="n">
+      <c r="I32" s="6">
         <v>2006</v>
       </c>
-      <c r="J32" s="6" t="n">
+      <c r="J32" s="6">
         <v>2007</v>
       </c>
-      <c r="K32" s="6" t="n">
+      <c r="K32" s="6">
         <v>2008</v>
       </c>
-      <c r="L32" s="6" t="n">
+      <c r="L32" s="6">
         <v>2009</v>
       </c>
-      <c r="M32" s="6" t="n">
+      <c r="M32" s="6">
         <v>2010</v>
       </c>
-      <c r="N32" s="6" t="n">
+      <c r="N32" s="6">
         <v>2011</v>
       </c>
-      <c r="O32" s="6" t="n">
+      <c r="O32" s="6">
         <v>2012</v>
       </c>
-      <c r="P32" s="6" t="n">
+      <c r="P32" s="6">
         <v>2013</v>
       </c>
-      <c r="Q32" s="6" t="n">
+      <c r="Q32" s="6">
         <v>2014</v>
       </c>
-      <c r="R32" s="6" t="n">
+      <c r="R32" s="6">
         <v>2015</v>
       </c>
-      <c r="S32" s="6" t="n">
+      <c r="S32" s="6">
         <v>2016</v>
       </c>
-      <c r="T32" s="6" t="n">
+      <c r="T32" s="6">
         <v>2017</v>
       </c>
-      <c r="U32" s="6" t="n">
+      <c r="U32" s="6">
         <v>2018</v>
       </c>
-      <c r="V32" s="6" t="n">
+      <c r="V32" s="6">
         <v>2019</v>
       </c>
-      <c r="W32" s="6" t="n">
+      <c r="W32" s="6">
         <v>2020</v>
       </c>
       <c r="Y32" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>32</v>
       </c>
@@ -6500,80 +7073,80 @@
       </c>
       <c r="Y33" s="16"/>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C38" s="6" t="n">
+    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="6">
         <v>2000</v>
       </c>
-      <c r="D38" s="6" t="n">
+      <c r="D38" s="6">
         <v>2001</v>
       </c>
-      <c r="E38" s="6" t="n">
+      <c r="E38" s="6">
         <v>2002</v>
       </c>
-      <c r="F38" s="6" t="n">
+      <c r="F38" s="6">
         <v>2003</v>
       </c>
-      <c r="G38" s="6" t="n">
+      <c r="G38" s="6">
         <v>2004</v>
       </c>
-      <c r="H38" s="6" t="n">
+      <c r="H38" s="6">
         <v>2005</v>
       </c>
-      <c r="I38" s="6" t="n">
+      <c r="I38" s="6">
         <v>2006</v>
       </c>
-      <c r="J38" s="6" t="n">
+      <c r="J38" s="6">
         <v>2007</v>
       </c>
-      <c r="K38" s="6" t="n">
+      <c r="K38" s="6">
         <v>2008</v>
       </c>
-      <c r="L38" s="6" t="n">
+      <c r="L38" s="6">
         <v>2009</v>
       </c>
-      <c r="M38" s="6" t="n">
+      <c r="M38" s="6">
         <v>2010</v>
       </c>
-      <c r="N38" s="6" t="n">
+      <c r="N38" s="6">
         <v>2011</v>
       </c>
-      <c r="O38" s="6" t="n">
+      <c r="O38" s="6">
         <v>2012</v>
       </c>
-      <c r="P38" s="6" t="n">
+      <c r="P38" s="6">
         <v>2013</v>
       </c>
-      <c r="Q38" s="6" t="n">
+      <c r="Q38" s="6">
         <v>2014</v>
       </c>
-      <c r="R38" s="6" t="n">
+      <c r="R38" s="6">
         <v>2015</v>
       </c>
-      <c r="S38" s="6" t="n">
+      <c r="S38" s="6">
         <v>2016</v>
       </c>
-      <c r="T38" s="6" t="n">
+      <c r="T38" s="6">
         <v>2017</v>
       </c>
-      <c r="U38" s="6" t="n">
+      <c r="U38" s="6">
         <v>2018</v>
       </c>
-      <c r="V38" s="6" t="n">
+      <c r="V38" s="6">
         <v>2019</v>
       </c>
-      <c r="W38" s="6" t="n">
+      <c r="W38" s="6">
         <v>2020</v>
       </c>
       <c r="Y38" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>32</v>
       </c>
@@ -6603,83 +7176,83 @@
       </c>
       <c r="Y39" s="16"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="19" t="n">
+    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="C44" s="19">
         <v>2000</v>
       </c>
-      <c r="D44" s="19" t="n">
+      <c r="D44" s="19">
         <v>2001</v>
       </c>
-      <c r="E44" s="19" t="n">
+      <c r="E44" s="19">
         <v>2002</v>
       </c>
-      <c r="F44" s="19" t="n">
+      <c r="F44" s="19">
         <v>2003</v>
       </c>
-      <c r="G44" s="19" t="n">
+      <c r="G44" s="19">
         <v>2004</v>
       </c>
-      <c r="H44" s="19" t="n">
+      <c r="H44" s="19">
         <v>2005</v>
       </c>
-      <c r="I44" s="19" t="n">
+      <c r="I44" s="19">
         <v>2006</v>
       </c>
-      <c r="J44" s="19" t="n">
+      <c r="J44" s="19">
         <v>2007</v>
       </c>
-      <c r="K44" s="19" t="n">
+      <c r="K44" s="19">
         <v>2008</v>
       </c>
-      <c r="L44" s="19" t="n">
+      <c r="L44" s="19">
         <v>2009</v>
       </c>
-      <c r="M44" s="19" t="n">
+      <c r="M44" s="19">
         <v>2010</v>
       </c>
-      <c r="N44" s="19" t="n">
+      <c r="N44" s="19">
         <v>2011</v>
       </c>
-      <c r="O44" s="19" t="n">
+      <c r="O44" s="19">
         <v>2012</v>
       </c>
-      <c r="P44" s="19" t="n">
+      <c r="P44" s="19">
         <v>2013</v>
       </c>
-      <c r="Q44" s="19" t="n">
+      <c r="Q44" s="19">
         <v>2014</v>
       </c>
-      <c r="R44" s="19" t="n">
+      <c r="R44" s="19">
         <v>2015</v>
       </c>
-      <c r="S44" s="19" t="n">
+      <c r="S44" s="19">
         <v>2016</v>
       </c>
-      <c r="T44" s="19" t="n">
+      <c r="T44" s="19">
         <v>2017</v>
       </c>
-      <c r="U44" s="19" t="n">
+      <c r="U44" s="19">
         <v>2018</v>
       </c>
-      <c r="V44" s="19" t="n">
+      <c r="V44" s="19">
         <v>2019</v>
       </c>
-      <c r="W44" s="19" t="n">
+      <c r="W44" s="19">
         <v>2020</v>
       </c>
       <c r="Y44" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
         <v>30</v>
       </c>
@@ -6709,80 +7282,80 @@
       </c>
       <c r="Y45" s="20"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="19" t="n">
+    <row r="50" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="C50" s="19">
         <v>2000</v>
       </c>
-      <c r="D50" s="19" t="n">
+      <c r="D50" s="19">
         <v>2001</v>
       </c>
-      <c r="E50" s="19" t="n">
+      <c r="E50" s="19">
         <v>2002</v>
       </c>
-      <c r="F50" s="19" t="n">
+      <c r="F50" s="19">
         <v>2003</v>
       </c>
-      <c r="G50" s="19" t="n">
+      <c r="G50" s="19">
         <v>2004</v>
       </c>
-      <c r="H50" s="19" t="n">
+      <c r="H50" s="19">
         <v>2005</v>
       </c>
-      <c r="I50" s="19" t="n">
+      <c r="I50" s="19">
         <v>2006</v>
       </c>
-      <c r="J50" s="19" t="n">
+      <c r="J50" s="19">
         <v>2007</v>
       </c>
-      <c r="K50" s="19" t="n">
+      <c r="K50" s="19">
         <v>2008</v>
       </c>
-      <c r="L50" s="19" t="n">
+      <c r="L50" s="19">
         <v>2009</v>
       </c>
-      <c r="M50" s="19" t="n">
+      <c r="M50" s="19">
         <v>2010</v>
       </c>
-      <c r="N50" s="19" t="n">
+      <c r="N50" s="19">
         <v>2011</v>
       </c>
-      <c r="O50" s="19" t="n">
+      <c r="O50" s="19">
         <v>2012</v>
       </c>
-      <c r="P50" s="19" t="n">
+      <c r="P50" s="19">
         <v>2013</v>
       </c>
-      <c r="Q50" s="19" t="n">
+      <c r="Q50" s="19">
         <v>2014</v>
       </c>
-      <c r="R50" s="19" t="n">
+      <c r="R50" s="19">
         <v>2015</v>
       </c>
-      <c r="S50" s="19" t="n">
+      <c r="S50" s="19">
         <v>2016</v>
       </c>
-      <c r="T50" s="19" t="n">
+      <c r="T50" s="19">
         <v>2017</v>
       </c>
-      <c r="U50" s="19" t="n">
+      <c r="U50" s="19">
         <v>2018</v>
       </c>
-      <c r="V50" s="19" t="n">
+      <c r="V50" s="19">
         <v>2019</v>
       </c>
-      <c r="W50" s="19" t="n">
+      <c r="W50" s="19">
         <v>2020</v>
       </c>
       <c r="Y50" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>30</v>
       </c>
@@ -6812,80 +7385,80 @@
       </c>
       <c r="Y51" s="20"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C56" s="19" t="n">
+    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="19">
         <v>2000</v>
       </c>
-      <c r="D56" s="19" t="n">
+      <c r="D56" s="19">
         <v>2001</v>
       </c>
-      <c r="E56" s="19" t="n">
+      <c r="E56" s="19">
         <v>2002</v>
       </c>
-      <c r="F56" s="19" t="n">
+      <c r="F56" s="19">
         <v>2003</v>
       </c>
-      <c r="G56" s="19" t="n">
+      <c r="G56" s="19">
         <v>2004</v>
       </c>
-      <c r="H56" s="19" t="n">
+      <c r="H56" s="19">
         <v>2005</v>
       </c>
-      <c r="I56" s="19" t="n">
+      <c r="I56" s="19">
         <v>2006</v>
       </c>
-      <c r="J56" s="19" t="n">
+      <c r="J56" s="19">
         <v>2007</v>
       </c>
-      <c r="K56" s="19" t="n">
+      <c r="K56" s="19">
         <v>2008</v>
       </c>
-      <c r="L56" s="19" t="n">
+      <c r="L56" s="19">
         <v>2009</v>
       </c>
-      <c r="M56" s="19" t="n">
+      <c r="M56" s="19">
         <v>2010</v>
       </c>
-      <c r="N56" s="19" t="n">
+      <c r="N56" s="19">
         <v>2011</v>
       </c>
-      <c r="O56" s="19" t="n">
+      <c r="O56" s="19">
         <v>2012</v>
       </c>
-      <c r="P56" s="19" t="n">
+      <c r="P56" s="19">
         <v>2013</v>
       </c>
-      <c r="Q56" s="19" t="n">
+      <c r="Q56" s="19">
         <v>2014</v>
       </c>
-      <c r="R56" s="19" t="n">
+      <c r="R56" s="19">
         <v>2015</v>
       </c>
-      <c r="S56" s="19" t="n">
+      <c r="S56" s="19">
         <v>2016</v>
       </c>
-      <c r="T56" s="19" t="n">
+      <c r="T56" s="19">
         <v>2017</v>
       </c>
-      <c r="U56" s="19" t="n">
+      <c r="U56" s="19">
         <v>2018</v>
       </c>
-      <c r="V56" s="19" t="n">
+      <c r="V56" s="19">
         <v>2019</v>
       </c>
-      <c r="W56" s="19" t="n">
+      <c r="W56" s="19">
         <v>2020</v>
       </c>
       <c r="Y56" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="19" t="s">
         <v>30</v>
       </c>
@@ -6915,110 +7488,110 @@
       </c>
       <c r="Y57" s="20"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="19" t="n">
+    <row r="62" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="C62" s="19">
         <v>2000</v>
       </c>
-      <c r="D62" s="19" t="n">
+      <c r="D62" s="19">
         <v>2001</v>
       </c>
-      <c r="E62" s="19" t="n">
+      <c r="E62" s="19">
         <v>2002</v>
       </c>
-      <c r="F62" s="19" t="n">
+      <c r="F62" s="19">
         <v>2003</v>
       </c>
-      <c r="G62" s="19" t="n">
+      <c r="G62" s="19">
         <v>2004</v>
       </c>
-      <c r="H62" s="19" t="n">
+      <c r="H62" s="19">
         <v>2005</v>
       </c>
-      <c r="I62" s="19" t="n">
+      <c r="I62" s="19">
         <v>2006</v>
       </c>
-      <c r="J62" s="19" t="n">
+      <c r="J62" s="19">
         <v>2007</v>
       </c>
-      <c r="K62" s="19" t="n">
+      <c r="K62" s="19">
         <v>2008</v>
       </c>
-      <c r="L62" s="19" t="n">
+      <c r="L62" s="19">
         <v>2009</v>
       </c>
-      <c r="M62" s="19" t="n">
+      <c r="M62" s="19">
         <v>2010</v>
       </c>
-      <c r="N62" s="19" t="n">
+      <c r="N62" s="19">
         <v>2011</v>
       </c>
-      <c r="O62" s="19" t="n">
+      <c r="O62" s="19">
         <v>2012</v>
       </c>
-      <c r="P62" s="19" t="n">
+      <c r="P62" s="19">
         <v>2013</v>
       </c>
-      <c r="Q62" s="19" t="n">
+      <c r="Q62" s="19">
         <v>2014</v>
       </c>
-      <c r="R62" s="19" t="n">
+      <c r="R62" s="19">
         <v>2015</v>
       </c>
-      <c r="S62" s="19" t="n">
+      <c r="S62" s="19">
         <v>2016</v>
       </c>
-      <c r="T62" s="19" t="n">
+      <c r="T62" s="19">
         <v>2017</v>
       </c>
-      <c r="U62" s="19" t="n">
+      <c r="U62" s="19">
         <v>2018</v>
       </c>
-      <c r="V62" s="19" t="n">
+      <c r="V62" s="19">
         <v>2019</v>
       </c>
-      <c r="W62" s="19" t="n">
+      <c r="W62" s="19">
         <v>2020</v>
       </c>
-      <c r="X62" s="19" t="n">
+      <c r="X62" s="19">
         <v>2021</v>
       </c>
-      <c r="Y62" s="19" t="n">
+      <c r="Y62" s="19">
         <v>2022</v>
       </c>
-      <c r="Z62" s="19" t="n">
+      <c r="Z62" s="19">
         <v>2023</v>
       </c>
-      <c r="AA62" s="19" t="n">
+      <c r="AA62" s="19">
         <v>2024</v>
       </c>
-      <c r="AB62" s="19" t="n">
+      <c r="AB62" s="19">
         <v>2025</v>
       </c>
-      <c r="AC62" s="19" t="n">
+      <c r="AC62" s="19">
         <v>2026</v>
       </c>
-      <c r="AD62" s="19" t="n">
+      <c r="AD62" s="19">
         <v>2027</v>
       </c>
-      <c r="AE62" s="19" t="n">
+      <c r="AE62" s="19">
         <v>2028</v>
       </c>
-      <c r="AF62" s="19" t="n">
+      <c r="AF62" s="19">
         <v>2029</v>
       </c>
-      <c r="AG62" s="19" t="n">
+      <c r="AG62" s="19">
         <v>2030</v>
       </c>
       <c r="AI62" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B63" s="19" t="s">
         <v>30</v>
       </c>
@@ -7056,112 +7629,104 @@
       <c r="AH63" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AI63" s="20" t="n">
+      <c r="AI63" s="20">
         <v>0.85</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.9234693877551"/>
+    <col min="1" max="1025" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="19" t="n">
+    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="C2" s="19">
         <v>2000</v>
       </c>
-      <c r="D2" s="19" t="n">
+      <c r="D2" s="19">
         <v>2001</v>
       </c>
-      <c r="E2" s="19" t="n">
+      <c r="E2" s="19">
         <v>2002</v>
       </c>
-      <c r="F2" s="19" t="n">
+      <c r="F2" s="19">
         <v>2003</v>
       </c>
-      <c r="G2" s="19" t="n">
+      <c r="G2" s="19">
         <v>2004</v>
       </c>
-      <c r="H2" s="19" t="n">
+      <c r="H2" s="19">
         <v>2005</v>
       </c>
-      <c r="I2" s="19" t="n">
+      <c r="I2" s="19">
         <v>2006</v>
       </c>
-      <c r="J2" s="19" t="n">
+      <c r="J2" s="19">
         <v>2007</v>
       </c>
-      <c r="K2" s="19" t="n">
+      <c r="K2" s="19">
         <v>2008</v>
       </c>
-      <c r="L2" s="19" t="n">
+      <c r="L2" s="19">
         <v>2009</v>
       </c>
-      <c r="M2" s="19" t="n">
+      <c r="M2" s="19">
         <v>2010</v>
       </c>
-      <c r="N2" s="19" t="n">
+      <c r="N2" s="19">
         <v>2011</v>
       </c>
-      <c r="O2" s="19" t="n">
+      <c r="O2" s="19">
         <v>2012</v>
       </c>
-      <c r="P2" s="19" t="n">
+      <c r="P2" s="19">
         <v>2013</v>
       </c>
-      <c r="Q2" s="19" t="n">
+      <c r="Q2" s="19">
         <v>2014</v>
       </c>
-      <c r="R2" s="19" t="n">
+      <c r="R2" s="19">
         <v>2015</v>
       </c>
-      <c r="S2" s="19" t="n">
+      <c r="S2" s="19">
         <v>2016</v>
       </c>
-      <c r="T2" s="19" t="n">
+      <c r="T2" s="19">
         <v>2017</v>
       </c>
-      <c r="U2" s="19" t="n">
+      <c r="U2" s="19">
         <v>2018</v>
       </c>
-      <c r="V2" s="19" t="n">
+      <c r="V2" s="19">
         <v>2019</v>
       </c>
-      <c r="W2" s="19" t="n">
+      <c r="W2" s="19">
         <v>2020</v>
       </c>
       <c r="Y2" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
@@ -7189,11 +7754,11 @@
       <c r="X3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="20" t="n">
+      <c r="Y3" s="20">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -7221,84 +7786,84 @@
       <c r="X4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="20" t="n">
+      <c r="Y4" s="20">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="19" t="n">
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="C9" s="19">
         <v>2000</v>
       </c>
-      <c r="D9" s="19" t="n">
+      <c r="D9" s="19">
         <v>2001</v>
       </c>
-      <c r="E9" s="19" t="n">
+      <c r="E9" s="19">
         <v>2002</v>
       </c>
-      <c r="F9" s="19" t="n">
+      <c r="F9" s="19">
         <v>2003</v>
       </c>
-      <c r="G9" s="19" t="n">
+      <c r="G9" s="19">
         <v>2004</v>
       </c>
-      <c r="H9" s="19" t="n">
+      <c r="H9" s="19">
         <v>2005</v>
       </c>
-      <c r="I9" s="19" t="n">
+      <c r="I9" s="19">
         <v>2006</v>
       </c>
-      <c r="J9" s="19" t="n">
+      <c r="J9" s="19">
         <v>2007</v>
       </c>
-      <c r="K9" s="19" t="n">
+      <c r="K9" s="19">
         <v>2008</v>
       </c>
-      <c r="L9" s="19" t="n">
+      <c r="L9" s="19">
         <v>2009</v>
       </c>
-      <c r="M9" s="19" t="n">
+      <c r="M9" s="19">
         <v>2010</v>
       </c>
-      <c r="N9" s="19" t="n">
+      <c r="N9" s="19">
         <v>2011</v>
       </c>
-      <c r="O9" s="19" t="n">
+      <c r="O9" s="19">
         <v>2012</v>
       </c>
-      <c r="P9" s="19" t="n">
+      <c r="P9" s="19">
         <v>2013</v>
       </c>
-      <c r="Q9" s="19" t="n">
+      <c r="Q9" s="19">
         <v>2014</v>
       </c>
-      <c r="R9" s="19" t="n">
+      <c r="R9" s="19">
         <v>2015</v>
       </c>
-      <c r="S9" s="19" t="n">
+      <c r="S9" s="19">
         <v>2016</v>
       </c>
-      <c r="T9" s="19" t="n">
+      <c r="T9" s="19">
         <v>2017</v>
       </c>
-      <c r="U9" s="19" t="n">
+      <c r="U9" s="19">
         <v>2018</v>
       </c>
-      <c r="V9" s="19" t="n">
+      <c r="V9" s="19">
         <v>2019</v>
       </c>
-      <c r="W9" s="19" t="n">
+      <c r="W9" s="19">
         <v>2020</v>
       </c>
       <c r="Y9" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
@@ -7326,11 +7891,11 @@
       <c r="X10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y10" s="20" t="n">
+      <c r="Y10" s="20">
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
@@ -7358,84 +7923,84 @@
       <c r="X11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="20" t="n">
+      <c r="Y11" s="20">
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="19" t="n">
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="C16" s="19">
         <v>2000</v>
       </c>
-      <c r="D16" s="19" t="n">
+      <c r="D16" s="19">
         <v>2001</v>
       </c>
-      <c r="E16" s="19" t="n">
+      <c r="E16" s="19">
         <v>2002</v>
       </c>
-      <c r="F16" s="19" t="n">
+      <c r="F16" s="19">
         <v>2003</v>
       </c>
-      <c r="G16" s="19" t="n">
+      <c r="G16" s="19">
         <v>2004</v>
       </c>
-      <c r="H16" s="19" t="n">
+      <c r="H16" s="19">
         <v>2005</v>
       </c>
-      <c r="I16" s="19" t="n">
+      <c r="I16" s="19">
         <v>2006</v>
       </c>
-      <c r="J16" s="19" t="n">
+      <c r="J16" s="19">
         <v>2007</v>
       </c>
-      <c r="K16" s="19" t="n">
+      <c r="K16" s="19">
         <v>2008</v>
       </c>
-      <c r="L16" s="19" t="n">
+      <c r="L16" s="19">
         <v>2009</v>
       </c>
-      <c r="M16" s="19" t="n">
+      <c r="M16" s="19">
         <v>2010</v>
       </c>
-      <c r="N16" s="19" t="n">
+      <c r="N16" s="19">
         <v>2011</v>
       </c>
-      <c r="O16" s="19" t="n">
+      <c r="O16" s="19">
         <v>2012</v>
       </c>
-      <c r="P16" s="19" t="n">
+      <c r="P16" s="19">
         <v>2013</v>
       </c>
-      <c r="Q16" s="19" t="n">
+      <c r="Q16" s="19">
         <v>2014</v>
       </c>
-      <c r="R16" s="19" t="n">
+      <c r="R16" s="19">
         <v>2015</v>
       </c>
-      <c r="S16" s="19" t="n">
+      <c r="S16" s="19">
         <v>2016</v>
       </c>
-      <c r="T16" s="19" t="n">
+      <c r="T16" s="19">
         <v>2017</v>
       </c>
-      <c r="U16" s="19" t="n">
+      <c r="U16" s="19">
         <v>2018</v>
       </c>
-      <c r="V16" s="19" t="n">
+      <c r="V16" s="19">
         <v>2019</v>
       </c>
-      <c r="W16" s="19" t="n">
+      <c r="W16" s="19">
         <v>2020</v>
       </c>
       <c r="Y16" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
@@ -7463,11 +8028,11 @@
       <c r="X17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y17" s="20" t="n">
+      <c r="Y17" s="20">
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
@@ -7495,84 +8060,84 @@
       <c r="X18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y18" s="20" t="n">
+      <c r="Y18" s="20">
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="19" t="n">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="C23" s="19">
         <v>2000</v>
       </c>
-      <c r="D23" s="19" t="n">
+      <c r="D23" s="19">
         <v>2001</v>
       </c>
-      <c r="E23" s="19" t="n">
+      <c r="E23" s="19">
         <v>2002</v>
       </c>
-      <c r="F23" s="19" t="n">
+      <c r="F23" s="19">
         <v>2003</v>
       </c>
-      <c r="G23" s="19" t="n">
+      <c r="G23" s="19">
         <v>2004</v>
       </c>
-      <c r="H23" s="19" t="n">
+      <c r="H23" s="19">
         <v>2005</v>
       </c>
-      <c r="I23" s="19" t="n">
+      <c r="I23" s="19">
         <v>2006</v>
       </c>
-      <c r="J23" s="19" t="n">
+      <c r="J23" s="19">
         <v>2007</v>
       </c>
-      <c r="K23" s="19" t="n">
+      <c r="K23" s="19">
         <v>2008</v>
       </c>
-      <c r="L23" s="19" t="n">
+      <c r="L23" s="19">
         <v>2009</v>
       </c>
-      <c r="M23" s="19" t="n">
+      <c r="M23" s="19">
         <v>2010</v>
       </c>
-      <c r="N23" s="19" t="n">
+      <c r="N23" s="19">
         <v>2011</v>
       </c>
-      <c r="O23" s="19" t="n">
+      <c r="O23" s="19">
         <v>2012</v>
       </c>
-      <c r="P23" s="19" t="n">
+      <c r="P23" s="19">
         <v>2013</v>
       </c>
-      <c r="Q23" s="19" t="n">
+      <c r="Q23" s="19">
         <v>2014</v>
       </c>
-      <c r="R23" s="19" t="n">
+      <c r="R23" s="19">
         <v>2015</v>
       </c>
-      <c r="S23" s="19" t="n">
+      <c r="S23" s="19">
         <v>2016</v>
       </c>
-      <c r="T23" s="19" t="n">
+      <c r="T23" s="19">
         <v>2017</v>
       </c>
-      <c r="U23" s="19" t="n">
+      <c r="U23" s="19">
         <v>2018</v>
       </c>
-      <c r="V23" s="19" t="n">
+      <c r="V23" s="19">
         <v>2019</v>
       </c>
-      <c r="W23" s="19" t="n">
+      <c r="W23" s="19">
         <v>2020</v>
       </c>
       <c r="Y23" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
@@ -7600,11 +8165,11 @@
       <c r="X24" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y24" s="20" t="n">
+      <c r="Y24" s="20">
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>16</v>
       </c>
@@ -7632,84 +8197,84 @@
       <c r="X25" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y25" s="20" t="n">
+      <c r="Y25" s="20">
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="19" t="n">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="C30" s="19">
         <v>2000</v>
       </c>
-      <c r="D30" s="19" t="n">
+      <c r="D30" s="19">
         <v>2001</v>
       </c>
-      <c r="E30" s="19" t="n">
+      <c r="E30" s="19">
         <v>2002</v>
       </c>
-      <c r="F30" s="19" t="n">
+      <c r="F30" s="19">
         <v>2003</v>
       </c>
-      <c r="G30" s="19" t="n">
+      <c r="G30" s="19">
         <v>2004</v>
       </c>
-      <c r="H30" s="19" t="n">
+      <c r="H30" s="19">
         <v>2005</v>
       </c>
-      <c r="I30" s="19" t="n">
+      <c r="I30" s="19">
         <v>2006</v>
       </c>
-      <c r="J30" s="19" t="n">
+      <c r="J30" s="19">
         <v>2007</v>
       </c>
-      <c r="K30" s="19" t="n">
+      <c r="K30" s="19">
         <v>2008</v>
       </c>
-      <c r="L30" s="19" t="n">
+      <c r="L30" s="19">
         <v>2009</v>
       </c>
-      <c r="M30" s="19" t="n">
+      <c r="M30" s="19">
         <v>2010</v>
       </c>
-      <c r="N30" s="19" t="n">
+      <c r="N30" s="19">
         <v>2011</v>
       </c>
-      <c r="O30" s="19" t="n">
+      <c r="O30" s="19">
         <v>2012</v>
       </c>
-      <c r="P30" s="19" t="n">
+      <c r="P30" s="19">
         <v>2013</v>
       </c>
-      <c r="Q30" s="19" t="n">
+      <c r="Q30" s="19">
         <v>2014</v>
       </c>
-      <c r="R30" s="19" t="n">
+      <c r="R30" s="19">
         <v>2015</v>
       </c>
-      <c r="S30" s="19" t="n">
+      <c r="S30" s="19">
         <v>2016</v>
       </c>
-      <c r="T30" s="19" t="n">
+      <c r="T30" s="19">
         <v>2017</v>
       </c>
-      <c r="U30" s="19" t="n">
+      <c r="U30" s="19">
         <v>2018</v>
       </c>
-      <c r="V30" s="19" t="n">
+      <c r="V30" s="19">
         <v>2019</v>
       </c>
-      <c r="W30" s="19" t="n">
+      <c r="W30" s="19">
         <v>2020</v>
       </c>
       <c r="Y30" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="19" t="s">
         <v>30</v>
       </c>
@@ -7737,84 +8302,84 @@
       <c r="X31" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y31" s="20" t="n">
+      <c r="Y31" s="20">
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="19" t="n">
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="C36" s="19">
         <v>2000</v>
       </c>
-      <c r="D36" s="19" t="n">
+      <c r="D36" s="19">
         <v>2001</v>
       </c>
-      <c r="E36" s="19" t="n">
+      <c r="E36" s="19">
         <v>2002</v>
       </c>
-      <c r="F36" s="19" t="n">
+      <c r="F36" s="19">
         <v>2003</v>
       </c>
-      <c r="G36" s="19" t="n">
+      <c r="G36" s="19">
         <v>2004</v>
       </c>
-      <c r="H36" s="19" t="n">
+      <c r="H36" s="19">
         <v>2005</v>
       </c>
-      <c r="I36" s="19" t="n">
+      <c r="I36" s="19">
         <v>2006</v>
       </c>
-      <c r="J36" s="19" t="n">
+      <c r="J36" s="19">
         <v>2007</v>
       </c>
-      <c r="K36" s="19" t="n">
+      <c r="K36" s="19">
         <v>2008</v>
       </c>
-      <c r="L36" s="19" t="n">
+      <c r="L36" s="19">
         <v>2009</v>
       </c>
-      <c r="M36" s="19" t="n">
+      <c r="M36" s="19">
         <v>2010</v>
       </c>
-      <c r="N36" s="19" t="n">
+      <c r="N36" s="19">
         <v>2011</v>
       </c>
-      <c r="O36" s="19" t="n">
+      <c r="O36" s="19">
         <v>2012</v>
       </c>
-      <c r="P36" s="19" t="n">
+      <c r="P36" s="19">
         <v>2013</v>
       </c>
-      <c r="Q36" s="19" t="n">
+      <c r="Q36" s="19">
         <v>2014</v>
       </c>
-      <c r="R36" s="19" t="n">
+      <c r="R36" s="19">
         <v>2015</v>
       </c>
-      <c r="S36" s="19" t="n">
+      <c r="S36" s="19">
         <v>2016</v>
       </c>
-      <c r="T36" s="19" t="n">
+      <c r="T36" s="19">
         <v>2017</v>
       </c>
-      <c r="U36" s="19" t="n">
+      <c r="U36" s="19">
         <v>2018</v>
       </c>
-      <c r="V36" s="19" t="n">
+      <c r="V36" s="19">
         <v>2019</v>
       </c>
-      <c r="W36" s="19" t="n">
+      <c r="W36" s="19">
         <v>2020</v>
       </c>
       <c r="Y36" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
         <v>30</v>
       </c>
@@ -7842,84 +8407,84 @@
       <c r="X37" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y37" s="23" t="n">
+      <c r="Y37" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="19" t="n">
+    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="C42" s="19">
         <v>2000</v>
       </c>
-      <c r="D42" s="19" t="n">
+      <c r="D42" s="19">
         <v>2001</v>
       </c>
-      <c r="E42" s="19" t="n">
+      <c r="E42" s="19">
         <v>2002</v>
       </c>
-      <c r="F42" s="19" t="n">
+      <c r="F42" s="19">
         <v>2003</v>
       </c>
-      <c r="G42" s="19" t="n">
+      <c r="G42" s="19">
         <v>2004</v>
       </c>
-      <c r="H42" s="19" t="n">
+      <c r="H42" s="19">
         <v>2005</v>
       </c>
-      <c r="I42" s="19" t="n">
+      <c r="I42" s="19">
         <v>2006</v>
       </c>
-      <c r="J42" s="19" t="n">
+      <c r="J42" s="19">
         <v>2007</v>
       </c>
-      <c r="K42" s="19" t="n">
+      <c r="K42" s="19">
         <v>2008</v>
       </c>
-      <c r="L42" s="19" t="n">
+      <c r="L42" s="19">
         <v>2009</v>
       </c>
-      <c r="M42" s="19" t="n">
+      <c r="M42" s="19">
         <v>2010</v>
       </c>
-      <c r="N42" s="19" t="n">
+      <c r="N42" s="19">
         <v>2011</v>
       </c>
-      <c r="O42" s="19" t="n">
+      <c r="O42" s="19">
         <v>2012</v>
       </c>
-      <c r="P42" s="19" t="n">
+      <c r="P42" s="19">
         <v>2013</v>
       </c>
-      <c r="Q42" s="19" t="n">
+      <c r="Q42" s="19">
         <v>2014</v>
       </c>
-      <c r="R42" s="19" t="n">
+      <c r="R42" s="19">
         <v>2015</v>
       </c>
-      <c r="S42" s="19" t="n">
+      <c r="S42" s="19">
         <v>2016</v>
       </c>
-      <c r="T42" s="19" t="n">
+      <c r="T42" s="19">
         <v>2017</v>
       </c>
-      <c r="U42" s="19" t="n">
+      <c r="U42" s="19">
         <v>2018</v>
       </c>
-      <c r="V42" s="19" t="n">
+      <c r="V42" s="19">
         <v>2019</v>
       </c>
-      <c r="W42" s="19" t="n">
+      <c r="W42" s="19">
         <v>2020</v>
       </c>
       <c r="Y42" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="19" t="s">
         <v>30</v>
       </c>
@@ -7947,114 +8512,105 @@
       <c r="X43" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y43" s="20" t="n">
+      <c r="Y43" s="20">
         <v>0.95</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I54" activeCellId="0" sqref="I54"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="11.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.16836734693878"/>
+    <col min="1" max="25" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="n">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="6">
         <v>2000</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="6">
         <v>2001</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>2002</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>2003</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>2004</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>2005</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>2006</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="6">
         <v>2007</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="6">
         <v>2008</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="6">
         <v>2009</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="6">
         <v>2010</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="6">
         <v>2011</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="6">
         <v>2012</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="6">
         <v>2013</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="6">
         <v>2014</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="6">
         <v>2015</v>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="6">
         <v>2016</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="6">
         <v>2017</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="6">
         <v>2018</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="V2" s="6">
         <v>2019</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="6">
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C3" s="7"/>
@@ -8081,13 +8637,13 @@
       <c r="X3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="24" t="n">
+      <c r="Y3" s="24">
         <v>100</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C4" s="7"/>
@@ -8114,86 +8670,86 @@
       <c r="X4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="24" t="n">
+      <c r="Y4" s="24">
         <v>100</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="6" t="n">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="6">
         <v>2000</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6">
         <v>2001</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="6">
         <v>2002</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="6">
         <v>2003</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="6">
         <v>2004</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="6">
         <v>2005</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>2006</v>
       </c>
-      <c r="J9" s="6" t="n">
+      <c r="J9" s="6">
         <v>2007</v>
       </c>
-      <c r="K9" s="6" t="n">
+      <c r="K9" s="6">
         <v>2008</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="6">
         <v>2009</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="6">
         <v>2010</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="6">
         <v>2011</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="O9" s="6">
         <v>2012</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="P9" s="6">
         <v>2013</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="Q9" s="6">
         <v>2014</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="R9" s="6">
         <v>2015</v>
       </c>
-      <c r="S9" s="6" t="n">
+      <c r="S9" s="6">
         <v>2016</v>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="T9" s="6">
         <v>2017</v>
       </c>
-      <c r="U9" s="6" t="n">
+      <c r="U9" s="6">
         <v>2018</v>
       </c>
-      <c r="V9" s="6" t="n">
+      <c r="V9" s="6">
         <v>2019</v>
       </c>
-      <c r="W9" s="6" t="n">
+      <c r="W9" s="6">
         <v>2020</v>
       </c>
       <c r="Y9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C10" s="7"/>
@@ -8220,14 +8776,14 @@
       <c r="X10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y10" s="24" t="n">
-        <f aca="false">0.2*3*20</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Y10" s="24">
+        <f>0.2*3*20</f>
+        <v>12.000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C11" s="7"/>
@@ -8254,87 +8810,87 @@
       <c r="X11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="24" t="n">
-        <f aca="false">0.1*3*20</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Y11" s="24">
+        <f>0.1*3*20</f>
+        <v>6.0000000000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="6" t="n">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="6">
         <v>2000</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="6">
         <v>2001</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="6">
         <v>2002</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="6">
         <v>2003</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="6">
         <v>2004</v>
       </c>
-      <c r="H16" s="6" t="n">
+      <c r="H16" s="6">
         <v>2005</v>
       </c>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="6">
         <v>2006</v>
       </c>
-      <c r="J16" s="6" t="n">
+      <c r="J16" s="6">
         <v>2007</v>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K16" s="6">
         <v>2008</v>
       </c>
-      <c r="L16" s="6" t="n">
+      <c r="L16" s="6">
         <v>2009</v>
       </c>
-      <c r="M16" s="6" t="n">
+      <c r="M16" s="6">
         <v>2010</v>
       </c>
-      <c r="N16" s="6" t="n">
+      <c r="N16" s="6">
         <v>2011</v>
       </c>
-      <c r="O16" s="6" t="n">
+      <c r="O16" s="6">
         <v>2012</v>
       </c>
-      <c r="P16" s="6" t="n">
+      <c r="P16" s="6">
         <v>2013</v>
       </c>
-      <c r="Q16" s="6" t="n">
+      <c r="Q16" s="6">
         <v>2014</v>
       </c>
-      <c r="R16" s="6" t="n">
+      <c r="R16" s="6">
         <v>2015</v>
       </c>
-      <c r="S16" s="6" t="n">
+      <c r="S16" s="6">
         <v>2016</v>
       </c>
-      <c r="T16" s="6" t="n">
+      <c r="T16" s="6">
         <v>2017</v>
       </c>
-      <c r="U16" s="6" t="n">
+      <c r="U16" s="6">
         <v>2018</v>
       </c>
-      <c r="V16" s="6" t="n">
+      <c r="V16" s="6">
         <v>2019</v>
       </c>
-      <c r="W16" s="6" t="n">
+      <c r="W16" s="6">
         <v>2020</v>
       </c>
       <c r="Y16" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C17" s="7"/>
@@ -8361,13 +8917,13 @@
       <c r="X17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y17" s="7" t="n">
+      <c r="Y17" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C18" s="7"/>
@@ -8394,86 +8950,86 @@
       <c r="X18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y18" s="7" t="n">
+      <c r="Y18" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="6" t="n">
+    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="6">
         <v>2000</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="6">
         <v>2001</v>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E23" s="6">
         <v>2002</v>
       </c>
-      <c r="F23" s="6" t="n">
+      <c r="F23" s="6">
         <v>2003</v>
       </c>
-      <c r="G23" s="6" t="n">
+      <c r="G23" s="6">
         <v>2004</v>
       </c>
-      <c r="H23" s="6" t="n">
+      <c r="H23" s="6">
         <v>2005</v>
       </c>
-      <c r="I23" s="6" t="n">
+      <c r="I23" s="6">
         <v>2006</v>
       </c>
-      <c r="J23" s="6" t="n">
+      <c r="J23" s="6">
         <v>2007</v>
       </c>
-      <c r="K23" s="6" t="n">
+      <c r="K23" s="6">
         <v>2008</v>
       </c>
-      <c r="L23" s="6" t="n">
+      <c r="L23" s="6">
         <v>2009</v>
       </c>
-      <c r="M23" s="6" t="n">
+      <c r="M23" s="6">
         <v>2010</v>
       </c>
-      <c r="N23" s="6" t="n">
+      <c r="N23" s="6">
         <v>2011</v>
       </c>
-      <c r="O23" s="6" t="n">
+      <c r="O23" s="6">
         <v>2012</v>
       </c>
-      <c r="P23" s="6" t="n">
+      <c r="P23" s="6">
         <v>2013</v>
       </c>
-      <c r="Q23" s="6" t="n">
+      <c r="Q23" s="6">
         <v>2014</v>
       </c>
-      <c r="R23" s="6" t="n">
+      <c r="R23" s="6">
         <v>2015</v>
       </c>
-      <c r="S23" s="6" t="n">
+      <c r="S23" s="6">
         <v>2016</v>
       </c>
-      <c r="T23" s="6" t="n">
+      <c r="T23" s="6">
         <v>2017</v>
       </c>
-      <c r="U23" s="6" t="n">
+      <c r="U23" s="6">
         <v>2018</v>
       </c>
-      <c r="V23" s="6" t="n">
+      <c r="V23" s="6">
         <v>2019</v>
       </c>
-      <c r="W23" s="6" t="n">
+      <c r="W23" s="6">
         <v>2020</v>
       </c>
       <c r="Y23" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C24" s="14"/>
@@ -8500,13 +9056,13 @@
       <c r="X24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y24" s="25" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Y24" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C25" s="14"/>
@@ -8533,86 +9089,86 @@
       <c r="X25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y25" s="25" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Y25" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C30" s="6" t="n">
+    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="6">
         <v>2000</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="6">
         <v>2001</v>
       </c>
-      <c r="E30" s="6" t="n">
+      <c r="E30" s="6">
         <v>2002</v>
       </c>
-      <c r="F30" s="6" t="n">
+      <c r="F30" s="6">
         <v>2003</v>
       </c>
-      <c r="G30" s="6" t="n">
+      <c r="G30" s="6">
         <v>2004</v>
       </c>
-      <c r="H30" s="6" t="n">
+      <c r="H30" s="6">
         <v>2005</v>
       </c>
-      <c r="I30" s="6" t="n">
+      <c r="I30" s="6">
         <v>2006</v>
       </c>
-      <c r="J30" s="6" t="n">
+      <c r="J30" s="6">
         <v>2007</v>
       </c>
-      <c r="K30" s="6" t="n">
+      <c r="K30" s="6">
         <v>2008</v>
       </c>
-      <c r="L30" s="6" t="n">
+      <c r="L30" s="6">
         <v>2009</v>
       </c>
-      <c r="M30" s="6" t="n">
+      <c r="M30" s="6">
         <v>2010</v>
       </c>
-      <c r="N30" s="6" t="n">
+      <c r="N30" s="6">
         <v>2011</v>
       </c>
-      <c r="O30" s="6" t="n">
+      <c r="O30" s="6">
         <v>2012</v>
       </c>
-      <c r="P30" s="6" t="n">
+      <c r="P30" s="6">
         <v>2013</v>
       </c>
-      <c r="Q30" s="6" t="n">
+      <c r="Q30" s="6">
         <v>2014</v>
       </c>
-      <c r="R30" s="6" t="n">
+      <c r="R30" s="6">
         <v>2015</v>
       </c>
-      <c r="S30" s="6" t="n">
+      <c r="S30" s="6">
         <v>2016</v>
       </c>
-      <c r="T30" s="6" t="n">
+      <c r="T30" s="6">
         <v>2017</v>
       </c>
-      <c r="U30" s="6" t="n">
+      <c r="U30" s="6">
         <v>2018</v>
       </c>
-      <c r="V30" s="6" t="n">
+      <c r="V30" s="6">
         <v>2019</v>
       </c>
-      <c r="W30" s="6" t="n">
+      <c r="W30" s="6">
         <v>2020</v>
       </c>
       <c r="Y30" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C31" s="14"/>
@@ -8639,13 +9195,13 @@
       <c r="X31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y31" s="14" t="n">
+      <c r="Y31" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C32" s="14"/>
@@ -8672,86 +9228,86 @@
       <c r="X32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y32" s="14" t="n">
+      <c r="Y32" s="14">
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C37" s="6" t="n">
+    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="6">
         <v>2000</v>
       </c>
-      <c r="D37" s="6" t="n">
+      <c r="D37" s="6">
         <v>2001</v>
       </c>
-      <c r="E37" s="6" t="n">
+      <c r="E37" s="6">
         <v>2002</v>
       </c>
-      <c r="F37" s="6" t="n">
+      <c r="F37" s="6">
         <v>2003</v>
       </c>
-      <c r="G37" s="6" t="n">
+      <c r="G37" s="6">
         <v>2004</v>
       </c>
-      <c r="H37" s="6" t="n">
+      <c r="H37" s="6">
         <v>2005</v>
       </c>
-      <c r="I37" s="6" t="n">
+      <c r="I37" s="6">
         <v>2006</v>
       </c>
-      <c r="J37" s="6" t="n">
+      <c r="J37" s="6">
         <v>2007</v>
       </c>
-      <c r="K37" s="6" t="n">
+      <c r="K37" s="6">
         <v>2008</v>
       </c>
-      <c r="L37" s="6" t="n">
+      <c r="L37" s="6">
         <v>2009</v>
       </c>
-      <c r="M37" s="6" t="n">
+      <c r="M37" s="6">
         <v>2010</v>
       </c>
-      <c r="N37" s="6" t="n">
+      <c r="N37" s="6">
         <v>2011</v>
       </c>
-      <c r="O37" s="6" t="n">
+      <c r="O37" s="6">
         <v>2012</v>
       </c>
-      <c r="P37" s="6" t="n">
+      <c r="P37" s="6">
         <v>2013</v>
       </c>
-      <c r="Q37" s="6" t="n">
+      <c r="Q37" s="6">
         <v>2014</v>
       </c>
-      <c r="R37" s="6" t="n">
+      <c r="R37" s="6">
         <v>2015</v>
       </c>
-      <c r="S37" s="6" t="n">
+      <c r="S37" s="6">
         <v>2016</v>
       </c>
-      <c r="T37" s="6" t="n">
+      <c r="T37" s="6">
         <v>2017</v>
       </c>
-      <c r="U37" s="6" t="n">
+      <c r="U37" s="6">
         <v>2018</v>
       </c>
-      <c r="V37" s="6" t="n">
+      <c r="V37" s="6">
         <v>2019</v>
       </c>
-      <c r="W37" s="6" t="n">
+      <c r="W37" s="6">
         <v>2020</v>
       </c>
       <c r="Y37" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C38" s="14"/>
@@ -8778,13 +9334,13 @@
       <c r="X38" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y38" s="26" t="n">
+      <c r="Y38" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="str">
-        <f aca="false">Populations!$C$4</f>
+        <f>Populations!$C$4</f>
         <v>F 15-49</v>
       </c>
       <c r="C39" s="14"/>
@@ -8811,86 +9367,86 @@
       <c r="X39" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y39" s="25" t="n">
+      <c r="Y39" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C44" s="6" t="n">
+    <row r="44" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="6">
         <v>2000</v>
       </c>
-      <c r="D44" s="6" t="n">
+      <c r="D44" s="6">
         <v>2001</v>
       </c>
-      <c r="E44" s="6" t="n">
+      <c r="E44" s="6">
         <v>2002</v>
       </c>
-      <c r="F44" s="6" t="n">
+      <c r="F44" s="6">
         <v>2003</v>
       </c>
-      <c r="G44" s="6" t="n">
+      <c r="G44" s="6">
         <v>2004</v>
       </c>
-      <c r="H44" s="6" t="n">
+      <c r="H44" s="6">
         <v>2005</v>
       </c>
-      <c r="I44" s="6" t="n">
+      <c r="I44" s="6">
         <v>2006</v>
       </c>
-      <c r="J44" s="6" t="n">
+      <c r="J44" s="6">
         <v>2007</v>
       </c>
-      <c r="K44" s="6" t="n">
+      <c r="K44" s="6">
         <v>2008</v>
       </c>
-      <c r="L44" s="6" t="n">
+      <c r="L44" s="6">
         <v>2009</v>
       </c>
-      <c r="M44" s="6" t="n">
+      <c r="M44" s="6">
         <v>2010</v>
       </c>
-      <c r="N44" s="6" t="n">
+      <c r="N44" s="6">
         <v>2011</v>
       </c>
-      <c r="O44" s="6" t="n">
+      <c r="O44" s="6">
         <v>2012</v>
       </c>
-      <c r="P44" s="6" t="n">
+      <c r="P44" s="6">
         <v>2013</v>
       </c>
-      <c r="Q44" s="6" t="n">
+      <c r="Q44" s="6">
         <v>2014</v>
       </c>
-      <c r="R44" s="6" t="n">
+      <c r="R44" s="6">
         <v>2015</v>
       </c>
-      <c r="S44" s="6" t="n">
+      <c r="S44" s="6">
         <v>2016</v>
       </c>
-      <c r="T44" s="6" t="n">
+      <c r="T44" s="6">
         <v>2017</v>
       </c>
-      <c r="U44" s="6" t="n">
+      <c r="U44" s="6">
         <v>2018</v>
       </c>
-      <c r="V44" s="6" t="n">
+      <c r="V44" s="6">
         <v>2019</v>
       </c>
-      <c r="W44" s="6" t="n">
+      <c r="W44" s="6">
         <v>2020</v>
       </c>
       <c r="Y44" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C45" s="14"/>
@@ -8917,86 +9473,86 @@
       <c r="X45" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y45" s="25" t="n">
+      <c r="Y45" s="25">
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C50" s="6" t="n">
+    <row r="50" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="6">
         <v>2000</v>
       </c>
-      <c r="D50" s="6" t="n">
+      <c r="D50" s="6">
         <v>2001</v>
       </c>
-      <c r="E50" s="6" t="n">
+      <c r="E50" s="6">
         <v>2002</v>
       </c>
-      <c r="F50" s="6" t="n">
+      <c r="F50" s="6">
         <v>2003</v>
       </c>
-      <c r="G50" s="6" t="n">
+      <c r="G50" s="6">
         <v>2004</v>
       </c>
-      <c r="H50" s="6" t="n">
+      <c r="H50" s="6">
         <v>2005</v>
       </c>
-      <c r="I50" s="6" t="n">
+      <c r="I50" s="6">
         <v>2006</v>
       </c>
-      <c r="J50" s="6" t="n">
+      <c r="J50" s="6">
         <v>2007</v>
       </c>
-      <c r="K50" s="6" t="n">
+      <c r="K50" s="6">
         <v>2008</v>
       </c>
-      <c r="L50" s="6" t="n">
+      <c r="L50" s="6">
         <v>2009</v>
       </c>
-      <c r="M50" s="6" t="n">
+      <c r="M50" s="6">
         <v>2010</v>
       </c>
-      <c r="N50" s="6" t="n">
+      <c r="N50" s="6">
         <v>2011</v>
       </c>
-      <c r="O50" s="6" t="n">
+      <c r="O50" s="6">
         <v>2012</v>
       </c>
-      <c r="P50" s="6" t="n">
+      <c r="P50" s="6">
         <v>2013</v>
       </c>
-      <c r="Q50" s="6" t="n">
+      <c r="Q50" s="6">
         <v>2014</v>
       </c>
-      <c r="R50" s="6" t="n">
+      <c r="R50" s="6">
         <v>2015</v>
       </c>
-      <c r="S50" s="6" t="n">
+      <c r="S50" s="6">
         <v>2016</v>
       </c>
-      <c r="T50" s="6" t="n">
+      <c r="T50" s="6">
         <v>2017</v>
       </c>
-      <c r="U50" s="6" t="n">
+      <c r="U50" s="6">
         <v>2018</v>
       </c>
-      <c r="V50" s="6" t="n">
+      <c r="V50" s="6">
         <v>2019</v>
       </c>
-      <c r="W50" s="6" t="n">
+      <c r="W50" s="6">
         <v>2020</v>
       </c>
       <c r="Y50" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="str">
-        <f aca="false">Populations!$C$3</f>
+        <f>Populations!$C$3</f>
         <v>M 15-49</v>
       </c>
       <c r="C51" s="27"/>
@@ -9023,19 +9579,14 @@
       <c r="X51" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y51" s="28" t="n">
+      <c r="Y51" s="28">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -515,12 +515,19 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -611,8 +618,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,6 +677,12 @@
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF18C1FF"/>
+        <bgColor rgb="FF18C1FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -686,162 +708,168 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="120">
+  <cellStyleXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -850,71 +878,74 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="4" fontId="8" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="4" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="117"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="117" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="117" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="117" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="1" xfId="117" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="117"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="117" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="117" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="117" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="6" borderId="1" xfId="117" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="4" fontId="16" fillId="9" borderId="1" xfId="121" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="120">
+  <cellStyles count="126">
     <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Comma 2 2" xfId="118"/>
     <cellStyle name="Comma 2 3" xfId="11"/>
+    <cellStyle name="Comma 2 4" xfId="125"/>
     <cellStyle name="Comma 3" xfId="9"/>
+    <cellStyle name="Comma 3 2" xfId="123"/>
     <cellStyle name="Comma 4" xfId="113"/>
     <cellStyle name="Comma 5" xfId="111"/>
     <cellStyle name="Explanatory Text 2" xfId="4"/>
@@ -1024,12 +1055,16 @@
     <cellStyle name="Normal 3 2" xfId="117"/>
     <cellStyle name="Normal 3 3" xfId="13"/>
     <cellStyle name="Normal 4" xfId="8"/>
+    <cellStyle name="Normal 4 2" xfId="122"/>
     <cellStyle name="Normal 5" xfId="7"/>
+    <cellStyle name="Normal 5 2" xfId="121"/>
     <cellStyle name="Normal 6" xfId="112"/>
     <cellStyle name="Normal 7" xfId="6"/>
+    <cellStyle name="Normal 8" xfId="120"/>
     <cellStyle name="Percent 2" xfId="3"/>
     <cellStyle name="Percent 2 2" xfId="119"/>
     <cellStyle name="Percent 2 3" xfId="10"/>
+    <cellStyle name="Percent 2 4" xfId="124"/>
     <cellStyle name="Percent 3" xfId="114"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2898,15 +2933,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48"/>
+      <c r="A2" s="53"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48"/>
+      <c r="A3" s="53"/>
     </row>
     <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -3624,7 +3659,7 @@
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E9"/>
+      <selection activeCell="C15" sqref="C15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3636,129 +3671,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="52" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="52">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="52">
         <v>1E-4</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="52">
         <v>1.4E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="52" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="52">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="52">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="52">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="52" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="52">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="52">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="52">
         <v>2.8E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="52">
         <v>1.38E-2</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="52">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="52">
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="52">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="52">
         <v>6.3E-3</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="52">
         <v>2.4E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="52" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="52">
         <v>0.36699999999999999</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="52">
         <v>0.29399999999999998</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="52">
         <v>0.44</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="52" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="52">
         <v>0.20499999999999999</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="52">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="52">
         <v>0.27</v>
       </c>
     </row>
@@ -3791,14 +3826,14 @@
       <c r="B15" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="45">
-        <v>26.03</v>
-      </c>
-      <c r="D15" s="45">
-        <v>2</v>
-      </c>
-      <c r="E15" s="45">
-        <v>48.02</v>
+      <c r="C15" s="54">
+        <v>5.6</v>
+      </c>
+      <c r="D15" s="54">
+        <v>3.3</v>
+      </c>
+      <c r="E15" s="54">
+        <v>9.1</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="988" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="11360" tabRatio="988" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,12 @@
     <sheet name="Partnerships &amp; transitions" sheetId="11" r:id="rId11"/>
     <sheet name="Constants" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -128,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="124">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -277,12 +282,6 @@
     <t>People on ART with viral suppression (%)</t>
   </si>
   <si>
-    <t>Linkage to care from diagnosis within 1 month (%)</t>
-  </si>
-  <si>
-    <t>Linkage to care rate (%/year)</t>
-  </si>
-  <si>
     <t>Percentage of people who receive ART in the year who stop taking ART (%/year)</t>
   </si>
   <si>
@@ -503,6 +502,9 @@
   </si>
   <si>
     <t>People lost to follow up who are still in care (%)</t>
+  </si>
+  <si>
+    <t>Average time taken to be linked to care (years)</t>
   </si>
 </sst>
 </file>
@@ -515,7 +517,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -627,6 +629,22 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -708,7 +726,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="126">
+  <cellStyleXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -835,8 +853,10 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -934,12 +954,15 @@
     <xf numFmtId="10" fontId="4" fillId="6" borderId="1" xfId="117" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="4" fontId="16" fillId="9" borderId="1" xfId="121" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="16" fillId="9" borderId="1" xfId="121" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="126">
+  <cellStyles count="128">
     <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Comma 2 2" xfId="118"/>
     <cellStyle name="Comma 2 3" xfId="11"/>
@@ -950,6 +973,7 @@
     <cellStyle name="Comma 5" xfId="111"/>
     <cellStyle name="Explanatory Text 2" xfId="4"/>
     <cellStyle name="Explanatory Text 3" xfId="115"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="22"/>
     <cellStyle name="Followed Hyperlink 11" xfId="23"/>
     <cellStyle name="Followed Hyperlink 12" xfId="24"/>
@@ -1047,6 +1071,7 @@
     <cellStyle name="Followed Hyperlink 96" xfId="108"/>
     <cellStyle name="Followed Hyperlink 97" xfId="109"/>
     <cellStyle name="Followed Hyperlink 98" xfId="110"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5"/>
     <cellStyle name="Normal 2 2" xfId="116"/>
@@ -2922,39 +2947,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="121.85546875"/>
-    <col min="2" max="1025" width="11.85546875"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
+      <c r="A2" s="55"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="55"/>
+    </row>
+    <row r="4" spans="1:1" ht="14">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="67.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="14">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="140">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -2965,6 +2986,11 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2972,21 +2998,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="25" width="11.85546875"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="13.5" customHeight="1">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -3054,7 +3077,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="B3" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3087,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1">
       <c r="B4" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3120,12 +3143,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="13.5" customHeight="1">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -3193,7 +3216,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="B10" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3226,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1">
       <c r="B11" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3259,12 +3282,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="13.5" customHeight="1">
       <c r="C16" s="5">
         <v>2000</v>
       </c>
@@ -3332,7 +3355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" ht="13.5" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
@@ -3367,6 +3390,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3374,25 +3402,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="11.85546875"/>
-    <col min="3" max="4" width="17.140625"/>
-    <col min="5" max="6" width="11.85546875"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13.5" customHeight="1">
       <c r="C2" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3402,7 +3425,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="13.5" customHeight="1">
       <c r="B3" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3412,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="13.5" customHeight="1">
       <c r="B4" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3420,26 +3443,26 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13.5" customHeight="1">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="13.5" customHeight="1">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="13.5" customHeight="1">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="13.5" customHeight="1">
       <c r="C9" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3449,7 +3472,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.5" customHeight="1">
       <c r="B10" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3459,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="13.5" customHeight="1">
       <c r="B11" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3467,26 +3490,26 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="13.5" customHeight="1">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="13.5" customHeight="1">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="13.5" customHeight="1">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="13.5" customHeight="1">
       <c r="C16" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3496,7 +3519,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="13.5" customHeight="1">
       <c r="B17" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3504,7 +3527,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="13.5" customHeight="1">
       <c r="B18" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3512,26 +3535,26 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="13.5" customHeight="1">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="13.5" customHeight="1">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="13.5" customHeight="1">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="13.5" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="13.5" customHeight="1">
       <c r="C23" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3541,7 +3564,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="13.5" customHeight="1">
       <c r="B24" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3549,7 +3572,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="13.5" customHeight="1">
       <c r="B25" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3557,14 +3580,14 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="13.5" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="13.5" customHeight="1">
       <c r="C30" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3574,7 +3597,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="13.5" customHeight="1">
       <c r="B31" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3582,14 +3605,14 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="35" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="13.5" customHeight="1">
       <c r="C36" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3599,7 +3622,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="13.5" customHeight="1">
       <c r="B37" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3607,7 +3630,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="13.5" customHeight="1">
       <c r="B38" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3615,14 +3638,14 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="13.5" customHeight="1">
       <c r="C43" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3632,7 +3655,7 @@
         <v>F 15-49</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="13.5" customHeight="1">
       <c r="B44" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -3640,7 +3663,7 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="13.5" customHeight="1">
       <c r="B45" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -3651,6 +3674,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3658,28 +3686,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="43"/>
-    <col min="2" max="2" width="55.140625" style="43"/>
-    <col min="3" max="1025" width="11.85546875" style="43"/>
-    <col min="1026" max="16384" width="9.140625" style="43"/>
+    <col min="1" max="16384" width="8.83203125" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1">
       <c r="A1" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
     </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
       <c r="C2" s="49" t="s">
@@ -3692,10 +3717,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1">
       <c r="A3" s="48"/>
       <c r="B3" s="51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="52">
         <v>4.0000000000000002E-4</v>
@@ -3707,10 +3732,10 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
       <c r="A4" s="48"/>
       <c r="B4" s="51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="52">
         <v>8.0000000000000004E-4</v>
@@ -3722,10 +3747,10 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="52">
         <v>1.1000000000000001E-3</v>
@@ -3737,10 +3762,10 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1">
       <c r="A6" s="48"/>
       <c r="B6" s="51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="52">
         <v>1.38E-2</v>
@@ -3752,10 +3777,10 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1">
       <c r="A7" s="48"/>
       <c r="B7" s="51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="52">
         <v>8.0000000000000002E-3</v>
@@ -3767,10 +3792,10 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1">
       <c r="A8" s="48"/>
       <c r="B8" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" s="52">
         <v>0.36699999999999999</v>
@@ -3782,10 +3807,10 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1">
       <c r="A9" s="48"/>
       <c r="B9" s="51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="52">
         <v>0.20499999999999999</v>
@@ -3797,21 +3822,21 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1">
       <c r="B10" s="41"/>
     </row>
-    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="13.5" customHeight="1">
       <c r="B11" s="41"/>
     </row>
-    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="13.5" customHeight="1">
       <c r="B12" s="41"/>
     </row>
-    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13.5" customHeight="1">
       <c r="A13" s="38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.5" customHeight="1">
       <c r="C14" s="39" t="s">
         <v>22</v>
       </c>
@@ -3822,23 +3847,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="13.5" customHeight="1">
       <c r="B15" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="54">
+        <v>81</v>
+      </c>
+      <c r="C15" s="53">
         <v>5.6</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="53">
         <v>3.3</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="53">
         <v>9.1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="13.5" customHeight="1">
       <c r="B16" s="40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C16" s="45">
         <v>1</v>
@@ -3850,9 +3875,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1">
       <c r="B17" s="40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17" s="45">
         <v>1</v>
@@ -3864,9 +3889,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1">
       <c r="B18" s="40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" s="45">
         <v>1</v>
@@ -3878,9 +3903,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1">
       <c r="B19" s="40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C19" s="45">
         <v>3.49</v>
@@ -3892,9 +3917,9 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1">
       <c r="B20" s="40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C20" s="45">
         <v>7.17</v>
@@ -3906,21 +3931,21 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1">
       <c r="B21" s="41"/>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1">
       <c r="B22" s="41"/>
     </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1">
       <c r="B23" s="41"/>
     </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="13.5" customHeight="1">
       <c r="A24" s="38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13.5" customHeight="1">
       <c r="C25" s="39" t="s">
         <v>22</v>
       </c>
@@ -3931,9 +3956,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1">
       <c r="B26" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C26" s="46">
         <v>4.1399999999999997</v>
@@ -3945,9 +3970,9 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1">
       <c r="B27" s="40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C27" s="46">
         <v>1.05</v>
@@ -3959,9 +3984,9 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1">
       <c r="B28" s="40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C28" s="46">
         <v>0.33</v>
@@ -3973,9 +3998,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1">
       <c r="B29" s="40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29" s="46">
         <v>0.27</v>
@@ -3987,9 +4012,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="13.5" customHeight="1">
       <c r="B30" s="40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C30" s="46">
         <v>0.67</v>
@@ -4001,25 +4026,25 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1">
       <c r="B31" s="42"/>
       <c r="C31" s="41"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
     </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="13.5" customHeight="1">
       <c r="B32" s="41"/>
     </row>
-    <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.5" customHeight="1">
       <c r="B33" s="41"/>
     </row>
-    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="13.5" customHeight="1">
       <c r="A34" s="38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="13.5" customHeight="1">
       <c r="C35" s="39" t="s">
         <v>22</v>
       </c>
@@ -4030,9 +4055,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="13.5" customHeight="1">
       <c r="B36" s="40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C36" s="46">
         <v>0.45</v>
@@ -4044,9 +4069,9 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="13.5" customHeight="1">
       <c r="B37" s="40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C37" s="46">
         <v>0.7</v>
@@ -4058,9 +4083,9 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="13.5" customHeight="1">
       <c r="B38" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C38" s="46">
         <v>0.47</v>
@@ -4072,9 +4097,9 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="13.5" customHeight="1">
       <c r="B39" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C39" s="46">
         <v>1.52</v>
@@ -4086,21 +4111,21 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="13.5" customHeight="1">
       <c r="B40" s="41"/>
     </row>
-    <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="13.5" customHeight="1">
       <c r="B41" s="41"/>
     </row>
-    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="13.5" customHeight="1">
       <c r="B42" s="41"/>
     </row>
-    <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="13.5" customHeight="1">
       <c r="A43" s="38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="13.5" customHeight="1">
       <c r="C44" s="39" t="s">
         <v>22</v>
       </c>
@@ -4111,9 +4136,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="13.5" customHeight="1">
       <c r="B45" s="40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C45" s="44">
         <v>3.5999999999999999E-3</v>
@@ -4125,9 +4150,9 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="13.5" customHeight="1">
       <c r="B46" s="40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" s="44">
         <v>3.5999999999999999E-3</v>
@@ -4139,9 +4164,9 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="13.5" customHeight="1">
       <c r="B47" s="40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C47" s="44">
         <v>5.7999999999999996E-3</v>
@@ -4153,9 +4178,9 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="13.5" customHeight="1">
       <c r="B48" s="40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C48" s="44">
         <v>8.8000000000000005E-3</v>
@@ -4167,9 +4192,9 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="B49" s="40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C49" s="44">
         <v>5.8999999999999997E-2</v>
@@ -4181,9 +4206,9 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="13.5" customHeight="1">
       <c r="B50" s="40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C50" s="44">
         <v>0.32300000000000001</v>
@@ -4195,9 +4220,9 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="13.5" customHeight="1">
       <c r="B51" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C51" s="44">
         <v>0.23</v>
@@ -4209,9 +4234,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="13.5" customHeight="1">
       <c r="B52" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C52" s="44">
         <v>2.17</v>
@@ -4223,21 +4248,21 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="13.5" customHeight="1">
       <c r="B53" s="41"/>
     </row>
-    <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="13.5" customHeight="1">
       <c r="B54" s="41"/>
     </row>
-    <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="13.5" customHeight="1">
       <c r="B55" s="41"/>
     </row>
-    <row r="56" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="13.5" customHeight="1">
       <c r="A56" s="38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="13.5" customHeight="1">
       <c r="C57" s="39" t="s">
         <v>22</v>
       </c>
@@ -4248,9 +4273,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="13.5" customHeight="1">
       <c r="B58" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C58" s="46">
         <v>0.95</v>
@@ -4265,9 +4290,9 @@
       <c r="H58" s="47"/>
       <c r="I58" s="47"/>
     </row>
-    <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="13.5" customHeight="1">
       <c r="B59" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C59" s="46">
         <v>0.57999999999999996</v>
@@ -4282,9 +4307,9 @@
       <c r="H59" s="47"/>
       <c r="I59" s="47"/>
     </row>
-    <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="13.5" customHeight="1">
       <c r="B60" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C60" s="46">
         <v>0</v>
@@ -4299,9 +4324,9 @@
       <c r="H60" s="47"/>
       <c r="I60" s="47"/>
     </row>
-    <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="13.5" customHeight="1">
       <c r="B61" s="40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C61" s="46">
         <v>2.65</v>
@@ -4316,9 +4341,9 @@
       <c r="H61" s="47"/>
       <c r="I61" s="47"/>
     </row>
-    <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="13.5" customHeight="1">
       <c r="B62" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C62" s="46">
         <v>0.54</v>
@@ -4333,9 +4358,9 @@
       <c r="H62" s="47"/>
       <c r="I62" s="47"/>
     </row>
-    <row r="63" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="13.5" customHeight="1">
       <c r="B63" s="40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C63" s="46">
         <v>0.9</v>
@@ -4350,9 +4375,9 @@
       <c r="H63" s="47"/>
       <c r="I63" s="47"/>
     </row>
-    <row r="64" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="13.5" customHeight="1">
       <c r="B64" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C64" s="46">
         <v>0.73</v>
@@ -4367,9 +4392,9 @@
       <c r="H64" s="47"/>
       <c r="I64" s="47"/>
     </row>
-    <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="13.5" customHeight="1">
       <c r="B65" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C65" s="46">
         <v>0.5</v>
@@ -4384,9 +4409,9 @@
       <c r="H65" s="47"/>
       <c r="I65" s="47"/>
     </row>
-    <row r="66" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="13.5" customHeight="1">
       <c r="B66" s="40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C66" s="46">
         <v>0.92</v>
@@ -4398,19 +4423,19 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="13.5" customHeight="1">
       <c r="B67" s="41"/>
     </row>
-    <row r="70" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="13.5" customHeight="1">
       <c r="A70" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B70" s="36"/>
       <c r="C70" s="36"/>
       <c r="D70" s="36"/>
       <c r="E70" s="36"/>
     </row>
-    <row r="71" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="13.5" customHeight="1">
       <c r="A71" s="36"/>
       <c r="B71" s="36"/>
       <c r="C71" s="30" t="s">
@@ -4423,10 +4448,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="13.5" customHeight="1">
       <c r="A72" s="36"/>
       <c r="B72" s="31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C72" s="37">
         <v>0.4</v>
@@ -4438,10 +4463,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="13.5" customHeight="1">
       <c r="A73" s="36"/>
       <c r="B73" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C73" s="37">
         <v>0.4</v>
@@ -4453,10 +4478,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="13.5" customHeight="1">
       <c r="A74" s="36"/>
       <c r="B74" s="31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C74" s="37">
         <v>0.4</v>
@@ -4468,37 +4493,37 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="13.5" customHeight="1">
       <c r="A75" s="28"/>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
       <c r="D75" s="28"/>
       <c r="E75" s="28"/>
     </row>
-    <row r="76" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="13.5" customHeight="1">
       <c r="A76" s="28"/>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
       <c r="D76" s="28"/>
       <c r="E76" s="28"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15" customHeight="1">
       <c r="A77" s="28"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
       <c r="E77" s="28"/>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15" customHeight="1">
       <c r="A78" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
       <c r="E78" s="28"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="28"/>
       <c r="B79" s="28"/>
       <c r="C79" s="33" t="s">
@@ -4511,10 +4536,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="28"/>
       <c r="B80" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C80" s="35">
         <v>0.14599999999999999</v>
@@ -4526,10 +4551,10 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="28"/>
       <c r="B81" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C81" s="35">
         <v>8.0000000000000002E-3</v>
@@ -4541,10 +4566,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="28"/>
       <c r="B82" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C82" s="35">
         <v>0.02</v>
@@ -4556,10 +4581,10 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="28"/>
       <c r="B83" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C83" s="35">
         <v>7.0000000000000007E-2</v>
@@ -4571,10 +4596,10 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="13.5" customHeight="1">
       <c r="A84" s="28"/>
       <c r="B84" s="34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C84" s="35">
         <v>0.26500000000000001</v>
@@ -4586,10 +4611,10 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="13.5" customHeight="1">
       <c r="A85" s="28"/>
       <c r="B85" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C85" s="35">
         <v>0.54700000000000004</v>
@@ -4601,10 +4626,10 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="28"/>
       <c r="B86" s="34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C86" s="35">
         <v>5.2999999999999999E-2</v>
@@ -4618,7 +4643,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4626,20 +4656,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="11.85546875"/>
-    <col min="3" max="3" width="21.140625"/>
-    <col min="4" max="4" width="55.140625"/>
-    <col min="5" max="6" width="11.85546875"/>
-    <col min="7" max="7" width="17.140625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4647,7 +4670,7 @@
       <c r="D1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="13.5" customHeight="1">
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
@@ -4673,7 +4696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="13.5" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -4702,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -4734,6 +4757,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4741,21 +4769,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="26" width="11.85546875"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1">
       <c r="D2" s="5">
         <v>2000</v>
       </c>
@@ -4823,7 +4848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1">
       <c r="B3" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4857,7 +4882,7 @@
       </c>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="B4" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4899,7 +4924,7 @@
       </c>
       <c r="Z4" s="9"/>
     </row>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -4933,7 +4958,7 @@
       </c>
       <c r="Z5" s="9"/>
     </row>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -4967,7 +4992,7 @@
       </c>
       <c r="Z7" s="9"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5009,7 +5034,7 @@
       </c>
       <c r="Z8" s="9"/>
     </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5047,6 +5072,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5054,21 +5084,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="26" width="11.85546875"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1">
       <c r="D2" s="5">
         <v>2000</v>
       </c>
@@ -5136,7 +5163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1">
       <c r="B3" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5170,7 +5197,7 @@
       </c>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="B4" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5210,7 +5237,7 @@
       </c>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5244,7 +5271,7 @@
       </c>
       <c r="Z5" s="11"/>
     </row>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5278,7 +5305,7 @@
       </c>
       <c r="Z7" s="11"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5318,7 +5345,7 @@
       </c>
       <c r="Z8" s="11"/>
     </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5356,6 +5383,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5363,21 +5395,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="25" width="11.85546875"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -5445,7 +5474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="B3" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5480,7 +5509,7 @@
       </c>
       <c r="Y3" s="11"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1">
       <c r="B4" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5515,12 +5544,12 @@
       </c>
       <c r="Y4" s="11"/>
     </row>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -5588,7 +5617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="B10" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5621,7 +5650,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1">
       <c r="B11" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5654,12 +5683,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1">
       <c r="C16" s="5">
         <v>2000</v>
       </c>
@@ -5727,7 +5756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" ht="13.5" customHeight="1">
       <c r="B17" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5760,7 +5789,7 @@
       </c>
       <c r="Y17" s="11"/>
     </row>
-    <row r="18" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" ht="13.5" customHeight="1">
       <c r="B18" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5798,6 +5827,11 @@
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5805,21 +5839,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="25" width="11.85546875"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -5887,7 +5918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="B3" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -5920,7 +5951,7 @@
       </c>
       <c r="Y3" s="13"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1">
       <c r="B4" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -5953,12 +5984,12 @@
       </c>
       <c r="Y4" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -6026,7 +6057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
@@ -6058,12 +6089,12 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="13.5" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1">
       <c r="C15" s="5">
         <v>2000</v>
       </c>
@@ -6131,7 +6162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -6171,12 +6202,12 @@
       </c>
       <c r="Y16" s="6"/>
     </row>
-    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="13.5" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="13.5" customHeight="1">
       <c r="C21" s="5">
         <v>2000</v>
       </c>
@@ -6244,7 +6275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="13.5" customHeight="1">
       <c r="B22" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -6277,7 +6308,7 @@
       </c>
       <c r="Y22" s="13"/>
     </row>
-    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="13.5" customHeight="1">
       <c r="B23" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -6310,12 +6341,12 @@
       </c>
       <c r="Y23" s="13"/>
     </row>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="13.5" customHeight="1">
       <c r="C28" s="5">
         <v>2000</v>
       </c>
@@ -6383,7 +6414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="B29" s="5" t="s">
         <v>32</v>
       </c>
@@ -6415,12 +6446,12 @@
       </c>
       <c r="Y29" s="6"/>
     </row>
-    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="13.5" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="13.5" customHeight="1">
       <c r="C34" s="5">
         <v>2000</v>
       </c>
@@ -6488,7 +6519,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="13.5" customHeight="1">
       <c r="B35" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -6545,12 +6576,12 @@
       </c>
       <c r="Y35" s="15"/>
     </row>
-    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="13.5" customHeight="1">
       <c r="C40" s="5">
         <v>2000</v>
       </c>
@@ -6618,7 +6649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="13.5" customHeight="1">
       <c r="B41" s="5" t="s">
         <v>32</v>
       </c>
@@ -6651,12 +6682,12 @@
         <v>0.12180000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="14">
       <c r="A45" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="14">
       <c r="C46" s="18">
         <v>2000</v>
       </c>
@@ -6724,7 +6755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="14">
       <c r="B47" s="18" t="s">
         <v>30</v>
       </c>
@@ -6761,6 +6792,11 @@
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6768,21 +6804,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="25" width="11.85546875"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -6850,7 +6883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>32</v>
       </c>
@@ -6880,12 +6913,12 @@
       </c>
       <c r="Y3" s="15"/>
     </row>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="13.5" customHeight="1">
       <c r="C8" s="5">
         <v>2000</v>
       </c>
@@ -6953,7 +6986,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>32</v>
       </c>
@@ -6983,12 +7016,12 @@
       </c>
       <c r="Y9" s="15"/>
     </row>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="13.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="13.5" customHeight="1">
       <c r="C14" s="5">
         <v>2000</v>
       </c>
@@ -7056,7 +7089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
@@ -7086,12 +7119,12 @@
       </c>
       <c r="Y15" s="15"/>
     </row>
-    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="13.5" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="13.5" customHeight="1">
       <c r="C20" s="5">
         <v>2000</v>
       </c>
@@ -7159,7 +7192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="13.5" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
@@ -7189,12 +7222,12 @@
       </c>
       <c r="Y21" s="15"/>
     </row>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="13.5" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="13.5" customHeight="1">
       <c r="C26" s="5">
         <v>2000</v>
       </c>
@@ -7262,7 +7295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="B27" s="5" t="s">
         <v>32</v>
       </c>
@@ -7292,12 +7325,12 @@
       </c>
       <c r="Y27" s="15"/>
     </row>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="C32" s="5">
         <v>2000</v>
       </c>
@@ -7365,7 +7398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="13.5" customHeight="1">
       <c r="B33" s="5" t="s">
         <v>32</v>
       </c>
@@ -7395,12 +7428,12 @@
       </c>
       <c r="Y33" s="15"/>
     </row>
-    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="13.5" customHeight="1">
       <c r="C38" s="5">
         <v>2000</v>
       </c>
@@ -7468,7 +7501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1">
       <c r="B39" s="5" t="s">
         <v>32</v>
       </c>
@@ -7498,15 +7531,15 @@
       </c>
       <c r="Y39" s="15"/>
     </row>
-    <row r="40" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="15" customHeight="1"/>
+    <row r="41" spans="1:25" ht="15" customHeight="1"/>
+    <row r="42" spans="1:25" ht="15" customHeight="1"/>
+    <row r="43" spans="1:25" ht="14">
       <c r="A43" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="14">
       <c r="C44" s="18">
         <v>2000</v>
       </c>
@@ -7574,7 +7607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="14">
       <c r="B45" s="18" t="s">
         <v>30</v>
       </c>
@@ -7604,12 +7637,12 @@
       </c>
       <c r="Y45" s="19"/>
     </row>
-    <row r="49" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" ht="14">
       <c r="A49" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" ht="14">
       <c r="C50" s="18">
         <v>2000</v>
       </c>
@@ -7677,7 +7710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" ht="14">
       <c r="B51" s="18" t="s">
         <v>30</v>
       </c>
@@ -7707,12 +7740,12 @@
       </c>
       <c r="Y51" s="19"/>
     </row>
-    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" ht="15" customHeight="1">
       <c r="A55" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="15" customHeight="1">
       <c r="C56" s="18">
         <v>2000</v>
       </c>
@@ -7780,7 +7813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="15" customHeight="1">
       <c r="B57" s="18" t="s">
         <v>30</v>
       </c>
@@ -7810,12 +7843,12 @@
       </c>
       <c r="Y57" s="19"/>
     </row>
-    <row r="61" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" ht="14">
       <c r="A61" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" ht="14">
       <c r="C62" s="18">
         <v>2000</v>
       </c>
@@ -7913,7 +7946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" ht="14">
       <c r="B63" s="18" t="s">
         <v>30</v>
       </c>
@@ -7955,32 +7988,34 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="1048576" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048576" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1025" width="11.85546875"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="14">
       <c r="A1" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="14">
       <c r="C2" s="18">
         <v>2000</v>
       </c>
@@ -8048,7 +8083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="14">
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
@@ -8076,11 +8111,11 @@
       <c r="X3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="19">
+      <c r="Y3" s="54">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="14">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -8108,16 +8143,16 @@
       <c r="X4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Y4" s="54">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="14">
       <c r="A8" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="14">
       <c r="C9" s="18">
         <v>2000</v>
       </c>
@@ -8185,7 +8220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="14">
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
@@ -8214,10 +8249,10 @@
         <v>21</v>
       </c>
       <c r="Y10" s="19">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="14">
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
@@ -8246,15 +8281,15 @@
         <v>21</v>
       </c>
       <c r="Y11" s="19">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="14">
       <c r="A15" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="14">
       <c r="C16" s="18">
         <v>2000</v>
       </c>
@@ -8322,7 +8357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="14">
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
@@ -8354,7 +8389,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="14">
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
@@ -8386,12 +8421,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="14">
       <c r="A22" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="14">
       <c r="C23" s="18">
         <v>2000</v>
       </c>
@@ -8459,388 +8494,256 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
+    <row r="24" spans="1:25" ht="14">
+      <c r="B24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
       <c r="X24" s="20" t="s">
         <v>21</v>
       </c>
       <c r="Y24" s="19">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="20" t="s">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="14">
+      <c r="A28" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="14">
+      <c r="C29" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="18">
+        <v>2001</v>
+      </c>
+      <c r="E29" s="18">
+        <v>2002</v>
+      </c>
+      <c r="F29" s="18">
+        <v>2003</v>
+      </c>
+      <c r="G29" s="18">
+        <v>2004</v>
+      </c>
+      <c r="H29" s="18">
+        <v>2005</v>
+      </c>
+      <c r="I29" s="18">
+        <v>2006</v>
+      </c>
+      <c r="J29" s="18">
+        <v>2007</v>
+      </c>
+      <c r="K29" s="18">
+        <v>2008</v>
+      </c>
+      <c r="L29" s="18">
+        <v>2009</v>
+      </c>
+      <c r="M29" s="18">
+        <v>2010</v>
+      </c>
+      <c r="N29" s="18">
+        <v>2011</v>
+      </c>
+      <c r="O29" s="18">
+        <v>2012</v>
+      </c>
+      <c r="P29" s="18">
+        <v>2013</v>
+      </c>
+      <c r="Q29" s="18">
+        <v>2014</v>
+      </c>
+      <c r="R29" s="18">
+        <v>2015</v>
+      </c>
+      <c r="S29" s="18">
+        <v>2016</v>
+      </c>
+      <c r="T29" s="18">
+        <v>2017</v>
+      </c>
+      <c r="U29" s="18">
+        <v>2018</v>
+      </c>
+      <c r="V29" s="18">
+        <v>2019</v>
+      </c>
+      <c r="W29" s="18">
+        <v>2020</v>
+      </c>
+      <c r="Y29" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="14">
+      <c r="B30" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Y25" s="19">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="Y30" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="14">
+      <c r="A34" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="C30" s="18">
+    <row r="35" spans="1:25" ht="14">
+      <c r="C35" s="18">
         <v>2000</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D35" s="18">
         <v>2001</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E35" s="18">
         <v>2002</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F35" s="18">
         <v>2003</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G35" s="18">
         <v>2004</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H35" s="18">
         <v>2005</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I35" s="18">
         <v>2006</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J35" s="18">
         <v>2007</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K35" s="18">
         <v>2008</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L35" s="18">
         <v>2009</v>
       </c>
-      <c r="M30" s="18">
+      <c r="M35" s="18">
         <v>2010</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N35" s="18">
         <v>2011</v>
       </c>
-      <c r="O30" s="18">
+      <c r="O35" s="18">
         <v>2012</v>
       </c>
-      <c r="P30" s="18">
+      <c r="P35" s="18">
         <v>2013</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="Q35" s="18">
         <v>2014</v>
       </c>
-      <c r="R30" s="18">
+      <c r="R35" s="18">
         <v>2015</v>
       </c>
-      <c r="S30" s="18">
+      <c r="S35" s="18">
         <v>2016</v>
       </c>
-      <c r="T30" s="18">
+      <c r="T35" s="18">
         <v>2017</v>
       </c>
-      <c r="U30" s="18">
+      <c r="U35" s="18">
         <v>2018</v>
       </c>
-      <c r="V30" s="18">
+      <c r="V35" s="18">
         <v>2019</v>
       </c>
-      <c r="W30" s="18">
+      <c r="W35" s="18">
         <v>2020</v>
       </c>
-      <c r="Y30" s="18" t="s">
+      <c r="Y35" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
+    <row r="36" spans="1:25" ht="14">
+      <c r="B36" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="20" t="s">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Y31" s="19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="C36" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D36" s="18">
-        <v>2001</v>
-      </c>
-      <c r="E36" s="18">
-        <v>2002</v>
-      </c>
-      <c r="F36" s="18">
-        <v>2003</v>
-      </c>
-      <c r="G36" s="18">
-        <v>2004</v>
-      </c>
-      <c r="H36" s="18">
-        <v>2005</v>
-      </c>
-      <c r="I36" s="18">
-        <v>2006</v>
-      </c>
-      <c r="J36" s="18">
-        <v>2007</v>
-      </c>
-      <c r="K36" s="18">
-        <v>2008</v>
-      </c>
-      <c r="L36" s="18">
-        <v>2009</v>
-      </c>
-      <c r="M36" s="18">
-        <v>2010</v>
-      </c>
-      <c r="N36" s="18">
-        <v>2011</v>
-      </c>
-      <c r="O36" s="18">
-        <v>2012</v>
-      </c>
-      <c r="P36" s="18">
-        <v>2013</v>
-      </c>
-      <c r="Q36" s="18">
-        <v>2014</v>
-      </c>
-      <c r="R36" s="18">
-        <v>2015</v>
-      </c>
-      <c r="S36" s="18">
-        <v>2016</v>
-      </c>
-      <c r="T36" s="18">
-        <v>2017</v>
-      </c>
-      <c r="U36" s="18">
-        <v>2018</v>
-      </c>
-      <c r="V36" s="18">
-        <v>2019</v>
-      </c>
-      <c r="W36" s="18">
-        <v>2020</v>
-      </c>
-      <c r="Y36" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y37" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="C42" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D42" s="18">
-        <v>2001</v>
-      </c>
-      <c r="E42" s="18">
-        <v>2002</v>
-      </c>
-      <c r="F42" s="18">
-        <v>2003</v>
-      </c>
-      <c r="G42" s="18">
-        <v>2004</v>
-      </c>
-      <c r="H42" s="18">
-        <v>2005</v>
-      </c>
-      <c r="I42" s="18">
-        <v>2006</v>
-      </c>
-      <c r="J42" s="18">
-        <v>2007</v>
-      </c>
-      <c r="K42" s="18">
-        <v>2008</v>
-      </c>
-      <c r="L42" s="18">
-        <v>2009</v>
-      </c>
-      <c r="M42" s="18">
-        <v>2010</v>
-      </c>
-      <c r="N42" s="18">
-        <v>2011</v>
-      </c>
-      <c r="O42" s="18">
-        <v>2012</v>
-      </c>
-      <c r="P42" s="18">
-        <v>2013</v>
-      </c>
-      <c r="Q42" s="18">
-        <v>2014</v>
-      </c>
-      <c r="R42" s="18">
-        <v>2015</v>
-      </c>
-      <c r="S42" s="18">
-        <v>2016</v>
-      </c>
-      <c r="T42" s="18">
-        <v>2017</v>
-      </c>
-      <c r="U42" s="18">
-        <v>2018</v>
-      </c>
-      <c r="V42" s="18">
-        <v>2019</v>
-      </c>
-      <c r="W42" s="18">
-        <v>2020</v>
-      </c>
-      <c r="Y42" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y43" s="19">
+      <c r="Y36" s="19">
         <v>0.95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8848,21 +8751,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="25" width="11.85546875"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="13.5" customHeight="1">
       <c r="C2" s="5">
         <v>2000</v>
       </c>
@@ -8930,7 +8830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="B3" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -8963,7 +8863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1">
       <c r="B4" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -8996,12 +8896,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="13.5" customHeight="1">
       <c r="C9" s="5">
         <v>2000</v>
       </c>
@@ -9069,7 +8969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="B10" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9103,7 +9003,7 @@
         <v>12.000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1">
       <c r="B11" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9137,12 +9037,12 @@
         <v>6.0000000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="13.5" customHeight="1">
       <c r="C16" s="5">
         <v>2000</v>
       </c>
@@ -9210,7 +9110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="13.5" customHeight="1">
       <c r="B17" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9243,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="13.5" customHeight="1">
       <c r="B18" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9276,12 +9176,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="13.5" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="13.5" customHeight="1">
       <c r="C23" s="5">
         <v>2000</v>
       </c>
@@ -9349,7 +9249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="13.5" customHeight="1">
       <c r="B24" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9382,7 +9282,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="13.5" customHeight="1">
       <c r="B25" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9415,12 +9315,12 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="C30" s="5">
         <v>2000</v>
       </c>
@@ -9488,7 +9388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="B31" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9521,7 +9421,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="B32" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9554,12 +9454,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="13.5" customHeight="1">
       <c r="C37" s="5">
         <v>2000</v>
       </c>
@@ -9627,7 +9527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="13.5" customHeight="1">
       <c r="B38" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9660,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1">
       <c r="B39" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>F 15-49</v>
@@ -9693,12 +9593,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="13.5" customHeight="1">
       <c r="C44" s="5">
         <v>2000</v>
       </c>
@@ -9766,7 +9666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="13.5" customHeight="1">
       <c r="B45" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9799,12 +9699,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="13.5" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="13.5" customHeight="1">
       <c r="C50" s="5">
         <v>2000</v>
       </c>
@@ -9872,7 +9772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="13.5" customHeight="1">
       <c r="B51" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>M 15-49</v>
@@ -9910,5 +9810,10 @@
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -5839,8 +5839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -8005,7 +8005,7 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -8112,7 +8112,7 @@
         <v>21</v>
       </c>
       <c r="Y3" s="54">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14">
@@ -8144,7 +8144,7 @@
         <v>21</v>
       </c>
       <c r="Y4" s="54">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="14">

--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="11360" tabRatio="988" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="11360" tabRatio="988" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="125">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -396,9 +396,6 @@
     <t>CD4(&lt;50)</t>
   </si>
   <si>
-    <t>Disease progression rate (% per year)</t>
-  </si>
-  <si>
     <t>Acute to CD4(&gt;500)</t>
   </si>
   <si>
@@ -411,9 +408,6 @@
     <t>CD4(50-200) to CD4(&lt;50)</t>
   </si>
   <si>
-    <t>Treatment recovery rate (% per year)</t>
-  </si>
-  <si>
     <t>CD4(350-500) to CD4(&gt;500)</t>
   </si>
   <si>
@@ -505,6 +499,15 @@
   </si>
   <si>
     <t>Average time taken to be linked to care (years)</t>
+  </si>
+  <si>
+    <t>Disease progression (average years to move)</t>
+  </si>
+  <si>
+    <t>Treatment recovery on suppressive ART (average years to move)</t>
+  </si>
+  <si>
+    <t>Treatment recovery on unsuppressive ART</t>
   </si>
 </sst>
 </file>
@@ -726,7 +729,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="128">
+  <cellStyleXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -855,8 +858,18 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -931,7 +944,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -961,8 +973,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="128">
+  <cellStyles count="138">
     <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Comma 2 2" xfId="118"/>
     <cellStyle name="Comma 2 3" xfId="11"/>
@@ -974,6 +991,11 @@
     <cellStyle name="Explanatory Text 2" xfId="4"/>
     <cellStyle name="Explanatory Text 3" xfId="115"/>
     <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="22"/>
     <cellStyle name="Followed Hyperlink 11" xfId="23"/>
     <cellStyle name="Followed Hyperlink 12" xfId="24"/>
@@ -1072,6 +1094,11 @@
     <cellStyle name="Followed Hyperlink 97" xfId="109"/>
     <cellStyle name="Followed Hyperlink 98" xfId="110"/>
     <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5"/>
     <cellStyle name="Normal 2 2" xfId="116"/>
@@ -2954,15 +2981,15 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1" ht="12.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="55"/>
+      <c r="A2" s="54"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="55"/>
+      <c r="A3" s="54"/>
     </row>
     <row r="4" spans="1:1" ht="14">
       <c r="A4" s="1"/>
@@ -3684,141 +3711,141 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:E15"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="43"/>
+    <col min="1" max="16384" width="8.83203125" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="51">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="51">
         <v>1E-4</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="51">
         <v>1.4E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="51">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="51">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="51">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="51" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="51">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="51">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="51">
         <v>2.8E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="51">
         <v>1.38E-2</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="51">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="51">
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="51" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="51">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="51">
         <v>6.3E-3</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="51">
         <v>2.4E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="51">
         <v>0.36699999999999999</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="51">
         <v>0.29399999999999998</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="51">
         <v>0.44</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="51">
         <v>0.20499999999999999</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="51">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="51">
         <v>0.27</v>
       </c>
     </row>
@@ -3851,13 +3878,13 @@
       <c r="B15" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="52">
         <v>5.6</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="52">
         <v>3.3</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="52">
         <v>9.1</v>
       </c>
     </row>
@@ -3865,13 +3892,13 @@
       <c r="B16" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="44">
         <v>1</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="44">
         <v>1</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="44">
         <v>1</v>
       </c>
     </row>
@@ -3879,13 +3906,13 @@
       <c r="B17" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="44">
         <v>1</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="44">
         <v>1</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="44">
         <v>1</v>
       </c>
     </row>
@@ -3893,13 +3920,13 @@
       <c r="B18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="44">
         <v>1</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="44">
         <v>1</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="44">
         <v>1</v>
       </c>
     </row>
@@ -3907,13 +3934,13 @@
       <c r="B19" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="44">
         <v>3.49</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="44">
         <v>1.76</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="44">
         <v>6.92</v>
       </c>
     </row>
@@ -3921,13 +3948,13 @@
       <c r="B20" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="44">
         <v>7.17</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="44">
         <v>3.9</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="44">
         <v>12.08</v>
       </c>
     </row>
@@ -3941,174 +3968,204 @@
       <c r="B23" s="41"/>
     </row>
     <row r="24" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A26"/>
+      <c r="B26" s="55" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="C25" s="39" t="s">
+      <c r="C26" s="53">
+        <v>0.24</v>
+      </c>
+      <c r="D26" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A27"/>
+      <c r="B27" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="53">
+        <v>0.95</v>
+      </c>
+      <c r="D27" s="53">
+        <v>0.62</v>
+      </c>
+      <c r="E27" s="53">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A28"/>
+      <c r="B28" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="53">
+        <v>3</v>
+      </c>
+      <c r="D28" s="53">
+        <v>2.83</v>
+      </c>
+      <c r="E28" s="53">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A29"/>
+      <c r="B29" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="53">
+        <v>3.74</v>
+      </c>
+      <c r="D29" s="53">
+        <v>3.48</v>
+      </c>
+      <c r="E29" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A30"/>
+      <c r="B30" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="D30" s="53">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E30" s="53">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A31" s="56"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="41"/>
+    </row>
+    <row r="32" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A32" s="56"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+    </row>
+    <row r="33" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A33" s="56"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+    </row>
+    <row r="34" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A34" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D35" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E35" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B26" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="46">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="D26" s="46">
-        <v>2</v>
-      </c>
-      <c r="E26" s="46">
-        <v>9.76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B27" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="46">
-        <v>1.05</v>
-      </c>
-      <c r="D27" s="46">
-        <v>0.86</v>
-      </c>
-      <c r="E27" s="46">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B28" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="46">
-        <v>0.33</v>
-      </c>
-      <c r="D28" s="46">
-        <v>0.32</v>
-      </c>
-      <c r="E28" s="46">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B29" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="46">
-        <v>0.27</v>
-      </c>
-      <c r="D29" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="E29" s="46">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B30" s="40" t="s">
+    <row r="36" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A36"/>
+      <c r="B36" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="46">
-        <v>0.67</v>
-      </c>
-      <c r="D30" s="46">
-        <v>0.44</v>
-      </c>
-      <c r="E30" s="46">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B31" s="42"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-    </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B32" s="41"/>
-    </row>
-    <row r="33" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B33" s="41"/>
-    </row>
-    <row r="34" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A34" s="38" t="s">
+      <c r="C36" s="53">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D36" s="53">
+        <v>1.07</v>
+      </c>
+      <c r="E36" s="53">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A37"/>
+      <c r="B37" s="55" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C35" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B36" s="40" t="s">
+      <c r="C37" s="53">
+        <v>1.42</v>
+      </c>
+      <c r="D37" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="E37" s="53">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A38"/>
+      <c r="B38" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="46">
-        <v>0.45</v>
-      </c>
-      <c r="D36" s="46">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E36" s="46">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B37" s="40" t="s">
+      <c r="C38" s="53">
+        <v>2.14</v>
+      </c>
+      <c r="D38" s="53">
+        <v>1.39</v>
+      </c>
+      <c r="E38" s="53">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A39"/>
+      <c r="B39" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="46">
-        <v>0.7</v>
-      </c>
-      <c r="D37" s="46">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E37" s="46">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B38" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="46">
-        <v>0.47</v>
-      </c>
-      <c r="D38" s="46">
-        <v>0.33</v>
-      </c>
-      <c r="E38" s="46">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B39" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="46">
-        <v>1.52</v>
-      </c>
-      <c r="D39" s="46">
-        <v>1.06</v>
-      </c>
-      <c r="E39" s="46">
-        <v>1.96</v>
+      <c r="C39" s="53">
+        <v>0.66</v>
+      </c>
+      <c r="D39" s="53">
+        <v>0.51</v>
+      </c>
+      <c r="E39" s="53">
+        <v>0.94</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="13.5" customHeight="1">
@@ -4121,529 +4178,587 @@
       <c r="B42" s="41"/>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A43" s="38" t="s">
-        <v>97</v>
-      </c>
+      <c r="A43" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C44" s="39" t="s">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="39" t="s">
+      <c r="E44" s="30" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B45" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="44">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D45" s="44">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="E45" s="44">
-        <v>4.4000000000000003E-3</v>
+      <c r="A45" s="36"/>
+      <c r="B45" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="E45" s="37">
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B46" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="44">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D46" s="44">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="E46" s="44">
-        <v>4.4000000000000003E-3</v>
-      </c>
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
     </row>
     <row r="47" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B47" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="44">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="D47" s="44">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="E47" s="44">
-        <v>7.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B48" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="44">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="D48" s="44">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E48" s="44">
-        <v>1.01E-2</v>
-      </c>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B49" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="44">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="D49" s="44">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E49" s="44">
-        <v>7.9000000000000001E-2</v>
+      <c r="A49" s="38" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B50" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="44">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="D50" s="44">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="E50" s="44">
-        <v>0.432</v>
+      <c r="C50" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="13.5" customHeight="1">
       <c r="B51" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="44">
-        <v>0.23</v>
-      </c>
-      <c r="D51" s="44">
-        <v>0.15</v>
-      </c>
-      <c r="E51" s="44">
-        <v>0.3</v>
+        <v>81</v>
+      </c>
+      <c r="C51" s="43">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D51" s="43">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E51" s="43">
+        <v>4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="13.5" customHeight="1">
       <c r="B52" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="44">
-        <v>2.17</v>
-      </c>
-      <c r="D52" s="44">
-        <v>1.27</v>
-      </c>
-      <c r="E52" s="44">
-        <v>3.71</v>
+        <v>82</v>
+      </c>
+      <c r="C52" s="43">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D52" s="43">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E52" s="43">
+        <v>4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B53" s="41"/>
+      <c r="B53" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="43">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="D53" s="43">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E53" s="43">
+        <v>7.1000000000000004E-3</v>
+      </c>
     </row>
     <row r="54" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B54" s="41"/>
+      <c r="B54" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="43">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D54" s="43">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E54" s="43">
+        <v>1.01E-2</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B55" s="41"/>
+      <c r="B55" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="43">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D55" s="43">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E55" s="43">
+        <v>7.9000000000000001E-2</v>
+      </c>
     </row>
     <row r="56" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A56" s="38" t="s">
-        <v>101</v>
+      <c r="B56" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="43">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D56" s="43">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E56" s="43">
+        <v>0.432</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="13.5" customHeight="1">
-      <c r="C57" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>20</v>
+      <c r="B57" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="43">
+        <v>0.23</v>
+      </c>
+      <c r="D57" s="43">
+        <v>0.15</v>
+      </c>
+      <c r="E57" s="43">
+        <v>0.3</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="13.5" customHeight="1">
       <c r="B58" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="46">
-        <v>0.95</v>
-      </c>
-      <c r="D58" s="46">
-        <v>0.8</v>
-      </c>
-      <c r="E58" s="46">
-        <v>0.98</v>
-      </c>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
+        <v>98</v>
+      </c>
+      <c r="C58" s="43">
+        <v>2.17</v>
+      </c>
+      <c r="D58" s="43">
+        <v>1.27</v>
+      </c>
+      <c r="E58" s="43">
+        <v>3.71</v>
+      </c>
     </row>
     <row r="59" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B59" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" s="46">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D59" s="46">
-        <v>0.47</v>
-      </c>
-      <c r="E59" s="46">
-        <v>0.67</v>
-      </c>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
+      <c r="B59" s="41"/>
     </row>
     <row r="60" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B60" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" s="46">
-        <v>0</v>
-      </c>
-      <c r="D60" s="46">
-        <v>0</v>
-      </c>
-      <c r="E60" s="46">
-        <v>0.68</v>
-      </c>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
+      <c r="B60" s="41"/>
     </row>
     <row r="61" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B61" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" s="46">
-        <v>2.65</v>
-      </c>
-      <c r="D61" s="46">
-        <v>1.35</v>
-      </c>
-      <c r="E61" s="46">
-        <v>5.19</v>
-      </c>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
+      <c r="B61" s="41"/>
     </row>
     <row r="62" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B62" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="46">
-        <v>0.54</v>
-      </c>
-      <c r="D62" s="46">
-        <v>0.33</v>
-      </c>
-      <c r="E62" s="46">
-        <v>0.68</v>
-      </c>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
+      <c r="A62" s="38" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B63" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="46">
-        <v>0.9</v>
-      </c>
-      <c r="D63" s="46">
-        <v>0.82</v>
-      </c>
-      <c r="E63" s="46">
-        <v>0.93</v>
-      </c>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
+      <c r="C63" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="64" spans="1:9" ht="13.5" customHeight="1">
       <c r="B64" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C64" s="46">
-        <v>0.73</v>
-      </c>
-      <c r="D64" s="46">
-        <v>0.65</v>
-      </c>
-      <c r="E64" s="46">
+        <v>100</v>
+      </c>
+      <c r="C64" s="45">
+        <v>0.95</v>
+      </c>
+      <c r="D64" s="45">
         <v>0.8</v>
       </c>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
+      <c r="E64" s="45">
+        <v>0.98</v>
+      </c>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
     </row>
     <row r="65" spans="1:9" ht="13.5" customHeight="1">
       <c r="B65" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="C65" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="D65" s="46">
-        <v>0.3</v>
-      </c>
-      <c r="E65" s="46">
-        <v>0.8</v>
-      </c>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
+        <v>101</v>
+      </c>
+      <c r="C65" s="45">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D65" s="45">
+        <v>0.47</v>
+      </c>
+      <c r="E65" s="45">
+        <v>0.67</v>
+      </c>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
     </row>
     <row r="66" spans="1:9" ht="13.5" customHeight="1">
       <c r="B66" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" s="46">
+        <v>102</v>
+      </c>
+      <c r="C66" s="45">
+        <v>0</v>
+      </c>
+      <c r="D66" s="45">
+        <v>0</v>
+      </c>
+      <c r="E66" s="45">
+        <v>0.68</v>
+      </c>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+    </row>
+    <row r="67" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B67" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="45">
+        <v>2.65</v>
+      </c>
+      <c r="D67" s="45">
+        <v>1.35</v>
+      </c>
+      <c r="E67" s="45">
+        <v>5.19</v>
+      </c>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+    </row>
+    <row r="68" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B68" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="45">
+        <v>0.54</v>
+      </c>
+      <c r="D68" s="45">
+        <v>0.33</v>
+      </c>
+      <c r="E68" s="45">
+        <v>0.68</v>
+      </c>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+    </row>
+    <row r="69" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B69" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="D69" s="45">
+        <v>0.82</v>
+      </c>
+      <c r="E69" s="45">
+        <v>0.93</v>
+      </c>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+    </row>
+    <row r="70" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B70" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="45">
+        <v>0.73</v>
+      </c>
+      <c r="D70" s="45">
+        <v>0.65</v>
+      </c>
+      <c r="E70" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+    </row>
+    <row r="71" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B71" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="D71" s="45">
+        <v>0.3</v>
+      </c>
+      <c r="E71" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+    </row>
+    <row r="72" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B72" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="45">
         <v>0.92</v>
       </c>
-      <c r="D66" s="46">
+      <c r="D72" s="45">
         <v>0.8</v>
       </c>
-      <c r="E66" s="46">
+      <c r="E72" s="45">
         <v>0.95</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B67" s="41"/>
-    </row>
-    <row r="70" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A70" s="29" t="s">
+    <row r="73" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B73" s="41"/>
+    </row>
+    <row r="76" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A76" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+    </row>
+    <row r="77" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A78" s="36"/>
+      <c r="B78" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="D78" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="E78" s="37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A79" s="36"/>
+      <c r="B79" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-    </row>
-    <row r="71" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A71" s="36"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="30" t="s">
+      <c r="C79" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="D79" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="E79" s="37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A80" s="36"/>
+      <c r="B80" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="D80" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="E80" s="37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+    </row>
+    <row r="82" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1">
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1">
+      <c r="A84" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D85" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="E85" s="33" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A72" s="36"/>
-      <c r="B72" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C72" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="D72" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="E72" s="37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A73" s="36"/>
-      <c r="B73" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C73" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="D73" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="E73" s="37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A74" s="36"/>
-      <c r="B74" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C74" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="D74" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="E74" s="37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-    </row>
-    <row r="76" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-    </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-    </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1">
-      <c r="A78" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E79" s="33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="28"/>
-      <c r="B80" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C80" s="35">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="D80" s="35">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="E80" s="35">
-        <v>0.20499999999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="28"/>
-      <c r="B81" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81" s="35">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D81" s="35">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E81" s="35">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="28"/>
-      <c r="B82" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C82" s="35">
-        <v>0.02</v>
-      </c>
-      <c r="D82" s="35">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E82" s="35">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="28"/>
-      <c r="B83" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C83" s="35">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D83" s="35">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E83" s="35">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="28"/>
-      <c r="B84" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C84" s="35">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D84" s="35">
-        <v>0.114</v>
-      </c>
-      <c r="E84" s="35">
-        <v>0.47399999999999998</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="28"/>
-      <c r="B85" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C85" s="35">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="D85" s="35">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E85" s="35">
-        <v>0.71499999999999997</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="28"/>
       <c r="B86" s="34" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C86" s="35">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D86" s="35">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E86" s="35">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="28"/>
+      <c r="B87" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="35">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D87" s="35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E87" s="35">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="28"/>
+      <c r="B88" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" s="35">
+        <v>0.02</v>
+      </c>
+      <c r="D88" s="35">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E88" s="35">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="28"/>
+      <c r="B89" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" s="35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D89" s="35">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E89" s="35">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A90" s="28"/>
+      <c r="B90" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" s="35">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D90" s="35">
+        <v>0.114</v>
+      </c>
+      <c r="E90" s="35">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A91" s="28"/>
+      <c r="B91" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="35">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D91" s="35">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E91" s="35">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="28"/>
+      <c r="B92" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" s="35">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="D86" s="35">
+      <c r="D92" s="35">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E86" s="35">
+      <c r="E92" s="35">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8004,7 +8119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
@@ -8012,7 +8127,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="14">
       <c r="A1" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="14">
@@ -8111,7 +8226,7 @@
       <c r="X3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="54">
+      <c r="Y3" s="53">
         <v>3</v>
       </c>
     </row>
@@ -8143,7 +8258,7 @@
       <c r="X4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="54">
+      <c r="Y4" s="53">
         <v>3</v>
       </c>
     </row>

--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="121">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -486,18 +486,6 @@
     <t>Treated HIV</t>
   </si>
   <si>
-    <t>Cascade parameters</t>
-  </si>
-  <si>
-    <t>People on unsuppressive ART who progress (%)</t>
-  </si>
-  <si>
-    <t>People on unsuppressive ART who recover (%)</t>
-  </si>
-  <si>
-    <t>People lost to follow up who are still in care (%)</t>
-  </si>
-  <si>
     <t>Average time taken to be linked to care (years)</t>
   </si>
   <si>
@@ -507,7 +495,7 @@
     <t>Treatment recovery on suppressive ART (average years to move)</t>
   </si>
   <si>
-    <t>Treatment recovery on unsuppressive ART</t>
+    <t>CD4 change due to non-suppressive ART (% per year)</t>
   </si>
 </sst>
 </file>
@@ -729,7 +717,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="138">
+  <cellStyleXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -868,8 +856,46 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -921,7 +947,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -933,9 +958,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="9" fontId="10" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -970,16 +992,19 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="138">
+  <cellStyles count="176">
     <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Comma 2 2" xfId="118"/>
     <cellStyle name="Comma 2 3" xfId="11"/>
@@ -996,6 +1021,25 @@
     <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="22"/>
     <cellStyle name="Followed Hyperlink 11" xfId="23"/>
     <cellStyle name="Followed Hyperlink 12" xfId="24"/>
@@ -1099,6 +1143,25 @@
     <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5"/>
     <cellStyle name="Normal 2 2" xfId="116"/>
@@ -2981,15 +3044,15 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1" ht="12.75" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="54"/>
+      <c r="A2" s="55"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="54"/>
+      <c r="A3" s="55"/>
     </row>
     <row r="4" spans="1:1" ht="14">
       <c r="A4" s="1"/>
@@ -3711,265 +3774,265 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="42"/>
+    <col min="1" max="16384" width="8.83203125" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="46" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="49">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="49">
         <v>1E-4</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="49">
         <v>1.4E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="49">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="49">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="49">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="49">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="49">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="49">
         <v>2.8E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="49">
         <v>1.38E-2</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="49">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="49">
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="49">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="49">
         <v>6.3E-3</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="49">
         <v>2.4E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="49">
         <v>0.36699999999999999</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="49">
         <v>0.29399999999999998</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="49">
         <v>0.44</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="49">
         <v>0.20499999999999999</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="49">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="49">
         <v>0.27</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B10" s="41"/>
+      <c r="B10" s="39"/>
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B11" s="41"/>
+      <c r="B11" s="39"/>
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B12" s="41"/>
+      <c r="B12" s="39"/>
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="36" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="50">
         <v>5.6</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="50">
         <v>3.3</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="50">
         <v>9.1</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="42">
         <v>1</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="42">
         <v>1</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="42">
         <v>1</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="42">
         <v>1</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="42">
         <v>1</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="42">
         <v>1</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="42">
         <v>3.49</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="42">
         <v>1.76</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="42">
         <v>6.92</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="42">
         <v>7.17</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="42">
         <v>3.9</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="42">
         <v>12.08</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B21" s="41"/>
+      <c r="B21" s="39"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B22" s="41"/>
+      <c r="B22" s="39"/>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B23" s="41"/>
+      <c r="B23" s="39"/>
     </row>
     <row r="24" spans="1:6" ht="13.5" customHeight="1">
       <c r="A24" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -3991,104 +4054,104 @@
     </row>
     <row r="26" spans="1:6" ht="13.5" customHeight="1">
       <c r="A26"/>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="51">
         <v>0.24</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="51">
         <v>0.1</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="51">
         <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="13.5" customHeight="1">
       <c r="A27"/>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="51">
         <v>0.95</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="51">
         <v>0.62</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="51">
         <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1">
       <c r="A28"/>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="51">
         <v>3</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="51">
         <v>2.83</v>
       </c>
-      <c r="E28" s="53">
+      <c r="E28" s="51">
         <v>3.16</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="13.5" customHeight="1">
       <c r="A29"/>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="51">
         <v>3.74</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="51">
         <v>3.48</v>
       </c>
-      <c r="E29" s="53">
+      <c r="E29" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="13.5" customHeight="1">
       <c r="A30"/>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="51">
         <v>1.5</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="51">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="51">
         <v>2.25</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="41"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="39"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
     </row>
     <row r="33" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A33" s="56"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
     </row>
     <row r="34" spans="1:5" ht="13.5" customHeight="1">
       <c r="A34" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -4110,85 +4173,85 @@
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1">
       <c r="A36"/>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="51">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="51">
         <v>1.07</v>
       </c>
-      <c r="E36" s="53">
+      <c r="E36" s="51">
         <v>7.28</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="13.5" customHeight="1">
       <c r="A37"/>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="53">
+      <c r="C37" s="51">
         <v>1.42</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D37" s="51">
         <v>0.9</v>
       </c>
-      <c r="E37" s="53">
+      <c r="E37" s="51">
         <v>3.42</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1">
       <c r="A38"/>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="53">
+      <c r="C38" s="51">
         <v>2.14</v>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="51">
         <v>1.39</v>
       </c>
-      <c r="E38" s="53">
+      <c r="E38" s="51">
         <v>3.58</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="13.5" customHeight="1">
       <c r="A39"/>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="53">
+      <c r="C39" s="51">
         <v>0.66</v>
       </c>
-      <c r="D39" s="53">
+      <c r="D39" s="51">
         <v>0.51</v>
       </c>
-      <c r="E39" s="53">
+      <c r="E39" s="51">
         <v>0.94</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B40" s="41"/>
+      <c r="B40" s="39"/>
     </row>
     <row r="41" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B41" s="41"/>
+      <c r="B41" s="39"/>
     </row>
     <row r="42" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B42" s="41"/>
+      <c r="B42" s="39"/>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1">
       <c r="A43" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
+        <v>120</v>
+      </c>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="30" t="s">
         <v>22</v>
       </c>
@@ -4200,559 +4263,575 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A45" s="36"/>
-      <c r="B45" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="D45" s="37">
+      <c r="A45" s="35"/>
+      <c r="B45" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="56">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D45" s="56">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E45" s="56">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A46" s="35"/>
+      <c r="B46" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="56">
+        <v>0.15</v>
+      </c>
+      <c r="D46" s="56">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E46" s="56">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A47" s="35"/>
+      <c r="B47" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="D47" s="56">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E47" s="56">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A48" s="35"/>
+      <c r="B48" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="56">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D48" s="56">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E48" s="56">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A49" s="35"/>
+      <c r="B49" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="56">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D49" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="E49" s="56">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A50" s="35"/>
+      <c r="B50" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="56">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D50" s="56">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E50" s="56">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A51" s="35"/>
+      <c r="B51" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="56">
+        <v>0.09</v>
+      </c>
+      <c r="D51" s="56">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E51" s="56">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A52" s="35"/>
+      <c r="B52" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="56">
+        <v>0.111</v>
+      </c>
+      <c r="D52" s="56">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E52" s="56">
+        <v>0.56299999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+    </row>
+    <row r="54" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+    </row>
+    <row r="56" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A56" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C57" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B58" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="41">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D58" s="41">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E58" s="41">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B59" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="41">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D59" s="41">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E59" s="41">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B60" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="41">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="D60" s="41">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E60" s="41">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B61" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="41">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D61" s="41">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E61" s="41">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B62" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="41">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D62" s="41">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E62" s="41">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B63" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="41">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D63" s="41">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E63" s="41">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B64" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="41">
+        <v>0.23</v>
+      </c>
+      <c r="D64" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="E64" s="41">
         <v>0.3</v>
       </c>
-      <c r="E45" s="37">
+    </row>
+    <row r="65" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B65" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="41">
+        <v>2.17</v>
+      </c>
+      <c r="D65" s="41">
+        <v>1.27</v>
+      </c>
+      <c r="E65" s="41">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B66" s="39"/>
+    </row>
+    <row r="67" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B67" s="39"/>
+    </row>
+    <row r="68" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B68" s="39"/>
+    </row>
+    <row r="69" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A69" s="36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="13.5" customHeight="1">
+      <c r="C70" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B71" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="43">
+        <v>0.95</v>
+      </c>
+      <c r="D71" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="E71" s="43">
+        <v>0.98</v>
+      </c>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+    </row>
+    <row r="72" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B72" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="43">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D72" s="43">
+        <v>0.47</v>
+      </c>
+      <c r="E72" s="43">
+        <v>0.67</v>
+      </c>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+    </row>
+    <row r="73" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B73" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="43">
+        <v>0</v>
+      </c>
+      <c r="D73" s="43">
+        <v>0</v>
+      </c>
+      <c r="E73" s="43">
+        <v>0.68</v>
+      </c>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+    </row>
+    <row r="74" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B74" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="43">
+        <v>2.65</v>
+      </c>
+      <c r="D74" s="43">
+        <v>1.35</v>
+      </c>
+      <c r="E74" s="43">
+        <v>5.19</v>
+      </c>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+    </row>
+    <row r="75" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B75" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="43">
+        <v>0.54</v>
+      </c>
+      <c r="D75" s="43">
+        <v>0.33</v>
+      </c>
+      <c r="E75" s="43">
+        <v>0.68</v>
+      </c>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+    </row>
+    <row r="76" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B76" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="D76" s="43">
+        <v>0.82</v>
+      </c>
+      <c r="E76" s="43">
+        <v>0.93</v>
+      </c>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+    </row>
+    <row r="77" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B77" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="43">
+        <v>0.73</v>
+      </c>
+      <c r="D77" s="43">
+        <v>0.65</v>
+      </c>
+      <c r="E77" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+    </row>
+    <row r="78" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B78" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="43">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-    </row>
-    <row r="47" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-    </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A49" s="38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="13.5" customHeight="1">
-      <c r="C50" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B51" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="43">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D51" s="43">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="E51" s="43">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B52" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="43">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D52" s="43">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="E52" s="43">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B53" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="43">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="D53" s="43">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="E53" s="43">
-        <v>7.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B54" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="43">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="D54" s="43">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E54" s="43">
-        <v>1.01E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B55" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="43">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="D55" s="43">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E55" s="43">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B56" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="43">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="D56" s="43">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="E56" s="43">
-        <v>0.432</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B57" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" s="43">
-        <v>0.23</v>
-      </c>
-      <c r="D57" s="43">
-        <v>0.15</v>
-      </c>
-      <c r="E57" s="43">
+      <c r="D78" s="43">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B58" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="43">
-        <v>2.17</v>
-      </c>
-      <c r="D58" s="43">
-        <v>1.27</v>
-      </c>
-      <c r="E58" s="43">
-        <v>3.71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B59" s="41"/>
-    </row>
-    <row r="60" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B60" s="41"/>
-    </row>
-    <row r="61" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B61" s="41"/>
-    </row>
-    <row r="62" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A62" s="38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="13.5" customHeight="1">
-      <c r="C63" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B64" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C64" s="45">
+      <c r="E78" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+    </row>
+    <row r="79" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B79" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="43">
+        <v>0.92</v>
+      </c>
+      <c r="D79" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="E79" s="43">
         <v>0.95</v>
       </c>
-      <c r="D64" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="E64" s="45">
-        <v>0.98</v>
-      </c>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-    </row>
-    <row r="65" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B65" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C65" s="45">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D65" s="45">
-        <v>0.47</v>
-      </c>
-      <c r="E65" s="45">
-        <v>0.67</v>
-      </c>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-    </row>
-    <row r="66" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B66" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="C66" s="45">
-        <v>0</v>
-      </c>
-      <c r="D66" s="45">
-        <v>0</v>
-      </c>
-      <c r="E66" s="45">
-        <v>0.68</v>
-      </c>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-    </row>
-    <row r="67" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B67" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="45">
-        <v>2.65</v>
-      </c>
-      <c r="D67" s="45">
-        <v>1.35</v>
-      </c>
-      <c r="E67" s="45">
-        <v>5.19</v>
-      </c>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-    </row>
-    <row r="68" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B68" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C68" s="45">
-        <v>0.54</v>
-      </c>
-      <c r="D68" s="45">
-        <v>0.33</v>
-      </c>
-      <c r="E68" s="45">
-        <v>0.68</v>
-      </c>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-    </row>
-    <row r="69" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B69" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C69" s="45">
-        <v>0.9</v>
-      </c>
-      <c r="D69" s="45">
-        <v>0.82</v>
-      </c>
-      <c r="E69" s="45">
-        <v>0.93</v>
-      </c>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-    </row>
-    <row r="70" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B70" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70" s="45">
-        <v>0.73</v>
-      </c>
-      <c r="D70" s="45">
-        <v>0.65</v>
-      </c>
-      <c r="E70" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="46"/>
-    </row>
-    <row r="71" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B71" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C71" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="D71" s="45">
-        <v>0.3</v>
-      </c>
-      <c r="E71" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-    </row>
-    <row r="72" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B72" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C72" s="45">
-        <v>0.92</v>
-      </c>
-      <c r="D72" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="E72" s="45">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B73" s="41"/>
-    </row>
-    <row r="76" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A76" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-    </row>
-    <row r="77" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A77" s="36"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E77" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A78" s="36"/>
-      <c r="B78" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="D78" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="E78" s="37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A79" s="36"/>
-      <c r="B79" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C79" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="D79" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="E79" s="37">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="80" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A80" s="36"/>
-      <c r="B80" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C80" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="D80" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="E80" s="37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-    </row>
-    <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
+      <c r="B80" s="39"/>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1">
-      <c r="A83" s="28"/>
+      <c r="A83" s="31" t="s">
+        <v>109</v>
+      </c>
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
     </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1">
-      <c r="A84" s="32" t="s">
-        <v>109</v>
-      </c>
+    <row r="84" spans="1:5">
+      <c r="A84" s="28"/>
       <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
+      <c r="C84" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="32" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="28"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" s="33" t="s">
-        <v>20</v>
+      <c r="B85" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="34">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D85" s="34">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E85" s="34">
+        <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="28"/>
-      <c r="B86" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C86" s="35">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="D86" s="35">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="E86" s="35">
-        <v>0.20499999999999999</v>
+      <c r="B86" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="34">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D86" s="34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E86" s="34">
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="28"/>
-      <c r="B87" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C87" s="35">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D87" s="35">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E87" s="35">
-        <v>1.0999999999999999E-2</v>
+      <c r="B87" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="34">
+        <v>0.02</v>
+      </c>
+      <c r="D87" s="34">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E87" s="34">
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="28"/>
-      <c r="B88" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C88" s="35">
-        <v>0.02</v>
-      </c>
-      <c r="D88" s="35">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E88" s="35">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="B88" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" s="34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D88" s="34">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E88" s="34">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="13.5" customHeight="1">
       <c r="A89" s="28"/>
-      <c r="B89" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="C89" s="35">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D89" s="35">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E89" s="35">
-        <v>9.4E-2</v>
+      <c r="B89" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" s="34">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D89" s="34">
+        <v>0.114</v>
+      </c>
+      <c r="E89" s="34">
+        <v>0.47399999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
       <c r="A90" s="28"/>
-      <c r="B90" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C90" s="35">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D90" s="35">
-        <v>0.114</v>
-      </c>
-      <c r="E90" s="35">
-        <v>0.47399999999999998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B90" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="34">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D90" s="34">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E90" s="34">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="28"/>
-      <c r="B91" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C91" s="35">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="D91" s="35">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E91" s="35">
-        <v>0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="28"/>
-      <c r="B92" s="34" t="s">
+      <c r="B91" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C92" s="35">
+      <c r="C91" s="34">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="D92" s="35">
+      <c r="D91" s="34">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E92" s="35">
+      <c r="E91" s="34">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
@@ -8127,7 +8206,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="14">
       <c r="A1" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="14">
@@ -8226,7 +8305,7 @@
       <c r="X3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="53">
+      <c r="Y3" s="51">
         <v>3</v>
       </c>
     </row>
@@ -8258,7 +8337,7 @@
       <c r="X4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="53">
+      <c r="Y4" s="51">
         <v>3</v>
       </c>
     </row>

--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="11360" tabRatio="988" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="11360" tabRatio="988" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="119">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -282,9 +282,6 @@
     <t>People on ART with viral suppression (%)</t>
   </si>
   <si>
-    <t>Percentage of people who receive ART in the year who stop taking ART (%/year)</t>
-  </si>
-  <si>
     <t>Percentage of people in care who are lost to follow-up per year (%/year)</t>
   </si>
   <si>
@@ -292,9 +289,6 @@
   </si>
   <si>
     <t>Viral load monitoring (number/year)</t>
-  </si>
-  <si>
-    <t>Rate of ART re-initiation (%/year)</t>
   </si>
   <si>
     <t>Average number of acts with regular partners per person per year</t>
@@ -3096,7 +3090,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="13.5" customHeight="1">
@@ -3235,7 +3229,7 @@
     </row>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1">
@@ -3374,7 +3368,7 @@
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.5" customHeight="1">
@@ -3500,7 +3494,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -3547,7 +3541,7 @@
     </row>
     <row r="8" spans="1:4" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3594,7 +3588,7 @@
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3639,7 +3633,7 @@
     </row>
     <row r="22" spans="1:4" ht="13.5" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3672,7 +3666,7 @@
     </row>
     <row r="29" spans="1:4" ht="13.5" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -3697,7 +3691,7 @@
     </row>
     <row r="35" spans="1:4" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -3730,7 +3724,7 @@
     </row>
     <row r="42" spans="1:4" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3776,8 +3770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:XFD90"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3787,7 +3781,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1">
       <c r="A1" s="47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -3810,7 +3804,7 @@
     <row r="3" spans="1:5" ht="13.5" customHeight="1">
       <c r="A3" s="45"/>
       <c r="B3" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="49">
         <v>4.0000000000000002E-4</v>
@@ -3825,7 +3819,7 @@
     <row r="4" spans="1:5" ht="13.5" customHeight="1">
       <c r="A4" s="45"/>
       <c r="B4" s="48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="49">
         <v>8.0000000000000004E-4</v>
@@ -3840,7 +3834,7 @@
     <row r="5" spans="1:5" ht="13.5" customHeight="1">
       <c r="A5" s="45"/>
       <c r="B5" s="48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="49">
         <v>1.1000000000000001E-3</v>
@@ -3855,7 +3849,7 @@
     <row r="6" spans="1:5" ht="13.5" customHeight="1">
       <c r="A6" s="45"/>
       <c r="B6" s="48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="49">
         <v>1.38E-2</v>
@@ -3870,7 +3864,7 @@
     <row r="7" spans="1:5" ht="13.5" customHeight="1">
       <c r="A7" s="45"/>
       <c r="B7" s="48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="49">
         <v>8.0000000000000002E-3</v>
@@ -3885,7 +3879,7 @@
     <row r="8" spans="1:5" ht="13.5" customHeight="1">
       <c r="A8" s="45"/>
       <c r="B8" s="48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="49">
         <v>0.36699999999999999</v>
@@ -3900,7 +3894,7 @@
     <row r="9" spans="1:5" ht="13.5" customHeight="1">
       <c r="A9" s="45"/>
       <c r="B9" s="48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" s="49">
         <v>0.20499999999999999</v>
@@ -3923,7 +3917,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1">
@@ -3939,7 +3933,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1">
       <c r="B15" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" s="50">
         <v>5.6</v>
@@ -3953,7 +3947,7 @@
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1">
       <c r="B16" s="38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="42">
         <v>1</v>
@@ -3967,7 +3961,7 @@
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1">
       <c r="B17" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C17" s="42">
         <v>1</v>
@@ -3981,7 +3975,7 @@
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
       <c r="B18" s="38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="42">
         <v>1</v>
@@ -3995,7 +3989,7 @@
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1">
       <c r="B19" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" s="42">
         <v>3.49</v>
@@ -4009,7 +4003,7 @@
     </row>
     <row r="20" spans="1:6" ht="13.5" customHeight="1">
       <c r="B20" s="38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" s="42">
         <v>7.17</v>
@@ -4032,7 +4026,7 @@
     </row>
     <row r="24" spans="1:6" ht="13.5" customHeight="1">
       <c r="A24" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -4055,7 +4049,7 @@
     <row r="26" spans="1:6" ht="13.5" customHeight="1">
       <c r="A26"/>
       <c r="B26" s="52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C26" s="51">
         <v>0.24</v>
@@ -4070,7 +4064,7 @@
     <row r="27" spans="1:6" ht="13.5" customHeight="1">
       <c r="A27"/>
       <c r="B27" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" s="51">
         <v>0.95</v>
@@ -4085,7 +4079,7 @@
     <row r="28" spans="1:6" ht="13.5" customHeight="1">
       <c r="A28"/>
       <c r="B28" s="52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C28" s="51">
         <v>3</v>
@@ -4100,7 +4094,7 @@
     <row r="29" spans="1:6" ht="13.5" customHeight="1">
       <c r="A29"/>
       <c r="B29" s="52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C29" s="51">
         <v>3.74</v>
@@ -4115,7 +4109,7 @@
     <row r="30" spans="1:6" ht="13.5" customHeight="1">
       <c r="A30"/>
       <c r="B30" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C30" s="51">
         <v>1.5</v>
@@ -4151,7 +4145,7 @@
     </row>
     <row r="34" spans="1:5" ht="13.5" customHeight="1">
       <c r="A34" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -4174,7 +4168,7 @@
     <row r="36" spans="1:5" ht="13.5" customHeight="1">
       <c r="A36"/>
       <c r="B36" s="52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" s="51">
         <v>2.2000000000000002</v>
@@ -4189,7 +4183,7 @@
     <row r="37" spans="1:5" ht="13.5" customHeight="1">
       <c r="A37"/>
       <c r="B37" s="52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C37" s="51">
         <v>1.42</v>
@@ -4204,7 +4198,7 @@
     <row r="38" spans="1:5" ht="13.5" customHeight="1">
       <c r="A38"/>
       <c r="B38" s="52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C38" s="51">
         <v>2.14</v>
@@ -4219,7 +4213,7 @@
     <row r="39" spans="1:5" ht="13.5" customHeight="1">
       <c r="A39"/>
       <c r="B39" s="52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C39" s="51">
         <v>0.66</v>
@@ -4242,7 +4236,7 @@
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1">
       <c r="A43" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
@@ -4265,7 +4259,7 @@
     <row r="45" spans="1:5" ht="13.5" customHeight="1">
       <c r="A45" s="35"/>
       <c r="B45" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C45" s="56">
         <v>2.5999999999999999E-2</v>
@@ -4280,7 +4274,7 @@
     <row r="46" spans="1:5" ht="13.5" customHeight="1">
       <c r="A46" s="35"/>
       <c r="B46" s="52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C46" s="56">
         <v>0.15</v>
@@ -4295,7 +4289,7 @@
     <row r="47" spans="1:5" ht="13.5" customHeight="1">
       <c r="A47" s="35"/>
       <c r="B47" s="52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C47" s="56">
         <v>0.1</v>
@@ -4310,7 +4304,7 @@
     <row r="48" spans="1:5" ht="13.5" customHeight="1">
       <c r="A48" s="35"/>
       <c r="B48" s="52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C48" s="56">
         <v>5.2999999999999999E-2</v>
@@ -4325,7 +4319,7 @@
     <row r="49" spans="1:5" ht="13.5" customHeight="1">
       <c r="A49" s="35"/>
       <c r="B49" s="52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C49" s="56">
         <v>0.16200000000000001</v>
@@ -4340,7 +4334,7 @@
     <row r="50" spans="1:5" ht="13.5" customHeight="1">
       <c r="A50" s="35"/>
       <c r="B50" s="52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C50" s="56">
         <v>0.11700000000000001</v>
@@ -4355,7 +4349,7 @@
     <row r="51" spans="1:5" ht="13.5" customHeight="1">
       <c r="A51" s="35"/>
       <c r="B51" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51" s="56">
         <v>0.09</v>
@@ -4370,7 +4364,7 @@
     <row r="52" spans="1:5" ht="13.5" customHeight="1">
       <c r="A52" s="35"/>
       <c r="B52" s="52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C52" s="56">
         <v>0.111</v>
@@ -4404,7 +4398,7 @@
     </row>
     <row r="56" spans="1:5" ht="13.5" customHeight="1">
       <c r="A56" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="13.5" customHeight="1">
@@ -4420,7 +4414,7 @@
     </row>
     <row r="58" spans="1:5" ht="13.5" customHeight="1">
       <c r="B58" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C58" s="41">
         <v>3.5999999999999999E-3</v>
@@ -4434,7 +4428,7 @@
     </row>
     <row r="59" spans="1:5" ht="13.5" customHeight="1">
       <c r="B59" s="38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C59" s="41">
         <v>3.5999999999999999E-3</v>
@@ -4448,7 +4442,7 @@
     </row>
     <row r="60" spans="1:5" ht="13.5" customHeight="1">
       <c r="B60" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C60" s="41">
         <v>5.7999999999999996E-3</v>
@@ -4462,7 +4456,7 @@
     </row>
     <row r="61" spans="1:5" ht="13.5" customHeight="1">
       <c r="B61" s="38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C61" s="41">
         <v>8.8000000000000005E-3</v>
@@ -4476,7 +4470,7 @@
     </row>
     <row r="62" spans="1:5" ht="13.5" customHeight="1">
       <c r="B62" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C62" s="41">
         <v>5.8999999999999997E-2</v>
@@ -4490,7 +4484,7 @@
     </row>
     <row r="63" spans="1:5" ht="13.5" customHeight="1">
       <c r="B63" s="38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C63" s="41">
         <v>0.32300000000000001</v>
@@ -4504,7 +4498,7 @@
     </row>
     <row r="64" spans="1:5" ht="13.5" customHeight="1">
       <c r="B64" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C64" s="41">
         <v>0.23</v>
@@ -4518,7 +4512,7 @@
     </row>
     <row r="65" spans="1:9" ht="13.5" customHeight="1">
       <c r="B65" s="38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C65" s="41">
         <v>2.17</v>
@@ -4541,7 +4535,7 @@
     </row>
     <row r="69" spans="1:9" ht="13.5" customHeight="1">
       <c r="A69" s="36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="13.5" customHeight="1">
@@ -4557,7 +4551,7 @@
     </row>
     <row r="71" spans="1:9" ht="13.5" customHeight="1">
       <c r="B71" s="38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C71" s="43">
         <v>0.95</v>
@@ -4574,7 +4568,7 @@
     </row>
     <row r="72" spans="1:9" ht="13.5" customHeight="1">
       <c r="B72" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C72" s="43">
         <v>0.57999999999999996</v>
@@ -4591,7 +4585,7 @@
     </row>
     <row r="73" spans="1:9" ht="13.5" customHeight="1">
       <c r="B73" s="38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C73" s="43">
         <v>0</v>
@@ -4608,7 +4602,7 @@
     </row>
     <row r="74" spans="1:9" ht="13.5" customHeight="1">
       <c r="B74" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C74" s="43">
         <v>2.65</v>
@@ -4625,7 +4619,7 @@
     </row>
     <row r="75" spans="1:9" ht="13.5" customHeight="1">
       <c r="B75" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C75" s="43">
         <v>0.54</v>
@@ -4642,7 +4636,7 @@
     </row>
     <row r="76" spans="1:9" ht="13.5" customHeight="1">
       <c r="B76" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C76" s="43">
         <v>0.9</v>
@@ -4659,7 +4653,7 @@
     </row>
     <row r="77" spans="1:9" ht="13.5" customHeight="1">
       <c r="B77" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C77" s="43">
         <v>0.73</v>
@@ -4676,7 +4670,7 @@
     </row>
     <row r="78" spans="1:9" ht="13.5" customHeight="1">
       <c r="B78" s="38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C78" s="43">
         <v>0.5</v>
@@ -4693,7 +4687,7 @@
     </row>
     <row r="79" spans="1:9" ht="13.5" customHeight="1">
       <c r="B79" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C79" s="43">
         <v>0.92</v>
@@ -4710,7 +4704,7 @@
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1">
       <c r="A83" s="31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
@@ -4733,7 +4727,7 @@
     <row r="85" spans="1:5">
       <c r="A85" s="28"/>
       <c r="B85" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C85" s="34">
         <v>0.14599999999999999</v>
@@ -4748,7 +4742,7 @@
     <row r="86" spans="1:5">
       <c r="A86" s="28"/>
       <c r="B86" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C86" s="34">
         <v>8.0000000000000002E-3</v>
@@ -4763,7 +4757,7 @@
     <row r="87" spans="1:5">
       <c r="A87" s="28"/>
       <c r="B87" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C87" s="34">
         <v>0.02</v>
@@ -4778,7 +4772,7 @@
     <row r="88" spans="1:5">
       <c r="A88" s="28"/>
       <c r="B88" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C88" s="34">
         <v>7.0000000000000007E-2</v>
@@ -4793,7 +4787,7 @@
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
       <c r="A89" s="28"/>
       <c r="B89" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C89" s="34">
         <v>0.26500000000000001</v>
@@ -4808,7 +4802,7 @@
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
       <c r="A90" s="28"/>
       <c r="B90" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C90" s="34">
         <v>0.54700000000000004</v>
@@ -4823,7 +4817,7 @@
     <row r="91" spans="1:5">
       <c r="A91" s="28"/>
       <c r="B91" s="33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C91" s="34">
         <v>5.2999999999999999E-2</v>
@@ -8196,17 +8190,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:25" ht="14">
       <c r="A1" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="14">
@@ -8552,382 +8546,140 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="14">
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="B17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
       <c r="X17" s="20" t="s">
         <v>21</v>
       </c>
       <c r="Y17" s="19">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="14">
-      <c r="B18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="20" t="s">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="14">
+      <c r="A21" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="14">
+      <c r="C22" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D22" s="18">
+        <v>2001</v>
+      </c>
+      <c r="E22" s="18">
+        <v>2002</v>
+      </c>
+      <c r="F22" s="18">
+        <v>2003</v>
+      </c>
+      <c r="G22" s="18">
+        <v>2004</v>
+      </c>
+      <c r="H22" s="18">
+        <v>2005</v>
+      </c>
+      <c r="I22" s="18">
+        <v>2006</v>
+      </c>
+      <c r="J22" s="18">
+        <v>2007</v>
+      </c>
+      <c r="K22" s="18">
+        <v>2008</v>
+      </c>
+      <c r="L22" s="18">
+        <v>2009</v>
+      </c>
+      <c r="M22" s="18">
+        <v>2010</v>
+      </c>
+      <c r="N22" s="18">
+        <v>2011</v>
+      </c>
+      <c r="O22" s="18">
+        <v>2012</v>
+      </c>
+      <c r="P22" s="18">
+        <v>2013</v>
+      </c>
+      <c r="Q22" s="18">
+        <v>2014</v>
+      </c>
+      <c r="R22" s="18">
+        <v>2015</v>
+      </c>
+      <c r="S22" s="18">
+        <v>2016</v>
+      </c>
+      <c r="T22" s="18">
+        <v>2017</v>
+      </c>
+      <c r="U22" s="18">
+        <v>2018</v>
+      </c>
+      <c r="V22" s="18">
+        <v>2019</v>
+      </c>
+      <c r="W22" s="18">
+        <v>2020</v>
+      </c>
+      <c r="Y22" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="14">
+      <c r="B23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Y18" s="19">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="14">
-      <c r="A22" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="14">
-      <c r="C23" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D23" s="18">
-        <v>2001</v>
-      </c>
-      <c r="E23" s="18">
-        <v>2002</v>
-      </c>
-      <c r="F23" s="18">
-        <v>2003</v>
-      </c>
-      <c r="G23" s="18">
-        <v>2004</v>
-      </c>
-      <c r="H23" s="18">
-        <v>2005</v>
-      </c>
-      <c r="I23" s="18">
-        <v>2006</v>
-      </c>
-      <c r="J23" s="18">
-        <v>2007</v>
-      </c>
-      <c r="K23" s="18">
-        <v>2008</v>
-      </c>
-      <c r="L23" s="18">
-        <v>2009</v>
-      </c>
-      <c r="M23" s="18">
-        <v>2010</v>
-      </c>
-      <c r="N23" s="18">
-        <v>2011</v>
-      </c>
-      <c r="O23" s="18">
-        <v>2012</v>
-      </c>
-      <c r="P23" s="18">
-        <v>2013</v>
-      </c>
-      <c r="Q23" s="18">
-        <v>2014</v>
-      </c>
-      <c r="R23" s="18">
-        <v>2015</v>
-      </c>
-      <c r="S23" s="18">
-        <v>2016</v>
-      </c>
-      <c r="T23" s="18">
-        <v>2017</v>
-      </c>
-      <c r="U23" s="18">
-        <v>2018</v>
-      </c>
-      <c r="V23" s="18">
-        <v>2019</v>
-      </c>
-      <c r="W23" s="18">
-        <v>2020</v>
-      </c>
-      <c r="Y23" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="14">
-      <c r="B24" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y24" s="19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="14">
-      <c r="A28" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="14">
-      <c r="C29" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D29" s="18">
-        <v>2001</v>
-      </c>
-      <c r="E29" s="18">
-        <v>2002</v>
-      </c>
-      <c r="F29" s="18">
-        <v>2003</v>
-      </c>
-      <c r="G29" s="18">
-        <v>2004</v>
-      </c>
-      <c r="H29" s="18">
-        <v>2005</v>
-      </c>
-      <c r="I29" s="18">
-        <v>2006</v>
-      </c>
-      <c r="J29" s="18">
-        <v>2007</v>
-      </c>
-      <c r="K29" s="18">
-        <v>2008</v>
-      </c>
-      <c r="L29" s="18">
-        <v>2009</v>
-      </c>
-      <c r="M29" s="18">
-        <v>2010</v>
-      </c>
-      <c r="N29" s="18">
-        <v>2011</v>
-      </c>
-      <c r="O29" s="18">
-        <v>2012</v>
-      </c>
-      <c r="P29" s="18">
-        <v>2013</v>
-      </c>
-      <c r="Q29" s="18">
-        <v>2014</v>
-      </c>
-      <c r="R29" s="18">
-        <v>2015</v>
-      </c>
-      <c r="S29" s="18">
-        <v>2016</v>
-      </c>
-      <c r="T29" s="18">
-        <v>2017</v>
-      </c>
-      <c r="U29" s="18">
-        <v>2018</v>
-      </c>
-      <c r="V29" s="18">
-        <v>2019</v>
-      </c>
-      <c r="W29" s="18">
-        <v>2020</v>
-      </c>
-      <c r="Y29" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="14">
-      <c r="B30" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y30" s="22">
+      <c r="Y23" s="22">
         <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="14">
-      <c r="A34" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" ht="14">
-      <c r="C35" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D35" s="18">
-        <v>2001</v>
-      </c>
-      <c r="E35" s="18">
-        <v>2002</v>
-      </c>
-      <c r="F35" s="18">
-        <v>2003</v>
-      </c>
-      <c r="G35" s="18">
-        <v>2004</v>
-      </c>
-      <c r="H35" s="18">
-        <v>2005</v>
-      </c>
-      <c r="I35" s="18">
-        <v>2006</v>
-      </c>
-      <c r="J35" s="18">
-        <v>2007</v>
-      </c>
-      <c r="K35" s="18">
-        <v>2008</v>
-      </c>
-      <c r="L35" s="18">
-        <v>2009</v>
-      </c>
-      <c r="M35" s="18">
-        <v>2010</v>
-      </c>
-      <c r="N35" s="18">
-        <v>2011</v>
-      </c>
-      <c r="O35" s="18">
-        <v>2012</v>
-      </c>
-      <c r="P35" s="18">
-        <v>2013</v>
-      </c>
-      <c r="Q35" s="18">
-        <v>2014</v>
-      </c>
-      <c r="R35" s="18">
-        <v>2015</v>
-      </c>
-      <c r="S35" s="18">
-        <v>2016</v>
-      </c>
-      <c r="T35" s="18">
-        <v>2017</v>
-      </c>
-      <c r="U35" s="18">
-        <v>2018</v>
-      </c>
-      <c r="V35" s="18">
-        <v>2019</v>
-      </c>
-      <c r="W35" s="18">
-        <v>2020</v>
-      </c>
-      <c r="Y35" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" ht="14">
-      <c r="B36" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y36" s="19">
-        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -8953,7 +8705,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="13.5" customHeight="1">
@@ -9092,7 +8844,7 @@
     </row>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1">
@@ -9233,7 +8985,7 @@
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.5" customHeight="1">
@@ -9372,7 +9124,7 @@
     </row>
     <row r="22" spans="1:25" ht="13.5" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="13.5" customHeight="1">
@@ -9511,7 +9263,7 @@
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
@@ -9650,7 +9402,7 @@
     </row>
     <row r="36" spans="1:25" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="13.5" customHeight="1">
@@ -9789,7 +9541,7 @@
     </row>
     <row r="43" spans="1:25" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="13.5" customHeight="1">
@@ -9895,7 +9647,7 @@
     </row>
     <row r="49" spans="1:25" ht="13.5" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="13.5" customHeight="1">

--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="11360" tabRatio="988" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="23760" windowHeight="11360" tabRatio="988" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="119">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -246,9 +246,6 @@
     <t>Percentage of HIV-positive women who breastfeed</t>
   </si>
   <si>
-    <t>Viral suppression when initiating ART (%)</t>
-  </si>
-  <si>
     <t>Number of HIV tests per year</t>
   </si>
   <si>
@@ -490,6 +487,9 @@
   </si>
   <si>
     <t>CD4 change due to non-suppressive ART (% per year)</t>
+  </si>
+  <si>
+    <t>Average time from initiating ART to achieving viral suppression (years)</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="176">
+  <cellStyleXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -888,8 +888,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -991,14 +993,19 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="10" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="176">
+  <cellStyles count="178">
     <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Comma 2 2" xfId="118"/>
     <cellStyle name="Comma 2 3" xfId="11"/>
@@ -1034,6 +1041,7 @@
     <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="22"/>
     <cellStyle name="Followed Hyperlink 11" xfId="23"/>
     <cellStyle name="Followed Hyperlink 12" xfId="24"/>
@@ -1156,6 +1164,7 @@
     <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5"/>
     <cellStyle name="Normal 2 2" xfId="116"/>
@@ -2181,7 +2190,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>100320</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2225,8 +2234,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>636120</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>75720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2276,8 +2285,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>636120</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>75720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2327,7 +2336,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2370,7 +2379,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3038,15 +3047,15 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1" ht="12.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="55"/>
+      <c r="A2" s="56"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
     </row>
     <row r="4" spans="1:1" ht="14">
       <c r="A4" s="1"/>
@@ -3090,7 +3099,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="13.5" customHeight="1">
@@ -3229,7 +3238,7 @@
     </row>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1">
@@ -3368,7 +3377,7 @@
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.5" customHeight="1">
@@ -3494,7 +3503,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -3541,7 +3550,7 @@
     </row>
     <row r="8" spans="1:4" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3588,7 +3597,7 @@
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3633,7 +3642,7 @@
     </row>
     <row r="22" spans="1:4" ht="13.5" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3666,7 +3675,7 @@
     </row>
     <row r="29" spans="1:4" ht="13.5" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -3691,7 +3700,7 @@
     </row>
     <row r="35" spans="1:4" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -3724,7 +3733,7 @@
     </row>
     <row r="42" spans="1:4" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3768,10 +3777,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3781,7 +3790,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1">
       <c r="A1" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -3804,7 +3813,7 @@
     <row r="3" spans="1:5" ht="13.5" customHeight="1">
       <c r="A3" s="45"/>
       <c r="B3" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="49">
         <v>4.0000000000000002E-4</v>
@@ -3819,7 +3828,7 @@
     <row r="4" spans="1:5" ht="13.5" customHeight="1">
       <c r="A4" s="45"/>
       <c r="B4" s="48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="49">
         <v>8.0000000000000004E-4</v>
@@ -3834,7 +3843,7 @@
     <row r="5" spans="1:5" ht="13.5" customHeight="1">
       <c r="A5" s="45"/>
       <c r="B5" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="49">
         <v>1.1000000000000001E-3</v>
@@ -3849,7 +3858,7 @@
     <row r="6" spans="1:5" ht="13.5" customHeight="1">
       <c r="A6" s="45"/>
       <c r="B6" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="49">
         <v>1.38E-2</v>
@@ -3864,7 +3873,7 @@
     <row r="7" spans="1:5" ht="13.5" customHeight="1">
       <c r="A7" s="45"/>
       <c r="B7" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="49">
         <v>8.0000000000000002E-3</v>
@@ -3879,7 +3888,7 @@
     <row r="8" spans="1:5" ht="13.5" customHeight="1">
       <c r="A8" s="45"/>
       <c r="B8" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="49">
         <v>0.36699999999999999</v>
@@ -3894,7 +3903,7 @@
     <row r="9" spans="1:5" ht="13.5" customHeight="1">
       <c r="A9" s="45"/>
       <c r="B9" s="48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="49">
         <v>0.20499999999999999</v>
@@ -3917,7 +3926,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1">
@@ -3933,7 +3942,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1">
       <c r="B15" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="50">
         <v>5.6</v>
@@ -3947,7 +3956,7 @@
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1">
       <c r="B16" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="42">
         <v>1</v>
@@ -3961,7 +3970,7 @@
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1">
       <c r="B17" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="42">
         <v>1</v>
@@ -3975,7 +3984,7 @@
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
       <c r="B18" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="42">
         <v>1</v>
@@ -3989,7 +3998,7 @@
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1">
       <c r="B19" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="42">
         <v>3.49</v>
@@ -4003,7 +4012,7 @@
     </row>
     <row r="20" spans="1:6" ht="13.5" customHeight="1">
       <c r="B20" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="42">
         <v>7.17</v>
@@ -4026,7 +4035,7 @@
     </row>
     <row r="24" spans="1:6" ht="13.5" customHeight="1">
       <c r="A24" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -4049,7 +4058,7 @@
     <row r="26" spans="1:6" ht="13.5" customHeight="1">
       <c r="A26"/>
       <c r="B26" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="51">
         <v>0.24</v>
@@ -4064,7 +4073,7 @@
     <row r="27" spans="1:6" ht="13.5" customHeight="1">
       <c r="A27"/>
       <c r="B27" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="51">
         <v>0.95</v>
@@ -4079,7 +4088,7 @@
     <row r="28" spans="1:6" ht="13.5" customHeight="1">
       <c r="A28"/>
       <c r="B28" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="51">
         <v>3</v>
@@ -4094,7 +4103,7 @@
     <row r="29" spans="1:6" ht="13.5" customHeight="1">
       <c r="A29"/>
       <c r="B29" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="51">
         <v>3.74</v>
@@ -4109,7 +4118,7 @@
     <row r="30" spans="1:6" ht="13.5" customHeight="1">
       <c r="A30"/>
       <c r="B30" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="51">
         <v>1.5</v>
@@ -4136,23 +4145,23 @@
       <c r="D32" s="53"/>
       <c r="E32" s="53"/>
     </row>
-    <row r="33" spans="1:5" ht="13.5" customHeight="1">
+    <row r="33" spans="1:6" ht="13.5" customHeight="1">
       <c r="A33" s="53"/>
       <c r="B33" s="54"/>
       <c r="C33" s="53"/>
       <c r="D33" s="53"/>
       <c r="E33" s="53"/>
     </row>
-    <row r="34" spans="1:5" ht="13.5" customHeight="1">
+    <row r="34" spans="1:6" ht="13.5" customHeight="1">
       <c r="A34" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" ht="13.5" customHeight="1">
+    <row r="35" spans="1:6" ht="13.5" customHeight="1">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" s="18" t="s">
@@ -4165,10 +4174,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="13.5" customHeight="1">
+    <row r="36" spans="1:6" ht="13.5" customHeight="1">
       <c r="A36"/>
       <c r="B36" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="51">
         <v>2.2000000000000002</v>
@@ -4180,10 +4189,10 @@
         <v>7.28</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="13.5" customHeight="1">
+    <row r="37" spans="1:6" ht="13.5" customHeight="1">
       <c r="A37"/>
       <c r="B37" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="51">
         <v>1.42</v>
@@ -4195,10 +4204,10 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="13.5" customHeight="1">
+    <row r="38" spans="1:6" ht="13.5" customHeight="1">
       <c r="A38"/>
       <c r="B38" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="51">
         <v>2.14</v>
@@ -4210,10 +4219,10 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="13.5" customHeight="1">
+    <row r="39" spans="1:6" ht="13.5" customHeight="1">
       <c r="A39"/>
       <c r="B39" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="51">
         <v>0.66</v>
@@ -4225,16 +4234,16 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="13.5" customHeight="1">
+    <row r="40" spans="1:6" ht="13.5" customHeight="1">
       <c r="B40" s="39"/>
     </row>
-    <row r="41" spans="1:5" ht="13.5" customHeight="1">
+    <row r="41" spans="1:6" ht="13.5" customHeight="1">
       <c r="B41" s="39"/>
     </row>
-    <row r="42" spans="1:5" ht="13.5" customHeight="1">
+    <row r="42" spans="1:6" ht="13.5" customHeight="1">
       <c r="B42" s="39"/>
     </row>
-    <row r="43" spans="1:5" ht="13.5" customHeight="1">
+    <row r="43" spans="1:6" ht="13.5" customHeight="1">
       <c r="A43" s="29" t="s">
         <v>118</v>
       </c>
@@ -4243,7 +4252,7 @@
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
     </row>
-    <row r="44" spans="1:5" ht="13.5" customHeight="1">
+    <row r="44" spans="1:6" ht="13.5" customHeight="1">
       <c r="A44" s="35"/>
       <c r="B44" s="35"/>
       <c r="C44" s="30" t="s">
@@ -4256,413 +4265,371 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="13.5" customHeight="1">
+    <row r="45" spans="1:6" ht="13.5" customHeight="1">
       <c r="A45" s="35"/>
       <c r="B45" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="56">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D45" s="56">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E45" s="56">
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="13.5" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="C45" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="D45" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="E45" s="57">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="13.5" customHeight="1">
       <c r="A46" s="35"/>
-      <c r="B46" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="56">
-        <v>0.15</v>
-      </c>
-      <c r="D46" s="56">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E46" s="56">
-        <v>0.88500000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="1:6" ht="13.5" customHeight="1">
       <c r="A47" s="35"/>
-      <c r="B47" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="D47" s="56">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="E47" s="56">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A48" s="35"/>
-      <c r="B48" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="56">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="D48" s="56">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E48" s="56">
-        <v>0.82699999999999996</v>
-      </c>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+    </row>
+    <row r="48" spans="1:6" customFormat="1" ht="12">
+      <c r="A48" s="58"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
     </row>
     <row r="49" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A49" s="35"/>
-      <c r="B49" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="56">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="D49" s="56">
-        <v>0.05</v>
-      </c>
-      <c r="E49" s="56">
-        <v>0.86899999999999999</v>
-      </c>
+      <c r="A49" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
     </row>
     <row r="50" spans="1:5" ht="13.5" customHeight="1">
       <c r="A50" s="35"/>
-      <c r="B50" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="56">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="D50" s="56">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E50" s="56">
-        <v>0.68600000000000005</v>
+      <c r="B50" s="35"/>
+      <c r="C50" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="13.5" customHeight="1">
       <c r="A51" s="35"/>
       <c r="B51" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="56">
-        <v>0.09</v>
-      </c>
-      <c r="D51" s="56">
-        <v>1.9E-2</v>
-      </c>
-      <c r="E51" s="56">
-        <v>0.72299999999999998</v>
+        <v>80</v>
+      </c>
+      <c r="C51" s="55">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D51" s="55">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E51" s="55">
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="13.5" customHeight="1">
       <c r="A52" s="35"/>
       <c r="B52" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="55">
+        <v>0.15</v>
+      </c>
+      <c r="D52" s="55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E52" s="55">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A53" s="35"/>
+      <c r="B53" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="D53" s="55">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E53" s="55">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A54" s="35"/>
+      <c r="B54" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="55">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D54" s="55">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E54" s="55">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A55" s="35"/>
+      <c r="B55" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="55">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D55" s="55">
+        <v>0.05</v>
+      </c>
+      <c r="E55" s="55">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A56" s="35"/>
+      <c r="B56" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="55">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D56" s="55">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E56" s="55">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A57" s="35"/>
+      <c r="B57" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="55">
+        <v>0.09</v>
+      </c>
+      <c r="D57" s="55">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E57" s="55">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A58" s="35"/>
+      <c r="B58" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="55">
+        <v>0.111</v>
+      </c>
+      <c r="D58" s="55">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E58" s="55">
+        <v>0.56299999999999994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+    </row>
+    <row r="60" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+    </row>
+    <row r="62" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A62" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="56">
-        <v>0.111</v>
-      </c>
-      <c r="D52" s="56">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E52" s="56">
-        <v>0.56299999999999994</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-    </row>
-    <row r="54" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-    </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-    </row>
-    <row r="56" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A56" s="36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C57" s="37" t="s">
+    </row>
+    <row r="63" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C63" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="37" t="s">
+      <c r="D63" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="37" t="s">
+      <c r="E63" s="37" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B58" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="41">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D58" s="41">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="E58" s="41">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B59" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="41">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D59" s="41">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="E59" s="41">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B60" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="41">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="D60" s="41">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="E60" s="41">
-        <v>7.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B61" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="41">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="D61" s="41">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E61" s="41">
-        <v>1.01E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B62" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="41">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="D62" s="41">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E62" s="41">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B63" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="41">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="D63" s="41">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="E63" s="41">
-        <v>0.432</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="13.5" customHeight="1">
       <c r="B64" s="38" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C64" s="41">
-        <v>0.23</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="D64" s="41">
-        <v>0.15</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="E64" s="41">
-        <v>0.3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="13.5" customHeight="1">
       <c r="B65" s="38" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C65" s="41">
-        <v>2.17</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="D65" s="41">
-        <v>1.27</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="E65" s="41">
-        <v>3.71</v>
+        <v>4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B66" s="39"/>
+      <c r="B66" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="41">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="D66" s="41">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E66" s="41">
+        <v>7.1000000000000004E-3</v>
+      </c>
     </row>
     <row r="67" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B67" s="39"/>
+      <c r="B67" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="41">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D67" s="41">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E67" s="41">
+        <v>1.01E-2</v>
+      </c>
     </row>
     <row r="68" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B68" s="39"/>
+      <c r="B68" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="41">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D68" s="41">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E68" s="41">
+        <v>7.9000000000000001E-2</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A69" s="36" t="s">
-        <v>97</v>
+      <c r="B69" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="41">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D69" s="41">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E69" s="41">
+        <v>0.432</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="13.5" customHeight="1">
-      <c r="C70" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>20</v>
+      <c r="B70" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="41">
+        <v>0.23</v>
+      </c>
+      <c r="D70" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="E70" s="41">
+        <v>0.3</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="13.5" customHeight="1">
       <c r="B71" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71" s="43">
-        <v>0.95</v>
-      </c>
-      <c r="D71" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="E71" s="43">
-        <v>0.98</v>
-      </c>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
+        <v>95</v>
+      </c>
+      <c r="C71" s="41">
+        <v>2.17</v>
+      </c>
+      <c r="D71" s="41">
+        <v>1.27</v>
+      </c>
+      <c r="E71" s="41">
+        <v>3.71</v>
+      </c>
     </row>
     <row r="72" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B72" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="C72" s="43">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D72" s="43">
-        <v>0.47</v>
-      </c>
-      <c r="E72" s="43">
-        <v>0.67</v>
-      </c>
-      <c r="G72" s="44"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="44"/>
+      <c r="B72" s="39"/>
     </row>
     <row r="73" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B73" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="C73" s="43">
-        <v>0</v>
-      </c>
-      <c r="D73" s="43">
-        <v>0</v>
-      </c>
-      <c r="E73" s="43">
-        <v>0.68</v>
-      </c>
-      <c r="G73" s="44"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="44"/>
+      <c r="B73" s="39"/>
     </row>
     <row r="74" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B74" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C74" s="43">
-        <v>2.65</v>
-      </c>
-      <c r="D74" s="43">
-        <v>1.35</v>
-      </c>
-      <c r="E74" s="43">
-        <v>5.19</v>
-      </c>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
+      <c r="B74" s="39"/>
     </row>
     <row r="75" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B75" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="C75" s="43">
-        <v>0.54</v>
-      </c>
-      <c r="D75" s="43">
-        <v>0.33</v>
-      </c>
-      <c r="E75" s="43">
-        <v>0.68</v>
-      </c>
-      <c r="G75" s="44"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="44"/>
+      <c r="A75" s="36" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="76" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B76" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C76" s="43">
-        <v>0.9</v>
-      </c>
-      <c r="D76" s="43">
-        <v>0.82</v>
-      </c>
-      <c r="E76" s="43">
-        <v>0.93</v>
-      </c>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="44"/>
+      <c r="C76" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="37" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="77" spans="1:9" ht="13.5" customHeight="1">
       <c r="B77" s="38" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C77" s="43">
-        <v>0.73</v>
+        <v>0.95</v>
       </c>
       <c r="D77" s="43">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="E77" s="43">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="G77" s="44"/>
       <c r="H77" s="44"/>
@@ -4670,16 +4637,16 @@
     </row>
     <row r="78" spans="1:9" ht="13.5" customHeight="1">
       <c r="B78" s="38" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C78" s="43">
-        <v>0.5</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D78" s="43">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
       <c r="E78" s="43">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="G78" s="44"/>
       <c r="H78" s="44"/>
@@ -4687,145 +4654,247 @@
     </row>
     <row r="79" spans="1:9" ht="13.5" customHeight="1">
       <c r="B79" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="43">
+        <v>0</v>
+      </c>
+      <c r="D79" s="43">
+        <v>0</v>
+      </c>
+      <c r="E79" s="43">
+        <v>0.68</v>
+      </c>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+    </row>
+    <row r="80" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B80" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="43">
+        <v>2.65</v>
+      </c>
+      <c r="D80" s="43">
+        <v>1.35</v>
+      </c>
+      <c r="E80" s="43">
+        <v>5.19</v>
+      </c>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+    </row>
+    <row r="81" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B81" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="43">
+        <v>0.54</v>
+      </c>
+      <c r="D81" s="43">
+        <v>0.33</v>
+      </c>
+      <c r="E81" s="43">
+        <v>0.68</v>
+      </c>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
+    </row>
+    <row r="82" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B82" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="D82" s="43">
+        <v>0.82</v>
+      </c>
+      <c r="E82" s="43">
+        <v>0.93</v>
+      </c>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+    </row>
+    <row r="83" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B83" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" s="43">
+        <v>0.73</v>
+      </c>
+      <c r="D83" s="43">
+        <v>0.65</v>
+      </c>
+      <c r="E83" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+    </row>
+    <row r="84" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B84" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="D84" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="E84" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+    </row>
+    <row r="85" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B85" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" s="43">
+        <v>0.92</v>
+      </c>
+      <c r="D85" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="E85" s="43">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B86" s="39"/>
+    </row>
+    <row r="89" spans="1:9" ht="15" customHeight="1">
+      <c r="A89" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C79" s="43">
-        <v>0.92</v>
-      </c>
-      <c r="D79" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="E79" s="43">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B80" s="39"/>
-    </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1">
-      <c r="A83" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="32" t="s">
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="28"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="32" t="s">
+      <c r="D90" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E84" s="32" t="s">
+      <c r="E90" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="28"/>
-      <c r="B85" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C85" s="34">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="D85" s="34">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="E85" s="34">
-        <v>0.20499999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="28"/>
-      <c r="B86" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C86" s="34">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D86" s="34">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E86" s="34">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="28"/>
-      <c r="B87" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C87" s="34">
-        <v>0.02</v>
-      </c>
-      <c r="D87" s="34">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E87" s="34">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="28"/>
-      <c r="B88" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C88" s="34">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D88" s="34">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E88" s="34">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="28"/>
-      <c r="B89" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C89" s="34">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D89" s="34">
-        <v>0.114</v>
-      </c>
-      <c r="E89" s="34">
-        <v>0.47399999999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="28"/>
-      <c r="B90" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C90" s="34">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="D90" s="34">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E90" s="34">
-        <v>0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:9">
       <c r="A91" s="28"/>
       <c r="B91" s="33" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C91" s="34">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D91" s="34">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E91" s="34">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="28"/>
+      <c r="B92" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="34">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D92" s="34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E92" s="34">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="28"/>
+      <c r="B93" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="34">
+        <v>0.02</v>
+      </c>
+      <c r="D93" s="34">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E93" s="34">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="28"/>
+      <c r="B94" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" s="34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D94" s="34">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E94" s="34">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A95" s="28"/>
+      <c r="B95" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" s="34">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D95" s="34">
+        <v>0.114</v>
+      </c>
+      <c r="E95" s="34">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A96" s="28"/>
+      <c r="B96" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" s="34">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D96" s="34">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E96" s="34">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="28"/>
+      <c r="B97" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C97" s="34">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="D91" s="34">
+      <c r="D97" s="34">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E91" s="34">
+      <c r="E97" s="34">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
@@ -6025,10 +6094,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y47"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -6868,111 +6937,6 @@
       <c r="Y41" s="16">
         <f>14/100*87/100</f>
         <v>0.12180000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" ht="14">
-      <c r="A45" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" ht="14">
-      <c r="C46" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D46" s="18">
-        <v>2001</v>
-      </c>
-      <c r="E46" s="18">
-        <v>2002</v>
-      </c>
-      <c r="F46" s="18">
-        <v>2003</v>
-      </c>
-      <c r="G46" s="18">
-        <v>2004</v>
-      </c>
-      <c r="H46" s="18">
-        <v>2005</v>
-      </c>
-      <c r="I46" s="18">
-        <v>2006</v>
-      </c>
-      <c r="J46" s="18">
-        <v>2007</v>
-      </c>
-      <c r="K46" s="18">
-        <v>2008</v>
-      </c>
-      <c r="L46" s="18">
-        <v>2009</v>
-      </c>
-      <c r="M46" s="18">
-        <v>2010</v>
-      </c>
-      <c r="N46" s="18">
-        <v>2011</v>
-      </c>
-      <c r="O46" s="18">
-        <v>2012</v>
-      </c>
-      <c r="P46" s="18">
-        <v>2013</v>
-      </c>
-      <c r="Q46" s="18">
-        <v>2014</v>
-      </c>
-      <c r="R46" s="18">
-        <v>2015</v>
-      </c>
-      <c r="S46" s="18">
-        <v>2016</v>
-      </c>
-      <c r="T46" s="18">
-        <v>2017</v>
-      </c>
-      <c r="U46" s="18">
-        <v>2018</v>
-      </c>
-      <c r="V46" s="18">
-        <v>2019</v>
-      </c>
-      <c r="W46" s="18">
-        <v>2020</v>
-      </c>
-      <c r="Y46" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" ht="14">
-      <c r="B47" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="19"/>
-      <c r="X47" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y47" s="19">
-        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -7000,7 +6964,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="13.5" customHeight="1">
@@ -7103,7 +7067,7 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
@@ -7206,7 +7170,7 @@
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
@@ -7309,7 +7273,7 @@
     </row>
     <row r="19" spans="1:25" ht="13.5" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
@@ -7412,7 +7376,7 @@
     </row>
     <row r="25" spans="1:25" ht="13.5" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
@@ -7515,7 +7479,7 @@
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
@@ -7618,7 +7582,7 @@
     </row>
     <row r="37" spans="1:25" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="13.5" customHeight="1">
@@ -7724,7 +7688,7 @@
     <row r="42" spans="1:25" ht="15" customHeight="1"/>
     <row r="43" spans="1:25" ht="14">
       <c r="A43" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="14">
@@ -7827,7 +7791,7 @@
     </row>
     <row r="49" spans="1:35" ht="14">
       <c r="A49" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:35" ht="14">
@@ -7930,7 +7894,7 @@
     </row>
     <row r="55" spans="1:35" ht="15" customHeight="1">
       <c r="A55" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:35" ht="15" customHeight="1">
@@ -8033,7 +7997,7 @@
     </row>
     <row r="61" spans="1:35" ht="14">
       <c r="A61" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:35" ht="14">
@@ -8192,15 +8156,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:25" ht="14">
       <c r="A1" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="14">
@@ -8337,7 +8301,7 @@
     </row>
     <row r="8" spans="1:25" ht="14">
       <c r="A8" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="14">
@@ -8474,7 +8438,7 @@
     </row>
     <row r="15" spans="1:25" ht="14">
       <c r="A15" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="14">
@@ -8579,7 +8543,7 @@
     </row>
     <row r="21" spans="1:25" ht="14">
       <c r="A21" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="14">
@@ -8705,7 +8669,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="13.5" customHeight="1">
@@ -8844,7 +8808,7 @@
     </row>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1">
@@ -8985,7 +8949,7 @@
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.5" customHeight="1">
@@ -9124,7 +9088,7 @@
     </row>
     <row r="22" spans="1:25" ht="13.5" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="13.5" customHeight="1">
@@ -9263,7 +9227,7 @@
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
@@ -9402,7 +9366,7 @@
     </row>
     <row r="36" spans="1:25" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="13.5" customHeight="1">
@@ -9541,7 +9505,7 @@
     </row>
     <row r="43" spans="1:25" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="13.5" customHeight="1">
@@ -9647,7 +9611,7 @@
     </row>
     <row r="49" spans="1:25" ht="13.5" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="13.5" customHeight="1">

--- a/tests/simple.xlsx
+++ b/tests/simple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="23760" windowHeight="11360" tabRatio="988" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="9860" yWindow="480" windowWidth="23760" windowHeight="12240" tabRatio="988" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="120">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Percentage of people in care who are lost to follow-up per year (%/year)</t>
   </si>
   <si>
-    <t>Biological failure rate (%/year)</t>
-  </si>
-  <si>
     <t>Viral load monitoring (number/year)</t>
   </si>
   <si>
@@ -417,9 +414,6 @@
     <t>CD4(350-500)</t>
   </si>
   <si>
-    <t>On treatment</t>
-  </si>
-  <si>
     <t>Tuberculosis cofactor</t>
   </si>
   <si>
@@ -483,13 +477,22 @@
     <t>Disease progression (average years to move)</t>
   </si>
   <si>
-    <t>Treatment recovery on suppressive ART (average years to move)</t>
-  </si>
-  <si>
-    <t>CD4 change due to non-suppressive ART (% per year)</t>
-  </si>
-  <si>
-    <t>Average time from initiating ART to achieving viral suppression (years)</t>
+    <t>Time after initiating ART to achieve viral suppression (years)</t>
+  </si>
+  <si>
+    <t>Relative death rate on suppressive ART</t>
+  </si>
+  <si>
+    <t>Relative death rate on non-suppressive ART</t>
+  </si>
+  <si>
+    <t>Treatment recovery due to suppressive ART (average years to move)</t>
+  </si>
+  <si>
+    <t>CD4 change due to non-suppressive ART (%/year)</t>
+  </si>
+  <si>
+    <t>Treatment failure rate</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -610,11 +613,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
@@ -711,7 +709,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="178">
+  <cellStyleXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -838,60 +836,62 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf n